--- a/Documentação/Gestão/Ata - Sprint 2 - Strawtech.xlsx
+++ b/Documentação/Gestão/Ata - Sprint 2 - Strawtech.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fb330565894022c/Área de Trabalho/Strawtech/Sprint2/Sprint2/Documentação/Gestão/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_C8605842C2B98F028CF30DB4C4E0C02544182BBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7E1982-B571-4202-B07D-9F2387FF2FE8}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_C8605842C2B98F028CF30DB4C4E0C02544182BBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA46B5D-BD16-419F-90FF-E4F6D1E0D79F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>ATA - PROJETO STRAWTECH</t>
   </si>
@@ -174,6 +187,9 @@
 •Foi definido que Gustavo Fernandes atualizará as tabelas do banco de dados e juntamente com o Gustavo Bueno implementarão os códigos de validação
 •Foi definido que Robson e José terminarão o css da página home e produto</t>
   </si>
+  <si>
+    <t>23/10</t>
+  </si>
 </sst>
 </file>
 
@@ -194,11 +210,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +227,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -239,11 +258,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -408,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -539,14 +560,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,21 +795,21 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="71" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" customWidth="1"/>
+    <col min="7" max="7" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -812,16 +836,16 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -841,7 +865,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -880,7 +904,7 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="8">
         <v>45194</v>
@@ -919,7 +943,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="12">
         <v>45195</v>
@@ -958,7 +982,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="108" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="8">
         <v>45196</v>
@@ -997,7 +1021,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="12">
         <v>45197</v>
@@ -1036,7 +1060,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="8">
         <v>45198</v>
@@ -1075,7 +1099,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="12">
         <v>45201</v>
@@ -1114,7 +1138,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="8">
         <v>45202</v>
@@ -1153,7 +1177,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="12">
         <v>45203</v>
@@ -1192,7 +1216,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="8">
         <v>45204</v>
@@ -1231,7 +1255,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="12">
         <v>45205</v>
@@ -1270,7 +1294,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="8">
         <v>45208</v>
@@ -1309,7 +1333,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="18">
         <v>45209</v>
@@ -1348,7 +1372,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="23">
         <v>45210</v>
@@ -1387,7 +1411,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="28">
         <v>45211</v>
@@ -1426,7 +1450,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="23">
         <v>45212</v>
@@ -1465,7 +1489,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="28">
         <v>45215</v>
@@ -1504,7 +1528,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="23">
         <v>45216</v>
@@ -1543,7 +1567,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="28">
         <v>45217</v>
@@ -1582,7 +1606,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="23">
         <v>45218</v>
@@ -1621,7 +1645,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="28">
         <v>45219</v>
@@ -1660,10 +1684,10 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="90" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="44">
-        <v>45222</v>
+      <c r="B24" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="9">
         <v>0.83333333333333337</v>
@@ -1681,7 +1705,7 @@
         <v>27</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1699,7 +1723,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="36"/>
       <c r="C25" s="14"/>
@@ -1726,7 +1750,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -1753,7 +1777,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -1780,7 +1804,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -1807,7 +1831,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:25" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -1834,7 +1858,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -1861,7 +1885,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -1888,7 +1912,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1915,7 +1939,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1942,7 +1966,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="41"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1969,7 +1993,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="41"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1996,7 +2020,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2023,7 +2047,7 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
     </row>
-    <row r="37" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2050,7 +2074,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2077,7 +2101,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="41"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2104,7 +2128,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
     </row>
-    <row r="40" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2131,7 +2155,7 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="41"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2158,7 +2182,7 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="41"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2185,7 +2209,7 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="41"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2212,7 +2236,7 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="41"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2239,7 +2263,7 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2266,7 +2290,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2293,7 +2317,7 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
     </row>
-    <row r="47" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2320,7 +2344,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
     </row>
-    <row r="48" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="41"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2347,7 +2371,7 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
     </row>
-    <row r="49" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2374,7 +2398,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
     </row>
-    <row r="50" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="41"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2401,7 +2425,7 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
     </row>
-    <row r="51" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="41"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2428,7 +2452,7 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
     </row>
-    <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="41"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2455,7 +2479,7 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
     </row>
-    <row r="53" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="41"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2482,7 +2506,7 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
     </row>
-    <row r="54" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="41"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2509,7 +2533,7 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
     </row>
-    <row r="55" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="41"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2536,7 +2560,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
     </row>
-    <row r="56" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="41"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2563,7 +2587,7 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
     </row>
-    <row r="57" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="41"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2590,7 +2614,7 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
     </row>
-    <row r="58" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="41"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2617,7 +2641,7 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
     </row>
-    <row r="59" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="41"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2644,7 +2668,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
     </row>
-    <row r="60" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -2671,7 +2695,7 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
     </row>
-    <row r="61" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -2698,7 +2722,7 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
     </row>
-    <row r="62" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -2725,7 +2749,7 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
     </row>
-    <row r="63" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -2752,7 +2776,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
     </row>
-    <row r="64" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -2779,7 +2803,7 @@
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
     </row>
-    <row r="65" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -2806,7 +2830,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
     </row>
-    <row r="66" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -2833,7 +2857,7 @@
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
     </row>
-    <row r="67" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -2860,7 +2884,7 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
     </row>
-    <row r="68" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -2887,7 +2911,7 @@
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
     </row>
-    <row r="69" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -2914,7 +2938,7 @@
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
     </row>
-    <row r="70" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -2941,7 +2965,7 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
     </row>
-    <row r="71" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -2968,7 +2992,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
     </row>
-    <row r="72" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -2995,7 +3019,7 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
     </row>
-    <row r="73" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -3022,7 +3046,7 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
     </row>
-    <row r="74" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -3049,7 +3073,7 @@
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
     </row>
-    <row r="75" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -3076,7 +3100,7 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
     </row>
-    <row r="76" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -3103,7 +3127,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
     </row>
-    <row r="77" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -3130,7 +3154,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
     </row>
-    <row r="78" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -3157,7 +3181,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -3184,7 +3208,7 @@
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
     </row>
-    <row r="80" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -3211,7 +3235,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
     </row>
-    <row r="81" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -3238,7 +3262,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
     </row>
-    <row r="82" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -3265,7 +3289,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
     </row>
-    <row r="83" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
@@ -3292,7 +3316,7 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
     </row>
-    <row r="84" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
@@ -3319,7 +3343,7 @@
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
     </row>
-    <row r="85" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -3346,7 +3370,7 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
     </row>
-    <row r="86" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
@@ -3373,7 +3397,7 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
     </row>
-    <row r="87" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
@@ -3400,7 +3424,7 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
     </row>
-    <row r="88" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
@@ -3427,7 +3451,7 @@
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
     </row>
-    <row r="89" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
@@ -3454,7 +3478,7 @@
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
     </row>
-    <row r="90" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
@@ -3481,7 +3505,7 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
     </row>
-    <row r="91" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
@@ -3508,7 +3532,7 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
     </row>
-    <row r="92" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
@@ -3535,7 +3559,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
     </row>
-    <row r="93" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
@@ -3562,7 +3586,7 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
     </row>
-    <row r="94" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
@@ -3589,7 +3613,7 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
     </row>
-    <row r="95" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
@@ -3616,7 +3640,7 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
     </row>
-    <row r="96" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -3643,7 +3667,7 @@
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
     </row>
-    <row r="97" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -3670,7 +3694,7 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
     </row>
-    <row r="98" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -3697,7 +3721,7 @@
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
     </row>
-    <row r="99" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -3724,7 +3748,7 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
     </row>
-    <row r="100" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="43"/>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
@@ -3751,7 +3775,7 @@
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
     </row>
-    <row r="101" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -3778,7 +3802,7 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
     </row>
-    <row r="102" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -3805,7 +3829,7 @@
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
     </row>
-    <row r="103" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="43"/>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
@@ -3832,7 +3856,7 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
     </row>
-    <row r="104" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="43"/>
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
@@ -3859,7 +3883,7 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
     </row>
-    <row r="105" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="43"/>
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
@@ -3886,7 +3910,7 @@
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
     </row>
-    <row r="106" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="43"/>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
@@ -3913,7 +3937,7 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
     </row>
-    <row r="107" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="43"/>
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
@@ -3940,7 +3964,7 @@
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
     </row>
-    <row r="108" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="43"/>
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
@@ -3967,7 +3991,7 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
     </row>
-    <row r="109" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="43"/>
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
@@ -3994,7 +4018,7 @@
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
     </row>
-    <row r="110" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="43"/>
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
@@ -4021,7 +4045,7 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
     </row>
-    <row r="111" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="43"/>
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
@@ -4048,7 +4072,7 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
     </row>
-    <row r="112" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="43"/>
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
@@ -4075,7 +4099,7 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
     </row>
-    <row r="113" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="43"/>
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
@@ -4102,7 +4126,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
     </row>
-    <row r="114" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="43"/>
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
@@ -4129,7 +4153,7 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
     </row>
-    <row r="115" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="43"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
@@ -4156,7 +4180,7 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
     </row>
-    <row r="116" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="43"/>
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
@@ -4183,7 +4207,7 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
     </row>
-    <row r="117" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="43"/>
       <c r="B117" s="43"/>
       <c r="C117" s="43"/>
@@ -4210,7 +4234,7 @@
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
     </row>
-    <row r="118" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="43"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
@@ -4237,7 +4261,7 @@
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
     </row>
-    <row r="119" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="43"/>
       <c r="B119" s="43"/>
       <c r="C119" s="43"/>
@@ -4264,7 +4288,7 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
     </row>
-    <row r="120" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="43"/>
       <c r="B120" s="43"/>
       <c r="C120" s="43"/>
@@ -4291,7 +4315,7 @@
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
     </row>
-    <row r="121" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="C121" s="43"/>
@@ -4318,7 +4342,7 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
     </row>
-    <row r="122" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="C122" s="43"/>
@@ -4345,7 +4369,7 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
     </row>
-    <row r="123" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="43"/>
       <c r="B123" s="43"/>
       <c r="C123" s="43"/>
@@ -4372,7 +4396,7 @@
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
     </row>
-    <row r="124" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="C124" s="43"/>
@@ -4399,7 +4423,7 @@
       <c r="X124" s="4"/>
       <c r="Y124" s="4"/>
     </row>
-    <row r="125" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
@@ -4426,7 +4450,7 @@
       <c r="X125" s="4"/>
       <c r="Y125" s="4"/>
     </row>
-    <row r="126" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="43"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
@@ -4453,7 +4477,7 @@
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
     </row>
-    <row r="127" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="43"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
@@ -4480,7 +4504,7 @@
       <c r="X127" s="4"/>
       <c r="Y127" s="4"/>
     </row>
-    <row r="128" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
@@ -4507,7 +4531,7 @@
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
     </row>
-    <row r="129" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
@@ -4534,7 +4558,7 @@
       <c r="X129" s="4"/>
       <c r="Y129" s="4"/>
     </row>
-    <row r="130" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="43"/>
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
@@ -4561,7 +4585,7 @@
       <c r="X130" s="4"/>
       <c r="Y130" s="4"/>
     </row>
-    <row r="131" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="43"/>
       <c r="B131" s="43"/>
       <c r="C131" s="43"/>
@@ -4588,7 +4612,7 @@
       <c r="X131" s="4"/>
       <c r="Y131" s="4"/>
     </row>
-    <row r="132" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="43"/>
       <c r="B132" s="43"/>
       <c r="C132" s="43"/>
@@ -4615,7 +4639,7 @@
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
     </row>
-    <row r="133" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="43"/>
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
@@ -4642,7 +4666,7 @@
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
     </row>
-    <row r="134" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="43"/>
       <c r="B134" s="43"/>
       <c r="C134" s="43"/>
@@ -4669,7 +4693,7 @@
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
     </row>
-    <row r="135" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="43"/>
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
@@ -4696,7 +4720,7 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
     </row>
-    <row r="136" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="43"/>
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
@@ -4723,7 +4747,7 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
     </row>
-    <row r="137" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
@@ -4750,7 +4774,7 @@
       <c r="X137" s="4"/>
       <c r="Y137" s="4"/>
     </row>
-    <row r="138" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
@@ -4777,7 +4801,7 @@
       <c r="X138" s="4"/>
       <c r="Y138" s="4"/>
     </row>
-    <row r="139" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="43"/>
       <c r="B139" s="43"/>
       <c r="C139" s="43"/>
@@ -4804,7 +4828,7 @@
       <c r="X139" s="4"/>
       <c r="Y139" s="4"/>
     </row>
-    <row r="140" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="43"/>
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
@@ -4831,7 +4855,7 @@
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
     </row>
-    <row r="141" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="43"/>
       <c r="B141" s="43"/>
       <c r="C141" s="43"/>
@@ -4858,7 +4882,7 @@
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
     </row>
-    <row r="142" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="43"/>
       <c r="B142" s="43"/>
       <c r="C142" s="43"/>
@@ -4885,7 +4909,7 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
     </row>
-    <row r="143" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="43"/>
       <c r="B143" s="43"/>
       <c r="C143" s="43"/>
@@ -4912,7 +4936,7 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
     </row>
-    <row r="144" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="43"/>
       <c r="B144" s="43"/>
       <c r="C144" s="43"/>
@@ -4939,7 +4963,7 @@
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
     </row>
-    <row r="145" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="43"/>
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
@@ -4966,7 +4990,7 @@
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
     </row>
-    <row r="146" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="43"/>
       <c r="B146" s="43"/>
       <c r="C146" s="43"/>
@@ -4993,7 +5017,7 @@
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
     </row>
-    <row r="147" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="43"/>
       <c r="B147" s="43"/>
       <c r="C147" s="43"/>
@@ -5020,7 +5044,7 @@
       <c r="X147" s="4"/>
       <c r="Y147" s="4"/>
     </row>
-    <row r="148" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="43"/>
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
@@ -5047,7 +5071,7 @@
       <c r="X148" s="4"/>
       <c r="Y148" s="4"/>
     </row>
-    <row r="149" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="43"/>
       <c r="B149" s="43"/>
       <c r="C149" s="43"/>
@@ -5074,7 +5098,7 @@
       <c r="X149" s="4"/>
       <c r="Y149" s="4"/>
     </row>
-    <row r="150" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="43"/>
       <c r="B150" s="43"/>
       <c r="C150" s="43"/>
@@ -5101,7 +5125,7 @@
       <c r="X150" s="4"/>
       <c r="Y150" s="4"/>
     </row>
-    <row r="151" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="43"/>
       <c r="B151" s="43"/>
       <c r="C151" s="43"/>
@@ -5128,7 +5152,7 @@
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
     </row>
-    <row r="152" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="43"/>
       <c r="B152" s="43"/>
       <c r="C152" s="43"/>
@@ -5155,7 +5179,7 @@
       <c r="X152" s="4"/>
       <c r="Y152" s="4"/>
     </row>
-    <row r="153" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="43"/>
       <c r="B153" s="43"/>
       <c r="C153" s="43"/>
@@ -5182,7 +5206,7 @@
       <c r="X153" s="4"/>
       <c r="Y153" s="4"/>
     </row>
-    <row r="154" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="43"/>
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
@@ -5209,7 +5233,7 @@
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
     </row>
-    <row r="155" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="43"/>
       <c r="B155" s="43"/>
       <c r="C155" s="43"/>
@@ -5236,7 +5260,7 @@
       <c r="X155" s="4"/>
       <c r="Y155" s="4"/>
     </row>
-    <row r="156" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="43"/>
       <c r="B156" s="43"/>
       <c r="C156" s="43"/>
@@ -5263,7 +5287,7 @@
       <c r="X156" s="4"/>
       <c r="Y156" s="4"/>
     </row>
-    <row r="157" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="43"/>
       <c r="B157" s="43"/>
       <c r="C157" s="43"/>
@@ -5290,7 +5314,7 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
     </row>
-    <row r="158" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="43"/>
       <c r="B158" s="43"/>
       <c r="C158" s="43"/>
@@ -5317,7 +5341,7 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
     </row>
-    <row r="159" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="43"/>
       <c r="B159" s="43"/>
       <c r="C159" s="43"/>
@@ -5344,7 +5368,7 @@
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
     </row>
-    <row r="160" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="43"/>
       <c r="B160" s="43"/>
       <c r="C160" s="43"/>
@@ -5371,7 +5395,7 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
     </row>
-    <row r="161" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="43"/>
       <c r="B161" s="43"/>
       <c r="C161" s="43"/>
@@ -5398,7 +5422,7 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
     </row>
-    <row r="162" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="43"/>
       <c r="B162" s="43"/>
       <c r="C162" s="43"/>
@@ -5425,7 +5449,7 @@
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
     </row>
-    <row r="163" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="43"/>
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
@@ -5452,7 +5476,7 @@
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
     </row>
-    <row r="164" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="43"/>
       <c r="B164" s="43"/>
       <c r="C164" s="43"/>
@@ -5479,7 +5503,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
     </row>
-    <row r="165" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="43"/>
       <c r="B165" s="43"/>
       <c r="C165" s="43"/>
@@ -5506,7 +5530,7 @@
       <c r="X165" s="4"/>
       <c r="Y165" s="4"/>
     </row>
-    <row r="166" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="43"/>
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
@@ -5533,7 +5557,7 @@
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
     </row>
-    <row r="167" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="43"/>
       <c r="B167" s="43"/>
       <c r="C167" s="43"/>
@@ -5560,7 +5584,7 @@
       <c r="X167" s="4"/>
       <c r="Y167" s="4"/>
     </row>
-    <row r="168" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="43"/>
       <c r="B168" s="43"/>
       <c r="C168" s="43"/>
@@ -5587,7 +5611,7 @@
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
     </row>
-    <row r="169" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="43"/>
       <c r="B169" s="43"/>
       <c r="C169" s="43"/>
@@ -5614,7 +5638,7 @@
       <c r="X169" s="4"/>
       <c r="Y169" s="4"/>
     </row>
-    <row r="170" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="43"/>
       <c r="B170" s="43"/>
       <c r="C170" s="43"/>
@@ -5641,7 +5665,7 @@
       <c r="X170" s="4"/>
       <c r="Y170" s="4"/>
     </row>
-    <row r="171" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="43"/>
       <c r="B171" s="43"/>
       <c r="C171" s="43"/>
@@ -5668,7 +5692,7 @@
       <c r="X171" s="4"/>
       <c r="Y171" s="4"/>
     </row>
-    <row r="172" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="43"/>
       <c r="B172" s="43"/>
       <c r="C172" s="43"/>
@@ -5695,7 +5719,7 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
     </row>
-    <row r="173" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="43"/>
       <c r="B173" s="43"/>
       <c r="C173" s="43"/>
@@ -5722,7 +5746,7 @@
       <c r="X173" s="4"/>
       <c r="Y173" s="4"/>
     </row>
-    <row r="174" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="43"/>
       <c r="B174" s="43"/>
       <c r="C174" s="43"/>
@@ -5749,7 +5773,7 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
     </row>
-    <row r="175" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="43"/>
       <c r="B175" s="43"/>
       <c r="C175" s="43"/>
@@ -5776,7 +5800,7 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
     </row>
-    <row r="176" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="43"/>
       <c r="B176" s="43"/>
       <c r="C176" s="43"/>
@@ -5803,7 +5827,7 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
     </row>
-    <row r="177" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="43"/>
       <c r="B177" s="43"/>
       <c r="C177" s="43"/>
@@ -5830,7 +5854,7 @@
       <c r="X177" s="4"/>
       <c r="Y177" s="4"/>
     </row>
-    <row r="178" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="43"/>
       <c r="B178" s="43"/>
       <c r="C178" s="43"/>
@@ -5857,7 +5881,7 @@
       <c r="X178" s="4"/>
       <c r="Y178" s="4"/>
     </row>
-    <row r="179" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="43"/>
       <c r="B179" s="43"/>
       <c r="C179" s="43"/>
@@ -5884,7 +5908,7 @@
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
     </row>
-    <row r="180" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="43"/>
       <c r="B180" s="43"/>
       <c r="C180" s="43"/>
@@ -5911,7 +5935,7 @@
       <c r="X180" s="4"/>
       <c r="Y180" s="4"/>
     </row>
-    <row r="181" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="43"/>
       <c r="B181" s="43"/>
       <c r="C181" s="43"/>
@@ -5938,7 +5962,7 @@
       <c r="X181" s="4"/>
       <c r="Y181" s="4"/>
     </row>
-    <row r="182" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="43"/>
       <c r="B182" s="43"/>
       <c r="C182" s="43"/>
@@ -5965,7 +5989,7 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
     </row>
-    <row r="183" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="43"/>
       <c r="B183" s="43"/>
       <c r="C183" s="43"/>
@@ -5992,7 +6016,7 @@
       <c r="X183" s="4"/>
       <c r="Y183" s="4"/>
     </row>
-    <row r="184" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="43"/>
       <c r="B184" s="43"/>
       <c r="C184" s="43"/>
@@ -6019,7 +6043,7 @@
       <c r="X184" s="4"/>
       <c r="Y184" s="4"/>
     </row>
-    <row r="185" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="43"/>
       <c r="B185" s="43"/>
       <c r="C185" s="43"/>
@@ -6046,7 +6070,7 @@
       <c r="X185" s="4"/>
       <c r="Y185" s="4"/>
     </row>
-    <row r="186" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="43"/>
       <c r="B186" s="43"/>
       <c r="C186" s="43"/>
@@ -6073,7 +6097,7 @@
       <c r="X186" s="4"/>
       <c r="Y186" s="4"/>
     </row>
-    <row r="187" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="43"/>
       <c r="B187" s="43"/>
       <c r="C187" s="43"/>
@@ -6100,7 +6124,7 @@
       <c r="X187" s="4"/>
       <c r="Y187" s="4"/>
     </row>
-    <row r="188" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="43"/>
       <c r="B188" s="43"/>
       <c r="C188" s="43"/>
@@ -6127,7 +6151,7 @@
       <c r="X188" s="4"/>
       <c r="Y188" s="4"/>
     </row>
-    <row r="189" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="43"/>
       <c r="B189" s="43"/>
       <c r="C189" s="43"/>
@@ -6154,7 +6178,7 @@
       <c r="X189" s="4"/>
       <c r="Y189" s="4"/>
     </row>
-    <row r="190" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="43"/>
       <c r="B190" s="43"/>
       <c r="C190" s="43"/>
@@ -6181,7 +6205,7 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
     </row>
-    <row r="191" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="43"/>
       <c r="B191" s="43"/>
       <c r="C191" s="43"/>
@@ -6208,7 +6232,7 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
     </row>
-    <row r="192" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="43"/>
       <c r="B192" s="43"/>
       <c r="C192" s="43"/>
@@ -6235,7 +6259,7 @@
       <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
     </row>
-    <row r="193" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="43"/>
       <c r="B193" s="43"/>
       <c r="C193" s="43"/>
@@ -6262,7 +6286,7 @@
       <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
     </row>
-    <row r="194" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="43"/>
       <c r="B194" s="43"/>
       <c r="C194" s="43"/>
@@ -6289,7 +6313,7 @@
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
     </row>
-    <row r="195" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="43"/>
       <c r="B195" s="43"/>
       <c r="C195" s="43"/>
@@ -6316,7 +6340,7 @@
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
     </row>
-    <row r="196" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="43"/>
       <c r="B196" s="43"/>
       <c r="C196" s="43"/>
@@ -6343,7 +6367,7 @@
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
     </row>
-    <row r="197" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="43"/>
       <c r="B197" s="43"/>
       <c r="C197" s="43"/>
@@ -6370,7 +6394,7 @@
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
     </row>
-    <row r="198" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="43"/>
       <c r="B198" s="43"/>
       <c r="C198" s="43"/>
@@ -6397,7 +6421,7 @@
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
     </row>
-    <row r="199" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="43"/>
       <c r="B199" s="43"/>
       <c r="C199" s="43"/>
@@ -6424,7 +6448,7 @@
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
     </row>
-    <row r="200" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="43"/>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
@@ -6451,7 +6475,7 @@
       <c r="X200" s="4"/>
       <c r="Y200" s="4"/>
     </row>
-    <row r="201" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="43"/>
       <c r="B201" s="43"/>
       <c r="C201" s="43"/>
@@ -6478,7 +6502,7 @@
       <c r="X201" s="4"/>
       <c r="Y201" s="4"/>
     </row>
-    <row r="202" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="43"/>
       <c r="B202" s="43"/>
       <c r="C202" s="43"/>
@@ -6505,7 +6529,7 @@
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
     </row>
-    <row r="203" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="43"/>
       <c r="B203" s="43"/>
       <c r="C203" s="43"/>
@@ -6532,7 +6556,7 @@
       <c r="X203" s="4"/>
       <c r="Y203" s="4"/>
     </row>
-    <row r="204" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="43"/>
       <c r="B204" s="43"/>
       <c r="C204" s="43"/>
@@ -6559,7 +6583,7 @@
       <c r="X204" s="4"/>
       <c r="Y204" s="4"/>
     </row>
-    <row r="205" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="43"/>
       <c r="B205" s="43"/>
       <c r="C205" s="43"/>
@@ -6586,7 +6610,7 @@
       <c r="X205" s="4"/>
       <c r="Y205" s="4"/>
     </row>
-    <row r="206" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="43"/>
       <c r="B206" s="43"/>
       <c r="C206" s="43"/>
@@ -6613,7 +6637,7 @@
       <c r="X206" s="4"/>
       <c r="Y206" s="4"/>
     </row>
-    <row r="207" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="43"/>
       <c r="B207" s="43"/>
       <c r="C207" s="43"/>
@@ -6640,7 +6664,7 @@
       <c r="X207" s="4"/>
       <c r="Y207" s="4"/>
     </row>
-    <row r="208" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="43"/>
       <c r="B208" s="43"/>
       <c r="C208" s="43"/>
@@ -6667,7 +6691,7 @@
       <c r="X208" s="4"/>
       <c r="Y208" s="4"/>
     </row>
-    <row r="209" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="43"/>
       <c r="B209" s="43"/>
       <c r="C209" s="43"/>
@@ -6694,7 +6718,7 @@
       <c r="X209" s="4"/>
       <c r="Y209" s="4"/>
     </row>
-    <row r="210" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="43"/>
       <c r="B210" s="43"/>
       <c r="C210" s="43"/>
@@ -6721,7 +6745,7 @@
       <c r="X210" s="4"/>
       <c r="Y210" s="4"/>
     </row>
-    <row r="211" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="43"/>
       <c r="B211" s="43"/>
       <c r="C211" s="43"/>
@@ -6748,7 +6772,7 @@
       <c r="X211" s="4"/>
       <c r="Y211" s="4"/>
     </row>
-    <row r="212" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="43"/>
       <c r="B212" s="43"/>
       <c r="C212" s="43"/>
@@ -6775,7 +6799,7 @@
       <c r="X212" s="4"/>
       <c r="Y212" s="4"/>
     </row>
-    <row r="213" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="43"/>
       <c r="B213" s="43"/>
       <c r="C213" s="43"/>
@@ -6802,7 +6826,7 @@
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
     </row>
-    <row r="214" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="43"/>
       <c r="B214" s="43"/>
       <c r="C214" s="43"/>
@@ -6829,7 +6853,7 @@
       <c r="X214" s="4"/>
       <c r="Y214" s="4"/>
     </row>
-    <row r="215" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="43"/>
       <c r="B215" s="43"/>
       <c r="C215" s="43"/>
@@ -6856,7 +6880,7 @@
       <c r="X215" s="4"/>
       <c r="Y215" s="4"/>
     </row>
-    <row r="216" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="43"/>
       <c r="B216" s="43"/>
       <c r="C216" s="43"/>
@@ -6883,7 +6907,7 @@
       <c r="X216" s="4"/>
       <c r="Y216" s="4"/>
     </row>
-    <row r="217" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="43"/>
       <c r="B217" s="43"/>
       <c r="C217" s="43"/>
@@ -6910,7 +6934,7 @@
       <c r="X217" s="4"/>
       <c r="Y217" s="4"/>
     </row>
-    <row r="218" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="43"/>
       <c r="B218" s="43"/>
       <c r="C218" s="43"/>
@@ -6937,7 +6961,7 @@
       <c r="X218" s="4"/>
       <c r="Y218" s="4"/>
     </row>
-    <row r="219" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="43"/>
       <c r="B219" s="43"/>
       <c r="C219" s="43"/>
@@ -6964,7 +6988,7 @@
       <c r="X219" s="4"/>
       <c r="Y219" s="4"/>
     </row>
-    <row r="220" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="43"/>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
@@ -6991,7 +7015,7 @@
       <c r="X220" s="4"/>
       <c r="Y220" s="4"/>
     </row>
-    <row r="221" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="43"/>
       <c r="B221" s="43"/>
       <c r="C221" s="43"/>
@@ -7018,7 +7042,7 @@
       <c r="X221" s="4"/>
       <c r="Y221" s="4"/>
     </row>
-    <row r="222" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="43"/>
       <c r="B222" s="43"/>
       <c r="C222" s="43"/>
@@ -7045,7 +7069,7 @@
       <c r="X222" s="4"/>
       <c r="Y222" s="4"/>
     </row>
-    <row r="223" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="43"/>
       <c r="B223" s="43"/>
       <c r="C223" s="43"/>
@@ -7072,7 +7096,7 @@
       <c r="X223" s="4"/>
       <c r="Y223" s="4"/>
     </row>
-    <row r="224" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="43"/>
       <c r="B224" s="43"/>
       <c r="C224" s="43"/>
@@ -7099,7 +7123,7 @@
       <c r="X224" s="4"/>
       <c r="Y224" s="4"/>
     </row>
-    <row r="225" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="43"/>
       <c r="B225" s="43"/>
       <c r="C225" s="43"/>
@@ -7126,7 +7150,7 @@
       <c r="X225" s="4"/>
       <c r="Y225" s="4"/>
     </row>
-    <row r="226" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="43"/>
       <c r="B226" s="43"/>
       <c r="C226" s="43"/>
@@ -7153,7 +7177,7 @@
       <c r="X226" s="4"/>
       <c r="Y226" s="4"/>
     </row>
-    <row r="227" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="43"/>
       <c r="B227" s="43"/>
       <c r="C227" s="43"/>
@@ -7180,7 +7204,7 @@
       <c r="X227" s="4"/>
       <c r="Y227" s="4"/>
     </row>
-    <row r="228" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="43"/>
       <c r="B228" s="43"/>
       <c r="C228" s="43"/>
@@ -7207,7 +7231,7 @@
       <c r="X228" s="4"/>
       <c r="Y228" s="4"/>
     </row>
-    <row r="229" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="43"/>
       <c r="B229" s="43"/>
       <c r="C229" s="43"/>
@@ -7234,7 +7258,7 @@
       <c r="X229" s="4"/>
       <c r="Y229" s="4"/>
     </row>
-    <row r="230" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="43"/>
       <c r="B230" s="43"/>
       <c r="C230" s="43"/>
@@ -7261,7 +7285,7 @@
       <c r="X230" s="4"/>
       <c r="Y230" s="4"/>
     </row>
-    <row r="231" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="43"/>
       <c r="B231" s="43"/>
       <c r="C231" s="43"/>
@@ -7288,7 +7312,7 @@
       <c r="X231" s="4"/>
       <c r="Y231" s="4"/>
     </row>
-    <row r="232" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="43"/>
       <c r="B232" s="43"/>
       <c r="C232" s="43"/>
@@ -7315,7 +7339,7 @@
       <c r="X232" s="4"/>
       <c r="Y232" s="4"/>
     </row>
-    <row r="233" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="43"/>
       <c r="B233" s="43"/>
       <c r="C233" s="43"/>
@@ -7342,7 +7366,7 @@
       <c r="X233" s="4"/>
       <c r="Y233" s="4"/>
     </row>
-    <row r="234" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="43"/>
       <c r="B234" s="43"/>
       <c r="C234" s="43"/>
@@ -7369,7 +7393,7 @@
       <c r="X234" s="4"/>
       <c r="Y234" s="4"/>
     </row>
-    <row r="235" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="43"/>
       <c r="B235" s="43"/>
       <c r="C235" s="43"/>
@@ -7396,7 +7420,7 @@
       <c r="X235" s="4"/>
       <c r="Y235" s="4"/>
     </row>
-    <row r="236" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="43"/>
       <c r="B236" s="43"/>
       <c r="C236" s="43"/>
@@ -7423,7 +7447,7 @@
       <c r="X236" s="4"/>
       <c r="Y236" s="4"/>
     </row>
-    <row r="237" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="43"/>
       <c r="B237" s="43"/>
       <c r="C237" s="43"/>
@@ -7450,7 +7474,7 @@
       <c r="X237" s="4"/>
       <c r="Y237" s="4"/>
     </row>
-    <row r="238" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="43"/>
       <c r="B238" s="43"/>
       <c r="C238" s="43"/>
@@ -7477,7 +7501,7 @@
       <c r="X238" s="4"/>
       <c r="Y238" s="4"/>
     </row>
-    <row r="239" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="43"/>
       <c r="B239" s="43"/>
       <c r="C239" s="43"/>
@@ -7504,7 +7528,7 @@
       <c r="X239" s="4"/>
       <c r="Y239" s="4"/>
     </row>
-    <row r="240" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="43"/>
       <c r="B240" s="43"/>
       <c r="C240" s="43"/>
@@ -7531,7 +7555,7 @@
       <c r="X240" s="4"/>
       <c r="Y240" s="4"/>
     </row>
-    <row r="241" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="43"/>
       <c r="B241" s="43"/>
       <c r="C241" s="43"/>
@@ -7558,7 +7582,7 @@
       <c r="X241" s="4"/>
       <c r="Y241" s="4"/>
     </row>
-    <row r="242" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="43"/>
       <c r="B242" s="43"/>
       <c r="C242" s="43"/>
@@ -7585,7 +7609,7 @@
       <c r="X242" s="4"/>
       <c r="Y242" s="4"/>
     </row>
-    <row r="243" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="43"/>
       <c r="B243" s="43"/>
       <c r="C243" s="43"/>
@@ -7612,7 +7636,7 @@
       <c r="X243" s="4"/>
       <c r="Y243" s="4"/>
     </row>
-    <row r="244" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="43"/>
       <c r="B244" s="43"/>
       <c r="C244" s="43"/>
@@ -7639,7 +7663,7 @@
       <c r="X244" s="4"/>
       <c r="Y244" s="4"/>
     </row>
-    <row r="245" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="43"/>
       <c r="B245" s="43"/>
       <c r="C245" s="43"/>
@@ -7666,7 +7690,7 @@
       <c r="X245" s="4"/>
       <c r="Y245" s="4"/>
     </row>
-    <row r="246" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="43"/>
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
@@ -7693,7 +7717,7 @@
       <c r="X246" s="4"/>
       <c r="Y246" s="4"/>
     </row>
-    <row r="247" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="43"/>
       <c r="B247" s="43"/>
       <c r="C247" s="43"/>
@@ -7720,7 +7744,7 @@
       <c r="X247" s="4"/>
       <c r="Y247" s="4"/>
     </row>
-    <row r="248" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="43"/>
       <c r="B248" s="43"/>
       <c r="C248" s="43"/>
@@ -7747,7 +7771,7 @@
       <c r="X248" s="4"/>
       <c r="Y248" s="4"/>
     </row>
-    <row r="249" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="43"/>
       <c r="B249" s="43"/>
       <c r="C249" s="43"/>
@@ -7774,7 +7798,7 @@
       <c r="X249" s="4"/>
       <c r="Y249" s="4"/>
     </row>
-    <row r="250" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="43"/>
       <c r="B250" s="43"/>
       <c r="C250" s="43"/>
@@ -7801,7 +7825,7 @@
       <c r="X250" s="4"/>
       <c r="Y250" s="4"/>
     </row>
-    <row r="251" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="43"/>
       <c r="B251" s="43"/>
       <c r="C251" s="43"/>
@@ -7828,7 +7852,7 @@
       <c r="X251" s="4"/>
       <c r="Y251" s="4"/>
     </row>
-    <row r="252" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="43"/>
       <c r="B252" s="43"/>
       <c r="C252" s="43"/>
@@ -7855,7 +7879,7 @@
       <c r="X252" s="4"/>
       <c r="Y252" s="4"/>
     </row>
-    <row r="253" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="43"/>
       <c r="B253" s="43"/>
       <c r="C253" s="43"/>
@@ -7882,7 +7906,7 @@
       <c r="X253" s="4"/>
       <c r="Y253" s="4"/>
     </row>
-    <row r="254" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="43"/>
       <c r="B254" s="43"/>
       <c r="C254" s="43"/>
@@ -7909,7 +7933,7 @@
       <c r="X254" s="4"/>
       <c r="Y254" s="4"/>
     </row>
-    <row r="255" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="43"/>
       <c r="B255" s="43"/>
       <c r="C255" s="43"/>
@@ -7936,7 +7960,7 @@
       <c r="X255" s="4"/>
       <c r="Y255" s="4"/>
     </row>
-    <row r="256" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="43"/>
       <c r="B256" s="43"/>
       <c r="C256" s="43"/>
@@ -7963,7 +7987,7 @@
       <c r="X256" s="4"/>
       <c r="Y256" s="4"/>
     </row>
-    <row r="257" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="43"/>
       <c r="B257" s="43"/>
       <c r="C257" s="43"/>
@@ -7990,7 +8014,7 @@
       <c r="X257" s="4"/>
       <c r="Y257" s="4"/>
     </row>
-    <row r="258" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="43"/>
       <c r="B258" s="43"/>
       <c r="C258" s="43"/>
@@ -8017,7 +8041,7 @@
       <c r="X258" s="4"/>
       <c r="Y258" s="4"/>
     </row>
-    <row r="259" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="43"/>
       <c r="B259" s="43"/>
       <c r="C259" s="43"/>
@@ -8044,7 +8068,7 @@
       <c r="X259" s="4"/>
       <c r="Y259" s="4"/>
     </row>
-    <row r="260" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="43"/>
       <c r="B260" s="43"/>
       <c r="C260" s="43"/>
@@ -8071,7 +8095,7 @@
       <c r="X260" s="4"/>
       <c r="Y260" s="4"/>
     </row>
-    <row r="261" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="43"/>
       <c r="B261" s="43"/>
       <c r="C261" s="43"/>
@@ -8098,7 +8122,7 @@
       <c r="X261" s="4"/>
       <c r="Y261" s="4"/>
     </row>
-    <row r="262" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="43"/>
       <c r="B262" s="43"/>
       <c r="C262" s="43"/>
@@ -8125,7 +8149,7 @@
       <c r="X262" s="4"/>
       <c r="Y262" s="4"/>
     </row>
-    <row r="263" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="43"/>
       <c r="B263" s="43"/>
       <c r="C263" s="43"/>
@@ -8152,7 +8176,7 @@
       <c r="X263" s="4"/>
       <c r="Y263" s="4"/>
     </row>
-    <row r="264" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" s="43"/>
       <c r="B264" s="43"/>
       <c r="C264" s="43"/>
@@ -8179,7 +8203,7 @@
       <c r="X264" s="4"/>
       <c r="Y264" s="4"/>
     </row>
-    <row r="265" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="43"/>
       <c r="B265" s="43"/>
       <c r="C265" s="43"/>
@@ -8206,7 +8230,7 @@
       <c r="X265" s="4"/>
       <c r="Y265" s="4"/>
     </row>
-    <row r="266" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" s="43"/>
       <c r="B266" s="43"/>
       <c r="C266" s="43"/>
@@ -8233,7 +8257,7 @@
       <c r="X266" s="4"/>
       <c r="Y266" s="4"/>
     </row>
-    <row r="267" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="43"/>
       <c r="B267" s="43"/>
       <c r="C267" s="43"/>
@@ -8260,7 +8284,7 @@
       <c r="X267" s="4"/>
       <c r="Y267" s="4"/>
     </row>
-    <row r="268" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="43"/>
       <c r="B268" s="43"/>
       <c r="C268" s="43"/>
@@ -8287,7 +8311,7 @@
       <c r="X268" s="4"/>
       <c r="Y268" s="4"/>
     </row>
-    <row r="269" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="43"/>
       <c r="B269" s="43"/>
       <c r="C269" s="43"/>
@@ -8314,7 +8338,7 @@
       <c r="X269" s="4"/>
       <c r="Y269" s="4"/>
     </row>
-    <row r="270" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" s="43"/>
       <c r="B270" s="43"/>
       <c r="C270" s="43"/>
@@ -8341,7 +8365,7 @@
       <c r="X270" s="4"/>
       <c r="Y270" s="4"/>
     </row>
-    <row r="271" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="43"/>
       <c r="B271" s="43"/>
       <c r="C271" s="43"/>
@@ -8368,7 +8392,7 @@
       <c r="X271" s="4"/>
       <c r="Y271" s="4"/>
     </row>
-    <row r="272" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" s="43"/>
       <c r="B272" s="43"/>
       <c r="C272" s="43"/>
@@ -8395,7 +8419,7 @@
       <c r="X272" s="4"/>
       <c r="Y272" s="4"/>
     </row>
-    <row r="273" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="43"/>
       <c r="B273" s="43"/>
       <c r="C273" s="43"/>
@@ -8422,7 +8446,7 @@
       <c r="X273" s="4"/>
       <c r="Y273" s="4"/>
     </row>
-    <row r="274" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" s="43"/>
       <c r="B274" s="43"/>
       <c r="C274" s="43"/>
@@ -8449,7 +8473,7 @@
       <c r="X274" s="4"/>
       <c r="Y274" s="4"/>
     </row>
-    <row r="275" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="43"/>
       <c r="B275" s="43"/>
       <c r="C275" s="43"/>
@@ -8476,7 +8500,7 @@
       <c r="X275" s="4"/>
       <c r="Y275" s="4"/>
     </row>
-    <row r="276" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" s="43"/>
       <c r="B276" s="43"/>
       <c r="C276" s="43"/>
@@ -8503,7 +8527,7 @@
       <c r="X276" s="4"/>
       <c r="Y276" s="4"/>
     </row>
-    <row r="277" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="43"/>
       <c r="B277" s="43"/>
       <c r="C277" s="43"/>
@@ -8530,7 +8554,7 @@
       <c r="X277" s="4"/>
       <c r="Y277" s="4"/>
     </row>
-    <row r="278" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" s="43"/>
       <c r="B278" s="43"/>
       <c r="C278" s="43"/>
@@ -8557,7 +8581,7 @@
       <c r="X278" s="4"/>
       <c r="Y278" s="4"/>
     </row>
-    <row r="279" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="43"/>
       <c r="B279" s="43"/>
       <c r="C279" s="43"/>
@@ -8584,7 +8608,7 @@
       <c r="X279" s="4"/>
       <c r="Y279" s="4"/>
     </row>
-    <row r="280" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" s="43"/>
       <c r="B280" s="43"/>
       <c r="C280" s="43"/>
@@ -8611,7 +8635,7 @@
       <c r="X280" s="4"/>
       <c r="Y280" s="4"/>
     </row>
-    <row r="281" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" s="43"/>
       <c r="B281" s="43"/>
       <c r="C281" s="43"/>
@@ -8638,7 +8662,7 @@
       <c r="X281" s="4"/>
       <c r="Y281" s="4"/>
     </row>
-    <row r="282" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="43"/>
       <c r="B282" s="43"/>
       <c r="C282" s="43"/>
@@ -8665,7 +8689,7 @@
       <c r="X282" s="4"/>
       <c r="Y282" s="4"/>
     </row>
-    <row r="283" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" s="43"/>
       <c r="B283" s="43"/>
       <c r="C283" s="43"/>
@@ -8692,7 +8716,7 @@
       <c r="X283" s="4"/>
       <c r="Y283" s="4"/>
     </row>
-    <row r="284" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="43"/>
       <c r="B284" s="43"/>
       <c r="C284" s="43"/>
@@ -8719,7 +8743,7 @@
       <c r="X284" s="4"/>
       <c r="Y284" s="4"/>
     </row>
-    <row r="285" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" s="43"/>
       <c r="B285" s="43"/>
       <c r="C285" s="43"/>
@@ -8746,7 +8770,7 @@
       <c r="X285" s="4"/>
       <c r="Y285" s="4"/>
     </row>
-    <row r="286" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="43"/>
       <c r="B286" s="43"/>
       <c r="C286" s="43"/>
@@ -8773,7 +8797,7 @@
       <c r="X286" s="4"/>
       <c r="Y286" s="4"/>
     </row>
-    <row r="287" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" s="43"/>
       <c r="B287" s="43"/>
       <c r="C287" s="43"/>
@@ -8800,7 +8824,7 @@
       <c r="X287" s="4"/>
       <c r="Y287" s="4"/>
     </row>
-    <row r="288" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="43"/>
       <c r="B288" s="43"/>
       <c r="C288" s="43"/>
@@ -8827,7 +8851,7 @@
       <c r="X288" s="4"/>
       <c r="Y288" s="4"/>
     </row>
-    <row r="289" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" s="43"/>
       <c r="B289" s="43"/>
       <c r="C289" s="43"/>
@@ -8854,7 +8878,7 @@
       <c r="X289" s="4"/>
       <c r="Y289" s="4"/>
     </row>
-    <row r="290" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="43"/>
       <c r="B290" s="43"/>
       <c r="C290" s="43"/>
@@ -8881,7 +8905,7 @@
       <c r="X290" s="4"/>
       <c r="Y290" s="4"/>
     </row>
-    <row r="291" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" s="43"/>
       <c r="B291" s="43"/>
       <c r="C291" s="43"/>
@@ -8908,7 +8932,7 @@
       <c r="X291" s="4"/>
       <c r="Y291" s="4"/>
     </row>
-    <row r="292" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="43"/>
       <c r="B292" s="43"/>
       <c r="C292" s="43"/>
@@ -8935,7 +8959,7 @@
       <c r="X292" s="4"/>
       <c r="Y292" s="4"/>
     </row>
-    <row r="293" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" s="43"/>
       <c r="B293" s="43"/>
       <c r="C293" s="43"/>
@@ -8962,7 +8986,7 @@
       <c r="X293" s="4"/>
       <c r="Y293" s="4"/>
     </row>
-    <row r="294" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="43"/>
       <c r="B294" s="43"/>
       <c r="C294" s="43"/>
@@ -8989,7 +9013,7 @@
       <c r="X294" s="4"/>
       <c r="Y294" s="4"/>
     </row>
-    <row r="295" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" s="43"/>
       <c r="B295" s="43"/>
       <c r="C295" s="43"/>
@@ -9016,7 +9040,7 @@
       <c r="X295" s="4"/>
       <c r="Y295" s="4"/>
     </row>
-    <row r="296" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="43"/>
       <c r="B296" s="43"/>
       <c r="C296" s="43"/>
@@ -9043,7 +9067,7 @@
       <c r="X296" s="4"/>
       <c r="Y296" s="4"/>
     </row>
-    <row r="297" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" s="43"/>
       <c r="B297" s="43"/>
       <c r="C297" s="43"/>
@@ -9070,7 +9094,7 @@
       <c r="X297" s="4"/>
       <c r="Y297" s="4"/>
     </row>
-    <row r="298" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="43"/>
       <c r="B298" s="43"/>
       <c r="C298" s="43"/>
@@ -9097,7 +9121,7 @@
       <c r="X298" s="4"/>
       <c r="Y298" s="4"/>
     </row>
-    <row r="299" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" s="43"/>
       <c r="B299" s="43"/>
       <c r="C299" s="43"/>
@@ -9124,7 +9148,7 @@
       <c r="X299" s="4"/>
       <c r="Y299" s="4"/>
     </row>
-    <row r="300" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="43"/>
       <c r="B300" s="43"/>
       <c r="C300" s="43"/>
@@ -9151,7 +9175,7 @@
       <c r="X300" s="4"/>
       <c r="Y300" s="4"/>
     </row>
-    <row r="301" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" s="43"/>
       <c r="B301" s="43"/>
       <c r="C301" s="43"/>
@@ -9178,7 +9202,7 @@
       <c r="X301" s="4"/>
       <c r="Y301" s="4"/>
     </row>
-    <row r="302" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="43"/>
       <c r="B302" s="43"/>
       <c r="C302" s="43"/>
@@ -9205,7 +9229,7 @@
       <c r="X302" s="4"/>
       <c r="Y302" s="4"/>
     </row>
-    <row r="303" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" s="43"/>
       <c r="B303" s="43"/>
       <c r="C303" s="43"/>
@@ -9232,7 +9256,7 @@
       <c r="X303" s="4"/>
       <c r="Y303" s="4"/>
     </row>
-    <row r="304" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="43"/>
       <c r="B304" s="43"/>
       <c r="C304" s="43"/>
@@ -9259,7 +9283,7 @@
       <c r="X304" s="4"/>
       <c r="Y304" s="4"/>
     </row>
-    <row r="305" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" s="43"/>
       <c r="B305" s="43"/>
       <c r="C305" s="43"/>
@@ -9286,7 +9310,7 @@
       <c r="X305" s="4"/>
       <c r="Y305" s="4"/>
     </row>
-    <row r="306" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="43"/>
       <c r="B306" s="43"/>
       <c r="C306" s="43"/>
@@ -9313,7 +9337,7 @@
       <c r="X306" s="4"/>
       <c r="Y306" s="4"/>
     </row>
-    <row r="307" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" s="43"/>
       <c r="B307" s="43"/>
       <c r="C307" s="43"/>
@@ -9340,7 +9364,7 @@
       <c r="X307" s="4"/>
       <c r="Y307" s="4"/>
     </row>
-    <row r="308" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="43"/>
       <c r="B308" s="43"/>
       <c r="C308" s="43"/>
@@ -9367,7 +9391,7 @@
       <c r="X308" s="4"/>
       <c r="Y308" s="4"/>
     </row>
-    <row r="309" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" s="43"/>
       <c r="B309" s="43"/>
       <c r="C309" s="43"/>
@@ -9394,7 +9418,7 @@
       <c r="X309" s="4"/>
       <c r="Y309" s="4"/>
     </row>
-    <row r="310" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="43"/>
       <c r="B310" s="43"/>
       <c r="C310" s="43"/>
@@ -9421,7 +9445,7 @@
       <c r="X310" s="4"/>
       <c r="Y310" s="4"/>
     </row>
-    <row r="311" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" s="43"/>
       <c r="B311" s="43"/>
       <c r="C311" s="43"/>
@@ -9448,7 +9472,7 @@
       <c r="X311" s="4"/>
       <c r="Y311" s="4"/>
     </row>
-    <row r="312" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="43"/>
       <c r="B312" s="43"/>
       <c r="C312" s="43"/>
@@ -9475,7 +9499,7 @@
       <c r="X312" s="4"/>
       <c r="Y312" s="4"/>
     </row>
-    <row r="313" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" s="43"/>
       <c r="B313" s="43"/>
       <c r="C313" s="43"/>
@@ -9502,7 +9526,7 @@
       <c r="X313" s="4"/>
       <c r="Y313" s="4"/>
     </row>
-    <row r="314" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="43"/>
       <c r="B314" s="43"/>
       <c r="C314" s="43"/>
@@ -9529,7 +9553,7 @@
       <c r="X314" s="4"/>
       <c r="Y314" s="4"/>
     </row>
-    <row r="315" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" s="43"/>
       <c r="B315" s="43"/>
       <c r="C315" s="43"/>
@@ -9556,7 +9580,7 @@
       <c r="X315" s="4"/>
       <c r="Y315" s="4"/>
     </row>
-    <row r="316" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="43"/>
       <c r="B316" s="43"/>
       <c r="C316" s="43"/>
@@ -9583,7 +9607,7 @@
       <c r="X316" s="4"/>
       <c r="Y316" s="4"/>
     </row>
-    <row r="317" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" s="43"/>
       <c r="B317" s="43"/>
       <c r="C317" s="43"/>
@@ -9610,7 +9634,7 @@
       <c r="X317" s="4"/>
       <c r="Y317" s="4"/>
     </row>
-    <row r="318" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="43"/>
       <c r="B318" s="43"/>
       <c r="C318" s="43"/>
@@ -9637,7 +9661,7 @@
       <c r="X318" s="4"/>
       <c r="Y318" s="4"/>
     </row>
-    <row r="319" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="43"/>
       <c r="B319" s="43"/>
       <c r="C319" s="43"/>
@@ -9664,7 +9688,7 @@
       <c r="X319" s="4"/>
       <c r="Y319" s="4"/>
     </row>
-    <row r="320" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="43"/>
       <c r="B320" s="43"/>
       <c r="C320" s="43"/>
@@ -9691,7 +9715,7 @@
       <c r="X320" s="4"/>
       <c r="Y320" s="4"/>
     </row>
-    <row r="321" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="43"/>
       <c r="B321" s="43"/>
       <c r="C321" s="43"/>
@@ -9718,7 +9742,7 @@
       <c r="X321" s="4"/>
       <c r="Y321" s="4"/>
     </row>
-    <row r="322" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="43"/>
       <c r="B322" s="43"/>
       <c r="C322" s="43"/>
@@ -9745,7 +9769,7 @@
       <c r="X322" s="4"/>
       <c r="Y322" s="4"/>
     </row>
-    <row r="323" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="43"/>
       <c r="B323" s="43"/>
       <c r="C323" s="43"/>
@@ -9772,7 +9796,7 @@
       <c r="X323" s="4"/>
       <c r="Y323" s="4"/>
     </row>
-    <row r="324" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="43"/>
       <c r="B324" s="43"/>
       <c r="C324" s="43"/>
@@ -9799,7 +9823,7 @@
       <c r="X324" s="4"/>
       <c r="Y324" s="4"/>
     </row>
-    <row r="325" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="43"/>
       <c r="B325" s="43"/>
       <c r="C325" s="43"/>
@@ -9826,7 +9850,7 @@
       <c r="X325" s="4"/>
       <c r="Y325" s="4"/>
     </row>
-    <row r="326" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="43"/>
       <c r="B326" s="43"/>
       <c r="C326" s="43"/>
@@ -9853,7 +9877,7 @@
       <c r="X326" s="4"/>
       <c r="Y326" s="4"/>
     </row>
-    <row r="327" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="43"/>
       <c r="B327" s="43"/>
       <c r="C327" s="43"/>
@@ -9880,7 +9904,7 @@
       <c r="X327" s="4"/>
       <c r="Y327" s="4"/>
     </row>
-    <row r="328" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="43"/>
       <c r="B328" s="43"/>
       <c r="C328" s="43"/>
@@ -9907,7 +9931,7 @@
       <c r="X328" s="4"/>
       <c r="Y328" s="4"/>
     </row>
-    <row r="329" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="43"/>
       <c r="B329" s="43"/>
       <c r="C329" s="43"/>
@@ -9934,7 +9958,7 @@
       <c r="X329" s="4"/>
       <c r="Y329" s="4"/>
     </row>
-    <row r="330" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="43"/>
       <c r="B330" s="43"/>
       <c r="C330" s="43"/>
@@ -9961,7 +9985,7 @@
       <c r="X330" s="4"/>
       <c r="Y330" s="4"/>
     </row>
-    <row r="331" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="43"/>
       <c r="B331" s="43"/>
       <c r="C331" s="43"/>
@@ -9988,7 +10012,7 @@
       <c r="X331" s="4"/>
       <c r="Y331" s="4"/>
     </row>
-    <row r="332" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="43"/>
       <c r="B332" s="43"/>
       <c r="C332" s="43"/>
@@ -10015,7 +10039,7 @@
       <c r="X332" s="4"/>
       <c r="Y332" s="4"/>
     </row>
-    <row r="333" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="43"/>
       <c r="B333" s="43"/>
       <c r="C333" s="43"/>
@@ -10042,7 +10066,7 @@
       <c r="X333" s="4"/>
       <c r="Y333" s="4"/>
     </row>
-    <row r="334" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="43"/>
       <c r="B334" s="43"/>
       <c r="C334" s="43"/>
@@ -10069,7 +10093,7 @@
       <c r="X334" s="4"/>
       <c r="Y334" s="4"/>
     </row>
-    <row r="335" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="43"/>
       <c r="B335" s="43"/>
       <c r="C335" s="43"/>
@@ -10096,7 +10120,7 @@
       <c r="X335" s="4"/>
       <c r="Y335" s="4"/>
     </row>
-    <row r="336" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="43"/>
       <c r="B336" s="43"/>
       <c r="C336" s="43"/>
@@ -10123,7 +10147,7 @@
       <c r="X336" s="4"/>
       <c r="Y336" s="4"/>
     </row>
-    <row r="337" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="43"/>
       <c r="B337" s="43"/>
       <c r="C337" s="43"/>
@@ -10150,7 +10174,7 @@
       <c r="X337" s="4"/>
       <c r="Y337" s="4"/>
     </row>
-    <row r="338" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" s="43"/>
       <c r="B338" s="43"/>
       <c r="C338" s="43"/>
@@ -10177,7 +10201,7 @@
       <c r="X338" s="4"/>
       <c r="Y338" s="4"/>
     </row>
-    <row r="339" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="43"/>
       <c r="B339" s="43"/>
       <c r="C339" s="43"/>
@@ -10204,7 +10228,7 @@
       <c r="X339" s="4"/>
       <c r="Y339" s="4"/>
     </row>
-    <row r="340" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" s="43"/>
       <c r="B340" s="43"/>
       <c r="C340" s="43"/>
@@ -10231,7 +10255,7 @@
       <c r="X340" s="4"/>
       <c r="Y340" s="4"/>
     </row>
-    <row r="341" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="43"/>
       <c r="B341" s="43"/>
       <c r="C341" s="43"/>
@@ -10258,7 +10282,7 @@
       <c r="X341" s="4"/>
       <c r="Y341" s="4"/>
     </row>
-    <row r="342" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" s="43"/>
       <c r="B342" s="43"/>
       <c r="C342" s="43"/>
@@ -10285,7 +10309,7 @@
       <c r="X342" s="4"/>
       <c r="Y342" s="4"/>
     </row>
-    <row r="343" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="43"/>
       <c r="B343" s="43"/>
       <c r="C343" s="43"/>
@@ -10312,7 +10336,7 @@
       <c r="X343" s="4"/>
       <c r="Y343" s="4"/>
     </row>
-    <row r="344" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" s="43"/>
       <c r="B344" s="43"/>
       <c r="C344" s="43"/>
@@ -10339,7 +10363,7 @@
       <c r="X344" s="4"/>
       <c r="Y344" s="4"/>
     </row>
-    <row r="345" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="43"/>
       <c r="B345" s="43"/>
       <c r="C345" s="43"/>
@@ -10366,7 +10390,7 @@
       <c r="X345" s="4"/>
       <c r="Y345" s="4"/>
     </row>
-    <row r="346" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="43"/>
       <c r="B346" s="43"/>
       <c r="C346" s="43"/>
@@ -10393,7 +10417,7 @@
       <c r="X346" s="4"/>
       <c r="Y346" s="4"/>
     </row>
-    <row r="347" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="43"/>
       <c r="B347" s="43"/>
       <c r="C347" s="43"/>
@@ -10420,7 +10444,7 @@
       <c r="X347" s="4"/>
       <c r="Y347" s="4"/>
     </row>
-    <row r="348" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" s="43"/>
       <c r="B348" s="43"/>
       <c r="C348" s="43"/>
@@ -10447,7 +10471,7 @@
       <c r="X348" s="4"/>
       <c r="Y348" s="4"/>
     </row>
-    <row r="349" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="43"/>
       <c r="B349" s="43"/>
       <c r="C349" s="43"/>
@@ -10474,7 +10498,7 @@
       <c r="X349" s="4"/>
       <c r="Y349" s="4"/>
     </row>
-    <row r="350" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" s="43"/>
       <c r="B350" s="43"/>
       <c r="C350" s="43"/>
@@ -10501,7 +10525,7 @@
       <c r="X350" s="4"/>
       <c r="Y350" s="4"/>
     </row>
-    <row r="351" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" s="43"/>
       <c r="B351" s="43"/>
       <c r="C351" s="43"/>
@@ -10528,7 +10552,7 @@
       <c r="X351" s="4"/>
       <c r="Y351" s="4"/>
     </row>
-    <row r="352" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="43"/>
       <c r="B352" s="43"/>
       <c r="C352" s="43"/>
@@ -10555,7 +10579,7 @@
       <c r="X352" s="4"/>
       <c r="Y352" s="4"/>
     </row>
-    <row r="353" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="43"/>
       <c r="B353" s="43"/>
       <c r="C353" s="43"/>
@@ -10582,7 +10606,7 @@
       <c r="X353" s="4"/>
       <c r="Y353" s="4"/>
     </row>
-    <row r="354" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="43"/>
       <c r="B354" s="43"/>
       <c r="C354" s="43"/>
@@ -10609,7 +10633,7 @@
       <c r="X354" s="4"/>
       <c r="Y354" s="4"/>
     </row>
-    <row r="355" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="43"/>
       <c r="B355" s="43"/>
       <c r="C355" s="43"/>
@@ -10636,7 +10660,7 @@
       <c r="X355" s="4"/>
       <c r="Y355" s="4"/>
     </row>
-    <row r="356" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="43"/>
       <c r="B356" s="43"/>
       <c r="C356" s="43"/>
@@ -10663,7 +10687,7 @@
       <c r="X356" s="4"/>
       <c r="Y356" s="4"/>
     </row>
-    <row r="357" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="43"/>
       <c r="B357" s="43"/>
       <c r="C357" s="43"/>
@@ -10690,7 +10714,7 @@
       <c r="X357" s="4"/>
       <c r="Y357" s="4"/>
     </row>
-    <row r="358" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="43"/>
       <c r="B358" s="43"/>
       <c r="C358" s="43"/>
@@ -10717,7 +10741,7 @@
       <c r="X358" s="4"/>
       <c r="Y358" s="4"/>
     </row>
-    <row r="359" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="43"/>
       <c r="B359" s="43"/>
       <c r="C359" s="43"/>
@@ -10744,7 +10768,7 @@
       <c r="X359" s="4"/>
       <c r="Y359" s="4"/>
     </row>
-    <row r="360" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="43"/>
       <c r="B360" s="43"/>
       <c r="C360" s="43"/>
@@ -10771,7 +10795,7 @@
       <c r="X360" s="4"/>
       <c r="Y360" s="4"/>
     </row>
-    <row r="361" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" s="43"/>
       <c r="B361" s="43"/>
       <c r="C361" s="43"/>
@@ -10798,7 +10822,7 @@
       <c r="X361" s="4"/>
       <c r="Y361" s="4"/>
     </row>
-    <row r="362" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="43"/>
       <c r="B362" s="43"/>
       <c r="C362" s="43"/>
@@ -10825,7 +10849,7 @@
       <c r="X362" s="4"/>
       <c r="Y362" s="4"/>
     </row>
-    <row r="363" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="43"/>
       <c r="B363" s="43"/>
       <c r="C363" s="43"/>
@@ -10852,7 +10876,7 @@
       <c r="X363" s="4"/>
       <c r="Y363" s="4"/>
     </row>
-    <row r="364" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="43"/>
       <c r="B364" s="43"/>
       <c r="C364" s="43"/>
@@ -10879,7 +10903,7 @@
       <c r="X364" s="4"/>
       <c r="Y364" s="4"/>
     </row>
-    <row r="365" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="43"/>
       <c r="B365" s="43"/>
       <c r="C365" s="43"/>
@@ -10906,7 +10930,7 @@
       <c r="X365" s="4"/>
       <c r="Y365" s="4"/>
     </row>
-    <row r="366" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="43"/>
       <c r="B366" s="43"/>
       <c r="C366" s="43"/>
@@ -10933,7 +10957,7 @@
       <c r="X366" s="4"/>
       <c r="Y366" s="4"/>
     </row>
-    <row r="367" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="43"/>
       <c r="B367" s="43"/>
       <c r="C367" s="43"/>
@@ -10960,7 +10984,7 @@
       <c r="X367" s="4"/>
       <c r="Y367" s="4"/>
     </row>
-    <row r="368" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="43"/>
       <c r="B368" s="43"/>
       <c r="C368" s="43"/>
@@ -10987,7 +11011,7 @@
       <c r="X368" s="4"/>
       <c r="Y368" s="4"/>
     </row>
-    <row r="369" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" s="43"/>
       <c r="B369" s="43"/>
       <c r="C369" s="43"/>
@@ -11014,7 +11038,7 @@
       <c r="X369" s="4"/>
       <c r="Y369" s="4"/>
     </row>
-    <row r="370" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="43"/>
       <c r="B370" s="43"/>
       <c r="C370" s="43"/>
@@ -11041,7 +11065,7 @@
       <c r="X370" s="4"/>
       <c r="Y370" s="4"/>
     </row>
-    <row r="371" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="43"/>
       <c r="B371" s="43"/>
       <c r="C371" s="43"/>
@@ -11068,7 +11092,7 @@
       <c r="X371" s="4"/>
       <c r="Y371" s="4"/>
     </row>
-    <row r="372" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="43"/>
       <c r="B372" s="43"/>
       <c r="C372" s="43"/>
@@ -11095,7 +11119,7 @@
       <c r="X372" s="4"/>
       <c r="Y372" s="4"/>
     </row>
-    <row r="373" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="43"/>
       <c r="B373" s="43"/>
       <c r="C373" s="43"/>
@@ -11122,7 +11146,7 @@
       <c r="X373" s="4"/>
       <c r="Y373" s="4"/>
     </row>
-    <row r="374" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="43"/>
       <c r="B374" s="43"/>
       <c r="C374" s="43"/>
@@ -11149,7 +11173,7 @@
       <c r="X374" s="4"/>
       <c r="Y374" s="4"/>
     </row>
-    <row r="375" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" s="43"/>
       <c r="B375" s="43"/>
       <c r="C375" s="43"/>
@@ -11176,7 +11200,7 @@
       <c r="X375" s="4"/>
       <c r="Y375" s="4"/>
     </row>
-    <row r="376" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="43"/>
       <c r="B376" s="43"/>
       <c r="C376" s="43"/>
@@ -11203,7 +11227,7 @@
       <c r="X376" s="4"/>
       <c r="Y376" s="4"/>
     </row>
-    <row r="377" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" s="43"/>
       <c r="B377" s="43"/>
       <c r="C377" s="43"/>
@@ -11230,7 +11254,7 @@
       <c r="X377" s="4"/>
       <c r="Y377" s="4"/>
     </row>
-    <row r="378" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="43"/>
       <c r="B378" s="43"/>
       <c r="C378" s="43"/>
@@ -11257,7 +11281,7 @@
       <c r="X378" s="4"/>
       <c r="Y378" s="4"/>
     </row>
-    <row r="379" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" s="43"/>
       <c r="B379" s="43"/>
       <c r="C379" s="43"/>
@@ -11284,7 +11308,7 @@
       <c r="X379" s="4"/>
       <c r="Y379" s="4"/>
     </row>
-    <row r="380" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="43"/>
       <c r="B380" s="43"/>
       <c r="C380" s="43"/>
@@ -11311,7 +11335,7 @@
       <c r="X380" s="4"/>
       <c r="Y380" s="4"/>
     </row>
-    <row r="381" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" s="43"/>
       <c r="B381" s="43"/>
       <c r="C381" s="43"/>
@@ -11338,7 +11362,7 @@
       <c r="X381" s="4"/>
       <c r="Y381" s="4"/>
     </row>
-    <row r="382" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="43"/>
       <c r="B382" s="43"/>
       <c r="C382" s="43"/>
@@ -11365,7 +11389,7 @@
       <c r="X382" s="4"/>
       <c r="Y382" s="4"/>
     </row>
-    <row r="383" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" s="43"/>
       <c r="B383" s="43"/>
       <c r="C383" s="43"/>
@@ -11392,7 +11416,7 @@
       <c r="X383" s="4"/>
       <c r="Y383" s="4"/>
     </row>
-    <row r="384" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="43"/>
       <c r="B384" s="43"/>
       <c r="C384" s="43"/>
@@ -11419,7 +11443,7 @@
       <c r="X384" s="4"/>
       <c r="Y384" s="4"/>
     </row>
-    <row r="385" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="43"/>
       <c r="B385" s="43"/>
       <c r="C385" s="43"/>
@@ -11446,7 +11470,7 @@
       <c r="X385" s="4"/>
       <c r="Y385" s="4"/>
     </row>
-    <row r="386" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="43"/>
       <c r="B386" s="43"/>
       <c r="C386" s="43"/>
@@ -11473,7 +11497,7 @@
       <c r="X386" s="4"/>
       <c r="Y386" s="4"/>
     </row>
-    <row r="387" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" s="43"/>
       <c r="B387" s="43"/>
       <c r="C387" s="43"/>
@@ -11500,7 +11524,7 @@
       <c r="X387" s="4"/>
       <c r="Y387" s="4"/>
     </row>
-    <row r="388" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="43"/>
       <c r="B388" s="43"/>
       <c r="C388" s="43"/>
@@ -11527,7 +11551,7 @@
       <c r="X388" s="4"/>
       <c r="Y388" s="4"/>
     </row>
-    <row r="389" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" s="43"/>
       <c r="B389" s="43"/>
       <c r="C389" s="43"/>
@@ -11554,7 +11578,7 @@
       <c r="X389" s="4"/>
       <c r="Y389" s="4"/>
     </row>
-    <row r="390" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="43"/>
       <c r="B390" s="43"/>
       <c r="C390" s="43"/>
@@ -11581,7 +11605,7 @@
       <c r="X390" s="4"/>
       <c r="Y390" s="4"/>
     </row>
-    <row r="391" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" s="43"/>
       <c r="B391" s="43"/>
       <c r="C391" s="43"/>
@@ -11608,7 +11632,7 @@
       <c r="X391" s="4"/>
       <c r="Y391" s="4"/>
     </row>
-    <row r="392" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="43"/>
       <c r="B392" s="43"/>
       <c r="C392" s="43"/>
@@ -11635,7 +11659,7 @@
       <c r="X392" s="4"/>
       <c r="Y392" s="4"/>
     </row>
-    <row r="393" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" s="43"/>
       <c r="B393" s="43"/>
       <c r="C393" s="43"/>
@@ -11662,7 +11686,7 @@
       <c r="X393" s="4"/>
       <c r="Y393" s="4"/>
     </row>
-    <row r="394" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="43"/>
       <c r="B394" s="43"/>
       <c r="C394" s="43"/>
@@ -11689,7 +11713,7 @@
       <c r="X394" s="4"/>
       <c r="Y394" s="4"/>
     </row>
-    <row r="395" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" s="43"/>
       <c r="B395" s="43"/>
       <c r="C395" s="43"/>
@@ -11716,7 +11740,7 @@
       <c r="X395" s="4"/>
       <c r="Y395" s="4"/>
     </row>
-    <row r="396" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="43"/>
       <c r="B396" s="43"/>
       <c r="C396" s="43"/>
@@ -11743,7 +11767,7 @@
       <c r="X396" s="4"/>
       <c r="Y396" s="4"/>
     </row>
-    <row r="397" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="43"/>
       <c r="B397" s="43"/>
       <c r="C397" s="43"/>
@@ -11770,7 +11794,7 @@
       <c r="X397" s="4"/>
       <c r="Y397" s="4"/>
     </row>
-    <row r="398" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" s="43"/>
       <c r="B398" s="43"/>
       <c r="C398" s="43"/>
@@ -11797,7 +11821,7 @@
       <c r="X398" s="4"/>
       <c r="Y398" s="4"/>
     </row>
-    <row r="399" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="43"/>
       <c r="B399" s="43"/>
       <c r="C399" s="43"/>
@@ -11824,7 +11848,7 @@
       <c r="X399" s="4"/>
       <c r="Y399" s="4"/>
     </row>
-    <row r="400" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A400" s="43"/>
       <c r="B400" s="43"/>
       <c r="C400" s="43"/>
@@ -11851,7 +11875,7 @@
       <c r="X400" s="4"/>
       <c r="Y400" s="4"/>
     </row>
-    <row r="401" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="43"/>
       <c r="B401" s="43"/>
       <c r="C401" s="43"/>
@@ -11878,7 +11902,7 @@
       <c r="X401" s="4"/>
       <c r="Y401" s="4"/>
     </row>
-    <row r="402" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="43"/>
       <c r="B402" s="43"/>
       <c r="C402" s="43"/>
@@ -11905,7 +11929,7 @@
       <c r="X402" s="4"/>
       <c r="Y402" s="4"/>
     </row>
-    <row r="403" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="43"/>
       <c r="B403" s="43"/>
       <c r="C403" s="43"/>
@@ -11932,7 +11956,7 @@
       <c r="X403" s="4"/>
       <c r="Y403" s="4"/>
     </row>
-    <row r="404" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="43"/>
       <c r="B404" s="43"/>
       <c r="C404" s="43"/>
@@ -11959,7 +11983,7 @@
       <c r="X404" s="4"/>
       <c r="Y404" s="4"/>
     </row>
-    <row r="405" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="43"/>
       <c r="B405" s="43"/>
       <c r="C405" s="43"/>
@@ -11986,7 +12010,7 @@
       <c r="X405" s="4"/>
       <c r="Y405" s="4"/>
     </row>
-    <row r="406" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="43"/>
       <c r="B406" s="43"/>
       <c r="C406" s="43"/>
@@ -12013,7 +12037,7 @@
       <c r="X406" s="4"/>
       <c r="Y406" s="4"/>
     </row>
-    <row r="407" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="43"/>
       <c r="B407" s="43"/>
       <c r="C407" s="43"/>
@@ -12040,7 +12064,7 @@
       <c r="X407" s="4"/>
       <c r="Y407" s="4"/>
     </row>
-    <row r="408" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A408" s="43"/>
       <c r="B408" s="43"/>
       <c r="C408" s="43"/>
@@ -12067,7 +12091,7 @@
       <c r="X408" s="4"/>
       <c r="Y408" s="4"/>
     </row>
-    <row r="409" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="43"/>
       <c r="B409" s="43"/>
       <c r="C409" s="43"/>
@@ -12094,7 +12118,7 @@
       <c r="X409" s="4"/>
       <c r="Y409" s="4"/>
     </row>
-    <row r="410" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="43"/>
       <c r="B410" s="43"/>
       <c r="C410" s="43"/>
@@ -12121,7 +12145,7 @@
       <c r="X410" s="4"/>
       <c r="Y410" s="4"/>
     </row>
-    <row r="411" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="43"/>
       <c r="B411" s="43"/>
       <c r="C411" s="43"/>
@@ -12148,7 +12172,7 @@
       <c r="X411" s="4"/>
       <c r="Y411" s="4"/>
     </row>
-    <row r="412" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="43"/>
       <c r="B412" s="43"/>
       <c r="C412" s="43"/>
@@ -12175,7 +12199,7 @@
       <c r="X412" s="4"/>
       <c r="Y412" s="4"/>
     </row>
-    <row r="413" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="43"/>
       <c r="B413" s="43"/>
       <c r="C413" s="43"/>
@@ -12202,7 +12226,7 @@
       <c r="X413" s="4"/>
       <c r="Y413" s="4"/>
     </row>
-    <row r="414" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A414" s="43"/>
       <c r="B414" s="43"/>
       <c r="C414" s="43"/>
@@ -12229,7 +12253,7 @@
       <c r="X414" s="4"/>
       <c r="Y414" s="4"/>
     </row>
-    <row r="415" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="43"/>
       <c r="B415" s="43"/>
       <c r="C415" s="43"/>
@@ -12256,7 +12280,7 @@
       <c r="X415" s="4"/>
       <c r="Y415" s="4"/>
     </row>
-    <row r="416" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A416" s="43"/>
       <c r="B416" s="43"/>
       <c r="C416" s="43"/>
@@ -12283,7 +12307,7 @@
       <c r="X416" s="4"/>
       <c r="Y416" s="4"/>
     </row>
-    <row r="417" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="43"/>
       <c r="B417" s="43"/>
       <c r="C417" s="43"/>
@@ -12310,7 +12334,7 @@
       <c r="X417" s="4"/>
       <c r="Y417" s="4"/>
     </row>
-    <row r="418" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A418" s="43"/>
       <c r="B418" s="43"/>
       <c r="C418" s="43"/>
@@ -12337,7 +12361,7 @@
       <c r="X418" s="4"/>
       <c r="Y418" s="4"/>
     </row>
-    <row r="419" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="43"/>
       <c r="B419" s="43"/>
       <c r="C419" s="43"/>
@@ -12364,7 +12388,7 @@
       <c r="X419" s="4"/>
       <c r="Y419" s="4"/>
     </row>
-    <row r="420" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A420" s="43"/>
       <c r="B420" s="43"/>
       <c r="C420" s="43"/>
@@ -12391,7 +12415,7 @@
       <c r="X420" s="4"/>
       <c r="Y420" s="4"/>
     </row>
-    <row r="421" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="43"/>
       <c r="B421" s="43"/>
       <c r="C421" s="43"/>
@@ -12418,7 +12442,7 @@
       <c r="X421" s="4"/>
       <c r="Y421" s="4"/>
     </row>
-    <row r="422" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="43"/>
       <c r="B422" s="43"/>
       <c r="C422" s="43"/>
@@ -12445,7 +12469,7 @@
       <c r="X422" s="4"/>
       <c r="Y422" s="4"/>
     </row>
-    <row r="423" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="43"/>
       <c r="B423" s="43"/>
       <c r="C423" s="43"/>
@@ -12472,7 +12496,7 @@
       <c r="X423" s="4"/>
       <c r="Y423" s="4"/>
     </row>
-    <row r="424" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="43"/>
       <c r="B424" s="43"/>
       <c r="C424" s="43"/>
@@ -12499,7 +12523,7 @@
       <c r="X424" s="4"/>
       <c r="Y424" s="4"/>
     </row>
-    <row r="425" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A425" s="43"/>
       <c r="B425" s="43"/>
       <c r="C425" s="43"/>
@@ -12526,7 +12550,7 @@
       <c r="X425" s="4"/>
       <c r="Y425" s="4"/>
     </row>
-    <row r="426" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="43"/>
       <c r="B426" s="43"/>
       <c r="C426" s="43"/>
@@ -12553,7 +12577,7 @@
       <c r="X426" s="4"/>
       <c r="Y426" s="4"/>
     </row>
-    <row r="427" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A427" s="43"/>
       <c r="B427" s="43"/>
       <c r="C427" s="43"/>
@@ -12580,7 +12604,7 @@
       <c r="X427" s="4"/>
       <c r="Y427" s="4"/>
     </row>
-    <row r="428" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="43"/>
       <c r="B428" s="43"/>
       <c r="C428" s="43"/>
@@ -12607,7 +12631,7 @@
       <c r="X428" s="4"/>
       <c r="Y428" s="4"/>
     </row>
-    <row r="429" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A429" s="43"/>
       <c r="B429" s="43"/>
       <c r="C429" s="43"/>
@@ -12634,7 +12658,7 @@
       <c r="X429" s="4"/>
       <c r="Y429" s="4"/>
     </row>
-    <row r="430" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="43"/>
       <c r="B430" s="43"/>
       <c r="C430" s="43"/>
@@ -12661,7 +12685,7 @@
       <c r="X430" s="4"/>
       <c r="Y430" s="4"/>
     </row>
-    <row r="431" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A431" s="43"/>
       <c r="B431" s="43"/>
       <c r="C431" s="43"/>
@@ -12688,7 +12712,7 @@
       <c r="X431" s="4"/>
       <c r="Y431" s="4"/>
     </row>
-    <row r="432" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="43"/>
       <c r="B432" s="43"/>
       <c r="C432" s="43"/>
@@ -12715,7 +12739,7 @@
       <c r="X432" s="4"/>
       <c r="Y432" s="4"/>
     </row>
-    <row r="433" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A433" s="43"/>
       <c r="B433" s="43"/>
       <c r="C433" s="43"/>
@@ -12742,7 +12766,7 @@
       <c r="X433" s="4"/>
       <c r="Y433" s="4"/>
     </row>
-    <row r="434" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="43"/>
       <c r="B434" s="43"/>
       <c r="C434" s="43"/>
@@ -12769,7 +12793,7 @@
       <c r="X434" s="4"/>
       <c r="Y434" s="4"/>
     </row>
-    <row r="435" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A435" s="43"/>
       <c r="B435" s="43"/>
       <c r="C435" s="43"/>
@@ -12796,7 +12820,7 @@
       <c r="X435" s="4"/>
       <c r="Y435" s="4"/>
     </row>
-    <row r="436" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="43"/>
       <c r="B436" s="43"/>
       <c r="C436" s="43"/>
@@ -12823,7 +12847,7 @@
       <c r="X436" s="4"/>
       <c r="Y436" s="4"/>
     </row>
-    <row r="437" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A437" s="43"/>
       <c r="B437" s="43"/>
       <c r="C437" s="43"/>
@@ -12850,7 +12874,7 @@
       <c r="X437" s="4"/>
       <c r="Y437" s="4"/>
     </row>
-    <row r="438" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="43"/>
       <c r="B438" s="43"/>
       <c r="C438" s="43"/>
@@ -12877,7 +12901,7 @@
       <c r="X438" s="4"/>
       <c r="Y438" s="4"/>
     </row>
-    <row r="439" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A439" s="43"/>
       <c r="B439" s="43"/>
       <c r="C439" s="43"/>
@@ -12904,7 +12928,7 @@
       <c r="X439" s="4"/>
       <c r="Y439" s="4"/>
     </row>
-    <row r="440" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="43"/>
       <c r="B440" s="43"/>
       <c r="C440" s="43"/>
@@ -12931,7 +12955,7 @@
       <c r="X440" s="4"/>
       <c r="Y440" s="4"/>
     </row>
-    <row r="441" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A441" s="43"/>
       <c r="B441" s="43"/>
       <c r="C441" s="43"/>
@@ -12958,7 +12982,7 @@
       <c r="X441" s="4"/>
       <c r="Y441" s="4"/>
     </row>
-    <row r="442" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="43"/>
       <c r="B442" s="43"/>
       <c r="C442" s="43"/>
@@ -12985,7 +13009,7 @@
       <c r="X442" s="4"/>
       <c r="Y442" s="4"/>
     </row>
-    <row r="443" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A443" s="43"/>
       <c r="B443" s="43"/>
       <c r="C443" s="43"/>
@@ -13012,7 +13036,7 @@
       <c r="X443" s="4"/>
       <c r="Y443" s="4"/>
     </row>
-    <row r="444" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="43"/>
       <c r="B444" s="43"/>
       <c r="C444" s="43"/>
@@ -13039,7 +13063,7 @@
       <c r="X444" s="4"/>
       <c r="Y444" s="4"/>
     </row>
-    <row r="445" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A445" s="43"/>
       <c r="B445" s="43"/>
       <c r="C445" s="43"/>
@@ -13066,7 +13090,7 @@
       <c r="X445" s="4"/>
       <c r="Y445" s="4"/>
     </row>
-    <row r="446" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="43"/>
       <c r="B446" s="43"/>
       <c r="C446" s="43"/>
@@ -13093,7 +13117,7 @@
       <c r="X446" s="4"/>
       <c r="Y446" s="4"/>
     </row>
-    <row r="447" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A447" s="43"/>
       <c r="B447" s="43"/>
       <c r="C447" s="43"/>
@@ -13120,7 +13144,7 @@
       <c r="X447" s="4"/>
       <c r="Y447" s="4"/>
     </row>
-    <row r="448" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="43"/>
       <c r="B448" s="43"/>
       <c r="C448" s="43"/>
@@ -13147,7 +13171,7 @@
       <c r="X448" s="4"/>
       <c r="Y448" s="4"/>
     </row>
-    <row r="449" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A449" s="43"/>
       <c r="B449" s="43"/>
       <c r="C449" s="43"/>
@@ -13174,7 +13198,7 @@
       <c r="X449" s="4"/>
       <c r="Y449" s="4"/>
     </row>
-    <row r="450" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="43"/>
       <c r="B450" s="43"/>
       <c r="C450" s="43"/>
@@ -13201,7 +13225,7 @@
       <c r="X450" s="4"/>
       <c r="Y450" s="4"/>
     </row>
-    <row r="451" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A451" s="43"/>
       <c r="B451" s="43"/>
       <c r="C451" s="43"/>
@@ -13228,7 +13252,7 @@
       <c r="X451" s="4"/>
       <c r="Y451" s="4"/>
     </row>
-    <row r="452" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="43"/>
       <c r="B452" s="43"/>
       <c r="C452" s="43"/>
@@ -13255,7 +13279,7 @@
       <c r="X452" s="4"/>
       <c r="Y452" s="4"/>
     </row>
-    <row r="453" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A453" s="43"/>
       <c r="B453" s="43"/>
       <c r="C453" s="43"/>
@@ -13282,7 +13306,7 @@
       <c r="X453" s="4"/>
       <c r="Y453" s="4"/>
     </row>
-    <row r="454" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="43"/>
       <c r="B454" s="43"/>
       <c r="C454" s="43"/>
@@ -13309,7 +13333,7 @@
       <c r="X454" s="4"/>
       <c r="Y454" s="4"/>
     </row>
-    <row r="455" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A455" s="43"/>
       <c r="B455" s="43"/>
       <c r="C455" s="43"/>
@@ -13336,7 +13360,7 @@
       <c r="X455" s="4"/>
       <c r="Y455" s="4"/>
     </row>
-    <row r="456" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A456" s="43"/>
       <c r="B456" s="43"/>
       <c r="C456" s="43"/>
@@ -13363,7 +13387,7 @@
       <c r="X456" s="4"/>
       <c r="Y456" s="4"/>
     </row>
-    <row r="457" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A457" s="43"/>
       <c r="B457" s="43"/>
       <c r="C457" s="43"/>
@@ -13390,7 +13414,7 @@
       <c r="X457" s="4"/>
       <c r="Y457" s="4"/>
     </row>
-    <row r="458" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A458" s="43"/>
       <c r="B458" s="43"/>
       <c r="C458" s="43"/>
@@ -13417,7 +13441,7 @@
       <c r="X458" s="4"/>
       <c r="Y458" s="4"/>
     </row>
-    <row r="459" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A459" s="43"/>
       <c r="B459" s="43"/>
       <c r="C459" s="43"/>
@@ -13444,7 +13468,7 @@
       <c r="X459" s="4"/>
       <c r="Y459" s="4"/>
     </row>
-    <row r="460" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="43"/>
       <c r="B460" s="43"/>
       <c r="C460" s="43"/>
@@ -13471,7 +13495,7 @@
       <c r="X460" s="4"/>
       <c r="Y460" s="4"/>
     </row>
-    <row r="461" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A461" s="43"/>
       <c r="B461" s="43"/>
       <c r="C461" s="43"/>
@@ -13498,7 +13522,7 @@
       <c r="X461" s="4"/>
       <c r="Y461" s="4"/>
     </row>
-    <row r="462" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="43"/>
       <c r="B462" s="43"/>
       <c r="C462" s="43"/>
@@ -13525,7 +13549,7 @@
       <c r="X462" s="4"/>
       <c r="Y462" s="4"/>
     </row>
-    <row r="463" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A463" s="43"/>
       <c r="B463" s="43"/>
       <c r="C463" s="43"/>
@@ -13552,7 +13576,7 @@
       <c r="X463" s="4"/>
       <c r="Y463" s="4"/>
     </row>
-    <row r="464" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A464" s="43"/>
       <c r="B464" s="43"/>
       <c r="C464" s="43"/>
@@ -13579,7 +13603,7 @@
       <c r="X464" s="4"/>
       <c r="Y464" s="4"/>
     </row>
-    <row r="465" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A465" s="43"/>
       <c r="B465" s="43"/>
       <c r="C465" s="43"/>
@@ -13606,7 +13630,7 @@
       <c r="X465" s="4"/>
       <c r="Y465" s="4"/>
     </row>
-    <row r="466" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A466" s="43"/>
       <c r="B466" s="43"/>
       <c r="C466" s="43"/>
@@ -13633,7 +13657,7 @@
       <c r="X466" s="4"/>
       <c r="Y466" s="4"/>
     </row>
-    <row r="467" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A467" s="43"/>
       <c r="B467" s="43"/>
       <c r="C467" s="43"/>
@@ -13660,7 +13684,7 @@
       <c r="X467" s="4"/>
       <c r="Y467" s="4"/>
     </row>
-    <row r="468" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A468" s="43"/>
       <c r="B468" s="43"/>
       <c r="C468" s="43"/>
@@ -13687,7 +13711,7 @@
       <c r="X468" s="4"/>
       <c r="Y468" s="4"/>
     </row>
-    <row r="469" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="43"/>
       <c r="B469" s="43"/>
       <c r="C469" s="43"/>
@@ -13714,7 +13738,7 @@
       <c r="X469" s="4"/>
       <c r="Y469" s="4"/>
     </row>
-    <row r="470" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A470" s="43"/>
       <c r="B470" s="43"/>
       <c r="C470" s="43"/>
@@ -13741,7 +13765,7 @@
       <c r="X470" s="4"/>
       <c r="Y470" s="4"/>
     </row>
-    <row r="471" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A471" s="43"/>
       <c r="B471" s="43"/>
       <c r="C471" s="43"/>
@@ -13768,7 +13792,7 @@
       <c r="X471" s="4"/>
       <c r="Y471" s="4"/>
     </row>
-    <row r="472" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A472" s="43"/>
       <c r="B472" s="43"/>
       <c r="C472" s="43"/>
@@ -13795,7 +13819,7 @@
       <c r="X472" s="4"/>
       <c r="Y472" s="4"/>
     </row>
-    <row r="473" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A473" s="43"/>
       <c r="B473" s="43"/>
       <c r="C473" s="43"/>
@@ -13822,7 +13846,7 @@
       <c r="X473" s="4"/>
       <c r="Y473" s="4"/>
     </row>
-    <row r="474" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A474" s="43"/>
       <c r="B474" s="43"/>
       <c r="C474" s="43"/>
@@ -13849,7 +13873,7 @@
       <c r="X474" s="4"/>
       <c r="Y474" s="4"/>
     </row>
-    <row r="475" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A475" s="43"/>
       <c r="B475" s="43"/>
       <c r="C475" s="43"/>
@@ -13876,7 +13900,7 @@
       <c r="X475" s="4"/>
       <c r="Y475" s="4"/>
     </row>
-    <row r="476" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A476" s="43"/>
       <c r="B476" s="43"/>
       <c r="C476" s="43"/>
@@ -13903,7 +13927,7 @@
       <c r="X476" s="4"/>
       <c r="Y476" s="4"/>
     </row>
-    <row r="477" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A477" s="43"/>
       <c r="B477" s="43"/>
       <c r="C477" s="43"/>
@@ -13930,7 +13954,7 @@
       <c r="X477" s="4"/>
       <c r="Y477" s="4"/>
     </row>
-    <row r="478" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A478" s="43"/>
       <c r="B478" s="43"/>
       <c r="C478" s="43"/>
@@ -13957,7 +13981,7 @@
       <c r="X478" s="4"/>
       <c r="Y478" s="4"/>
     </row>
-    <row r="479" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A479" s="43"/>
       <c r="B479" s="43"/>
       <c r="C479" s="43"/>
@@ -13984,7 +14008,7 @@
       <c r="X479" s="4"/>
       <c r="Y479" s="4"/>
     </row>
-    <row r="480" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A480" s="43"/>
       <c r="B480" s="43"/>
       <c r="C480" s="43"/>
@@ -14011,7 +14035,7 @@
       <c r="X480" s="4"/>
       <c r="Y480" s="4"/>
     </row>
-    <row r="481" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A481" s="43"/>
       <c r="B481" s="43"/>
       <c r="C481" s="43"/>
@@ -14038,7 +14062,7 @@
       <c r="X481" s="4"/>
       <c r="Y481" s="4"/>
     </row>
-    <row r="482" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A482" s="43"/>
       <c r="B482" s="43"/>
       <c r="C482" s="43"/>
@@ -14065,7 +14089,7 @@
       <c r="X482" s="4"/>
       <c r="Y482" s="4"/>
     </row>
-    <row r="483" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A483" s="43"/>
       <c r="B483" s="43"/>
       <c r="C483" s="43"/>
@@ -14092,7 +14116,7 @@
       <c r="X483" s="4"/>
       <c r="Y483" s="4"/>
     </row>
-    <row r="484" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A484" s="43"/>
       <c r="B484" s="43"/>
       <c r="C484" s="43"/>
@@ -14119,7 +14143,7 @@
       <c r="X484" s="4"/>
       <c r="Y484" s="4"/>
     </row>
-    <row r="485" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A485" s="43"/>
       <c r="B485" s="43"/>
       <c r="C485" s="43"/>
@@ -14146,7 +14170,7 @@
       <c r="X485" s="4"/>
       <c r="Y485" s="4"/>
     </row>
-    <row r="486" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A486" s="43"/>
       <c r="B486" s="43"/>
       <c r="C486" s="43"/>
@@ -14173,7 +14197,7 @@
       <c r="X486" s="4"/>
       <c r="Y486" s="4"/>
     </row>
-    <row r="487" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A487" s="43"/>
       <c r="B487" s="43"/>
       <c r="C487" s="43"/>
@@ -14200,7 +14224,7 @@
       <c r="X487" s="4"/>
       <c r="Y487" s="4"/>
     </row>
-    <row r="488" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A488" s="43"/>
       <c r="B488" s="43"/>
       <c r="C488" s="43"/>
@@ -14227,7 +14251,7 @@
       <c r="X488" s="4"/>
       <c r="Y488" s="4"/>
     </row>
-    <row r="489" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A489" s="43"/>
       <c r="B489" s="43"/>
       <c r="C489" s="43"/>
@@ -14254,7 +14278,7 @@
       <c r="X489" s="4"/>
       <c r="Y489" s="4"/>
     </row>
-    <row r="490" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A490" s="43"/>
       <c r="B490" s="43"/>
       <c r="C490" s="43"/>
@@ -14281,7 +14305,7 @@
       <c r="X490" s="4"/>
       <c r="Y490" s="4"/>
     </row>
-    <row r="491" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A491" s="43"/>
       <c r="B491" s="43"/>
       <c r="C491" s="43"/>
@@ -14308,7 +14332,7 @@
       <c r="X491" s="4"/>
       <c r="Y491" s="4"/>
     </row>
-    <row r="492" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A492" s="43"/>
       <c r="B492" s="43"/>
       <c r="C492" s="43"/>
@@ -14335,7 +14359,7 @@
       <c r="X492" s="4"/>
       <c r="Y492" s="4"/>
     </row>
-    <row r="493" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A493" s="43"/>
       <c r="B493" s="43"/>
       <c r="C493" s="43"/>
@@ -14362,7 +14386,7 @@
       <c r="X493" s="4"/>
       <c r="Y493" s="4"/>
     </row>
-    <row r="494" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="43"/>
       <c r="B494" s="43"/>
       <c r="C494" s="43"/>
@@ -14389,7 +14413,7 @@
       <c r="X494" s="4"/>
       <c r="Y494" s="4"/>
     </row>
-    <row r="495" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A495" s="43"/>
       <c r="B495" s="43"/>
       <c r="C495" s="43"/>
@@ -14416,7 +14440,7 @@
       <c r="X495" s="4"/>
       <c r="Y495" s="4"/>
     </row>
-    <row r="496" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="43"/>
       <c r="B496" s="43"/>
       <c r="C496" s="43"/>
@@ -14443,7 +14467,7 @@
       <c r="X496" s="4"/>
       <c r="Y496" s="4"/>
     </row>
-    <row r="497" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A497" s="43"/>
       <c r="B497" s="43"/>
       <c r="C497" s="43"/>
@@ -14470,7 +14494,7 @@
       <c r="X497" s="4"/>
       <c r="Y497" s="4"/>
     </row>
-    <row r="498" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A498" s="43"/>
       <c r="B498" s="43"/>
       <c r="C498" s="43"/>
@@ -14497,7 +14521,7 @@
       <c r="X498" s="4"/>
       <c r="Y498" s="4"/>
     </row>
-    <row r="499" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A499" s="43"/>
       <c r="B499" s="43"/>
       <c r="C499" s="43"/>
@@ -14524,7 +14548,7 @@
       <c r="X499" s="4"/>
       <c r="Y499" s="4"/>
     </row>
-    <row r="500" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A500" s="43"/>
       <c r="B500" s="43"/>
       <c r="C500" s="43"/>
@@ -14551,7 +14575,7 @@
       <c r="X500" s="4"/>
       <c r="Y500" s="4"/>
     </row>
-    <row r="501" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A501" s="43"/>
       <c r="B501" s="43"/>
       <c r="C501" s="43"/>
@@ -14578,7 +14602,7 @@
       <c r="X501" s="4"/>
       <c r="Y501" s="4"/>
     </row>
-    <row r="502" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A502" s="43"/>
       <c r="B502" s="43"/>
       <c r="C502" s="43"/>
@@ -14605,7 +14629,7 @@
       <c r="X502" s="4"/>
       <c r="Y502" s="4"/>
     </row>
-    <row r="503" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A503" s="43"/>
       <c r="B503" s="43"/>
       <c r="C503" s="43"/>
@@ -14632,7 +14656,7 @@
       <c r="X503" s="4"/>
       <c r="Y503" s="4"/>
     </row>
-    <row r="504" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A504" s="43"/>
       <c r="B504" s="43"/>
       <c r="C504" s="43"/>
@@ -14659,7 +14683,7 @@
       <c r="X504" s="4"/>
       <c r="Y504" s="4"/>
     </row>
-    <row r="505" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A505" s="43"/>
       <c r="B505" s="43"/>
       <c r="C505" s="43"/>
@@ -14686,7 +14710,7 @@
       <c r="X505" s="4"/>
       <c r="Y505" s="4"/>
     </row>
-    <row r="506" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A506" s="43"/>
       <c r="B506" s="43"/>
       <c r="C506" s="43"/>
@@ -14713,7 +14737,7 @@
       <c r="X506" s="4"/>
       <c r="Y506" s="4"/>
     </row>
-    <row r="507" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A507" s="43"/>
       <c r="B507" s="43"/>
       <c r="C507" s="43"/>
@@ -14740,7 +14764,7 @@
       <c r="X507" s="4"/>
       <c r="Y507" s="4"/>
     </row>
-    <row r="508" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A508" s="43"/>
       <c r="B508" s="43"/>
       <c r="C508" s="43"/>
@@ -14767,7 +14791,7 @@
       <c r="X508" s="4"/>
       <c r="Y508" s="4"/>
     </row>
-    <row r="509" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A509" s="43"/>
       <c r="B509" s="43"/>
       <c r="C509" s="43"/>
@@ -14794,7 +14818,7 @@
       <c r="X509" s="4"/>
       <c r="Y509" s="4"/>
     </row>
-    <row r="510" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A510" s="43"/>
       <c r="B510" s="43"/>
       <c r="C510" s="43"/>
@@ -14821,7 +14845,7 @@
       <c r="X510" s="4"/>
       <c r="Y510" s="4"/>
     </row>
-    <row r="511" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A511" s="43"/>
       <c r="B511" s="43"/>
       <c r="C511" s="43"/>
@@ -14848,7 +14872,7 @@
       <c r="X511" s="4"/>
       <c r="Y511" s="4"/>
     </row>
-    <row r="512" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A512" s="43"/>
       <c r="B512" s="43"/>
       <c r="C512" s="43"/>
@@ -14875,7 +14899,7 @@
       <c r="X512" s="4"/>
       <c r="Y512" s="4"/>
     </row>
-    <row r="513" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A513" s="43"/>
       <c r="B513" s="43"/>
       <c r="C513" s="43"/>
@@ -14902,7 +14926,7 @@
       <c r="X513" s="4"/>
       <c r="Y513" s="4"/>
     </row>
-    <row r="514" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A514" s="43"/>
       <c r="B514" s="43"/>
       <c r="C514" s="43"/>
@@ -14929,7 +14953,7 @@
       <c r="X514" s="4"/>
       <c r="Y514" s="4"/>
     </row>
-    <row r="515" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A515" s="43"/>
       <c r="B515" s="43"/>
       <c r="C515" s="43"/>
@@ -14956,7 +14980,7 @@
       <c r="X515" s="4"/>
       <c r="Y515" s="4"/>
     </row>
-    <row r="516" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A516" s="43"/>
       <c r="B516" s="43"/>
       <c r="C516" s="43"/>
@@ -14983,7 +15007,7 @@
       <c r="X516" s="4"/>
       <c r="Y516" s="4"/>
     </row>
-    <row r="517" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A517" s="43"/>
       <c r="B517" s="43"/>
       <c r="C517" s="43"/>
@@ -15010,7 +15034,7 @@
       <c r="X517" s="4"/>
       <c r="Y517" s="4"/>
     </row>
-    <row r="518" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A518" s="43"/>
       <c r="B518" s="43"/>
       <c r="C518" s="43"/>
@@ -15037,7 +15061,7 @@
       <c r="X518" s="4"/>
       <c r="Y518" s="4"/>
     </row>
-    <row r="519" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A519" s="43"/>
       <c r="B519" s="43"/>
       <c r="C519" s="43"/>
@@ -15064,7 +15088,7 @@
       <c r="X519" s="4"/>
       <c r="Y519" s="4"/>
     </row>
-    <row r="520" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A520" s="43"/>
       <c r="B520" s="43"/>
       <c r="C520" s="43"/>
@@ -15091,7 +15115,7 @@
       <c r="X520" s="4"/>
       <c r="Y520" s="4"/>
     </row>
-    <row r="521" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A521" s="43"/>
       <c r="B521" s="43"/>
       <c r="C521" s="43"/>
@@ -15118,7 +15142,7 @@
       <c r="X521" s="4"/>
       <c r="Y521" s="4"/>
     </row>
-    <row r="522" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A522" s="43"/>
       <c r="B522" s="43"/>
       <c r="C522" s="43"/>
@@ -15145,7 +15169,7 @@
       <c r="X522" s="4"/>
       <c r="Y522" s="4"/>
     </row>
-    <row r="523" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A523" s="43"/>
       <c r="B523" s="43"/>
       <c r="C523" s="43"/>
@@ -15172,7 +15196,7 @@
       <c r="X523" s="4"/>
       <c r="Y523" s="4"/>
     </row>
-    <row r="524" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A524" s="43"/>
       <c r="B524" s="43"/>
       <c r="C524" s="43"/>
@@ -15199,7 +15223,7 @@
       <c r="X524" s="4"/>
       <c r="Y524" s="4"/>
     </row>
-    <row r="525" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A525" s="43"/>
       <c r="B525" s="43"/>
       <c r="C525" s="43"/>
@@ -15226,7 +15250,7 @@
       <c r="X525" s="4"/>
       <c r="Y525" s="4"/>
     </row>
-    <row r="526" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A526" s="43"/>
       <c r="B526" s="43"/>
       <c r="C526" s="43"/>
@@ -15253,7 +15277,7 @@
       <c r="X526" s="4"/>
       <c r="Y526" s="4"/>
     </row>
-    <row r="527" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A527" s="43"/>
       <c r="B527" s="43"/>
       <c r="C527" s="43"/>
@@ -15280,7 +15304,7 @@
       <c r="X527" s="4"/>
       <c r="Y527" s="4"/>
     </row>
-    <row r="528" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A528" s="43"/>
       <c r="B528" s="43"/>
       <c r="C528" s="43"/>
@@ -15307,7 +15331,7 @@
       <c r="X528" s="4"/>
       <c r="Y528" s="4"/>
     </row>
-    <row r="529" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A529" s="43"/>
       <c r="B529" s="43"/>
       <c r="C529" s="43"/>
@@ -15334,7 +15358,7 @@
       <c r="X529" s="4"/>
       <c r="Y529" s="4"/>
     </row>
-    <row r="530" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A530" s="43"/>
       <c r="B530" s="43"/>
       <c r="C530" s="43"/>
@@ -15361,7 +15385,7 @@
       <c r="X530" s="4"/>
       <c r="Y530" s="4"/>
     </row>
-    <row r="531" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A531" s="43"/>
       <c r="B531" s="43"/>
       <c r="C531" s="43"/>
@@ -15388,7 +15412,7 @@
       <c r="X531" s="4"/>
       <c r="Y531" s="4"/>
     </row>
-    <row r="532" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A532" s="43"/>
       <c r="B532" s="43"/>
       <c r="C532" s="43"/>
@@ -15415,7 +15439,7 @@
       <c r="X532" s="4"/>
       <c r="Y532" s="4"/>
     </row>
-    <row r="533" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A533" s="43"/>
       <c r="B533" s="43"/>
       <c r="C533" s="43"/>
@@ -15442,7 +15466,7 @@
       <c r="X533" s="4"/>
       <c r="Y533" s="4"/>
     </row>
-    <row r="534" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A534" s="43"/>
       <c r="B534" s="43"/>
       <c r="C534" s="43"/>
@@ -15469,7 +15493,7 @@
       <c r="X534" s="4"/>
       <c r="Y534" s="4"/>
     </row>
-    <row r="535" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A535" s="43"/>
       <c r="B535" s="43"/>
       <c r="C535" s="43"/>
@@ -15496,7 +15520,7 @@
       <c r="X535" s="4"/>
       <c r="Y535" s="4"/>
     </row>
-    <row r="536" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A536" s="43"/>
       <c r="B536" s="43"/>
       <c r="C536" s="43"/>
@@ -15523,7 +15547,7 @@
       <c r="X536" s="4"/>
       <c r="Y536" s="4"/>
     </row>
-    <row r="537" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A537" s="43"/>
       <c r="B537" s="43"/>
       <c r="C537" s="43"/>
@@ -15550,7 +15574,7 @@
       <c r="X537" s="4"/>
       <c r="Y537" s="4"/>
     </row>
-    <row r="538" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A538" s="43"/>
       <c r="B538" s="43"/>
       <c r="C538" s="43"/>
@@ -15577,7 +15601,7 @@
       <c r="X538" s="4"/>
       <c r="Y538" s="4"/>
     </row>
-    <row r="539" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A539" s="43"/>
       <c r="B539" s="43"/>
       <c r="C539" s="43"/>
@@ -15604,7 +15628,7 @@
       <c r="X539" s="4"/>
       <c r="Y539" s="4"/>
     </row>
-    <row r="540" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A540" s="43"/>
       <c r="B540" s="43"/>
       <c r="C540" s="43"/>
@@ -15631,7 +15655,7 @@
       <c r="X540" s="4"/>
       <c r="Y540" s="4"/>
     </row>
-    <row r="541" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A541" s="43"/>
       <c r="B541" s="43"/>
       <c r="C541" s="43"/>
@@ -15658,7 +15682,7 @@
       <c r="X541" s="4"/>
       <c r="Y541" s="4"/>
     </row>
-    <row r="542" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A542" s="43"/>
       <c r="B542" s="43"/>
       <c r="C542" s="43"/>
@@ -15685,7 +15709,7 @@
       <c r="X542" s="4"/>
       <c r="Y542" s="4"/>
     </row>
-    <row r="543" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A543" s="43"/>
       <c r="B543" s="43"/>
       <c r="C543" s="43"/>
@@ -15712,7 +15736,7 @@
       <c r="X543" s="4"/>
       <c r="Y543" s="4"/>
     </row>
-    <row r="544" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A544" s="43"/>
       <c r="B544" s="43"/>
       <c r="C544" s="43"/>
@@ -15739,7 +15763,7 @@
       <c r="X544" s="4"/>
       <c r="Y544" s="4"/>
     </row>
-    <row r="545" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A545" s="43"/>
       <c r="B545" s="43"/>
       <c r="C545" s="43"/>
@@ -15766,7 +15790,7 @@
       <c r="X545" s="4"/>
       <c r="Y545" s="4"/>
     </row>
-    <row r="546" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A546" s="43"/>
       <c r="B546" s="43"/>
       <c r="C546" s="43"/>
@@ -15793,7 +15817,7 @@
       <c r="X546" s="4"/>
       <c r="Y546" s="4"/>
     </row>
-    <row r="547" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A547" s="43"/>
       <c r="B547" s="43"/>
       <c r="C547" s="43"/>
@@ -15820,7 +15844,7 @@
       <c r="X547" s="4"/>
       <c r="Y547" s="4"/>
     </row>
-    <row r="548" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A548" s="43"/>
       <c r="B548" s="43"/>
       <c r="C548" s="43"/>
@@ -15847,7 +15871,7 @@
       <c r="X548" s="4"/>
       <c r="Y548" s="4"/>
     </row>
-    <row r="549" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A549" s="43"/>
       <c r="B549" s="43"/>
       <c r="C549" s="43"/>
@@ -15874,7 +15898,7 @@
       <c r="X549" s="4"/>
       <c r="Y549" s="4"/>
     </row>
-    <row r="550" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A550" s="43"/>
       <c r="B550" s="43"/>
       <c r="C550" s="43"/>
@@ -15901,7 +15925,7 @@
       <c r="X550" s="4"/>
       <c r="Y550" s="4"/>
     </row>
-    <row r="551" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A551" s="43"/>
       <c r="B551" s="43"/>
       <c r="C551" s="43"/>
@@ -15928,7 +15952,7 @@
       <c r="X551" s="4"/>
       <c r="Y551" s="4"/>
     </row>
-    <row r="552" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A552" s="43"/>
       <c r="B552" s="43"/>
       <c r="C552" s="43"/>
@@ -15955,7 +15979,7 @@
       <c r="X552" s="4"/>
       <c r="Y552" s="4"/>
     </row>
-    <row r="553" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A553" s="43"/>
       <c r="B553" s="43"/>
       <c r="C553" s="43"/>
@@ -15982,7 +16006,7 @@
       <c r="X553" s="4"/>
       <c r="Y553" s="4"/>
     </row>
-    <row r="554" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A554" s="43"/>
       <c r="B554" s="43"/>
       <c r="C554" s="43"/>
@@ -16009,7 +16033,7 @@
       <c r="X554" s="4"/>
       <c r="Y554" s="4"/>
     </row>
-    <row r="555" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A555" s="43"/>
       <c r="B555" s="43"/>
       <c r="C555" s="43"/>
@@ -16036,7 +16060,7 @@
       <c r="X555" s="4"/>
       <c r="Y555" s="4"/>
     </row>
-    <row r="556" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A556" s="43"/>
       <c r="B556" s="43"/>
       <c r="C556" s="43"/>
@@ -16063,7 +16087,7 @@
       <c r="X556" s="4"/>
       <c r="Y556" s="4"/>
     </row>
-    <row r="557" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A557" s="43"/>
       <c r="B557" s="43"/>
       <c r="C557" s="43"/>
@@ -16090,7 +16114,7 @@
       <c r="X557" s="4"/>
       <c r="Y557" s="4"/>
     </row>
-    <row r="558" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A558" s="43"/>
       <c r="B558" s="43"/>
       <c r="C558" s="43"/>
@@ -16117,7 +16141,7 @@
       <c r="X558" s="4"/>
       <c r="Y558" s="4"/>
     </row>
-    <row r="559" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A559" s="43"/>
       <c r="B559" s="43"/>
       <c r="C559" s="43"/>
@@ -16144,7 +16168,7 @@
       <c r="X559" s="4"/>
       <c r="Y559" s="4"/>
     </row>
-    <row r="560" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A560" s="43"/>
       <c r="B560" s="43"/>
       <c r="C560" s="43"/>
@@ -16171,7 +16195,7 @@
       <c r="X560" s="4"/>
       <c r="Y560" s="4"/>
     </row>
-    <row r="561" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A561" s="43"/>
       <c r="B561" s="43"/>
       <c r="C561" s="43"/>
@@ -16198,7 +16222,7 @@
       <c r="X561" s="4"/>
       <c r="Y561" s="4"/>
     </row>
-    <row r="562" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A562" s="43"/>
       <c r="B562" s="43"/>
       <c r="C562" s="43"/>
@@ -16225,7 +16249,7 @@
       <c r="X562" s="4"/>
       <c r="Y562" s="4"/>
     </row>
-    <row r="563" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A563" s="43"/>
       <c r="B563" s="43"/>
       <c r="C563" s="43"/>
@@ -16252,7 +16276,7 @@
       <c r="X563" s="4"/>
       <c r="Y563" s="4"/>
     </row>
-    <row r="564" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A564" s="43"/>
       <c r="B564" s="43"/>
       <c r="C564" s="43"/>
@@ -16279,7 +16303,7 @@
       <c r="X564" s="4"/>
       <c r="Y564" s="4"/>
     </row>
-    <row r="565" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A565" s="43"/>
       <c r="B565" s="43"/>
       <c r="C565" s="43"/>
@@ -16306,7 +16330,7 @@
       <c r="X565" s="4"/>
       <c r="Y565" s="4"/>
     </row>
-    <row r="566" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A566" s="43"/>
       <c r="B566" s="43"/>
       <c r="C566" s="43"/>
@@ -16333,7 +16357,7 @@
       <c r="X566" s="4"/>
       <c r="Y566" s="4"/>
     </row>
-    <row r="567" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A567" s="43"/>
       <c r="B567" s="43"/>
       <c r="C567" s="43"/>
@@ -16360,7 +16384,7 @@
       <c r="X567" s="4"/>
       <c r="Y567" s="4"/>
     </row>
-    <row r="568" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A568" s="43"/>
       <c r="B568" s="43"/>
       <c r="C568" s="43"/>
@@ -16387,7 +16411,7 @@
       <c r="X568" s="4"/>
       <c r="Y568" s="4"/>
     </row>
-    <row r="569" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A569" s="43"/>
       <c r="B569" s="43"/>
       <c r="C569" s="43"/>
@@ -16414,7 +16438,7 @@
       <c r="X569" s="4"/>
       <c r="Y569" s="4"/>
     </row>
-    <row r="570" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A570" s="43"/>
       <c r="B570" s="43"/>
       <c r="C570" s="43"/>
@@ -16441,7 +16465,7 @@
       <c r="X570" s="4"/>
       <c r="Y570" s="4"/>
     </row>
-    <row r="571" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A571" s="43"/>
       <c r="B571" s="43"/>
       <c r="C571" s="43"/>
@@ -16468,7 +16492,7 @@
       <c r="X571" s="4"/>
       <c r="Y571" s="4"/>
     </row>
-    <row r="572" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A572" s="43"/>
       <c r="B572" s="43"/>
       <c r="C572" s="43"/>
@@ -16495,7 +16519,7 @@
       <c r="X572" s="4"/>
       <c r="Y572" s="4"/>
     </row>
-    <row r="573" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A573" s="43"/>
       <c r="B573" s="43"/>
       <c r="C573" s="43"/>
@@ -16522,7 +16546,7 @@
       <c r="X573" s="4"/>
       <c r="Y573" s="4"/>
     </row>
-    <row r="574" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A574" s="43"/>
       <c r="B574" s="43"/>
       <c r="C574" s="43"/>
@@ -16549,7 +16573,7 @@
       <c r="X574" s="4"/>
       <c r="Y574" s="4"/>
     </row>
-    <row r="575" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A575" s="43"/>
       <c r="B575" s="43"/>
       <c r="C575" s="43"/>
@@ -16576,7 +16600,7 @@
       <c r="X575" s="4"/>
       <c r="Y575" s="4"/>
     </row>
-    <row r="576" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A576" s="43"/>
       <c r="B576" s="43"/>
       <c r="C576" s="43"/>
@@ -16603,7 +16627,7 @@
       <c r="X576" s="4"/>
       <c r="Y576" s="4"/>
     </row>
-    <row r="577" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A577" s="43"/>
       <c r="B577" s="43"/>
       <c r="C577" s="43"/>
@@ -16630,7 +16654,7 @@
       <c r="X577" s="4"/>
       <c r="Y577" s="4"/>
     </row>
-    <row r="578" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A578" s="43"/>
       <c r="B578" s="43"/>
       <c r="C578" s="43"/>
@@ -16657,7 +16681,7 @@
       <c r="X578" s="4"/>
       <c r="Y578" s="4"/>
     </row>
-    <row r="579" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A579" s="43"/>
       <c r="B579" s="43"/>
       <c r="C579" s="43"/>
@@ -16684,7 +16708,7 @@
       <c r="X579" s="4"/>
       <c r="Y579" s="4"/>
     </row>
-    <row r="580" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A580" s="43"/>
       <c r="B580" s="43"/>
       <c r="C580" s="43"/>
@@ -16711,7 +16735,7 @@
       <c r="X580" s="4"/>
       <c r="Y580" s="4"/>
     </row>
-    <row r="581" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A581" s="43"/>
       <c r="B581" s="43"/>
       <c r="C581" s="43"/>
@@ -16738,7 +16762,7 @@
       <c r="X581" s="4"/>
       <c r="Y581" s="4"/>
     </row>
-    <row r="582" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A582" s="43"/>
       <c r="B582" s="43"/>
       <c r="C582" s="43"/>
@@ -16765,7 +16789,7 @@
       <c r="X582" s="4"/>
       <c r="Y582" s="4"/>
     </row>
-    <row r="583" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A583" s="43"/>
       <c r="B583" s="43"/>
       <c r="C583" s="43"/>
@@ -16792,7 +16816,7 @@
       <c r="X583" s="4"/>
       <c r="Y583" s="4"/>
     </row>
-    <row r="584" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A584" s="43"/>
       <c r="B584" s="43"/>
       <c r="C584" s="43"/>
@@ -16819,7 +16843,7 @@
       <c r="X584" s="4"/>
       <c r="Y584" s="4"/>
     </row>
-    <row r="585" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A585" s="43"/>
       <c r="B585" s="43"/>
       <c r="C585" s="43"/>
@@ -16846,7 +16870,7 @@
       <c r="X585" s="4"/>
       <c r="Y585" s="4"/>
     </row>
-    <row r="586" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A586" s="43"/>
       <c r="B586" s="43"/>
       <c r="C586" s="43"/>
@@ -16873,7 +16897,7 @@
       <c r="X586" s="4"/>
       <c r="Y586" s="4"/>
     </row>
-    <row r="587" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A587" s="43"/>
       <c r="B587" s="43"/>
       <c r="C587" s="43"/>
@@ -16900,7 +16924,7 @@
       <c r="X587" s="4"/>
       <c r="Y587" s="4"/>
     </row>
-    <row r="588" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A588" s="43"/>
       <c r="B588" s="43"/>
       <c r="C588" s="43"/>
@@ -16927,7 +16951,7 @@
       <c r="X588" s="4"/>
       <c r="Y588" s="4"/>
     </row>
-    <row r="589" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A589" s="43"/>
       <c r="B589" s="43"/>
       <c r="C589" s="43"/>
@@ -16954,7 +16978,7 @@
       <c r="X589" s="4"/>
       <c r="Y589" s="4"/>
     </row>
-    <row r="590" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A590" s="43"/>
       <c r="B590" s="43"/>
       <c r="C590" s="43"/>
@@ -16981,7 +17005,7 @@
       <c r="X590" s="4"/>
       <c r="Y590" s="4"/>
     </row>
-    <row r="591" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A591" s="43"/>
       <c r="B591" s="43"/>
       <c r="C591" s="43"/>
@@ -17008,7 +17032,7 @@
       <c r="X591" s="4"/>
       <c r="Y591" s="4"/>
     </row>
-    <row r="592" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A592" s="43"/>
       <c r="B592" s="43"/>
       <c r="C592" s="43"/>
@@ -17035,7 +17059,7 @@
       <c r="X592" s="4"/>
       <c r="Y592" s="4"/>
     </row>
-    <row r="593" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A593" s="43"/>
       <c r="B593" s="43"/>
       <c r="C593" s="43"/>
@@ -17062,7 +17086,7 @@
       <c r="X593" s="4"/>
       <c r="Y593" s="4"/>
     </row>
-    <row r="594" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A594" s="43"/>
       <c r="B594" s="43"/>
       <c r="C594" s="43"/>
@@ -17089,7 +17113,7 @@
       <c r="X594" s="4"/>
       <c r="Y594" s="4"/>
     </row>
-    <row r="595" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A595" s="43"/>
       <c r="B595" s="43"/>
       <c r="C595" s="43"/>
@@ -17116,7 +17140,7 @@
       <c r="X595" s="4"/>
       <c r="Y595" s="4"/>
     </row>
-    <row r="596" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A596" s="43"/>
       <c r="B596" s="43"/>
       <c r="C596" s="43"/>
@@ -17143,7 +17167,7 @@
       <c r="X596" s="4"/>
       <c r="Y596" s="4"/>
     </row>
-    <row r="597" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A597" s="43"/>
       <c r="B597" s="43"/>
       <c r="C597" s="43"/>
@@ -17170,7 +17194,7 @@
       <c r="X597" s="4"/>
       <c r="Y597" s="4"/>
     </row>
-    <row r="598" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A598" s="43"/>
       <c r="B598" s="43"/>
       <c r="C598" s="43"/>
@@ -17197,7 +17221,7 @@
       <c r="X598" s="4"/>
       <c r="Y598" s="4"/>
     </row>
-    <row r="599" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A599" s="43"/>
       <c r="B599" s="43"/>
       <c r="C599" s="43"/>
@@ -17224,7 +17248,7 @@
       <c r="X599" s="4"/>
       <c r="Y599" s="4"/>
     </row>
-    <row r="600" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A600" s="43"/>
       <c r="B600" s="43"/>
       <c r="C600" s="43"/>
@@ -17251,7 +17275,7 @@
       <c r="X600" s="4"/>
       <c r="Y600" s="4"/>
     </row>
-    <row r="601" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A601" s="43"/>
       <c r="B601" s="43"/>
       <c r="C601" s="43"/>
@@ -17278,7 +17302,7 @@
       <c r="X601" s="4"/>
       <c r="Y601" s="4"/>
     </row>
-    <row r="602" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A602" s="43"/>
       <c r="B602" s="43"/>
       <c r="C602" s="43"/>
@@ -17305,7 +17329,7 @@
       <c r="X602" s="4"/>
       <c r="Y602" s="4"/>
     </row>
-    <row r="603" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A603" s="43"/>
       <c r="B603" s="43"/>
       <c r="C603" s="43"/>
@@ -17332,7 +17356,7 @@
       <c r="X603" s="4"/>
       <c r="Y603" s="4"/>
     </row>
-    <row r="604" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A604" s="43"/>
       <c r="B604" s="43"/>
       <c r="C604" s="43"/>
@@ -17359,7 +17383,7 @@
       <c r="X604" s="4"/>
       <c r="Y604" s="4"/>
     </row>
-    <row r="605" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A605" s="43"/>
       <c r="B605" s="43"/>
       <c r="C605" s="43"/>
@@ -17386,7 +17410,7 @@
       <c r="X605" s="4"/>
       <c r="Y605" s="4"/>
     </row>
-    <row r="606" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A606" s="43"/>
       <c r="B606" s="43"/>
       <c r="C606" s="43"/>
@@ -17413,7 +17437,7 @@
       <c r="X606" s="4"/>
       <c r="Y606" s="4"/>
     </row>
-    <row r="607" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A607" s="43"/>
       <c r="B607" s="43"/>
       <c r="C607" s="43"/>
@@ -17440,7 +17464,7 @@
       <c r="X607" s="4"/>
       <c r="Y607" s="4"/>
     </row>
-    <row r="608" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A608" s="43"/>
       <c r="B608" s="43"/>
       <c r="C608" s="43"/>
@@ -17467,7 +17491,7 @@
       <c r="X608" s="4"/>
       <c r="Y608" s="4"/>
     </row>
-    <row r="609" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A609" s="43"/>
       <c r="B609" s="43"/>
       <c r="C609" s="43"/>
@@ -17494,7 +17518,7 @@
       <c r="X609" s="4"/>
       <c r="Y609" s="4"/>
     </row>
-    <row r="610" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A610" s="43"/>
       <c r="B610" s="43"/>
       <c r="C610" s="43"/>
@@ -17521,7 +17545,7 @@
       <c r="X610" s="4"/>
       <c r="Y610" s="4"/>
     </row>
-    <row r="611" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A611" s="43"/>
       <c r="B611" s="43"/>
       <c r="C611" s="43"/>
@@ -17548,7 +17572,7 @@
       <c r="X611" s="4"/>
       <c r="Y611" s="4"/>
     </row>
-    <row r="612" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A612" s="43"/>
       <c r="B612" s="43"/>
       <c r="C612" s="43"/>
@@ -17575,7 +17599,7 @@
       <c r="X612" s="4"/>
       <c r="Y612" s="4"/>
     </row>
-    <row r="613" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A613" s="43"/>
       <c r="B613" s="43"/>
       <c r="C613" s="43"/>
@@ -17602,7 +17626,7 @@
       <c r="X613" s="4"/>
       <c r="Y613" s="4"/>
     </row>
-    <row r="614" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A614" s="43"/>
       <c r="B614" s="43"/>
       <c r="C614" s="43"/>
@@ -17629,7 +17653,7 @@
       <c r="X614" s="4"/>
       <c r="Y614" s="4"/>
     </row>
-    <row r="615" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A615" s="43"/>
       <c r="B615" s="43"/>
       <c r="C615" s="43"/>
@@ -17656,7 +17680,7 @@
       <c r="X615" s="4"/>
       <c r="Y615" s="4"/>
     </row>
-    <row r="616" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A616" s="43"/>
       <c r="B616" s="43"/>
       <c r="C616" s="43"/>
@@ -17683,7 +17707,7 @@
       <c r="X616" s="4"/>
       <c r="Y616" s="4"/>
     </row>
-    <row r="617" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A617" s="43"/>
       <c r="B617" s="43"/>
       <c r="C617" s="43"/>
@@ -17710,7 +17734,7 @@
       <c r="X617" s="4"/>
       <c r="Y617" s="4"/>
     </row>
-    <row r="618" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A618" s="43"/>
       <c r="B618" s="43"/>
       <c r="C618" s="43"/>
@@ -17737,7 +17761,7 @@
       <c r="X618" s="4"/>
       <c r="Y618" s="4"/>
     </row>
-    <row r="619" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A619" s="43"/>
       <c r="B619" s="43"/>
       <c r="C619" s="43"/>
@@ -17764,7 +17788,7 @@
       <c r="X619" s="4"/>
       <c r="Y619" s="4"/>
     </row>
-    <row r="620" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A620" s="43"/>
       <c r="B620" s="43"/>
       <c r="C620" s="43"/>
@@ -17791,7 +17815,7 @@
       <c r="X620" s="4"/>
       <c r="Y620" s="4"/>
     </row>
-    <row r="621" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A621" s="43"/>
       <c r="B621" s="43"/>
       <c r="C621" s="43"/>
@@ -17818,7 +17842,7 @@
       <c r="X621" s="4"/>
       <c r="Y621" s="4"/>
     </row>
-    <row r="622" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A622" s="43"/>
       <c r="B622" s="43"/>
       <c r="C622" s="43"/>
@@ -17845,7 +17869,7 @@
       <c r="X622" s="4"/>
       <c r="Y622" s="4"/>
     </row>
-    <row r="623" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A623" s="43"/>
       <c r="B623" s="43"/>
       <c r="C623" s="43"/>
@@ -17872,7 +17896,7 @@
       <c r="X623" s="4"/>
       <c r="Y623" s="4"/>
     </row>
-    <row r="624" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A624" s="43"/>
       <c r="B624" s="43"/>
       <c r="C624" s="43"/>
@@ -17899,7 +17923,7 @@
       <c r="X624" s="4"/>
       <c r="Y624" s="4"/>
     </row>
-    <row r="625" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A625" s="43"/>
       <c r="B625" s="43"/>
       <c r="C625" s="43"/>
@@ -17926,7 +17950,7 @@
       <c r="X625" s="4"/>
       <c r="Y625" s="4"/>
     </row>
-    <row r="626" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A626" s="43"/>
       <c r="B626" s="43"/>
       <c r="C626" s="43"/>
@@ -17953,7 +17977,7 @@
       <c r="X626" s="4"/>
       <c r="Y626" s="4"/>
     </row>
-    <row r="627" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A627" s="43"/>
       <c r="B627" s="43"/>
       <c r="C627" s="43"/>
@@ -17980,7 +18004,7 @@
       <c r="X627" s="4"/>
       <c r="Y627" s="4"/>
     </row>
-    <row r="628" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A628" s="43"/>
       <c r="B628" s="43"/>
       <c r="C628" s="43"/>
@@ -18007,7 +18031,7 @@
       <c r="X628" s="4"/>
       <c r="Y628" s="4"/>
     </row>
-    <row r="629" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A629" s="43"/>
       <c r="B629" s="43"/>
       <c r="C629" s="43"/>
@@ -18034,7 +18058,7 @@
       <c r="X629" s="4"/>
       <c r="Y629" s="4"/>
     </row>
-    <row r="630" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A630" s="43"/>
       <c r="B630" s="43"/>
       <c r="C630" s="43"/>
@@ -18061,7 +18085,7 @@
       <c r="X630" s="4"/>
       <c r="Y630" s="4"/>
     </row>
-    <row r="631" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A631" s="43"/>
       <c r="B631" s="43"/>
       <c r="C631" s="43"/>
@@ -18088,7 +18112,7 @@
       <c r="X631" s="4"/>
       <c r="Y631" s="4"/>
     </row>
-    <row r="632" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A632" s="43"/>
       <c r="B632" s="43"/>
       <c r="C632" s="43"/>
@@ -18115,7 +18139,7 @@
       <c r="X632" s="4"/>
       <c r="Y632" s="4"/>
     </row>
-    <row r="633" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A633" s="43"/>
       <c r="B633" s="43"/>
       <c r="C633" s="43"/>
@@ -18142,7 +18166,7 @@
       <c r="X633" s="4"/>
       <c r="Y633" s="4"/>
     </row>
-    <row r="634" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A634" s="43"/>
       <c r="B634" s="43"/>
       <c r="C634" s="43"/>
@@ -18169,7 +18193,7 @@
       <c r="X634" s="4"/>
       <c r="Y634" s="4"/>
     </row>
-    <row r="635" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A635" s="43"/>
       <c r="B635" s="43"/>
       <c r="C635" s="43"/>
@@ -18196,7 +18220,7 @@
       <c r="X635" s="4"/>
       <c r="Y635" s="4"/>
     </row>
-    <row r="636" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A636" s="43"/>
       <c r="B636" s="43"/>
       <c r="C636" s="43"/>
@@ -18223,7 +18247,7 @@
       <c r="X636" s="4"/>
       <c r="Y636" s="4"/>
     </row>
-    <row r="637" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A637" s="43"/>
       <c r="B637" s="43"/>
       <c r="C637" s="43"/>
@@ -18250,7 +18274,7 @@
       <c r="X637" s="4"/>
       <c r="Y637" s="4"/>
     </row>
-    <row r="638" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A638" s="43"/>
       <c r="B638" s="43"/>
       <c r="C638" s="43"/>
@@ -18277,7 +18301,7 @@
       <c r="X638" s="4"/>
       <c r="Y638" s="4"/>
     </row>
-    <row r="639" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A639" s="43"/>
       <c r="B639" s="43"/>
       <c r="C639" s="43"/>
@@ -18304,7 +18328,7 @@
       <c r="X639" s="4"/>
       <c r="Y639" s="4"/>
     </row>
-    <row r="640" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A640" s="43"/>
       <c r="B640" s="43"/>
       <c r="C640" s="43"/>
@@ -18331,7 +18355,7 @@
       <c r="X640" s="4"/>
       <c r="Y640" s="4"/>
     </row>
-    <row r="641" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A641" s="43"/>
       <c r="B641" s="43"/>
       <c r="C641" s="43"/>
@@ -18358,7 +18382,7 @@
       <c r="X641" s="4"/>
       <c r="Y641" s="4"/>
     </row>
-    <row r="642" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A642" s="43"/>
       <c r="B642" s="43"/>
       <c r="C642" s="43"/>
@@ -18385,7 +18409,7 @@
       <c r="X642" s="4"/>
       <c r="Y642" s="4"/>
     </row>
-    <row r="643" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A643" s="43"/>
       <c r="B643" s="43"/>
       <c r="C643" s="43"/>
@@ -18412,7 +18436,7 @@
       <c r="X643" s="4"/>
       <c r="Y643" s="4"/>
     </row>
-    <row r="644" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A644" s="43"/>
       <c r="B644" s="43"/>
       <c r="C644" s="43"/>
@@ -18439,7 +18463,7 @@
       <c r="X644" s="4"/>
       <c r="Y644" s="4"/>
     </row>
-    <row r="645" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A645" s="43"/>
       <c r="B645" s="43"/>
       <c r="C645" s="43"/>
@@ -18466,7 +18490,7 @@
       <c r="X645" s="4"/>
       <c r="Y645" s="4"/>
     </row>
-    <row r="646" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A646" s="43"/>
       <c r="B646" s="43"/>
       <c r="C646" s="43"/>
@@ -18493,7 +18517,7 @@
       <c r="X646" s="4"/>
       <c r="Y646" s="4"/>
     </row>
-    <row r="647" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A647" s="43"/>
       <c r="B647" s="43"/>
       <c r="C647" s="43"/>
@@ -18520,7 +18544,7 @@
       <c r="X647" s="4"/>
       <c r="Y647" s="4"/>
     </row>
-    <row r="648" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A648" s="43"/>
       <c r="B648" s="43"/>
       <c r="C648" s="43"/>
@@ -18547,7 +18571,7 @@
       <c r="X648" s="4"/>
       <c r="Y648" s="4"/>
     </row>
-    <row r="649" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A649" s="43"/>
       <c r="B649" s="43"/>
       <c r="C649" s="43"/>
@@ -18574,7 +18598,7 @@
       <c r="X649" s="4"/>
       <c r="Y649" s="4"/>
     </row>
-    <row r="650" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A650" s="43"/>
       <c r="B650" s="43"/>
       <c r="C650" s="43"/>
@@ -18601,7 +18625,7 @@
       <c r="X650" s="4"/>
       <c r="Y650" s="4"/>
     </row>
-    <row r="651" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A651" s="43"/>
       <c r="B651" s="43"/>
       <c r="C651" s="43"/>
@@ -18628,7 +18652,7 @@
       <c r="X651" s="4"/>
       <c r="Y651" s="4"/>
     </row>
-    <row r="652" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A652" s="43"/>
       <c r="B652" s="43"/>
       <c r="C652" s="43"/>
@@ -18655,7 +18679,7 @@
       <c r="X652" s="4"/>
       <c r="Y652" s="4"/>
     </row>
-    <row r="653" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A653" s="43"/>
       <c r="B653" s="43"/>
       <c r="C653" s="43"/>
@@ -18682,7 +18706,7 @@
       <c r="X653" s="4"/>
       <c r="Y653" s="4"/>
     </row>
-    <row r="654" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A654" s="43"/>
       <c r="B654" s="43"/>
       <c r="C654" s="43"/>
@@ -18709,7 +18733,7 @@
       <c r="X654" s="4"/>
       <c r="Y654" s="4"/>
     </row>
-    <row r="655" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A655" s="43"/>
       <c r="B655" s="43"/>
       <c r="C655" s="43"/>
@@ -18736,7 +18760,7 @@
       <c r="X655" s="4"/>
       <c r="Y655" s="4"/>
     </row>
-    <row r="656" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A656" s="43"/>
       <c r="B656" s="43"/>
       <c r="C656" s="43"/>
@@ -18763,7 +18787,7 @@
       <c r="X656" s="4"/>
       <c r="Y656" s="4"/>
     </row>
-    <row r="657" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A657" s="43"/>
       <c r="B657" s="43"/>
       <c r="C657" s="43"/>
@@ -18790,7 +18814,7 @@
       <c r="X657" s="4"/>
       <c r="Y657" s="4"/>
     </row>
-    <row r="658" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A658" s="43"/>
       <c r="B658" s="43"/>
       <c r="C658" s="43"/>
@@ -18817,7 +18841,7 @@
       <c r="X658" s="4"/>
       <c r="Y658" s="4"/>
     </row>
-    <row r="659" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A659" s="43"/>
       <c r="B659" s="43"/>
       <c r="C659" s="43"/>
@@ -18844,7 +18868,7 @@
       <c r="X659" s="4"/>
       <c r="Y659" s="4"/>
     </row>
-    <row r="660" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A660" s="43"/>
       <c r="B660" s="43"/>
       <c r="C660" s="43"/>
@@ -18871,7 +18895,7 @@
       <c r="X660" s="4"/>
       <c r="Y660" s="4"/>
     </row>
-    <row r="661" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A661" s="43"/>
       <c r="B661" s="43"/>
       <c r="C661" s="43"/>
@@ -18898,7 +18922,7 @@
       <c r="X661" s="4"/>
       <c r="Y661" s="4"/>
     </row>
-    <row r="662" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A662" s="43"/>
       <c r="B662" s="43"/>
       <c r="C662" s="43"/>
@@ -18925,7 +18949,7 @@
       <c r="X662" s="4"/>
       <c r="Y662" s="4"/>
     </row>
-    <row r="663" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A663" s="43"/>
       <c r="B663" s="43"/>
       <c r="C663" s="43"/>
@@ -18952,7 +18976,7 @@
       <c r="X663" s="4"/>
       <c r="Y663" s="4"/>
     </row>
-    <row r="664" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A664" s="43"/>
       <c r="B664" s="43"/>
       <c r="C664" s="43"/>
@@ -18979,7 +19003,7 @@
       <c r="X664" s="4"/>
       <c r="Y664" s="4"/>
     </row>
-    <row r="665" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A665" s="43"/>
       <c r="B665" s="43"/>
       <c r="C665" s="43"/>
@@ -19006,7 +19030,7 @@
       <c r="X665" s="4"/>
       <c r="Y665" s="4"/>
     </row>
-    <row r="666" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A666" s="43"/>
       <c r="B666" s="43"/>
       <c r="C666" s="43"/>
@@ -19033,7 +19057,7 @@
       <c r="X666" s="4"/>
       <c r="Y666" s="4"/>
     </row>
-    <row r="667" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A667" s="43"/>
       <c r="B667" s="43"/>
       <c r="C667" s="43"/>
@@ -19060,7 +19084,7 @@
       <c r="X667" s="4"/>
       <c r="Y667" s="4"/>
     </row>
-    <row r="668" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A668" s="43"/>
       <c r="B668" s="43"/>
       <c r="C668" s="43"/>
@@ -19087,7 +19111,7 @@
       <c r="X668" s="4"/>
       <c r="Y668" s="4"/>
     </row>
-    <row r="669" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A669" s="43"/>
       <c r="B669" s="43"/>
       <c r="C669" s="43"/>
@@ -19114,7 +19138,7 @@
       <c r="X669" s="4"/>
       <c r="Y669" s="4"/>
     </row>
-    <row r="670" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A670" s="43"/>
       <c r="B670" s="43"/>
       <c r="C670" s="43"/>
@@ -19141,7 +19165,7 @@
       <c r="X670" s="4"/>
       <c r="Y670" s="4"/>
     </row>
-    <row r="671" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A671" s="43"/>
       <c r="B671" s="43"/>
       <c r="C671" s="43"/>
@@ -19168,7 +19192,7 @@
       <c r="X671" s="4"/>
       <c r="Y671" s="4"/>
     </row>
-    <row r="672" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A672" s="43"/>
       <c r="B672" s="43"/>
       <c r="C672" s="43"/>
@@ -19195,7 +19219,7 @@
       <c r="X672" s="4"/>
       <c r="Y672" s="4"/>
     </row>
-    <row r="673" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A673" s="43"/>
       <c r="B673" s="43"/>
       <c r="C673" s="43"/>
@@ -19222,7 +19246,7 @@
       <c r="X673" s="4"/>
       <c r="Y673" s="4"/>
     </row>
-    <row r="674" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A674" s="43"/>
       <c r="B674" s="43"/>
       <c r="C674" s="43"/>
@@ -19249,7 +19273,7 @@
       <c r="X674" s="4"/>
       <c r="Y674" s="4"/>
     </row>
-    <row r="675" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A675" s="43"/>
       <c r="B675" s="43"/>
       <c r="C675" s="43"/>
@@ -19276,7 +19300,7 @@
       <c r="X675" s="4"/>
       <c r="Y675" s="4"/>
     </row>
-    <row r="676" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A676" s="43"/>
       <c r="B676" s="43"/>
       <c r="C676" s="43"/>
@@ -19303,7 +19327,7 @@
       <c r="X676" s="4"/>
       <c r="Y676" s="4"/>
     </row>
-    <row r="677" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A677" s="43"/>
       <c r="B677" s="43"/>
       <c r="C677" s="43"/>
@@ -19330,7 +19354,7 @@
       <c r="X677" s="4"/>
       <c r="Y677" s="4"/>
     </row>
-    <row r="678" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A678" s="43"/>
       <c r="B678" s="43"/>
       <c r="C678" s="43"/>
@@ -19357,7 +19381,7 @@
       <c r="X678" s="4"/>
       <c r="Y678" s="4"/>
     </row>
-    <row r="679" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A679" s="43"/>
       <c r="B679" s="43"/>
       <c r="C679" s="43"/>
@@ -19384,7 +19408,7 @@
       <c r="X679" s="4"/>
       <c r="Y679" s="4"/>
     </row>
-    <row r="680" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A680" s="43"/>
       <c r="B680" s="43"/>
       <c r="C680" s="43"/>
@@ -19411,7 +19435,7 @@
       <c r="X680" s="4"/>
       <c r="Y680" s="4"/>
     </row>
-    <row r="681" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A681" s="43"/>
       <c r="B681" s="43"/>
       <c r="C681" s="43"/>
@@ -19438,7 +19462,7 @@
       <c r="X681" s="4"/>
       <c r="Y681" s="4"/>
     </row>
-    <row r="682" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A682" s="43"/>
       <c r="B682" s="43"/>
       <c r="C682" s="43"/>
@@ -19465,7 +19489,7 @@
       <c r="X682" s="4"/>
       <c r="Y682" s="4"/>
     </row>
-    <row r="683" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A683" s="43"/>
       <c r="B683" s="43"/>
       <c r="C683" s="43"/>
@@ -19492,7 +19516,7 @@
       <c r="X683" s="4"/>
       <c r="Y683" s="4"/>
     </row>
-    <row r="684" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A684" s="43"/>
       <c r="B684" s="43"/>
       <c r="C684" s="43"/>
@@ -19519,7 +19543,7 @@
       <c r="X684" s="4"/>
       <c r="Y684" s="4"/>
     </row>
-    <row r="685" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A685" s="43"/>
       <c r="B685" s="43"/>
       <c r="C685" s="43"/>
@@ -19546,7 +19570,7 @@
       <c r="X685" s="4"/>
       <c r="Y685" s="4"/>
     </row>
-    <row r="686" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A686" s="43"/>
       <c r="B686" s="43"/>
       <c r="C686" s="43"/>
@@ -19573,7 +19597,7 @@
       <c r="X686" s="4"/>
       <c r="Y686" s="4"/>
     </row>
-    <row r="687" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A687" s="43"/>
       <c r="B687" s="43"/>
       <c r="C687" s="43"/>
@@ -19600,7 +19624,7 @@
       <c r="X687" s="4"/>
       <c r="Y687" s="4"/>
     </row>
-    <row r="688" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A688" s="43"/>
       <c r="B688" s="43"/>
       <c r="C688" s="43"/>
@@ -19627,7 +19651,7 @@
       <c r="X688" s="4"/>
       <c r="Y688" s="4"/>
     </row>
-    <row r="689" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A689" s="43"/>
       <c r="B689" s="43"/>
       <c r="C689" s="43"/>
@@ -19654,7 +19678,7 @@
       <c r="X689" s="4"/>
       <c r="Y689" s="4"/>
     </row>
-    <row r="690" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A690" s="43"/>
       <c r="B690" s="43"/>
       <c r="C690" s="43"/>
@@ -19681,7 +19705,7 @@
       <c r="X690" s="4"/>
       <c r="Y690" s="4"/>
     </row>
-    <row r="691" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A691" s="43"/>
       <c r="B691" s="43"/>
       <c r="C691" s="43"/>
@@ -19708,7 +19732,7 @@
       <c r="X691" s="4"/>
       <c r="Y691" s="4"/>
     </row>
-    <row r="692" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A692" s="43"/>
       <c r="B692" s="43"/>
       <c r="C692" s="43"/>
@@ -19735,7 +19759,7 @@
       <c r="X692" s="4"/>
       <c r="Y692" s="4"/>
     </row>
-    <row r="693" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A693" s="43"/>
       <c r="B693" s="43"/>
       <c r="C693" s="43"/>
@@ -19762,7 +19786,7 @@
       <c r="X693" s="4"/>
       <c r="Y693" s="4"/>
     </row>
-    <row r="694" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A694" s="43"/>
       <c r="B694" s="43"/>
       <c r="C694" s="43"/>
@@ -19789,7 +19813,7 @@
       <c r="X694" s="4"/>
       <c r="Y694" s="4"/>
     </row>
-    <row r="695" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A695" s="43"/>
       <c r="B695" s="43"/>
       <c r="C695" s="43"/>
@@ -19816,7 +19840,7 @@
       <c r="X695" s="4"/>
       <c r="Y695" s="4"/>
     </row>
-    <row r="696" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A696" s="43"/>
       <c r="B696" s="43"/>
       <c r="C696" s="43"/>
@@ -19843,7 +19867,7 @@
       <c r="X696" s="4"/>
       <c r="Y696" s="4"/>
     </row>
-    <row r="697" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A697" s="43"/>
       <c r="B697" s="43"/>
       <c r="C697" s="43"/>
@@ -19870,7 +19894,7 @@
       <c r="X697" s="4"/>
       <c r="Y697" s="4"/>
     </row>
-    <row r="698" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A698" s="43"/>
       <c r="B698" s="43"/>
       <c r="C698" s="43"/>
@@ -19897,7 +19921,7 @@
       <c r="X698" s="4"/>
       <c r="Y698" s="4"/>
     </row>
-    <row r="699" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A699" s="43"/>
       <c r="B699" s="43"/>
       <c r="C699" s="43"/>
@@ -19924,7 +19948,7 @@
       <c r="X699" s="4"/>
       <c r="Y699" s="4"/>
     </row>
-    <row r="700" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A700" s="43"/>
       <c r="B700" s="43"/>
       <c r="C700" s="43"/>
@@ -19951,7 +19975,7 @@
       <c r="X700" s="4"/>
       <c r="Y700" s="4"/>
     </row>
-    <row r="701" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A701" s="43"/>
       <c r="B701" s="43"/>
       <c r="C701" s="43"/>
@@ -19978,7 +20002,7 @@
       <c r="X701" s="4"/>
       <c r="Y701" s="4"/>
     </row>
-    <row r="702" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A702" s="43"/>
       <c r="B702" s="43"/>
       <c r="C702" s="43"/>
@@ -20005,7 +20029,7 @@
       <c r="X702" s="4"/>
       <c r="Y702" s="4"/>
     </row>
-    <row r="703" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A703" s="43"/>
       <c r="B703" s="43"/>
       <c r="C703" s="43"/>
@@ -20032,7 +20056,7 @@
       <c r="X703" s="4"/>
       <c r="Y703" s="4"/>
     </row>
-    <row r="704" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A704" s="43"/>
       <c r="B704" s="43"/>
       <c r="C704" s="43"/>
@@ -20059,7 +20083,7 @@
       <c r="X704" s="4"/>
       <c r="Y704" s="4"/>
     </row>
-    <row r="705" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A705" s="43"/>
       <c r="B705" s="43"/>
       <c r="C705" s="43"/>
@@ -20086,7 +20110,7 @@
       <c r="X705" s="4"/>
       <c r="Y705" s="4"/>
     </row>
-    <row r="706" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A706" s="43"/>
       <c r="B706" s="43"/>
       <c r="C706" s="43"/>
@@ -20113,7 +20137,7 @@
       <c r="X706" s="4"/>
       <c r="Y706" s="4"/>
     </row>
-    <row r="707" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A707" s="43"/>
       <c r="B707" s="43"/>
       <c r="C707" s="43"/>
@@ -20140,7 +20164,7 @@
       <c r="X707" s="4"/>
       <c r="Y707" s="4"/>
     </row>
-    <row r="708" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A708" s="43"/>
       <c r="B708" s="43"/>
       <c r="C708" s="43"/>
@@ -20167,7 +20191,7 @@
       <c r="X708" s="4"/>
       <c r="Y708" s="4"/>
     </row>
-    <row r="709" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A709" s="43"/>
       <c r="B709" s="43"/>
       <c r="C709" s="43"/>
@@ -20194,7 +20218,7 @@
       <c r="X709" s="4"/>
       <c r="Y709" s="4"/>
     </row>
-    <row r="710" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A710" s="43"/>
       <c r="B710" s="43"/>
       <c r="C710" s="43"/>
@@ -20221,7 +20245,7 @@
       <c r="X710" s="4"/>
       <c r="Y710" s="4"/>
     </row>
-    <row r="711" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A711" s="43"/>
       <c r="B711" s="43"/>
       <c r="C711" s="43"/>
@@ -20248,7 +20272,7 @@
       <c r="X711" s="4"/>
       <c r="Y711" s="4"/>
     </row>
-    <row r="712" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A712" s="43"/>
       <c r="B712" s="43"/>
       <c r="C712" s="43"/>
@@ -20275,7 +20299,7 @@
       <c r="X712" s="4"/>
       <c r="Y712" s="4"/>
     </row>
-    <row r="713" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A713" s="43"/>
       <c r="B713" s="43"/>
       <c r="C713" s="43"/>
@@ -20302,7 +20326,7 @@
       <c r="X713" s="4"/>
       <c r="Y713" s="4"/>
     </row>
-    <row r="714" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A714" s="43"/>
       <c r="B714" s="43"/>
       <c r="C714" s="43"/>
@@ -20329,7 +20353,7 @@
       <c r="X714" s="4"/>
       <c r="Y714" s="4"/>
     </row>
-    <row r="715" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A715" s="43"/>
       <c r="B715" s="43"/>
       <c r="C715" s="43"/>
@@ -20356,7 +20380,7 @@
       <c r="X715" s="4"/>
       <c r="Y715" s="4"/>
     </row>
-    <row r="716" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A716" s="43"/>
       <c r="B716" s="43"/>
       <c r="C716" s="43"/>
@@ -20383,7 +20407,7 @@
       <c r="X716" s="4"/>
       <c r="Y716" s="4"/>
     </row>
-    <row r="717" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A717" s="43"/>
       <c r="B717" s="43"/>
       <c r="C717" s="43"/>
@@ -20410,7 +20434,7 @@
       <c r="X717" s="4"/>
       <c r="Y717" s="4"/>
     </row>
-    <row r="718" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A718" s="43"/>
       <c r="B718" s="43"/>
       <c r="C718" s="43"/>
@@ -20437,7 +20461,7 @@
       <c r="X718" s="4"/>
       <c r="Y718" s="4"/>
     </row>
-    <row r="719" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A719" s="43"/>
       <c r="B719" s="43"/>
       <c r="C719" s="43"/>
@@ -20464,7 +20488,7 @@
       <c r="X719" s="4"/>
       <c r="Y719" s="4"/>
     </row>
-    <row r="720" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A720" s="43"/>
       <c r="B720" s="43"/>
       <c r="C720" s="43"/>
@@ -20491,7 +20515,7 @@
       <c r="X720" s="4"/>
       <c r="Y720" s="4"/>
     </row>
-    <row r="721" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A721" s="43"/>
       <c r="B721" s="43"/>
       <c r="C721" s="43"/>
@@ -20518,7 +20542,7 @@
       <c r="X721" s="4"/>
       <c r="Y721" s="4"/>
     </row>
-    <row r="722" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A722" s="43"/>
       <c r="B722" s="43"/>
       <c r="C722" s="43"/>
@@ -20545,7 +20569,7 @@
       <c r="X722" s="4"/>
       <c r="Y722" s="4"/>
     </row>
-    <row r="723" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A723" s="43"/>
       <c r="B723" s="43"/>
       <c r="C723" s="43"/>
@@ -20572,7 +20596,7 @@
       <c r="X723" s="4"/>
       <c r="Y723" s="4"/>
     </row>
-    <row r="724" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A724" s="43"/>
       <c r="B724" s="43"/>
       <c r="C724" s="43"/>
@@ -20599,7 +20623,7 @@
       <c r="X724" s="4"/>
       <c r="Y724" s="4"/>
     </row>
-    <row r="725" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A725" s="43"/>
       <c r="B725" s="43"/>
       <c r="C725" s="43"/>
@@ -20626,7 +20650,7 @@
       <c r="X725" s="4"/>
       <c r="Y725" s="4"/>
     </row>
-    <row r="726" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A726" s="43"/>
       <c r="B726" s="43"/>
       <c r="C726" s="43"/>
@@ -20653,7 +20677,7 @@
       <c r="X726" s="4"/>
       <c r="Y726" s="4"/>
     </row>
-    <row r="727" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A727" s="43"/>
       <c r="B727" s="43"/>
       <c r="C727" s="43"/>
@@ -20680,7 +20704,7 @@
       <c r="X727" s="4"/>
       <c r="Y727" s="4"/>
     </row>
-    <row r="728" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A728" s="43"/>
       <c r="B728" s="43"/>
       <c r="C728" s="43"/>
@@ -20707,7 +20731,7 @@
       <c r="X728" s="4"/>
       <c r="Y728" s="4"/>
     </row>
-    <row r="729" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A729" s="43"/>
       <c r="B729" s="43"/>
       <c r="C729" s="43"/>
@@ -20734,7 +20758,7 @@
       <c r="X729" s="4"/>
       <c r="Y729" s="4"/>
     </row>
-    <row r="730" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A730" s="43"/>
       <c r="B730" s="43"/>
       <c r="C730" s="43"/>
@@ -20761,7 +20785,7 @@
       <c r="X730" s="4"/>
       <c r="Y730" s="4"/>
     </row>
-    <row r="731" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A731" s="43"/>
       <c r="B731" s="43"/>
       <c r="C731" s="43"/>
@@ -20788,7 +20812,7 @@
       <c r="X731" s="4"/>
       <c r="Y731" s="4"/>
     </row>
-    <row r="732" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A732" s="43"/>
       <c r="B732" s="43"/>
       <c r="C732" s="43"/>
@@ -20815,7 +20839,7 @@
       <c r="X732" s="4"/>
       <c r="Y732" s="4"/>
     </row>
-    <row r="733" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A733" s="43"/>
       <c r="B733" s="43"/>
       <c r="C733" s="43"/>
@@ -20842,7 +20866,7 @@
       <c r="X733" s="4"/>
       <c r="Y733" s="4"/>
     </row>
-    <row r="734" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A734" s="43"/>
       <c r="B734" s="43"/>
       <c r="C734" s="43"/>
@@ -20869,7 +20893,7 @@
       <c r="X734" s="4"/>
       <c r="Y734" s="4"/>
     </row>
-    <row r="735" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A735" s="43"/>
       <c r="B735" s="43"/>
       <c r="C735" s="43"/>
@@ -20896,7 +20920,7 @@
       <c r="X735" s="4"/>
       <c r="Y735" s="4"/>
     </row>
-    <row r="736" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A736" s="43"/>
       <c r="B736" s="43"/>
       <c r="C736" s="43"/>
@@ -20923,7 +20947,7 @@
       <c r="X736" s="4"/>
       <c r="Y736" s="4"/>
     </row>
-    <row r="737" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A737" s="43"/>
       <c r="B737" s="43"/>
       <c r="C737" s="43"/>
@@ -20950,7 +20974,7 @@
       <c r="X737" s="4"/>
       <c r="Y737" s="4"/>
     </row>
-    <row r="738" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A738" s="43"/>
       <c r="B738" s="43"/>
       <c r="C738" s="43"/>
@@ -20977,7 +21001,7 @@
       <c r="X738" s="4"/>
       <c r="Y738" s="4"/>
     </row>
-    <row r="739" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A739" s="43"/>
       <c r="B739" s="43"/>
       <c r="C739" s="43"/>
@@ -21004,7 +21028,7 @@
       <c r="X739" s="4"/>
       <c r="Y739" s="4"/>
     </row>
-    <row r="740" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A740" s="43"/>
       <c r="B740" s="43"/>
       <c r="C740" s="43"/>
@@ -21031,7 +21055,7 @@
       <c r="X740" s="4"/>
       <c r="Y740" s="4"/>
     </row>
-    <row r="741" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A741" s="43"/>
       <c r="B741" s="43"/>
       <c r="C741" s="43"/>
@@ -21058,7 +21082,7 @@
       <c r="X741" s="4"/>
       <c r="Y741" s="4"/>
     </row>
-    <row r="742" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A742" s="43"/>
       <c r="B742" s="43"/>
       <c r="C742" s="43"/>
@@ -21085,7 +21109,7 @@
       <c r="X742" s="4"/>
       <c r="Y742" s="4"/>
     </row>
-    <row r="743" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A743" s="43"/>
       <c r="B743" s="43"/>
       <c r="C743" s="43"/>
@@ -21112,7 +21136,7 @@
       <c r="X743" s="4"/>
       <c r="Y743" s="4"/>
     </row>
-    <row r="744" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A744" s="43"/>
       <c r="B744" s="43"/>
       <c r="C744" s="43"/>
@@ -21139,7 +21163,7 @@
       <c r="X744" s="4"/>
       <c r="Y744" s="4"/>
     </row>
-    <row r="745" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A745" s="43"/>
       <c r="B745" s="43"/>
       <c r="C745" s="43"/>
@@ -21166,7 +21190,7 @@
       <c r="X745" s="4"/>
       <c r="Y745" s="4"/>
     </row>
-    <row r="746" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A746" s="43"/>
       <c r="B746" s="43"/>
       <c r="C746" s="43"/>
@@ -21193,7 +21217,7 @@
       <c r="X746" s="4"/>
       <c r="Y746" s="4"/>
     </row>
-    <row r="747" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A747" s="43"/>
       <c r="B747" s="43"/>
       <c r="C747" s="43"/>
@@ -21220,7 +21244,7 @@
       <c r="X747" s="4"/>
       <c r="Y747" s="4"/>
     </row>
-    <row r="748" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A748" s="43"/>
       <c r="B748" s="43"/>
       <c r="C748" s="43"/>
@@ -21247,7 +21271,7 @@
       <c r="X748" s="4"/>
       <c r="Y748" s="4"/>
     </row>
-    <row r="749" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A749" s="43"/>
       <c r="B749" s="43"/>
       <c r="C749" s="43"/>
@@ -21274,7 +21298,7 @@
       <c r="X749" s="4"/>
       <c r="Y749" s="4"/>
     </row>
-    <row r="750" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A750" s="43"/>
       <c r="B750" s="43"/>
       <c r="C750" s="43"/>
@@ -21301,7 +21325,7 @@
       <c r="X750" s="4"/>
       <c r="Y750" s="4"/>
     </row>
-    <row r="751" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A751" s="43"/>
       <c r="B751" s="43"/>
       <c r="C751" s="43"/>
@@ -21328,7 +21352,7 @@
       <c r="X751" s="4"/>
       <c r="Y751" s="4"/>
     </row>
-    <row r="752" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A752" s="43"/>
       <c r="B752" s="43"/>
       <c r="C752" s="43"/>
@@ -21355,7 +21379,7 @@
       <c r="X752" s="4"/>
       <c r="Y752" s="4"/>
     </row>
-    <row r="753" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A753" s="43"/>
       <c r="B753" s="43"/>
       <c r="C753" s="43"/>
@@ -21382,7 +21406,7 @@
       <c r="X753" s="4"/>
       <c r="Y753" s="4"/>
     </row>
-    <row r="754" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A754" s="43"/>
       <c r="B754" s="43"/>
       <c r="C754" s="43"/>
@@ -21409,7 +21433,7 @@
       <c r="X754" s="4"/>
       <c r="Y754" s="4"/>
     </row>
-    <row r="755" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A755" s="43"/>
       <c r="B755" s="43"/>
       <c r="C755" s="43"/>
@@ -21436,7 +21460,7 @@
       <c r="X755" s="4"/>
       <c r="Y755" s="4"/>
     </row>
-    <row r="756" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A756" s="43"/>
       <c r="B756" s="43"/>
       <c r="C756" s="43"/>
@@ -21463,7 +21487,7 @@
       <c r="X756" s="4"/>
       <c r="Y756" s="4"/>
     </row>
-    <row r="757" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A757" s="43"/>
       <c r="B757" s="43"/>
       <c r="C757" s="43"/>
@@ -21490,7 +21514,7 @@
       <c r="X757" s="4"/>
       <c r="Y757" s="4"/>
     </row>
-    <row r="758" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A758" s="43"/>
       <c r="B758" s="43"/>
       <c r="C758" s="43"/>
@@ -21517,7 +21541,7 @@
       <c r="X758" s="4"/>
       <c r="Y758" s="4"/>
     </row>
-    <row r="759" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A759" s="43"/>
       <c r="B759" s="43"/>
       <c r="C759" s="43"/>
@@ -21544,7 +21568,7 @@
       <c r="X759" s="4"/>
       <c r="Y759" s="4"/>
     </row>
-    <row r="760" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A760" s="43"/>
       <c r="B760" s="43"/>
       <c r="C760" s="43"/>
@@ -21571,7 +21595,7 @@
       <c r="X760" s="4"/>
       <c r="Y760" s="4"/>
     </row>
-    <row r="761" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A761" s="43"/>
       <c r="B761" s="43"/>
       <c r="C761" s="43"/>
@@ -21598,7 +21622,7 @@
       <c r="X761" s="4"/>
       <c r="Y761" s="4"/>
     </row>
-    <row r="762" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A762" s="43"/>
       <c r="B762" s="43"/>
       <c r="C762" s="43"/>
@@ -21625,7 +21649,7 @@
       <c r="X762" s="4"/>
       <c r="Y762" s="4"/>
     </row>
-    <row r="763" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A763" s="43"/>
       <c r="B763" s="43"/>
       <c r="C763" s="43"/>
@@ -21652,7 +21676,7 @@
       <c r="X763" s="4"/>
       <c r="Y763" s="4"/>
     </row>
-    <row r="764" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A764" s="43"/>
       <c r="B764" s="43"/>
       <c r="C764" s="43"/>
@@ -21679,7 +21703,7 @@
       <c r="X764" s="4"/>
       <c r="Y764" s="4"/>
     </row>
-    <row r="765" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A765" s="43"/>
       <c r="B765" s="43"/>
       <c r="C765" s="43"/>
@@ -21706,7 +21730,7 @@
       <c r="X765" s="4"/>
       <c r="Y765" s="4"/>
     </row>
-    <row r="766" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A766" s="43"/>
       <c r="B766" s="43"/>
       <c r="C766" s="43"/>
@@ -21733,7 +21757,7 @@
       <c r="X766" s="4"/>
       <c r="Y766" s="4"/>
     </row>
-    <row r="767" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A767" s="43"/>
       <c r="B767" s="43"/>
       <c r="C767" s="43"/>
@@ -21760,7 +21784,7 @@
       <c r="X767" s="4"/>
       <c r="Y767" s="4"/>
     </row>
-    <row r="768" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A768" s="43"/>
       <c r="B768" s="43"/>
       <c r="C768" s="43"/>
@@ -21787,7 +21811,7 @@
       <c r="X768" s="4"/>
       <c r="Y768" s="4"/>
     </row>
-    <row r="769" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A769" s="43"/>
       <c r="B769" s="43"/>
       <c r="C769" s="43"/>
@@ -21814,7 +21838,7 @@
       <c r="X769" s="4"/>
       <c r="Y769" s="4"/>
     </row>
-    <row r="770" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A770" s="43"/>
       <c r="B770" s="43"/>
       <c r="C770" s="43"/>
@@ -21841,7 +21865,7 @@
       <c r="X770" s="4"/>
       <c r="Y770" s="4"/>
     </row>
-    <row r="771" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A771" s="43"/>
       <c r="B771" s="43"/>
       <c r="C771" s="43"/>
@@ -21868,7 +21892,7 @@
       <c r="X771" s="4"/>
       <c r="Y771" s="4"/>
     </row>
-    <row r="772" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A772" s="43"/>
       <c r="B772" s="43"/>
       <c r="C772" s="43"/>
@@ -21895,7 +21919,7 @@
       <c r="X772" s="4"/>
       <c r="Y772" s="4"/>
     </row>
-    <row r="773" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A773" s="43"/>
       <c r="B773" s="43"/>
       <c r="C773" s="43"/>
@@ -21922,7 +21946,7 @@
       <c r="X773" s="4"/>
       <c r="Y773" s="4"/>
     </row>
-    <row r="774" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A774" s="43"/>
       <c r="B774" s="43"/>
       <c r="C774" s="43"/>
@@ -21949,7 +21973,7 @@
       <c r="X774" s="4"/>
       <c r="Y774" s="4"/>
     </row>
-    <row r="775" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A775" s="43"/>
       <c r="B775" s="43"/>
       <c r="C775" s="43"/>
@@ -21976,7 +22000,7 @@
       <c r="X775" s="4"/>
       <c r="Y775" s="4"/>
     </row>
-    <row r="776" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A776" s="43"/>
       <c r="B776" s="43"/>
       <c r="C776" s="43"/>
@@ -22003,7 +22027,7 @@
       <c r="X776" s="4"/>
       <c r="Y776" s="4"/>
     </row>
-    <row r="777" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A777" s="43"/>
       <c r="B777" s="43"/>
       <c r="C777" s="43"/>
@@ -22030,7 +22054,7 @@
       <c r="X777" s="4"/>
       <c r="Y777" s="4"/>
     </row>
-    <row r="778" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A778" s="43"/>
       <c r="B778" s="43"/>
       <c r="C778" s="43"/>
@@ -22057,7 +22081,7 @@
       <c r="X778" s="4"/>
       <c r="Y778" s="4"/>
     </row>
-    <row r="779" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A779" s="43"/>
       <c r="B779" s="43"/>
       <c r="C779" s="43"/>
@@ -22084,7 +22108,7 @@
       <c r="X779" s="4"/>
       <c r="Y779" s="4"/>
     </row>
-    <row r="780" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A780" s="43"/>
       <c r="B780" s="43"/>
       <c r="C780" s="43"/>
@@ -22111,7 +22135,7 @@
       <c r="X780" s="4"/>
       <c r="Y780" s="4"/>
     </row>
-    <row r="781" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A781" s="43"/>
       <c r="B781" s="43"/>
       <c r="C781" s="43"/>
@@ -22138,7 +22162,7 @@
       <c r="X781" s="4"/>
       <c r="Y781" s="4"/>
     </row>
-    <row r="782" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A782" s="43"/>
       <c r="B782" s="43"/>
       <c r="C782" s="43"/>
@@ -22165,7 +22189,7 @@
       <c r="X782" s="4"/>
       <c r="Y782" s="4"/>
     </row>
-    <row r="783" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A783" s="43"/>
       <c r="B783" s="43"/>
       <c r="C783" s="43"/>
@@ -22192,7 +22216,7 @@
       <c r="X783" s="4"/>
       <c r="Y783" s="4"/>
     </row>
-    <row r="784" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A784" s="43"/>
       <c r="B784" s="43"/>
       <c r="C784" s="43"/>
@@ -22219,7 +22243,7 @@
       <c r="X784" s="4"/>
       <c r="Y784" s="4"/>
     </row>
-    <row r="785" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A785" s="43"/>
       <c r="B785" s="43"/>
       <c r="C785" s="43"/>
@@ -22246,7 +22270,7 @@
       <c r="X785" s="4"/>
       <c r="Y785" s="4"/>
     </row>
-    <row r="786" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A786" s="43"/>
       <c r="B786" s="43"/>
       <c r="C786" s="43"/>
@@ -22273,7 +22297,7 @@
       <c r="X786" s="4"/>
       <c r="Y786" s="4"/>
     </row>
-    <row r="787" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A787" s="43"/>
       <c r="B787" s="43"/>
       <c r="C787" s="43"/>
@@ -22300,7 +22324,7 @@
       <c r="X787" s="4"/>
       <c r="Y787" s="4"/>
     </row>
-    <row r="788" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A788" s="43"/>
       <c r="B788" s="43"/>
       <c r="C788" s="43"/>
@@ -22327,7 +22351,7 @@
       <c r="X788" s="4"/>
       <c r="Y788" s="4"/>
     </row>
-    <row r="789" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A789" s="43"/>
       <c r="B789" s="43"/>
       <c r="C789" s="43"/>
@@ -22354,7 +22378,7 @@
       <c r="X789" s="4"/>
       <c r="Y789" s="4"/>
     </row>
-    <row r="790" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A790" s="43"/>
       <c r="B790" s="43"/>
       <c r="C790" s="43"/>
@@ -22381,7 +22405,7 @@
       <c r="X790" s="4"/>
       <c r="Y790" s="4"/>
     </row>
-    <row r="791" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A791" s="43"/>
       <c r="B791" s="43"/>
       <c r="C791" s="43"/>
@@ -22408,7 +22432,7 @@
       <c r="X791" s="4"/>
       <c r="Y791" s="4"/>
     </row>
-    <row r="792" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A792" s="43"/>
       <c r="B792" s="43"/>
       <c r="C792" s="43"/>
@@ -22435,7 +22459,7 @@
       <c r="X792" s="4"/>
       <c r="Y792" s="4"/>
     </row>
-    <row r="793" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A793" s="43"/>
       <c r="B793" s="43"/>
       <c r="C793" s="43"/>
@@ -22462,7 +22486,7 @@
       <c r="X793" s="4"/>
       <c r="Y793" s="4"/>
     </row>
-    <row r="794" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A794" s="43"/>
       <c r="B794" s="43"/>
       <c r="C794" s="43"/>
@@ -22489,7 +22513,7 @@
       <c r="X794" s="4"/>
       <c r="Y794" s="4"/>
     </row>
-    <row r="795" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A795" s="43"/>
       <c r="B795" s="43"/>
       <c r="C795" s="43"/>
@@ -22516,7 +22540,7 @@
       <c r="X795" s="4"/>
       <c r="Y795" s="4"/>
     </row>
-    <row r="796" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A796" s="43"/>
       <c r="B796" s="43"/>
       <c r="C796" s="43"/>
@@ -22543,7 +22567,7 @@
       <c r="X796" s="4"/>
       <c r="Y796" s="4"/>
     </row>
-    <row r="797" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A797" s="43"/>
       <c r="B797" s="43"/>
       <c r="C797" s="43"/>
@@ -22570,7 +22594,7 @@
       <c r="X797" s="4"/>
       <c r="Y797" s="4"/>
     </row>
-    <row r="798" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A798" s="43"/>
       <c r="B798" s="43"/>
       <c r="C798" s="43"/>
@@ -22597,7 +22621,7 @@
       <c r="X798" s="4"/>
       <c r="Y798" s="4"/>
     </row>
-    <row r="799" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A799" s="43"/>
       <c r="B799" s="43"/>
       <c r="C799" s="43"/>
@@ -22624,7 +22648,7 @@
       <c r="X799" s="4"/>
       <c r="Y799" s="4"/>
     </row>
-    <row r="800" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A800" s="43"/>
       <c r="B800" s="43"/>
       <c r="C800" s="43"/>
@@ -22651,7 +22675,7 @@
       <c r="X800" s="4"/>
       <c r="Y800" s="4"/>
     </row>
-    <row r="801" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A801" s="43"/>
       <c r="B801" s="43"/>
       <c r="C801" s="43"/>
@@ -22678,7 +22702,7 @@
       <c r="X801" s="4"/>
       <c r="Y801" s="4"/>
     </row>
-    <row r="802" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A802" s="43"/>
       <c r="B802" s="43"/>
       <c r="C802" s="43"/>
@@ -22705,7 +22729,7 @@
       <c r="X802" s="4"/>
       <c r="Y802" s="4"/>
     </row>
-    <row r="803" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A803" s="43"/>
       <c r="B803" s="43"/>
       <c r="C803" s="43"/>
@@ -22732,7 +22756,7 @@
       <c r="X803" s="4"/>
       <c r="Y803" s="4"/>
     </row>
-    <row r="804" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A804" s="43"/>
       <c r="B804" s="43"/>
       <c r="C804" s="43"/>
@@ -22759,7 +22783,7 @@
       <c r="X804" s="4"/>
       <c r="Y804" s="4"/>
     </row>
-    <row r="805" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A805" s="43"/>
       <c r="B805" s="43"/>
       <c r="C805" s="43"/>
@@ -22786,7 +22810,7 @@
       <c r="X805" s="4"/>
       <c r="Y805" s="4"/>
     </row>
-    <row r="806" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A806" s="43"/>
       <c r="B806" s="43"/>
       <c r="C806" s="43"/>
@@ -22813,7 +22837,7 @@
       <c r="X806" s="4"/>
       <c r="Y806" s="4"/>
     </row>
-    <row r="807" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A807" s="43"/>
       <c r="B807" s="43"/>
       <c r="C807" s="43"/>
@@ -22840,7 +22864,7 @@
       <c r="X807" s="4"/>
       <c r="Y807" s="4"/>
     </row>
-    <row r="808" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A808" s="43"/>
       <c r="B808" s="43"/>
       <c r="C808" s="43"/>
@@ -22867,7 +22891,7 @@
       <c r="X808" s="4"/>
       <c r="Y808" s="4"/>
     </row>
-    <row r="809" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A809" s="43"/>
       <c r="B809" s="43"/>
       <c r="C809" s="43"/>
@@ -22894,7 +22918,7 @@
       <c r="X809" s="4"/>
       <c r="Y809" s="4"/>
     </row>
-    <row r="810" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A810" s="43"/>
       <c r="B810" s="43"/>
       <c r="C810" s="43"/>
@@ -22921,7 +22945,7 @@
       <c r="X810" s="4"/>
       <c r="Y810" s="4"/>
     </row>
-    <row r="811" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A811" s="43"/>
       <c r="B811" s="43"/>
       <c r="C811" s="43"/>
@@ -22948,7 +22972,7 @@
       <c r="X811" s="4"/>
       <c r="Y811" s="4"/>
     </row>
-    <row r="812" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A812" s="43"/>
       <c r="B812" s="43"/>
       <c r="C812" s="43"/>
@@ -22975,7 +22999,7 @@
       <c r="X812" s="4"/>
       <c r="Y812" s="4"/>
     </row>
-    <row r="813" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A813" s="43"/>
       <c r="B813" s="43"/>
       <c r="C813" s="43"/>
@@ -23002,7 +23026,7 @@
       <c r="X813" s="4"/>
       <c r="Y813" s="4"/>
     </row>
-    <row r="814" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A814" s="43"/>
       <c r="B814" s="43"/>
       <c r="C814" s="43"/>
@@ -23029,7 +23053,7 @@
       <c r="X814" s="4"/>
       <c r="Y814" s="4"/>
     </row>
-    <row r="815" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A815" s="43"/>
       <c r="B815" s="43"/>
       <c r="C815" s="43"/>
@@ -23056,7 +23080,7 @@
       <c r="X815" s="4"/>
       <c r="Y815" s="4"/>
     </row>
-    <row r="816" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A816" s="43"/>
       <c r="B816" s="43"/>
       <c r="C816" s="43"/>
@@ -23083,7 +23107,7 @@
       <c r="X816" s="4"/>
       <c r="Y816" s="4"/>
     </row>
-    <row r="817" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A817" s="43"/>
       <c r="B817" s="43"/>
       <c r="C817" s="43"/>
@@ -23110,7 +23134,7 @@
       <c r="X817" s="4"/>
       <c r="Y817" s="4"/>
     </row>
-    <row r="818" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A818" s="43"/>
       <c r="B818" s="43"/>
       <c r="C818" s="43"/>
@@ -23137,7 +23161,7 @@
       <c r="X818" s="4"/>
       <c r="Y818" s="4"/>
     </row>
-    <row r="819" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A819" s="43"/>
       <c r="B819" s="43"/>
       <c r="C819" s="43"/>
@@ -23164,7 +23188,7 @@
       <c r="X819" s="4"/>
       <c r="Y819" s="4"/>
     </row>
-    <row r="820" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A820" s="43"/>
       <c r="B820" s="43"/>
       <c r="C820" s="43"/>
@@ -23191,7 +23215,7 @@
       <c r="X820" s="4"/>
       <c r="Y820" s="4"/>
     </row>
-    <row r="821" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A821" s="43"/>
       <c r="B821" s="43"/>
       <c r="C821" s="43"/>
@@ -23218,7 +23242,7 @@
       <c r="X821" s="4"/>
       <c r="Y821" s="4"/>
     </row>
-    <row r="822" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A822" s="43"/>
       <c r="B822" s="43"/>
       <c r="C822" s="43"/>
@@ -23245,7 +23269,7 @@
       <c r="X822" s="4"/>
       <c r="Y822" s="4"/>
     </row>
-    <row r="823" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A823" s="43"/>
       <c r="B823" s="43"/>
       <c r="C823" s="43"/>
@@ -23272,7 +23296,7 @@
       <c r="X823" s="4"/>
       <c r="Y823" s="4"/>
     </row>
-    <row r="824" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A824" s="43"/>
       <c r="B824" s="43"/>
       <c r="C824" s="43"/>
@@ -23299,7 +23323,7 @@
       <c r="X824" s="4"/>
       <c r="Y824" s="4"/>
     </row>
-    <row r="825" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A825" s="43"/>
       <c r="B825" s="43"/>
       <c r="C825" s="43"/>
@@ -23326,7 +23350,7 @@
       <c r="X825" s="4"/>
       <c r="Y825" s="4"/>
     </row>
-    <row r="826" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A826" s="43"/>
       <c r="B826" s="43"/>
       <c r="C826" s="43"/>
@@ -23353,7 +23377,7 @@
       <c r="X826" s="4"/>
       <c r="Y826" s="4"/>
     </row>
-    <row r="827" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A827" s="43"/>
       <c r="B827" s="43"/>
       <c r="C827" s="43"/>
@@ -23380,7 +23404,7 @@
       <c r="X827" s="4"/>
       <c r="Y827" s="4"/>
     </row>
-    <row r="828" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A828" s="43"/>
       <c r="B828" s="43"/>
       <c r="C828" s="43"/>
@@ -23407,7 +23431,7 @@
       <c r="X828" s="4"/>
       <c r="Y828" s="4"/>
     </row>
-    <row r="829" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A829" s="43"/>
       <c r="B829" s="43"/>
       <c r="C829" s="43"/>
@@ -23434,7 +23458,7 @@
       <c r="X829" s="4"/>
       <c r="Y829" s="4"/>
     </row>
-    <row r="830" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A830" s="43"/>
       <c r="B830" s="43"/>
       <c r="C830" s="43"/>
@@ -23461,7 +23485,7 @@
       <c r="X830" s="4"/>
       <c r="Y830" s="4"/>
     </row>
-    <row r="831" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A831" s="43"/>
       <c r="B831" s="43"/>
       <c r="C831" s="43"/>
@@ -23488,7 +23512,7 @@
       <c r="X831" s="4"/>
       <c r="Y831" s="4"/>
     </row>
-    <row r="832" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A832" s="43"/>
       <c r="B832" s="43"/>
       <c r="C832" s="43"/>
@@ -23515,7 +23539,7 @@
       <c r="X832" s="4"/>
       <c r="Y832" s="4"/>
     </row>
-    <row r="833" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A833" s="43"/>
       <c r="B833" s="43"/>
       <c r="C833" s="43"/>
@@ -23542,7 +23566,7 @@
       <c r="X833" s="4"/>
       <c r="Y833" s="4"/>
     </row>
-    <row r="834" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A834" s="43"/>
       <c r="B834" s="43"/>
       <c r="C834" s="43"/>
@@ -23569,7 +23593,7 @@
       <c r="X834" s="4"/>
       <c r="Y834" s="4"/>
     </row>
-    <row r="835" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A835" s="43"/>
       <c r="B835" s="43"/>
       <c r="C835" s="43"/>
@@ -23596,7 +23620,7 @@
       <c r="X835" s="4"/>
       <c r="Y835" s="4"/>
     </row>
-    <row r="836" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A836" s="43"/>
       <c r="B836" s="43"/>
       <c r="C836" s="43"/>
@@ -23623,7 +23647,7 @@
       <c r="X836" s="4"/>
       <c r="Y836" s="4"/>
     </row>
-    <row r="837" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A837" s="43"/>
       <c r="B837" s="43"/>
       <c r="C837" s="43"/>
@@ -23650,7 +23674,7 @@
       <c r="X837" s="4"/>
       <c r="Y837" s="4"/>
     </row>
-    <row r="838" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A838" s="43"/>
       <c r="B838" s="43"/>
       <c r="C838" s="43"/>
@@ -23677,7 +23701,7 @@
       <c r="X838" s="4"/>
       <c r="Y838" s="4"/>
     </row>
-    <row r="839" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A839" s="43"/>
       <c r="B839" s="43"/>
       <c r="C839" s="43"/>
@@ -23704,7 +23728,7 @@
       <c r="X839" s="4"/>
       <c r="Y839" s="4"/>
     </row>
-    <row r="840" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A840" s="43"/>
       <c r="B840" s="43"/>
       <c r="C840" s="43"/>
@@ -23731,7 +23755,7 @@
       <c r="X840" s="4"/>
       <c r="Y840" s="4"/>
     </row>
-    <row r="841" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A841" s="43"/>
       <c r="B841" s="43"/>
       <c r="C841" s="43"/>
@@ -23758,7 +23782,7 @@
       <c r="X841" s="4"/>
       <c r="Y841" s="4"/>
     </row>
-    <row r="842" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A842" s="43"/>
       <c r="B842" s="43"/>
       <c r="C842" s="43"/>
@@ -23785,7 +23809,7 @@
       <c r="X842" s="4"/>
       <c r="Y842" s="4"/>
     </row>
-    <row r="843" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A843" s="43"/>
       <c r="B843" s="43"/>
       <c r="C843" s="43"/>
@@ -23812,7 +23836,7 @@
       <c r="X843" s="4"/>
       <c r="Y843" s="4"/>
     </row>
-    <row r="844" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A844" s="43"/>
       <c r="B844" s="43"/>
       <c r="C844" s="43"/>
@@ -23839,7 +23863,7 @@
       <c r="X844" s="4"/>
       <c r="Y844" s="4"/>
     </row>
-    <row r="845" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A845" s="43"/>
       <c r="B845" s="43"/>
       <c r="C845" s="43"/>
@@ -23866,7 +23890,7 @@
       <c r="X845" s="4"/>
       <c r="Y845" s="4"/>
     </row>
-    <row r="846" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A846" s="43"/>
       <c r="B846" s="43"/>
       <c r="C846" s="43"/>
@@ -23893,7 +23917,7 @@
       <c r="X846" s="4"/>
       <c r="Y846" s="4"/>
     </row>
-    <row r="847" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A847" s="43"/>
       <c r="B847" s="43"/>
       <c r="C847" s="43"/>
@@ -23920,7 +23944,7 @@
       <c r="X847" s="4"/>
       <c r="Y847" s="4"/>
     </row>
-    <row r="848" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A848" s="43"/>
       <c r="B848" s="43"/>
       <c r="C848" s="43"/>
@@ -23947,7 +23971,7 @@
       <c r="X848" s="4"/>
       <c r="Y848" s="4"/>
     </row>
-    <row r="849" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A849" s="43"/>
       <c r="B849" s="43"/>
       <c r="C849" s="43"/>
@@ -23974,7 +23998,7 @@
       <c r="X849" s="4"/>
       <c r="Y849" s="4"/>
     </row>
-    <row r="850" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A850" s="43"/>
       <c r="B850" s="43"/>
       <c r="C850" s="43"/>
@@ -24001,7 +24025,7 @@
       <c r="X850" s="4"/>
       <c r="Y850" s="4"/>
     </row>
-    <row r="851" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A851" s="43"/>
       <c r="B851" s="43"/>
       <c r="C851" s="43"/>
@@ -24028,7 +24052,7 @@
       <c r="X851" s="4"/>
       <c r="Y851" s="4"/>
     </row>
-    <row r="852" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A852" s="43"/>
       <c r="B852" s="43"/>
       <c r="C852" s="43"/>
@@ -24055,7 +24079,7 @@
       <c r="X852" s="4"/>
       <c r="Y852" s="4"/>
     </row>
-    <row r="853" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A853" s="43"/>
       <c r="B853" s="43"/>
       <c r="C853" s="43"/>
@@ -24082,7 +24106,7 @@
       <c r="X853" s="4"/>
       <c r="Y853" s="4"/>
     </row>
-    <row r="854" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A854" s="43"/>
       <c r="B854" s="43"/>
       <c r="C854" s="43"/>
@@ -24109,7 +24133,7 @@
       <c r="X854" s="4"/>
       <c r="Y854" s="4"/>
     </row>
-    <row r="855" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A855" s="43"/>
       <c r="B855" s="43"/>
       <c r="C855" s="43"/>
@@ -24136,7 +24160,7 @@
       <c r="X855" s="4"/>
       <c r="Y855" s="4"/>
     </row>
-    <row r="856" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A856" s="43"/>
       <c r="B856" s="43"/>
       <c r="C856" s="43"/>
@@ -24163,7 +24187,7 @@
       <c r="X856" s="4"/>
       <c r="Y856" s="4"/>
     </row>
-    <row r="857" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A857" s="43"/>
       <c r="B857" s="43"/>
       <c r="C857" s="43"/>
@@ -24190,7 +24214,7 @@
       <c r="X857" s="4"/>
       <c r="Y857" s="4"/>
     </row>
-    <row r="858" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A858" s="43"/>
       <c r="B858" s="43"/>
       <c r="C858" s="43"/>
@@ -24217,7 +24241,7 @@
       <c r="X858" s="4"/>
       <c r="Y858" s="4"/>
     </row>
-    <row r="859" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A859" s="43"/>
       <c r="B859" s="43"/>
       <c r="C859" s="43"/>
@@ -24244,7 +24268,7 @@
       <c r="X859" s="4"/>
       <c r="Y859" s="4"/>
     </row>
-    <row r="860" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A860" s="43"/>
       <c r="B860" s="43"/>
       <c r="C860" s="43"/>
@@ -24271,7 +24295,7 @@
       <c r="X860" s="4"/>
       <c r="Y860" s="4"/>
     </row>
-    <row r="861" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A861" s="43"/>
       <c r="B861" s="43"/>
       <c r="C861" s="43"/>
@@ -24298,7 +24322,7 @@
       <c r="X861" s="4"/>
       <c r="Y861" s="4"/>
     </row>
-    <row r="862" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A862" s="43"/>
       <c r="B862" s="43"/>
       <c r="C862" s="43"/>
@@ -24325,7 +24349,7 @@
       <c r="X862" s="4"/>
       <c r="Y862" s="4"/>
     </row>
-    <row r="863" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A863" s="43"/>
       <c r="B863" s="43"/>
       <c r="C863" s="43"/>
@@ -24352,7 +24376,7 @@
       <c r="X863" s="4"/>
       <c r="Y863" s="4"/>
     </row>
-    <row r="864" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A864" s="43"/>
       <c r="B864" s="43"/>
       <c r="C864" s="43"/>
@@ -24379,7 +24403,7 @@
       <c r="X864" s="4"/>
       <c r="Y864" s="4"/>
     </row>
-    <row r="865" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A865" s="43"/>
       <c r="B865" s="43"/>
       <c r="C865" s="43"/>
@@ -24406,7 +24430,7 @@
       <c r="X865" s="4"/>
       <c r="Y865" s="4"/>
     </row>
-    <row r="866" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A866" s="43"/>
       <c r="B866" s="43"/>
       <c r="C866" s="43"/>
@@ -24433,7 +24457,7 @@
       <c r="X866" s="4"/>
       <c r="Y866" s="4"/>
     </row>
-    <row r="867" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A867" s="43"/>
       <c r="B867" s="43"/>
       <c r="C867" s="43"/>
@@ -24460,7 +24484,7 @@
       <c r="X867" s="4"/>
       <c r="Y867" s="4"/>
     </row>
-    <row r="868" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A868" s="43"/>
       <c r="B868" s="43"/>
       <c r="C868" s="43"/>
@@ -24487,7 +24511,7 @@
       <c r="X868" s="4"/>
       <c r="Y868" s="4"/>
     </row>
-    <row r="869" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A869" s="43"/>
       <c r="B869" s="43"/>
       <c r="C869" s="43"/>
@@ -24514,7 +24538,7 @@
       <c r="X869" s="4"/>
       <c r="Y869" s="4"/>
     </row>
-    <row r="870" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A870" s="43"/>
       <c r="B870" s="43"/>
       <c r="C870" s="43"/>
@@ -24541,7 +24565,7 @@
       <c r="X870" s="4"/>
       <c r="Y870" s="4"/>
     </row>
-    <row r="871" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A871" s="43"/>
       <c r="B871" s="43"/>
       <c r="C871" s="43"/>
@@ -24568,7 +24592,7 @@
       <c r="X871" s="4"/>
       <c r="Y871" s="4"/>
     </row>
-    <row r="872" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A872" s="43"/>
       <c r="B872" s="43"/>
       <c r="C872" s="43"/>
@@ -24595,7 +24619,7 @@
       <c r="X872" s="4"/>
       <c r="Y872" s="4"/>
     </row>
-    <row r="873" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A873" s="43"/>
       <c r="B873" s="43"/>
       <c r="C873" s="43"/>
@@ -24622,7 +24646,7 @@
       <c r="X873" s="4"/>
       <c r="Y873" s="4"/>
     </row>
-    <row r="874" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A874" s="43"/>
       <c r="B874" s="43"/>
       <c r="C874" s="43"/>
@@ -24649,7 +24673,7 @@
       <c r="X874" s="4"/>
       <c r="Y874" s="4"/>
     </row>
-    <row r="875" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A875" s="43"/>
       <c r="B875" s="43"/>
       <c r="C875" s="43"/>
@@ -24676,7 +24700,7 @@
       <c r="X875" s="4"/>
       <c r="Y875" s="4"/>
     </row>
-    <row r="876" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A876" s="43"/>
       <c r="B876" s="43"/>
       <c r="C876" s="43"/>
@@ -24703,7 +24727,7 @@
       <c r="X876" s="4"/>
       <c r="Y876" s="4"/>
     </row>
-    <row r="877" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A877" s="43"/>
       <c r="B877" s="43"/>
       <c r="C877" s="43"/>
@@ -24730,7 +24754,7 @@
       <c r="X877" s="4"/>
       <c r="Y877" s="4"/>
     </row>
-    <row r="878" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A878" s="43"/>
       <c r="B878" s="43"/>
       <c r="C878" s="43"/>
@@ -24757,7 +24781,7 @@
       <c r="X878" s="4"/>
       <c r="Y878" s="4"/>
     </row>
-    <row r="879" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A879" s="43"/>
       <c r="B879" s="43"/>
       <c r="C879" s="43"/>
@@ -24784,7 +24808,7 @@
       <c r="X879" s="4"/>
       <c r="Y879" s="4"/>
     </row>
-    <row r="880" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A880" s="43"/>
       <c r="B880" s="43"/>
       <c r="C880" s="43"/>
@@ -24811,7 +24835,7 @@
       <c r="X880" s="4"/>
       <c r="Y880" s="4"/>
     </row>
-    <row r="881" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A881" s="43"/>
       <c r="B881" s="43"/>
       <c r="C881" s="43"/>
@@ -24838,7 +24862,7 @@
       <c r="X881" s="4"/>
       <c r="Y881" s="4"/>
     </row>
-    <row r="882" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A882" s="43"/>
       <c r="B882" s="43"/>
       <c r="C882" s="43"/>
@@ -24865,7 +24889,7 @@
       <c r="X882" s="4"/>
       <c r="Y882" s="4"/>
     </row>
-    <row r="883" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A883" s="43"/>
       <c r="B883" s="43"/>
       <c r="C883" s="43"/>
@@ -24892,7 +24916,7 @@
       <c r="X883" s="4"/>
       <c r="Y883" s="4"/>
     </row>
-    <row r="884" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A884" s="43"/>
       <c r="B884" s="43"/>
       <c r="C884" s="43"/>
@@ -24919,7 +24943,7 @@
       <c r="X884" s="4"/>
       <c r="Y884" s="4"/>
     </row>
-    <row r="885" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A885" s="43"/>
       <c r="B885" s="43"/>
       <c r="C885" s="43"/>
@@ -24946,7 +24970,7 @@
       <c r="X885" s="4"/>
       <c r="Y885" s="4"/>
     </row>
-    <row r="886" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A886" s="43"/>
       <c r="B886" s="43"/>
       <c r="C886" s="43"/>
@@ -24973,7 +24997,7 @@
       <c r="X886" s="4"/>
       <c r="Y886" s="4"/>
     </row>
-    <row r="887" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A887" s="43"/>
       <c r="B887" s="43"/>
       <c r="C887" s="43"/>
@@ -25000,7 +25024,7 @@
       <c r="X887" s="4"/>
       <c r="Y887" s="4"/>
     </row>
-    <row r="888" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A888" s="43"/>
       <c r="B888" s="43"/>
       <c r="C888" s="43"/>
@@ -25027,7 +25051,7 @@
       <c r="X888" s="4"/>
       <c r="Y888" s="4"/>
     </row>
-    <row r="889" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A889" s="43"/>
       <c r="B889" s="43"/>
       <c r="C889" s="43"/>
@@ -25054,7 +25078,7 @@
       <c r="X889" s="4"/>
       <c r="Y889" s="4"/>
     </row>
-    <row r="890" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A890" s="43"/>
       <c r="B890" s="43"/>
       <c r="C890" s="43"/>
@@ -25081,7 +25105,7 @@
       <c r="X890" s="4"/>
       <c r="Y890" s="4"/>
     </row>
-    <row r="891" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A891" s="43"/>
       <c r="B891" s="43"/>
       <c r="C891" s="43"/>
@@ -25108,7 +25132,7 @@
       <c r="X891" s="4"/>
       <c r="Y891" s="4"/>
     </row>
-    <row r="892" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A892" s="43"/>
       <c r="B892" s="43"/>
       <c r="C892" s="43"/>
@@ -25135,7 +25159,7 @@
       <c r="X892" s="4"/>
       <c r="Y892" s="4"/>
     </row>
-    <row r="893" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A893" s="43"/>
       <c r="B893" s="43"/>
       <c r="C893" s="43"/>
@@ -25162,7 +25186,7 @@
       <c r="X893" s="4"/>
       <c r="Y893" s="4"/>
     </row>
-    <row r="894" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A894" s="43"/>
       <c r="B894" s="43"/>
       <c r="C894" s="43"/>
@@ -25189,7 +25213,7 @@
       <c r="X894" s="4"/>
       <c r="Y894" s="4"/>
     </row>
-    <row r="895" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A895" s="43"/>
       <c r="B895" s="43"/>
       <c r="C895" s="43"/>
@@ -25216,7 +25240,7 @@
       <c r="X895" s="4"/>
       <c r="Y895" s="4"/>
     </row>
-    <row r="896" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A896" s="43"/>
       <c r="B896" s="43"/>
       <c r="C896" s="43"/>
@@ -25243,7 +25267,7 @@
       <c r="X896" s="4"/>
       <c r="Y896" s="4"/>
     </row>
-    <row r="897" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A897" s="43"/>
       <c r="B897" s="43"/>
       <c r="C897" s="43"/>
@@ -25270,7 +25294,7 @@
       <c r="X897" s="4"/>
       <c r="Y897" s="4"/>
     </row>
-    <row r="898" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A898" s="43"/>
       <c r="B898" s="43"/>
       <c r="C898" s="43"/>
@@ -25297,7 +25321,7 @@
       <c r="X898" s="4"/>
       <c r="Y898" s="4"/>
     </row>
-    <row r="899" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A899" s="43"/>
       <c r="B899" s="43"/>
       <c r="C899" s="43"/>
@@ -25324,7 +25348,7 @@
       <c r="X899" s="4"/>
       <c r="Y899" s="4"/>
     </row>
-    <row r="900" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A900" s="43"/>
       <c r="B900" s="43"/>
       <c r="C900" s="43"/>
@@ -25351,7 +25375,7 @@
       <c r="X900" s="4"/>
       <c r="Y900" s="4"/>
     </row>
-    <row r="901" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A901" s="43"/>
       <c r="B901" s="43"/>
       <c r="C901" s="43"/>
@@ -25378,7 +25402,7 @@
       <c r="X901" s="4"/>
       <c r="Y901" s="4"/>
     </row>
-    <row r="902" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A902" s="43"/>
       <c r="B902" s="43"/>
       <c r="C902" s="43"/>
@@ -25405,7 +25429,7 @@
       <c r="X902" s="4"/>
       <c r="Y902" s="4"/>
     </row>
-    <row r="903" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A903" s="43"/>
       <c r="B903" s="43"/>
       <c r="C903" s="43"/>
@@ -25432,7 +25456,7 @@
       <c r="X903" s="4"/>
       <c r="Y903" s="4"/>
     </row>
-    <row r="904" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A904" s="43"/>
       <c r="B904" s="43"/>
       <c r="C904" s="43"/>
@@ -25459,7 +25483,7 @@
       <c r="X904" s="4"/>
       <c r="Y904" s="4"/>
     </row>
-    <row r="905" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A905" s="43"/>
       <c r="B905" s="43"/>
       <c r="C905" s="43"/>
@@ -25486,7 +25510,7 @@
       <c r="X905" s="4"/>
       <c r="Y905" s="4"/>
     </row>
-    <row r="906" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A906" s="43"/>
       <c r="B906" s="43"/>
       <c r="C906" s="43"/>
@@ -25513,7 +25537,7 @@
       <c r="X906" s="4"/>
       <c r="Y906" s="4"/>
     </row>
-    <row r="907" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A907" s="43"/>
       <c r="B907" s="43"/>
       <c r="C907" s="43"/>
@@ -25540,7 +25564,7 @@
       <c r="X907" s="4"/>
       <c r="Y907" s="4"/>
     </row>
-    <row r="908" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A908" s="43"/>
       <c r="B908" s="43"/>
       <c r="C908" s="43"/>
@@ -25567,7 +25591,7 @@
       <c r="X908" s="4"/>
       <c r="Y908" s="4"/>
     </row>
-    <row r="909" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A909" s="43"/>
       <c r="B909" s="43"/>
       <c r="C909" s="43"/>
@@ -25594,7 +25618,7 @@
       <c r="X909" s="4"/>
       <c r="Y909" s="4"/>
     </row>
-    <row r="910" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A910" s="43"/>
       <c r="B910" s="43"/>
       <c r="C910" s="43"/>
@@ -25621,7 +25645,7 @@
       <c r="X910" s="4"/>
       <c r="Y910" s="4"/>
     </row>
-    <row r="911" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A911" s="43"/>
       <c r="B911" s="43"/>
       <c r="C911" s="43"/>
@@ -25648,7 +25672,7 @@
       <c r="X911" s="4"/>
       <c r="Y911" s="4"/>
     </row>
-    <row r="912" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A912" s="43"/>
       <c r="B912" s="43"/>
       <c r="C912" s="43"/>
@@ -25675,7 +25699,7 @@
       <c r="X912" s="4"/>
       <c r="Y912" s="4"/>
     </row>
-    <row r="913" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A913" s="43"/>
       <c r="B913" s="43"/>
       <c r="C913" s="43"/>
@@ -25702,7 +25726,7 @@
       <c r="X913" s="4"/>
       <c r="Y913" s="4"/>
     </row>
-    <row r="914" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A914" s="43"/>
       <c r="B914" s="43"/>
       <c r="C914" s="43"/>
@@ -25729,7 +25753,7 @@
       <c r="X914" s="4"/>
       <c r="Y914" s="4"/>
     </row>
-    <row r="915" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A915" s="43"/>
       <c r="B915" s="43"/>
       <c r="C915" s="43"/>
@@ -25756,7 +25780,7 @@
       <c r="X915" s="4"/>
       <c r="Y915" s="4"/>
     </row>
-    <row r="916" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A916" s="43"/>
       <c r="B916" s="43"/>
       <c r="C916" s="43"/>
@@ -25783,7 +25807,7 @@
       <c r="X916" s="4"/>
       <c r="Y916" s="4"/>
     </row>
-    <row r="917" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A917" s="43"/>
       <c r="B917" s="43"/>
       <c r="C917" s="43"/>
@@ -25810,7 +25834,7 @@
       <c r="X917" s="4"/>
       <c r="Y917" s="4"/>
     </row>
-    <row r="918" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A918" s="43"/>
       <c r="B918" s="43"/>
       <c r="C918" s="43"/>
@@ -25837,7 +25861,7 @@
       <c r="X918" s="4"/>
       <c r="Y918" s="4"/>
     </row>
-    <row r="919" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A919" s="43"/>
       <c r="B919" s="43"/>
       <c r="C919" s="43"/>
@@ -25864,7 +25888,7 @@
       <c r="X919" s="4"/>
       <c r="Y919" s="4"/>
     </row>
-    <row r="920" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A920" s="43"/>
       <c r="B920" s="43"/>
       <c r="C920" s="43"/>
@@ -25891,7 +25915,7 @@
       <c r="X920" s="4"/>
       <c r="Y920" s="4"/>
     </row>
-    <row r="921" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A921" s="43"/>
       <c r="B921" s="43"/>
       <c r="C921" s="43"/>
@@ -25918,7 +25942,7 @@
       <c r="X921" s="4"/>
       <c r="Y921" s="4"/>
     </row>
-    <row r="922" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A922" s="43"/>
       <c r="B922" s="43"/>
       <c r="C922" s="43"/>
@@ -25945,7 +25969,7 @@
       <c r="X922" s="4"/>
       <c r="Y922" s="4"/>
     </row>
-    <row r="923" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A923" s="43"/>
       <c r="B923" s="43"/>
       <c r="C923" s="43"/>
@@ -25972,7 +25996,7 @@
       <c r="X923" s="4"/>
       <c r="Y923" s="4"/>
     </row>
-    <row r="924" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A924" s="43"/>
       <c r="B924" s="43"/>
       <c r="C924" s="43"/>
@@ -25999,7 +26023,7 @@
       <c r="X924" s="4"/>
       <c r="Y924" s="4"/>
     </row>
-    <row r="925" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A925" s="43"/>
       <c r="B925" s="43"/>
       <c r="C925" s="43"/>
@@ -26026,7 +26050,7 @@
       <c r="X925" s="4"/>
       <c r="Y925" s="4"/>
     </row>
-    <row r="926" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A926" s="43"/>
       <c r="B926" s="43"/>
       <c r="C926" s="43"/>
@@ -26053,7 +26077,7 @@
       <c r="X926" s="4"/>
       <c r="Y926" s="4"/>
     </row>
-    <row r="927" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A927" s="43"/>
       <c r="B927" s="43"/>
       <c r="C927" s="43"/>
@@ -26080,7 +26104,7 @@
       <c r="X927" s="4"/>
       <c r="Y927" s="4"/>
     </row>
-    <row r="928" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A928" s="43"/>
       <c r="B928" s="43"/>
       <c r="C928" s="43"/>
@@ -26107,7 +26131,7 @@
       <c r="X928" s="4"/>
       <c r="Y928" s="4"/>
     </row>
-    <row r="929" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A929" s="43"/>
       <c r="B929" s="43"/>
       <c r="C929" s="43"/>
@@ -26134,7 +26158,7 @@
       <c r="X929" s="4"/>
       <c r="Y929" s="4"/>
     </row>
-    <row r="930" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A930" s="43"/>
       <c r="B930" s="43"/>
       <c r="C930" s="43"/>
@@ -26161,7 +26185,7 @@
       <c r="X930" s="4"/>
       <c r="Y930" s="4"/>
     </row>
-    <row r="931" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A931" s="43"/>
       <c r="B931" s="43"/>
       <c r="C931" s="43"/>
@@ -26188,7 +26212,7 @@
       <c r="X931" s="4"/>
       <c r="Y931" s="4"/>
     </row>
-    <row r="932" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A932" s="43"/>
       <c r="B932" s="43"/>
       <c r="C932" s="43"/>
@@ -26215,7 +26239,7 @@
       <c r="X932" s="4"/>
       <c r="Y932" s="4"/>
     </row>
-    <row r="933" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A933" s="43"/>
       <c r="B933" s="43"/>
       <c r="C933" s="43"/>
@@ -26242,7 +26266,7 @@
       <c r="X933" s="4"/>
       <c r="Y933" s="4"/>
     </row>
-    <row r="934" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A934" s="43"/>
       <c r="B934" s="43"/>
       <c r="C934" s="43"/>
@@ -26269,7 +26293,7 @@
       <c r="X934" s="4"/>
       <c r="Y934" s="4"/>
     </row>
-    <row r="935" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A935" s="43"/>
       <c r="B935" s="43"/>
       <c r="C935" s="43"/>
@@ -26296,7 +26320,7 @@
       <c r="X935" s="4"/>
       <c r="Y935" s="4"/>
     </row>
-    <row r="936" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A936" s="43"/>
       <c r="B936" s="43"/>
       <c r="C936" s="43"/>
@@ -26323,7 +26347,7 @@
       <c r="X936" s="4"/>
       <c r="Y936" s="4"/>
     </row>
-    <row r="937" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A937" s="43"/>
       <c r="B937" s="43"/>
       <c r="C937" s="43"/>
@@ -26350,7 +26374,7 @@
       <c r="X937" s="4"/>
       <c r="Y937" s="4"/>
     </row>
-    <row r="938" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A938" s="43"/>
       <c r="B938" s="43"/>
       <c r="C938" s="43"/>
@@ -26377,7 +26401,7 @@
       <c r="X938" s="4"/>
       <c r="Y938" s="4"/>
     </row>
-    <row r="939" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A939" s="43"/>
       <c r="B939" s="43"/>
       <c r="C939" s="43"/>
@@ -26404,7 +26428,7 @@
       <c r="X939" s="4"/>
       <c r="Y939" s="4"/>
     </row>
-    <row r="940" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A940" s="43"/>
       <c r="B940" s="43"/>
       <c r="C940" s="43"/>
@@ -26431,7 +26455,7 @@
       <c r="X940" s="4"/>
       <c r="Y940" s="4"/>
     </row>
-    <row r="941" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A941" s="43"/>
       <c r="B941" s="43"/>
       <c r="C941" s="43"/>
@@ -26458,7 +26482,7 @@
       <c r="X941" s="4"/>
       <c r="Y941" s="4"/>
     </row>
-    <row r="942" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A942" s="43"/>
       <c r="B942" s="43"/>
       <c r="C942" s="43"/>
@@ -26485,7 +26509,7 @@
       <c r="X942" s="4"/>
       <c r="Y942" s="4"/>
     </row>
-    <row r="943" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A943" s="43"/>
       <c r="B943" s="43"/>
       <c r="C943" s="43"/>
@@ -26512,7 +26536,7 @@
       <c r="X943" s="4"/>
       <c r="Y943" s="4"/>
     </row>
-    <row r="944" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A944" s="43"/>
       <c r="B944" s="43"/>
       <c r="C944" s="43"/>
@@ -26539,7 +26563,7 @@
       <c r="X944" s="4"/>
       <c r="Y944" s="4"/>
     </row>
-    <row r="945" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A945" s="43"/>
       <c r="B945" s="43"/>
       <c r="C945" s="43"/>
@@ -26566,7 +26590,7 @@
       <c r="X945" s="4"/>
       <c r="Y945" s="4"/>
     </row>
-    <row r="946" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A946" s="43"/>
       <c r="B946" s="43"/>
       <c r="C946" s="43"/>
@@ -26593,7 +26617,7 @@
       <c r="X946" s="4"/>
       <c r="Y946" s="4"/>
     </row>
-    <row r="947" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A947" s="43"/>
       <c r="B947" s="43"/>
       <c r="C947" s="43"/>
@@ -26620,7 +26644,7 @@
       <c r="X947" s="4"/>
       <c r="Y947" s="4"/>
     </row>
-    <row r="948" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A948" s="43"/>
       <c r="B948" s="43"/>
       <c r="C948" s="43"/>
@@ -26647,7 +26671,7 @@
       <c r="X948" s="4"/>
       <c r="Y948" s="4"/>
     </row>
-    <row r="949" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A949" s="43"/>
       <c r="B949" s="43"/>
       <c r="C949" s="43"/>
@@ -26674,7 +26698,7 @@
       <c r="X949" s="4"/>
       <c r="Y949" s="4"/>
     </row>
-    <row r="950" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A950" s="43"/>
       <c r="B950" s="43"/>
       <c r="C950" s="43"/>
@@ -26701,7 +26725,7 @@
       <c r="X950" s="4"/>
       <c r="Y950" s="4"/>
     </row>
-    <row r="951" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A951" s="43"/>
       <c r="B951" s="43"/>
       <c r="C951" s="43"/>
@@ -26728,7 +26752,7 @@
       <c r="X951" s="4"/>
       <c r="Y951" s="4"/>
     </row>
-    <row r="952" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A952" s="43"/>
       <c r="B952" s="43"/>
       <c r="C952" s="43"/>
@@ -26755,7 +26779,7 @@
       <c r="X952" s="4"/>
       <c r="Y952" s="4"/>
     </row>
-    <row r="953" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A953" s="43"/>
       <c r="B953" s="43"/>
       <c r="C953" s="43"/>
@@ -26782,7 +26806,7 @@
       <c r="X953" s="4"/>
       <c r="Y953" s="4"/>
     </row>
-    <row r="954" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A954" s="43"/>
       <c r="B954" s="43"/>
       <c r="C954" s="43"/>
@@ -26809,7 +26833,7 @@
       <c r="X954" s="4"/>
       <c r="Y954" s="4"/>
     </row>
-    <row r="955" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A955" s="43"/>
       <c r="B955" s="43"/>
       <c r="C955" s="43"/>
@@ -26836,7 +26860,7 @@
       <c r="X955" s="4"/>
       <c r="Y955" s="4"/>
     </row>
-    <row r="956" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A956" s="43"/>
       <c r="B956" s="43"/>
       <c r="C956" s="43"/>
@@ -26863,7 +26887,7 @@
       <c r="X956" s="4"/>
       <c r="Y956" s="4"/>
     </row>
-    <row r="957" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A957" s="43"/>
       <c r="B957" s="43"/>
       <c r="C957" s="43"/>
@@ -26890,7 +26914,7 @@
       <c r="X957" s="4"/>
       <c r="Y957" s="4"/>
     </row>
-    <row r="958" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A958" s="43"/>
       <c r="B958" s="43"/>
       <c r="C958" s="43"/>
@@ -26917,7 +26941,7 @@
       <c r="X958" s="4"/>
       <c r="Y958" s="4"/>
     </row>
-    <row r="959" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A959" s="43"/>
       <c r="B959" s="43"/>
       <c r="C959" s="43"/>
@@ -26944,7 +26968,7 @@
       <c r="X959" s="4"/>
       <c r="Y959" s="4"/>
     </row>
-    <row r="960" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A960" s="43"/>
       <c r="B960" s="43"/>
       <c r="C960" s="43"/>
@@ -26971,7 +26995,7 @@
       <c r="X960" s="4"/>
       <c r="Y960" s="4"/>
     </row>
-    <row r="961" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A961" s="43"/>
       <c r="B961" s="43"/>
       <c r="C961" s="43"/>
@@ -26998,7 +27022,7 @@
       <c r="X961" s="4"/>
       <c r="Y961" s="4"/>
     </row>
-    <row r="962" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A962" s="43"/>
       <c r="B962" s="43"/>
       <c r="C962" s="43"/>
@@ -27025,7 +27049,7 @@
       <c r="X962" s="4"/>
       <c r="Y962" s="4"/>
     </row>
-    <row r="963" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A963" s="43"/>
       <c r="B963" s="43"/>
       <c r="C963" s="43"/>
@@ -27052,7 +27076,7 @@
       <c r="X963" s="4"/>
       <c r="Y963" s="4"/>
     </row>
-    <row r="964" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A964" s="43"/>
       <c r="B964" s="43"/>
       <c r="C964" s="43"/>
@@ -27079,7 +27103,7 @@
       <c r="X964" s="4"/>
       <c r="Y964" s="4"/>
     </row>
-    <row r="965" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A965" s="43"/>
       <c r="B965" s="43"/>
       <c r="C965" s="43"/>
@@ -27106,7 +27130,7 @@
       <c r="X965" s="4"/>
       <c r="Y965" s="4"/>
     </row>
-    <row r="966" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A966" s="43"/>
       <c r="B966" s="43"/>
       <c r="C966" s="43"/>
@@ -27133,7 +27157,7 @@
       <c r="X966" s="4"/>
       <c r="Y966" s="4"/>
     </row>
-    <row r="967" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A967" s="43"/>
       <c r="B967" s="43"/>
       <c r="C967" s="43"/>
@@ -27160,7 +27184,7 @@
       <c r="X967" s="4"/>
       <c r="Y967" s="4"/>
     </row>
-    <row r="968" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A968" s="43"/>
       <c r="B968" s="43"/>
       <c r="C968" s="43"/>
@@ -27187,7 +27211,7 @@
       <c r="X968" s="4"/>
       <c r="Y968" s="4"/>
     </row>
-    <row r="969" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A969" s="43"/>
       <c r="B969" s="43"/>
       <c r="C969" s="43"/>
@@ -27214,7 +27238,7 @@
       <c r="X969" s="4"/>
       <c r="Y969" s="4"/>
     </row>
-    <row r="970" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A970" s="43"/>
       <c r="B970" s="43"/>
       <c r="C970" s="43"/>
@@ -27241,7 +27265,7 @@
       <c r="X970" s="4"/>
       <c r="Y970" s="4"/>
     </row>
-    <row r="971" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A971" s="43"/>
       <c r="B971" s="43"/>
       <c r="C971" s="43"/>
@@ -27268,7 +27292,7 @@
       <c r="X971" s="4"/>
       <c r="Y971" s="4"/>
     </row>
-    <row r="972" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A972" s="43"/>
       <c r="B972" s="43"/>
       <c r="C972" s="43"/>
@@ -27295,7 +27319,7 @@
       <c r="X972" s="4"/>
       <c r="Y972" s="4"/>
     </row>
-    <row r="973" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A973" s="43"/>
       <c r="B973" s="43"/>
       <c r="C973" s="43"/>
@@ -27322,7 +27346,7 @@
       <c r="X973" s="4"/>
       <c r="Y973" s="4"/>
     </row>
-    <row r="974" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A974" s="43"/>
       <c r="B974" s="43"/>
       <c r="C974" s="43"/>
@@ -27349,7 +27373,7 @@
       <c r="X974" s="4"/>
       <c r="Y974" s="4"/>
     </row>
-    <row r="975" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A975" s="43"/>
       <c r="B975" s="43"/>
       <c r="C975" s="43"/>
@@ -27376,7 +27400,7 @@
       <c r="X975" s="4"/>
       <c r="Y975" s="4"/>
     </row>
-    <row r="976" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A976" s="43"/>
       <c r="B976" s="43"/>
       <c r="C976" s="43"/>
@@ -27403,7 +27427,7 @@
       <c r="X976" s="4"/>
       <c r="Y976" s="4"/>
     </row>
-    <row r="977" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A977" s="43"/>
       <c r="B977" s="43"/>
       <c r="C977" s="43"/>
@@ -27430,7 +27454,7 @@
       <c r="X977" s="4"/>
       <c r="Y977" s="4"/>
     </row>
-    <row r="978" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A978" s="43"/>
       <c r="B978" s="43"/>
       <c r="C978" s="43"/>
@@ -27457,7 +27481,7 @@
       <c r="X978" s="4"/>
       <c r="Y978" s="4"/>
     </row>
-    <row r="979" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A979" s="43"/>
       <c r="B979" s="43"/>
       <c r="C979" s="43"/>
@@ -27484,7 +27508,7 @@
       <c r="X979" s="4"/>
       <c r="Y979" s="4"/>
     </row>
-    <row r="980" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A980" s="43"/>
       <c r="B980" s="43"/>
       <c r="C980" s="43"/>
@@ -27511,7 +27535,7 @@
       <c r="X980" s="4"/>
       <c r="Y980" s="4"/>
     </row>
-    <row r="981" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A981" s="43"/>
       <c r="B981" s="43"/>
       <c r="C981" s="43"/>
@@ -27538,7 +27562,7 @@
       <c r="X981" s="4"/>
       <c r="Y981" s="4"/>
     </row>
-    <row r="982" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A982" s="43"/>
       <c r="B982" s="43"/>
       <c r="C982" s="43"/>
@@ -27565,7 +27589,7 @@
       <c r="X982" s="4"/>
       <c r="Y982" s="4"/>
     </row>
-    <row r="983" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A983" s="43"/>
       <c r="B983" s="43"/>
       <c r="C983" s="43"/>
@@ -27592,7 +27616,7 @@
       <c r="X983" s="4"/>
       <c r="Y983" s="4"/>
     </row>
-    <row r="984" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A984" s="43"/>
       <c r="B984" s="43"/>
       <c r="C984" s="43"/>
@@ -27619,7 +27643,7 @@
       <c r="X984" s="4"/>
       <c r="Y984" s="4"/>
     </row>
-    <row r="985" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A985" s="43"/>
       <c r="B985" s="43"/>
       <c r="C985" s="43"/>
@@ -27646,7 +27670,7 @@
       <c r="X985" s="4"/>
       <c r="Y985" s="4"/>
     </row>
-    <row r="986" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A986" s="43"/>
       <c r="B986" s="43"/>
       <c r="C986" s="43"/>
@@ -27673,7 +27697,7 @@
       <c r="X986" s="4"/>
       <c r="Y986" s="4"/>
     </row>
-    <row r="987" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A987" s="43"/>
       <c r="B987" s="43"/>
       <c r="C987" s="43"/>
@@ -27700,7 +27724,7 @@
       <c r="X987" s="4"/>
       <c r="Y987" s="4"/>
     </row>
-    <row r="988" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A988" s="43"/>
       <c r="B988" s="43"/>
       <c r="C988" s="43"/>
@@ -27727,7 +27751,7 @@
       <c r="X988" s="4"/>
       <c r="Y988" s="4"/>
     </row>
-    <row r="989" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A989" s="43"/>
       <c r="B989" s="43"/>
       <c r="C989" s="43"/>
@@ -27754,7 +27778,7 @@
       <c r="X989" s="4"/>
       <c r="Y989" s="4"/>
     </row>
-    <row r="990" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A990" s="43"/>
       <c r="B990" s="43"/>
       <c r="C990" s="43"/>
@@ -27781,7 +27805,7 @@
       <c r="X990" s="4"/>
       <c r="Y990" s="4"/>
     </row>
-    <row r="991" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A991" s="43"/>
       <c r="B991" s="43"/>
       <c r="C991" s="43"/>
@@ -27808,7 +27832,7 @@
       <c r="X991" s="4"/>
       <c r="Y991" s="4"/>
     </row>
-    <row r="992" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A992" s="43"/>
       <c r="B992" s="43"/>
       <c r="C992" s="43"/>
@@ -27835,7 +27859,7 @@
       <c r="X992" s="4"/>
       <c r="Y992" s="4"/>
     </row>
-    <row r="993" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A993" s="43"/>
       <c r="B993" s="43"/>
       <c r="C993" s="43"/>
@@ -27862,7 +27886,7 @@
       <c r="X993" s="4"/>
       <c r="Y993" s="4"/>
     </row>
-    <row r="994" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A994" s="43"/>
       <c r="B994" s="43"/>
       <c r="C994" s="43"/>
@@ -27889,7 +27913,7 @@
       <c r="X994" s="4"/>
       <c r="Y994" s="4"/>
     </row>
-    <row r="995" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A995" s="43"/>
       <c r="B995" s="43"/>
       <c r="C995" s="43"/>
@@ -27916,7 +27940,7 @@
       <c r="X995" s="4"/>
       <c r="Y995" s="4"/>
     </row>
-    <row r="996" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A996" s="43"/>
       <c r="B996" s="43"/>
       <c r="C996" s="43"/>
@@ -27943,7 +27967,7 @@
       <c r="X996" s="4"/>
       <c r="Y996" s="4"/>
     </row>
-    <row r="997" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A997" s="43"/>
       <c r="B997" s="43"/>
       <c r="C997" s="43"/>
@@ -27970,7 +27994,7 @@
       <c r="X997" s="4"/>
       <c r="Y997" s="4"/>
     </row>
-    <row r="998" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A998" s="43"/>
       <c r="B998" s="43"/>
       <c r="C998" s="43"/>
@@ -27997,7 +28021,7 @@
       <c r="X998" s="4"/>
       <c r="Y998" s="4"/>
     </row>
-    <row r="999" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A999" s="43"/>
       <c r="B999" s="43"/>
       <c r="C999" s="43"/>
@@ -28024,7 +28048,7 @@
       <c r="X999" s="4"/>
       <c r="Y999" s="4"/>
     </row>
-    <row r="1000" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>

--- a/Documentação/Gestão/Ata - Sprint 2 - Strawtech.xlsx
+++ b/Documentação/Gestão/Ata - Sprint 2 - Strawtech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fb330565894022c/Área de Trabalho/Strawtech/Sprint2/Sprint2/Documentação/Gestão/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPTECHOISAS\sprint2\Sprint2\Documentação\Gestão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_C8605842C2B98F028CF30DB4C4E0C02544182BBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA46B5D-BD16-419F-90FF-E4F6D1E0D79F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BE32B3-60B1-4540-8D7B-499CB193D8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>ATA - PROJETO STRAWTECH</t>
   </si>
@@ -62,9 +62,6 @@
 Robson Nakama
 José Vitor
  Matheus Braga</t>
-  </si>
-  <si>
-    <t>----------------</t>
   </si>
   <si>
     <t xml:space="preserve">• Foi definido que as reuniões seram feitas presencialmente depois da aula
@@ -560,17 +557,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +583,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -795,21 +788,21 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="71" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="71" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
     <col min="7" max="7" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -836,16 +829,16 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -865,7 +858,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -904,7 +897,7 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="8">
         <v>45194</v>
@@ -918,11 +911,9 @@
       <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -943,7 +934,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="12">
         <v>45195</v>
@@ -957,11 +948,9 @@
       <c r="E5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -982,7 +971,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="108" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="8">
         <v>45196</v>
@@ -996,11 +985,9 @@
       <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1021,7 +1008,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="12">
         <v>45197</v>
@@ -1035,11 +1022,9 @@
       <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F7" s="14"/>
       <c r="G7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1060,7 +1045,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="8">
         <v>45198</v>
@@ -1074,11 +1059,9 @@
       <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1099,7 +1082,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="148.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="12">
         <v>45201</v>
@@ -1113,11 +1096,9 @@
       <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1138,7 +1119,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="8">
         <v>45202</v>
@@ -1152,11 +1133,9 @@
       <c r="E10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1177,7 +1156,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="12">
         <v>45203</v>
@@ -1191,11 +1170,9 @@
       <c r="E11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F11" s="14"/>
       <c r="G11" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1216,7 +1193,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="8">
         <v>45204</v>
@@ -1230,11 +1207,9 @@
       <c r="E12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1255,7 +1230,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="12">
         <v>45205</v>
@@ -1269,11 +1244,9 @@
       <c r="E13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1294,7 +1267,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="8">
         <v>45208</v>
@@ -1306,13 +1279,11 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1333,7 +1304,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="18">
         <v>45209</v>
@@ -1345,13 +1316,11 @@
         <v>0.8569444444444444</v>
       </c>
       <c r="E15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1372,7 +1341,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="23">
         <v>45210</v>
@@ -1381,16 +1350,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="F16" s="25"/>
       <c r="G16" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1411,7 +1378,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="28">
         <v>45211</v>
@@ -1423,13 +1390,11 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F17" s="14"/>
       <c r="G17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1450,7 +1415,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="23">
         <v>45212</v>
@@ -1462,13 +1427,11 @@
         <v>0.81597222222222221</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1489,7 +1452,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="28">
         <v>45215</v>
@@ -1501,13 +1464,11 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1528,7 +1489,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="23">
         <v>45216</v>
@@ -1540,13 +1501,11 @@
         <v>0.81388888888888888</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="F20" s="10"/>
       <c r="G20" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1567,7 +1526,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="28">
         <v>45217</v>
@@ -1579,13 +1538,11 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F21" s="14"/>
       <c r="G21" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1606,7 +1563,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="75.599999999999994" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="23">
         <v>45218</v>
@@ -1618,13 +1575,11 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>8</v>
-      </c>
+      <c r="F22" s="34"/>
       <c r="G22" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1645,7 +1600,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="28">
         <v>45219</v>
@@ -1659,11 +1614,9 @@
       <c r="E23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1684,10 +1637,10 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" ht="90" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="48" t="s">
-        <v>28</v>
+      <c r="B24" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="9">
         <v>0.83333333333333337</v>
@@ -1698,14 +1651,12 @@
       <c r="E24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="F24" s="14"/>
       <c r="G24" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="47"/>
+      <c r="I24" s="44"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1723,7 +1674,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="36"/>
       <c r="C25" s="14"/>
@@ -1750,7 +1701,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -1777,7 +1728,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -1804,7 +1755,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -1831,7 +1782,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -1858,7 +1809,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -1885,7 +1836,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -1912,7 +1863,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1939,7 +1890,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1966,7 +1917,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1993,7 +1944,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2020,7 +1971,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2047,7 +1998,7 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2074,7 +2025,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2101,7 +2052,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2128,7 +2079,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2155,7 +2106,7 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2182,7 +2133,7 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2209,7 +2160,7 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2236,7 +2187,7 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2263,7 +2214,7 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2290,7 +2241,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2317,7 +2268,7 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2344,7 +2295,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2371,7 +2322,7 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2398,7 +2349,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2425,7 +2376,7 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2452,7 +2403,7 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2479,7 +2430,7 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2506,7 +2457,7 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2533,7 +2484,7 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2560,7 +2511,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2587,7 +2538,7 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2614,7 +2565,7 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2641,7 +2592,7 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2668,7 +2619,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -2695,7 +2646,7 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -2722,7 +2673,7 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -2749,7 +2700,7 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -2776,7 +2727,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -2803,7 +2754,7 @@
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -2830,7 +2781,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -2857,7 +2808,7 @@
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -2884,7 +2835,7 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -2911,7 +2862,7 @@
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -2938,7 +2889,7 @@
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -2965,7 +2916,7 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -2992,7 +2943,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -3019,7 +2970,7 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -3046,7 +2997,7 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -3073,7 +3024,7 @@
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -3100,7 +3051,7 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -3127,7 +3078,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -3154,7 +3105,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -3181,7 +3132,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -3208,7 +3159,7 @@
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -3235,7 +3186,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -3262,7 +3213,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -3289,7 +3240,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
@@ -3316,7 +3267,7 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
@@ -3343,7 +3294,7 @@
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -3370,7 +3321,7 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
@@ -3397,7 +3348,7 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
@@ -3424,7 +3375,7 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
@@ -3451,7 +3402,7 @@
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
@@ -3478,7 +3429,7 @@
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
@@ -3505,7 +3456,7 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
@@ -3532,7 +3483,7 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
@@ -3559,7 +3510,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
@@ -3586,7 +3537,7 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
@@ -3613,7 +3564,7 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
@@ -3640,7 +3591,7 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -3667,7 +3618,7 @@
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -3694,7 +3645,7 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -3721,7 +3672,7 @@
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -3748,7 +3699,7 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
@@ -3775,7 +3726,7 @@
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -3802,7 +3753,7 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -3829,7 +3780,7 @@
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
@@ -3856,7 +3807,7 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
@@ -3883,7 +3834,7 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
@@ -3910,7 +3861,7 @@
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
@@ -3937,7 +3888,7 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
@@ -3964,7 +3915,7 @@
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="43"/>
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
@@ -3991,7 +3942,7 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
@@ -4018,7 +3969,7 @@
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
@@ -4045,7 +3996,7 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
@@ -4072,7 +4023,7 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
@@ -4099,7 +4050,7 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="43"/>
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
@@ -4126,7 +4077,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
@@ -4153,7 +4104,7 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
@@ -4180,7 +4131,7 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
@@ -4207,7 +4158,7 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="43"/>
       <c r="C117" s="43"/>
@@ -4234,7 +4185,7 @@
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="43"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
@@ -4261,7 +4212,7 @@
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="43"/>
       <c r="C119" s="43"/>
@@ -4288,7 +4239,7 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="43"/>
       <c r="C120" s="43"/>
@@ -4315,7 +4266,7 @@
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="C121" s="43"/>
@@ -4342,7 +4293,7 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="C122" s="43"/>
@@ -4369,7 +4320,7 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="43"/>
       <c r="C123" s="43"/>
@@ -4396,7 +4347,7 @@
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="C124" s="43"/>
@@ -4423,7 +4374,7 @@
       <c r="X124" s="4"/>
       <c r="Y124" s="4"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
@@ -4450,7 +4401,7 @@
       <c r="X125" s="4"/>
       <c r="Y125" s="4"/>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
@@ -4477,7 +4428,7 @@
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
@@ -4504,7 +4455,7 @@
       <c r="X127" s="4"/>
       <c r="Y127" s="4"/>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
@@ -4531,7 +4482,7 @@
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
@@ -4558,7 +4509,7 @@
       <c r="X129" s="4"/>
       <c r="Y129" s="4"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
@@ -4585,7 +4536,7 @@
       <c r="X130" s="4"/>
       <c r="Y130" s="4"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="43"/>
       <c r="C131" s="43"/>
@@ -4612,7 +4563,7 @@
       <c r="X131" s="4"/>
       <c r="Y131" s="4"/>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="43"/>
       <c r="C132" s="43"/>
@@ -4639,7 +4590,7 @@
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
@@ -4666,7 +4617,7 @@
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="43"/>
       <c r="C134" s="43"/>
@@ -4693,7 +4644,7 @@
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="43"/>
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
@@ -4720,7 +4671,7 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
@@ -4747,7 +4698,7 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
@@ -4774,7 +4725,7 @@
       <c r="X137" s="4"/>
       <c r="Y137" s="4"/>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
@@ -4801,7 +4752,7 @@
       <c r="X138" s="4"/>
       <c r="Y138" s="4"/>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="43"/>
       <c r="B139" s="43"/>
       <c r="C139" s="43"/>
@@ -4828,7 +4779,7 @@
       <c r="X139" s="4"/>
       <c r="Y139" s="4"/>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
@@ -4855,7 +4806,7 @@
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
       <c r="B141" s="43"/>
       <c r="C141" s="43"/>
@@ -4882,7 +4833,7 @@
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="43"/>
       <c r="C142" s="43"/>
@@ -4909,7 +4860,7 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="43"/>
       <c r="C143" s="43"/>
@@ -4936,7 +4887,7 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="43"/>
       <c r="C144" s="43"/>
@@ -4963,7 +4914,7 @@
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="43"/>
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
@@ -4990,7 +4941,7 @@
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="43"/>
       <c r="B146" s="43"/>
       <c r="C146" s="43"/>
@@ -5017,7 +4968,7 @@
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="43"/>
       <c r="B147" s="43"/>
       <c r="C147" s="43"/>
@@ -5044,7 +4995,7 @@
       <c r="X147" s="4"/>
       <c r="Y147" s="4"/>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="43"/>
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
@@ -5071,7 +5022,7 @@
       <c r="X148" s="4"/>
       <c r="Y148" s="4"/>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="43"/>
       <c r="B149" s="43"/>
       <c r="C149" s="43"/>
@@ -5098,7 +5049,7 @@
       <c r="X149" s="4"/>
       <c r="Y149" s="4"/>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="43"/>
       <c r="B150" s="43"/>
       <c r="C150" s="43"/>
@@ -5125,7 +5076,7 @@
       <c r="X150" s="4"/>
       <c r="Y150" s="4"/>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="43"/>
       <c r="B151" s="43"/>
       <c r="C151" s="43"/>
@@ -5152,7 +5103,7 @@
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="43"/>
       <c r="B152" s="43"/>
       <c r="C152" s="43"/>
@@ -5179,7 +5130,7 @@
       <c r="X152" s="4"/>
       <c r="Y152" s="4"/>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="43"/>
       <c r="B153" s="43"/>
       <c r="C153" s="43"/>
@@ -5206,7 +5157,7 @@
       <c r="X153" s="4"/>
       <c r="Y153" s="4"/>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="43"/>
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
@@ -5233,7 +5184,7 @@
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
       <c r="B155" s="43"/>
       <c r="C155" s="43"/>
@@ -5260,7 +5211,7 @@
       <c r="X155" s="4"/>
       <c r="Y155" s="4"/>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="43"/>
       <c r="C156" s="43"/>
@@ -5287,7 +5238,7 @@
       <c r="X156" s="4"/>
       <c r="Y156" s="4"/>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="B157" s="43"/>
       <c r="C157" s="43"/>
@@ -5314,7 +5265,7 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="43"/>
       <c r="B158" s="43"/>
       <c r="C158" s="43"/>
@@ -5341,7 +5292,7 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="43"/>
       <c r="C159" s="43"/>
@@ -5368,7 +5319,7 @@
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="43"/>
       <c r="B160" s="43"/>
       <c r="C160" s="43"/>
@@ -5395,7 +5346,7 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="B161" s="43"/>
       <c r="C161" s="43"/>
@@ -5422,7 +5373,7 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="43"/>
       <c r="B162" s="43"/>
       <c r="C162" s="43"/>
@@ -5449,7 +5400,7 @@
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="43"/>
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
@@ -5476,7 +5427,7 @@
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="43"/>
       <c r="C164" s="43"/>
@@ -5503,7 +5454,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="43"/>
       <c r="B165" s="43"/>
       <c r="C165" s="43"/>
@@ -5530,7 +5481,7 @@
       <c r="X165" s="4"/>
       <c r="Y165" s="4"/>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="43"/>
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
@@ -5557,7 +5508,7 @@
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="43"/>
       <c r="B167" s="43"/>
       <c r="C167" s="43"/>
@@ -5584,7 +5535,7 @@
       <c r="X167" s="4"/>
       <c r="Y167" s="4"/>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
       <c r="B168" s="43"/>
       <c r="C168" s="43"/>
@@ -5611,7 +5562,7 @@
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="43"/>
       <c r="B169" s="43"/>
       <c r="C169" s="43"/>
@@ -5638,7 +5589,7 @@
       <c r="X169" s="4"/>
       <c r="Y169" s="4"/>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="43"/>
       <c r="B170" s="43"/>
       <c r="C170" s="43"/>
@@ -5665,7 +5616,7 @@
       <c r="X170" s="4"/>
       <c r="Y170" s="4"/>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="43"/>
       <c r="B171" s="43"/>
       <c r="C171" s="43"/>
@@ -5692,7 +5643,7 @@
       <c r="X171" s="4"/>
       <c r="Y171" s="4"/>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="43"/>
       <c r="B172" s="43"/>
       <c r="C172" s="43"/>
@@ -5719,7 +5670,7 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="43"/>
       <c r="B173" s="43"/>
       <c r="C173" s="43"/>
@@ -5746,7 +5697,7 @@
       <c r="X173" s="4"/>
       <c r="Y173" s="4"/>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="43"/>
       <c r="B174" s="43"/>
       <c r="C174" s="43"/>
@@ -5773,7 +5724,7 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="43"/>
       <c r="B175" s="43"/>
       <c r="C175" s="43"/>
@@ -5800,7 +5751,7 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="43"/>
       <c r="B176" s="43"/>
       <c r="C176" s="43"/>
@@ -5827,7 +5778,7 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="43"/>
       <c r="B177" s="43"/>
       <c r="C177" s="43"/>
@@ -5854,7 +5805,7 @@
       <c r="X177" s="4"/>
       <c r="Y177" s="4"/>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="43"/>
       <c r="B178" s="43"/>
       <c r="C178" s="43"/>
@@ -5881,7 +5832,7 @@
       <c r="X178" s="4"/>
       <c r="Y178" s="4"/>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="43"/>
       <c r="B179" s="43"/>
       <c r="C179" s="43"/>
@@ -5908,7 +5859,7 @@
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="43"/>
       <c r="B180" s="43"/>
       <c r="C180" s="43"/>
@@ -5935,7 +5886,7 @@
       <c r="X180" s="4"/>
       <c r="Y180" s="4"/>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="43"/>
       <c r="B181" s="43"/>
       <c r="C181" s="43"/>
@@ -5962,7 +5913,7 @@
       <c r="X181" s="4"/>
       <c r="Y181" s="4"/>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" s="43"/>
       <c r="B182" s="43"/>
       <c r="C182" s="43"/>
@@ -5989,7 +5940,7 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="43"/>
       <c r="B183" s="43"/>
       <c r="C183" s="43"/>
@@ -6016,7 +5967,7 @@
       <c r="X183" s="4"/>
       <c r="Y183" s="4"/>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" s="43"/>
       <c r="B184" s="43"/>
       <c r="C184" s="43"/>
@@ -6043,7 +5994,7 @@
       <c r="X184" s="4"/>
       <c r="Y184" s="4"/>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="43"/>
       <c r="B185" s="43"/>
       <c r="C185" s="43"/>
@@ -6070,7 +6021,7 @@
       <c r="X185" s="4"/>
       <c r="Y185" s="4"/>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" s="43"/>
       <c r="B186" s="43"/>
       <c r="C186" s="43"/>
@@ -6097,7 +6048,7 @@
       <c r="X186" s="4"/>
       <c r="Y186" s="4"/>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" s="43"/>
       <c r="B187" s="43"/>
       <c r="C187" s="43"/>
@@ -6124,7 +6075,7 @@
       <c r="X187" s="4"/>
       <c r="Y187" s="4"/>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" s="43"/>
       <c r="B188" s="43"/>
       <c r="C188" s="43"/>
@@ -6151,7 +6102,7 @@
       <c r="X188" s="4"/>
       <c r="Y188" s="4"/>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" s="43"/>
       <c r="B189" s="43"/>
       <c r="C189" s="43"/>
@@ -6178,7 +6129,7 @@
       <c r="X189" s="4"/>
       <c r="Y189" s="4"/>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" s="43"/>
       <c r="B190" s="43"/>
       <c r="C190" s="43"/>
@@ -6205,7 +6156,7 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" s="43"/>
       <c r="B191" s="43"/>
       <c r="C191" s="43"/>
@@ -6232,7 +6183,7 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="43"/>
       <c r="B192" s="43"/>
       <c r="C192" s="43"/>
@@ -6259,7 +6210,7 @@
       <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" s="43"/>
       <c r="B193" s="43"/>
       <c r="C193" s="43"/>
@@ -6286,7 +6237,7 @@
       <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" s="43"/>
       <c r="B194" s="43"/>
       <c r="C194" s="43"/>
@@ -6313,7 +6264,7 @@
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" s="43"/>
       <c r="B195" s="43"/>
       <c r="C195" s="43"/>
@@ -6340,7 +6291,7 @@
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="43"/>
       <c r="B196" s="43"/>
       <c r="C196" s="43"/>
@@ -6367,7 +6318,7 @@
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" s="43"/>
       <c r="B197" s="43"/>
       <c r="C197" s="43"/>
@@ -6394,7 +6345,7 @@
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" s="43"/>
       <c r="B198" s="43"/>
       <c r="C198" s="43"/>
@@ -6421,7 +6372,7 @@
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="43"/>
       <c r="B199" s="43"/>
       <c r="C199" s="43"/>
@@ -6448,7 +6399,7 @@
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="43"/>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
@@ -6475,7 +6426,7 @@
       <c r="X200" s="4"/>
       <c r="Y200" s="4"/>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="43"/>
       <c r="B201" s="43"/>
       <c r="C201" s="43"/>
@@ -6502,7 +6453,7 @@
       <c r="X201" s="4"/>
       <c r="Y201" s="4"/>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" s="43"/>
       <c r="B202" s="43"/>
       <c r="C202" s="43"/>
@@ -6529,7 +6480,7 @@
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" s="43"/>
       <c r="B203" s="43"/>
       <c r="C203" s="43"/>
@@ -6556,7 +6507,7 @@
       <c r="X203" s="4"/>
       <c r="Y203" s="4"/>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" s="43"/>
       <c r="B204" s="43"/>
       <c r="C204" s="43"/>
@@ -6583,7 +6534,7 @@
       <c r="X204" s="4"/>
       <c r="Y204" s="4"/>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" s="43"/>
       <c r="B205" s="43"/>
       <c r="C205" s="43"/>
@@ -6610,7 +6561,7 @@
       <c r="X205" s="4"/>
       <c r="Y205" s="4"/>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="43"/>
       <c r="B206" s="43"/>
       <c r="C206" s="43"/>
@@ -6637,7 +6588,7 @@
       <c r="X206" s="4"/>
       <c r="Y206" s="4"/>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="43"/>
       <c r="B207" s="43"/>
       <c r="C207" s="43"/>
@@ -6664,7 +6615,7 @@
       <c r="X207" s="4"/>
       <c r="Y207" s="4"/>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" s="43"/>
       <c r="B208" s="43"/>
       <c r="C208" s="43"/>
@@ -6691,7 +6642,7 @@
       <c r="X208" s="4"/>
       <c r="Y208" s="4"/>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" s="43"/>
       <c r="B209" s="43"/>
       <c r="C209" s="43"/>
@@ -6718,7 +6669,7 @@
       <c r="X209" s="4"/>
       <c r="Y209" s="4"/>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="43"/>
       <c r="B210" s="43"/>
       <c r="C210" s="43"/>
@@ -6745,7 +6696,7 @@
       <c r="X210" s="4"/>
       <c r="Y210" s="4"/>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="43"/>
       <c r="B211" s="43"/>
       <c r="C211" s="43"/>
@@ -6772,7 +6723,7 @@
       <c r="X211" s="4"/>
       <c r="Y211" s="4"/>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="43"/>
       <c r="B212" s="43"/>
       <c r="C212" s="43"/>
@@ -6799,7 +6750,7 @@
       <c r="X212" s="4"/>
       <c r="Y212" s="4"/>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="43"/>
       <c r="B213" s="43"/>
       <c r="C213" s="43"/>
@@ -6826,7 +6777,7 @@
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="43"/>
       <c r="B214" s="43"/>
       <c r="C214" s="43"/>
@@ -6853,7 +6804,7 @@
       <c r="X214" s="4"/>
       <c r="Y214" s="4"/>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="43"/>
       <c r="B215" s="43"/>
       <c r="C215" s="43"/>
@@ -6880,7 +6831,7 @@
       <c r="X215" s="4"/>
       <c r="Y215" s="4"/>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="43"/>
       <c r="B216" s="43"/>
       <c r="C216" s="43"/>
@@ -6907,7 +6858,7 @@
       <c r="X216" s="4"/>
       <c r="Y216" s="4"/>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="43"/>
       <c r="B217" s="43"/>
       <c r="C217" s="43"/>
@@ -6934,7 +6885,7 @@
       <c r="X217" s="4"/>
       <c r="Y217" s="4"/>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="43"/>
       <c r="B218" s="43"/>
       <c r="C218" s="43"/>
@@ -6961,7 +6912,7 @@
       <c r="X218" s="4"/>
       <c r="Y218" s="4"/>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="43"/>
       <c r="B219" s="43"/>
       <c r="C219" s="43"/>
@@ -6988,7 +6939,7 @@
       <c r="X219" s="4"/>
       <c r="Y219" s="4"/>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="43"/>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
@@ -7015,7 +6966,7 @@
       <c r="X220" s="4"/>
       <c r="Y220" s="4"/>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="43"/>
       <c r="B221" s="43"/>
       <c r="C221" s="43"/>
@@ -7042,7 +6993,7 @@
       <c r="X221" s="4"/>
       <c r="Y221" s="4"/>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="43"/>
       <c r="B222" s="43"/>
       <c r="C222" s="43"/>
@@ -7069,7 +7020,7 @@
       <c r="X222" s="4"/>
       <c r="Y222" s="4"/>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="43"/>
       <c r="B223" s="43"/>
       <c r="C223" s="43"/>
@@ -7096,7 +7047,7 @@
       <c r="X223" s="4"/>
       <c r="Y223" s="4"/>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="43"/>
       <c r="B224" s="43"/>
       <c r="C224" s="43"/>
@@ -7123,7 +7074,7 @@
       <c r="X224" s="4"/>
       <c r="Y224" s="4"/>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="43"/>
       <c r="B225" s="43"/>
       <c r="C225" s="43"/>
@@ -7150,7 +7101,7 @@
       <c r="X225" s="4"/>
       <c r="Y225" s="4"/>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="43"/>
       <c r="B226" s="43"/>
       <c r="C226" s="43"/>
@@ -7177,7 +7128,7 @@
       <c r="X226" s="4"/>
       <c r="Y226" s="4"/>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="43"/>
       <c r="B227" s="43"/>
       <c r="C227" s="43"/>
@@ -7204,7 +7155,7 @@
       <c r="X227" s="4"/>
       <c r="Y227" s="4"/>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="43"/>
       <c r="B228" s="43"/>
       <c r="C228" s="43"/>
@@ -7231,7 +7182,7 @@
       <c r="X228" s="4"/>
       <c r="Y228" s="4"/>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="43"/>
       <c r="B229" s="43"/>
       <c r="C229" s="43"/>
@@ -7258,7 +7209,7 @@
       <c r="X229" s="4"/>
       <c r="Y229" s="4"/>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="43"/>
       <c r="B230" s="43"/>
       <c r="C230" s="43"/>
@@ -7285,7 +7236,7 @@
       <c r="X230" s="4"/>
       <c r="Y230" s="4"/>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" s="43"/>
       <c r="B231" s="43"/>
       <c r="C231" s="43"/>
@@ -7312,7 +7263,7 @@
       <c r="X231" s="4"/>
       <c r="Y231" s="4"/>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" s="43"/>
       <c r="B232" s="43"/>
       <c r="C232" s="43"/>
@@ -7339,7 +7290,7 @@
       <c r="X232" s="4"/>
       <c r="Y232" s="4"/>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" s="43"/>
       <c r="B233" s="43"/>
       <c r="C233" s="43"/>
@@ -7366,7 +7317,7 @@
       <c r="X233" s="4"/>
       <c r="Y233" s="4"/>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" s="43"/>
       <c r="B234" s="43"/>
       <c r="C234" s="43"/>
@@ -7393,7 +7344,7 @@
       <c r="X234" s="4"/>
       <c r="Y234" s="4"/>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" s="43"/>
       <c r="B235" s="43"/>
       <c r="C235" s="43"/>
@@ -7420,7 +7371,7 @@
       <c r="X235" s="4"/>
       <c r="Y235" s="4"/>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" s="43"/>
       <c r="B236" s="43"/>
       <c r="C236" s="43"/>
@@ -7447,7 +7398,7 @@
       <c r="X236" s="4"/>
       <c r="Y236" s="4"/>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" s="43"/>
       <c r="B237" s="43"/>
       <c r="C237" s="43"/>
@@ -7474,7 +7425,7 @@
       <c r="X237" s="4"/>
       <c r="Y237" s="4"/>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" s="43"/>
       <c r="B238" s="43"/>
       <c r="C238" s="43"/>
@@ -7501,7 +7452,7 @@
       <c r="X238" s="4"/>
       <c r="Y238" s="4"/>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" s="43"/>
       <c r="B239" s="43"/>
       <c r="C239" s="43"/>
@@ -7528,7 +7479,7 @@
       <c r="X239" s="4"/>
       <c r="Y239" s="4"/>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="43"/>
       <c r="B240" s="43"/>
       <c r="C240" s="43"/>
@@ -7555,7 +7506,7 @@
       <c r="X240" s="4"/>
       <c r="Y240" s="4"/>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" s="43"/>
       <c r="B241" s="43"/>
       <c r="C241" s="43"/>
@@ -7582,7 +7533,7 @@
       <c r="X241" s="4"/>
       <c r="Y241" s="4"/>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" s="43"/>
       <c r="B242" s="43"/>
       <c r="C242" s="43"/>
@@ -7609,7 +7560,7 @@
       <c r="X242" s="4"/>
       <c r="Y242" s="4"/>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" s="43"/>
       <c r="B243" s="43"/>
       <c r="C243" s="43"/>
@@ -7636,7 +7587,7 @@
       <c r="X243" s="4"/>
       <c r="Y243" s="4"/>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="43"/>
       <c r="B244" s="43"/>
       <c r="C244" s="43"/>
@@ -7663,7 +7614,7 @@
       <c r="X244" s="4"/>
       <c r="Y244" s="4"/>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" s="43"/>
       <c r="B245" s="43"/>
       <c r="C245" s="43"/>
@@ -7690,7 +7641,7 @@
       <c r="X245" s="4"/>
       <c r="Y245" s="4"/>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="43"/>
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
@@ -7717,7 +7668,7 @@
       <c r="X246" s="4"/>
       <c r="Y246" s="4"/>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" s="43"/>
       <c r="B247" s="43"/>
       <c r="C247" s="43"/>
@@ -7744,7 +7695,7 @@
       <c r="X247" s="4"/>
       <c r="Y247" s="4"/>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" s="43"/>
       <c r="B248" s="43"/>
       <c r="C248" s="43"/>
@@ -7771,7 +7722,7 @@
       <c r="X248" s="4"/>
       <c r="Y248" s="4"/>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" s="43"/>
       <c r="B249" s="43"/>
       <c r="C249" s="43"/>
@@ -7798,7 +7749,7 @@
       <c r="X249" s="4"/>
       <c r="Y249" s="4"/>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" s="43"/>
       <c r="B250" s="43"/>
       <c r="C250" s="43"/>
@@ -7825,7 +7776,7 @@
       <c r="X250" s="4"/>
       <c r="Y250" s="4"/>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="43"/>
       <c r="B251" s="43"/>
       <c r="C251" s="43"/>
@@ -7852,7 +7803,7 @@
       <c r="X251" s="4"/>
       <c r="Y251" s="4"/>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" s="43"/>
       <c r="B252" s="43"/>
       <c r="C252" s="43"/>
@@ -7879,7 +7830,7 @@
       <c r="X252" s="4"/>
       <c r="Y252" s="4"/>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="43"/>
       <c r="B253" s="43"/>
       <c r="C253" s="43"/>
@@ -7906,7 +7857,7 @@
       <c r="X253" s="4"/>
       <c r="Y253" s="4"/>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="43"/>
       <c r="B254" s="43"/>
       <c r="C254" s="43"/>
@@ -7933,7 +7884,7 @@
       <c r="X254" s="4"/>
       <c r="Y254" s="4"/>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" s="43"/>
       <c r="B255" s="43"/>
       <c r="C255" s="43"/>
@@ -7960,7 +7911,7 @@
       <c r="X255" s="4"/>
       <c r="Y255" s="4"/>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" s="43"/>
       <c r="B256" s="43"/>
       <c r="C256" s="43"/>
@@ -7987,7 +7938,7 @@
       <c r="X256" s="4"/>
       <c r="Y256" s="4"/>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" s="43"/>
       <c r="B257" s="43"/>
       <c r="C257" s="43"/>
@@ -8014,7 +7965,7 @@
       <c r="X257" s="4"/>
       <c r="Y257" s="4"/>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="43"/>
       <c r="B258" s="43"/>
       <c r="C258" s="43"/>
@@ -8041,7 +7992,7 @@
       <c r="X258" s="4"/>
       <c r="Y258" s="4"/>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="43"/>
       <c r="B259" s="43"/>
       <c r="C259" s="43"/>
@@ -8068,7 +8019,7 @@
       <c r="X259" s="4"/>
       <c r="Y259" s="4"/>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" s="43"/>
       <c r="B260" s="43"/>
       <c r="C260" s="43"/>
@@ -8095,7 +8046,7 @@
       <c r="X260" s="4"/>
       <c r="Y260" s="4"/>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" s="43"/>
       <c r="B261" s="43"/>
       <c r="C261" s="43"/>
@@ -8122,7 +8073,7 @@
       <c r="X261" s="4"/>
       <c r="Y261" s="4"/>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" s="43"/>
       <c r="B262" s="43"/>
       <c r="C262" s="43"/>
@@ -8149,7 +8100,7 @@
       <c r="X262" s="4"/>
       <c r="Y262" s="4"/>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" s="43"/>
       <c r="B263" s="43"/>
       <c r="C263" s="43"/>
@@ -8176,7 +8127,7 @@
       <c r="X263" s="4"/>
       <c r="Y263" s="4"/>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" s="43"/>
       <c r="B264" s="43"/>
       <c r="C264" s="43"/>
@@ -8203,7 +8154,7 @@
       <c r="X264" s="4"/>
       <c r="Y264" s="4"/>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" s="43"/>
       <c r="B265" s="43"/>
       <c r="C265" s="43"/>
@@ -8230,7 +8181,7 @@
       <c r="X265" s="4"/>
       <c r="Y265" s="4"/>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="43"/>
       <c r="B266" s="43"/>
       <c r="C266" s="43"/>
@@ -8257,7 +8208,7 @@
       <c r="X266" s="4"/>
       <c r="Y266" s="4"/>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="43"/>
       <c r="B267" s="43"/>
       <c r="C267" s="43"/>
@@ -8284,7 +8235,7 @@
       <c r="X267" s="4"/>
       <c r="Y267" s="4"/>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" s="43"/>
       <c r="B268" s="43"/>
       <c r="C268" s="43"/>
@@ -8311,7 +8262,7 @@
       <c r="X268" s="4"/>
       <c r="Y268" s="4"/>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" s="43"/>
       <c r="B269" s="43"/>
       <c r="C269" s="43"/>
@@ -8338,7 +8289,7 @@
       <c r="X269" s="4"/>
       <c r="Y269" s="4"/>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="43"/>
       <c r="B270" s="43"/>
       <c r="C270" s="43"/>
@@ -8365,7 +8316,7 @@
       <c r="X270" s="4"/>
       <c r="Y270" s="4"/>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="43"/>
       <c r="B271" s="43"/>
       <c r="C271" s="43"/>
@@ -8392,7 +8343,7 @@
       <c r="X271" s="4"/>
       <c r="Y271" s="4"/>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" s="43"/>
       <c r="B272" s="43"/>
       <c r="C272" s="43"/>
@@ -8419,7 +8370,7 @@
       <c r="X272" s="4"/>
       <c r="Y272" s="4"/>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" s="43"/>
       <c r="B273" s="43"/>
       <c r="C273" s="43"/>
@@ -8446,7 +8397,7 @@
       <c r="X273" s="4"/>
       <c r="Y273" s="4"/>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" s="43"/>
       <c r="B274" s="43"/>
       <c r="C274" s="43"/>
@@ -8473,7 +8424,7 @@
       <c r="X274" s="4"/>
       <c r="Y274" s="4"/>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" s="43"/>
       <c r="B275" s="43"/>
       <c r="C275" s="43"/>
@@ -8500,7 +8451,7 @@
       <c r="X275" s="4"/>
       <c r="Y275" s="4"/>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" s="43"/>
       <c r="B276" s="43"/>
       <c r="C276" s="43"/>
@@ -8527,7 +8478,7 @@
       <c r="X276" s="4"/>
       <c r="Y276" s="4"/>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" s="43"/>
       <c r="B277" s="43"/>
       <c r="C277" s="43"/>
@@ -8554,7 +8505,7 @@
       <c r="X277" s="4"/>
       <c r="Y277" s="4"/>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" s="43"/>
       <c r="B278" s="43"/>
       <c r="C278" s="43"/>
@@ -8581,7 +8532,7 @@
       <c r="X278" s="4"/>
       <c r="Y278" s="4"/>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" s="43"/>
       <c r="B279" s="43"/>
       <c r="C279" s="43"/>
@@ -8608,7 +8559,7 @@
       <c r="X279" s="4"/>
       <c r="Y279" s="4"/>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" s="43"/>
       <c r="B280" s="43"/>
       <c r="C280" s="43"/>
@@ -8635,7 +8586,7 @@
       <c r="X280" s="4"/>
       <c r="Y280" s="4"/>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" s="43"/>
       <c r="B281" s="43"/>
       <c r="C281" s="43"/>
@@ -8662,7 +8613,7 @@
       <c r="X281" s="4"/>
       <c r="Y281" s="4"/>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="43"/>
       <c r="B282" s="43"/>
       <c r="C282" s="43"/>
@@ -8689,7 +8640,7 @@
       <c r="X282" s="4"/>
       <c r="Y282" s="4"/>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="43"/>
       <c r="B283" s="43"/>
       <c r="C283" s="43"/>
@@ -8716,7 +8667,7 @@
       <c r="X283" s="4"/>
       <c r="Y283" s="4"/>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" s="43"/>
       <c r="B284" s="43"/>
       <c r="C284" s="43"/>
@@ -8743,7 +8694,7 @@
       <c r="X284" s="4"/>
       <c r="Y284" s="4"/>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" s="43"/>
       <c r="B285" s="43"/>
       <c r="C285" s="43"/>
@@ -8770,7 +8721,7 @@
       <c r="X285" s="4"/>
       <c r="Y285" s="4"/>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" s="43"/>
       <c r="B286" s="43"/>
       <c r="C286" s="43"/>
@@ -8797,7 +8748,7 @@
       <c r="X286" s="4"/>
       <c r="Y286" s="4"/>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" s="43"/>
       <c r="B287" s="43"/>
       <c r="C287" s="43"/>
@@ -8824,7 +8775,7 @@
       <c r="X287" s="4"/>
       <c r="Y287" s="4"/>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" s="43"/>
       <c r="B288" s="43"/>
       <c r="C288" s="43"/>
@@ -8851,7 +8802,7 @@
       <c r="X288" s="4"/>
       <c r="Y288" s="4"/>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" s="43"/>
       <c r="B289" s="43"/>
       <c r="C289" s="43"/>
@@ -8878,7 +8829,7 @@
       <c r="X289" s="4"/>
       <c r="Y289" s="4"/>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" s="43"/>
       <c r="B290" s="43"/>
       <c r="C290" s="43"/>
@@ -8905,7 +8856,7 @@
       <c r="X290" s="4"/>
       <c r="Y290" s="4"/>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" s="43"/>
       <c r="B291" s="43"/>
       <c r="C291" s="43"/>
@@ -8932,7 +8883,7 @@
       <c r="X291" s="4"/>
       <c r="Y291" s="4"/>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" s="43"/>
       <c r="B292" s="43"/>
       <c r="C292" s="43"/>
@@ -8959,7 +8910,7 @@
       <c r="X292" s="4"/>
       <c r="Y292" s="4"/>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" s="43"/>
       <c r="B293" s="43"/>
       <c r="C293" s="43"/>
@@ -8986,7 +8937,7 @@
       <c r="X293" s="4"/>
       <c r="Y293" s="4"/>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" s="43"/>
       <c r="B294" s="43"/>
       <c r="C294" s="43"/>
@@ -9013,7 +8964,7 @@
       <c r="X294" s="4"/>
       <c r="Y294" s="4"/>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" s="43"/>
       <c r="B295" s="43"/>
       <c r="C295" s="43"/>
@@ -9040,7 +8991,7 @@
       <c r="X295" s="4"/>
       <c r="Y295" s="4"/>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" s="43"/>
       <c r="B296" s="43"/>
       <c r="C296" s="43"/>
@@ -9067,7 +9018,7 @@
       <c r="X296" s="4"/>
       <c r="Y296" s="4"/>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" s="43"/>
       <c r="B297" s="43"/>
       <c r="C297" s="43"/>
@@ -9094,7 +9045,7 @@
       <c r="X297" s="4"/>
       <c r="Y297" s="4"/>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" s="43"/>
       <c r="B298" s="43"/>
       <c r="C298" s="43"/>
@@ -9121,7 +9072,7 @@
       <c r="X298" s="4"/>
       <c r="Y298" s="4"/>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" s="43"/>
       <c r="B299" s="43"/>
       <c r="C299" s="43"/>
@@ -9148,7 +9099,7 @@
       <c r="X299" s="4"/>
       <c r="Y299" s="4"/>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" s="43"/>
       <c r="B300" s="43"/>
       <c r="C300" s="43"/>
@@ -9175,7 +9126,7 @@
       <c r="X300" s="4"/>
       <c r="Y300" s="4"/>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" s="43"/>
       <c r="B301" s="43"/>
       <c r="C301" s="43"/>
@@ -9202,7 +9153,7 @@
       <c r="X301" s="4"/>
       <c r="Y301" s="4"/>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" s="43"/>
       <c r="B302" s="43"/>
       <c r="C302" s="43"/>
@@ -9229,7 +9180,7 @@
       <c r="X302" s="4"/>
       <c r="Y302" s="4"/>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" s="43"/>
       <c r="B303" s="43"/>
       <c r="C303" s="43"/>
@@ -9256,7 +9207,7 @@
       <c r="X303" s="4"/>
       <c r="Y303" s="4"/>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" s="43"/>
       <c r="B304" s="43"/>
       <c r="C304" s="43"/>
@@ -9283,7 +9234,7 @@
       <c r="X304" s="4"/>
       <c r="Y304" s="4"/>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" s="43"/>
       <c r="B305" s="43"/>
       <c r="C305" s="43"/>
@@ -9310,7 +9261,7 @@
       <c r="X305" s="4"/>
       <c r="Y305" s="4"/>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" s="43"/>
       <c r="B306" s="43"/>
       <c r="C306" s="43"/>
@@ -9337,7 +9288,7 @@
       <c r="X306" s="4"/>
       <c r="Y306" s="4"/>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" s="43"/>
       <c r="B307" s="43"/>
       <c r="C307" s="43"/>
@@ -9364,7 +9315,7 @@
       <c r="X307" s="4"/>
       <c r="Y307" s="4"/>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" s="43"/>
       <c r="B308" s="43"/>
       <c r="C308" s="43"/>
@@ -9391,7 +9342,7 @@
       <c r="X308" s="4"/>
       <c r="Y308" s="4"/>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" s="43"/>
       <c r="B309" s="43"/>
       <c r="C309" s="43"/>
@@ -9418,7 +9369,7 @@
       <c r="X309" s="4"/>
       <c r="Y309" s="4"/>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" s="43"/>
       <c r="B310" s="43"/>
       <c r="C310" s="43"/>
@@ -9445,7 +9396,7 @@
       <c r="X310" s="4"/>
       <c r="Y310" s="4"/>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" s="43"/>
       <c r="B311" s="43"/>
       <c r="C311" s="43"/>
@@ -9472,7 +9423,7 @@
       <c r="X311" s="4"/>
       <c r="Y311" s="4"/>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" s="43"/>
       <c r="B312" s="43"/>
       <c r="C312" s="43"/>
@@ -9499,7 +9450,7 @@
       <c r="X312" s="4"/>
       <c r="Y312" s="4"/>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" s="43"/>
       <c r="B313" s="43"/>
       <c r="C313" s="43"/>
@@ -9526,7 +9477,7 @@
       <c r="X313" s="4"/>
       <c r="Y313" s="4"/>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" s="43"/>
       <c r="B314" s="43"/>
       <c r="C314" s="43"/>
@@ -9553,7 +9504,7 @@
       <c r="X314" s="4"/>
       <c r="Y314" s="4"/>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" s="43"/>
       <c r="B315" s="43"/>
       <c r="C315" s="43"/>
@@ -9580,7 +9531,7 @@
       <c r="X315" s="4"/>
       <c r="Y315" s="4"/>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" s="43"/>
       <c r="B316" s="43"/>
       <c r="C316" s="43"/>
@@ -9607,7 +9558,7 @@
       <c r="X316" s="4"/>
       <c r="Y316" s="4"/>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" s="43"/>
       <c r="B317" s="43"/>
       <c r="C317" s="43"/>
@@ -9634,7 +9585,7 @@
       <c r="X317" s="4"/>
       <c r="Y317" s="4"/>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" s="43"/>
       <c r="B318" s="43"/>
       <c r="C318" s="43"/>
@@ -9661,7 +9612,7 @@
       <c r="X318" s="4"/>
       <c r="Y318" s="4"/>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" s="43"/>
       <c r="B319" s="43"/>
       <c r="C319" s="43"/>
@@ -9688,7 +9639,7 @@
       <c r="X319" s="4"/>
       <c r="Y319" s="4"/>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" s="43"/>
       <c r="B320" s="43"/>
       <c r="C320" s="43"/>
@@ -9715,7 +9666,7 @@
       <c r="X320" s="4"/>
       <c r="Y320" s="4"/>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" s="43"/>
       <c r="B321" s="43"/>
       <c r="C321" s="43"/>
@@ -9742,7 +9693,7 @@
       <c r="X321" s="4"/>
       <c r="Y321" s="4"/>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" s="43"/>
       <c r="B322" s="43"/>
       <c r="C322" s="43"/>
@@ -9769,7 +9720,7 @@
       <c r="X322" s="4"/>
       <c r="Y322" s="4"/>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" s="43"/>
       <c r="B323" s="43"/>
       <c r="C323" s="43"/>
@@ -9796,7 +9747,7 @@
       <c r="X323" s="4"/>
       <c r="Y323" s="4"/>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" s="43"/>
       <c r="B324" s="43"/>
       <c r="C324" s="43"/>
@@ -9823,7 +9774,7 @@
       <c r="X324" s="4"/>
       <c r="Y324" s="4"/>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" s="43"/>
       <c r="B325" s="43"/>
       <c r="C325" s="43"/>
@@ -9850,7 +9801,7 @@
       <c r="X325" s="4"/>
       <c r="Y325" s="4"/>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" s="43"/>
       <c r="B326" s="43"/>
       <c r="C326" s="43"/>
@@ -9877,7 +9828,7 @@
       <c r="X326" s="4"/>
       <c r="Y326" s="4"/>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" s="43"/>
       <c r="B327" s="43"/>
       <c r="C327" s="43"/>
@@ -9904,7 +9855,7 @@
       <c r="X327" s="4"/>
       <c r="Y327" s="4"/>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" s="43"/>
       <c r="B328" s="43"/>
       <c r="C328" s="43"/>
@@ -9931,7 +9882,7 @@
       <c r="X328" s="4"/>
       <c r="Y328" s="4"/>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" s="43"/>
       <c r="B329" s="43"/>
       <c r="C329" s="43"/>
@@ -9958,7 +9909,7 @@
       <c r="X329" s="4"/>
       <c r="Y329" s="4"/>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" s="43"/>
       <c r="B330" s="43"/>
       <c r="C330" s="43"/>
@@ -9985,7 +9936,7 @@
       <c r="X330" s="4"/>
       <c r="Y330" s="4"/>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" s="43"/>
       <c r="B331" s="43"/>
       <c r="C331" s="43"/>
@@ -10012,7 +9963,7 @@
       <c r="X331" s="4"/>
       <c r="Y331" s="4"/>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" s="43"/>
       <c r="B332" s="43"/>
       <c r="C332" s="43"/>
@@ -10039,7 +9990,7 @@
       <c r="X332" s="4"/>
       <c r="Y332" s="4"/>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" s="43"/>
       <c r="B333" s="43"/>
       <c r="C333" s="43"/>
@@ -10066,7 +10017,7 @@
       <c r="X333" s="4"/>
       <c r="Y333" s="4"/>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" s="43"/>
       <c r="B334" s="43"/>
       <c r="C334" s="43"/>
@@ -10093,7 +10044,7 @@
       <c r="X334" s="4"/>
       <c r="Y334" s="4"/>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" s="43"/>
       <c r="B335" s="43"/>
       <c r="C335" s="43"/>
@@ -10120,7 +10071,7 @@
       <c r="X335" s="4"/>
       <c r="Y335" s="4"/>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" s="43"/>
       <c r="B336" s="43"/>
       <c r="C336" s="43"/>
@@ -10147,7 +10098,7 @@
       <c r="X336" s="4"/>
       <c r="Y336" s="4"/>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" s="43"/>
       <c r="B337" s="43"/>
       <c r="C337" s="43"/>
@@ -10174,7 +10125,7 @@
       <c r="X337" s="4"/>
       <c r="Y337" s="4"/>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" s="43"/>
       <c r="B338" s="43"/>
       <c r="C338" s="43"/>
@@ -10201,7 +10152,7 @@
       <c r="X338" s="4"/>
       <c r="Y338" s="4"/>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" s="43"/>
       <c r="B339" s="43"/>
       <c r="C339" s="43"/>
@@ -10228,7 +10179,7 @@
       <c r="X339" s="4"/>
       <c r="Y339" s="4"/>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" s="43"/>
       <c r="B340" s="43"/>
       <c r="C340" s="43"/>
@@ -10255,7 +10206,7 @@
       <c r="X340" s="4"/>
       <c r="Y340" s="4"/>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" s="43"/>
       <c r="B341" s="43"/>
       <c r="C341" s="43"/>
@@ -10282,7 +10233,7 @@
       <c r="X341" s="4"/>
       <c r="Y341" s="4"/>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" s="43"/>
       <c r="B342" s="43"/>
       <c r="C342" s="43"/>
@@ -10309,7 +10260,7 @@
       <c r="X342" s="4"/>
       <c r="Y342" s="4"/>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" s="43"/>
       <c r="B343" s="43"/>
       <c r="C343" s="43"/>
@@ -10336,7 +10287,7 @@
       <c r="X343" s="4"/>
       <c r="Y343" s="4"/>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" s="43"/>
       <c r="B344" s="43"/>
       <c r="C344" s="43"/>
@@ -10363,7 +10314,7 @@
       <c r="X344" s="4"/>
       <c r="Y344" s="4"/>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" s="43"/>
       <c r="B345" s="43"/>
       <c r="C345" s="43"/>
@@ -10390,7 +10341,7 @@
       <c r="X345" s="4"/>
       <c r="Y345" s="4"/>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" s="43"/>
       <c r="B346" s="43"/>
       <c r="C346" s="43"/>
@@ -10417,7 +10368,7 @@
       <c r="X346" s="4"/>
       <c r="Y346" s="4"/>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" s="43"/>
       <c r="B347" s="43"/>
       <c r="C347" s="43"/>
@@ -10444,7 +10395,7 @@
       <c r="X347" s="4"/>
       <c r="Y347" s="4"/>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" s="43"/>
       <c r="B348" s="43"/>
       <c r="C348" s="43"/>
@@ -10471,7 +10422,7 @@
       <c r="X348" s="4"/>
       <c r="Y348" s="4"/>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" s="43"/>
       <c r="B349" s="43"/>
       <c r="C349" s="43"/>
@@ -10498,7 +10449,7 @@
       <c r="X349" s="4"/>
       <c r="Y349" s="4"/>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" s="43"/>
       <c r="B350" s="43"/>
       <c r="C350" s="43"/>
@@ -10525,7 +10476,7 @@
       <c r="X350" s="4"/>
       <c r="Y350" s="4"/>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" s="43"/>
       <c r="B351" s="43"/>
       <c r="C351" s="43"/>
@@ -10552,7 +10503,7 @@
       <c r="X351" s="4"/>
       <c r="Y351" s="4"/>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" s="43"/>
       <c r="B352" s="43"/>
       <c r="C352" s="43"/>
@@ -10579,7 +10530,7 @@
       <c r="X352" s="4"/>
       <c r="Y352" s="4"/>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" s="43"/>
       <c r="B353" s="43"/>
       <c r="C353" s="43"/>
@@ -10606,7 +10557,7 @@
       <c r="X353" s="4"/>
       <c r="Y353" s="4"/>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" s="43"/>
       <c r="B354" s="43"/>
       <c r="C354" s="43"/>
@@ -10633,7 +10584,7 @@
       <c r="X354" s="4"/>
       <c r="Y354" s="4"/>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" s="43"/>
       <c r="B355" s="43"/>
       <c r="C355" s="43"/>
@@ -10660,7 +10611,7 @@
       <c r="X355" s="4"/>
       <c r="Y355" s="4"/>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" s="43"/>
       <c r="B356" s="43"/>
       <c r="C356" s="43"/>
@@ -10687,7 +10638,7 @@
       <c r="X356" s="4"/>
       <c r="Y356" s="4"/>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" s="43"/>
       <c r="B357" s="43"/>
       <c r="C357" s="43"/>
@@ -10714,7 +10665,7 @@
       <c r="X357" s="4"/>
       <c r="Y357" s="4"/>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" s="43"/>
       <c r="B358" s="43"/>
       <c r="C358" s="43"/>
@@ -10741,7 +10692,7 @@
       <c r="X358" s="4"/>
       <c r="Y358" s="4"/>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" s="43"/>
       <c r="B359" s="43"/>
       <c r="C359" s="43"/>
@@ -10768,7 +10719,7 @@
       <c r="X359" s="4"/>
       <c r="Y359" s="4"/>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" s="43"/>
       <c r="B360" s="43"/>
       <c r="C360" s="43"/>
@@ -10795,7 +10746,7 @@
       <c r="X360" s="4"/>
       <c r="Y360" s="4"/>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" s="43"/>
       <c r="B361" s="43"/>
       <c r="C361" s="43"/>
@@ -10822,7 +10773,7 @@
       <c r="X361" s="4"/>
       <c r="Y361" s="4"/>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" s="43"/>
       <c r="B362" s="43"/>
       <c r="C362" s="43"/>
@@ -10849,7 +10800,7 @@
       <c r="X362" s="4"/>
       <c r="Y362" s="4"/>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" s="43"/>
       <c r="B363" s="43"/>
       <c r="C363" s="43"/>
@@ -10876,7 +10827,7 @@
       <c r="X363" s="4"/>
       <c r="Y363" s="4"/>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" s="43"/>
       <c r="B364" s="43"/>
       <c r="C364" s="43"/>
@@ -10903,7 +10854,7 @@
       <c r="X364" s="4"/>
       <c r="Y364" s="4"/>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" s="43"/>
       <c r="B365" s="43"/>
       <c r="C365" s="43"/>
@@ -10930,7 +10881,7 @@
       <c r="X365" s="4"/>
       <c r="Y365" s="4"/>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" s="43"/>
       <c r="B366" s="43"/>
       <c r="C366" s="43"/>
@@ -10957,7 +10908,7 @@
       <c r="X366" s="4"/>
       <c r="Y366" s="4"/>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" s="43"/>
       <c r="B367" s="43"/>
       <c r="C367" s="43"/>
@@ -10984,7 +10935,7 @@
       <c r="X367" s="4"/>
       <c r="Y367" s="4"/>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" s="43"/>
       <c r="B368" s="43"/>
       <c r="C368" s="43"/>
@@ -11011,7 +10962,7 @@
       <c r="X368" s="4"/>
       <c r="Y368" s="4"/>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" s="43"/>
       <c r="B369" s="43"/>
       <c r="C369" s="43"/>
@@ -11038,7 +10989,7 @@
       <c r="X369" s="4"/>
       <c r="Y369" s="4"/>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" s="43"/>
       <c r="B370" s="43"/>
       <c r="C370" s="43"/>
@@ -11065,7 +11016,7 @@
       <c r="X370" s="4"/>
       <c r="Y370" s="4"/>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" s="43"/>
       <c r="B371" s="43"/>
       <c r="C371" s="43"/>
@@ -11092,7 +11043,7 @@
       <c r="X371" s="4"/>
       <c r="Y371" s="4"/>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" s="43"/>
       <c r="B372" s="43"/>
       <c r="C372" s="43"/>
@@ -11119,7 +11070,7 @@
       <c r="X372" s="4"/>
       <c r="Y372" s="4"/>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" s="43"/>
       <c r="B373" s="43"/>
       <c r="C373" s="43"/>
@@ -11146,7 +11097,7 @@
       <c r="X373" s="4"/>
       <c r="Y373" s="4"/>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" s="43"/>
       <c r="B374" s="43"/>
       <c r="C374" s="43"/>
@@ -11173,7 +11124,7 @@
       <c r="X374" s="4"/>
       <c r="Y374" s="4"/>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" s="43"/>
       <c r="B375" s="43"/>
       <c r="C375" s="43"/>
@@ -11200,7 +11151,7 @@
       <c r="X375" s="4"/>
       <c r="Y375" s="4"/>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" s="43"/>
       <c r="B376" s="43"/>
       <c r="C376" s="43"/>
@@ -11227,7 +11178,7 @@
       <c r="X376" s="4"/>
       <c r="Y376" s="4"/>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" s="43"/>
       <c r="B377" s="43"/>
       <c r="C377" s="43"/>
@@ -11254,7 +11205,7 @@
       <c r="X377" s="4"/>
       <c r="Y377" s="4"/>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" s="43"/>
       <c r="B378" s="43"/>
       <c r="C378" s="43"/>
@@ -11281,7 +11232,7 @@
       <c r="X378" s="4"/>
       <c r="Y378" s="4"/>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" s="43"/>
       <c r="B379" s="43"/>
       <c r="C379" s="43"/>
@@ -11308,7 +11259,7 @@
       <c r="X379" s="4"/>
       <c r="Y379" s="4"/>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" s="43"/>
       <c r="B380" s="43"/>
       <c r="C380" s="43"/>
@@ -11335,7 +11286,7 @@
       <c r="X380" s="4"/>
       <c r="Y380" s="4"/>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" s="43"/>
       <c r="B381" s="43"/>
       <c r="C381" s="43"/>
@@ -11362,7 +11313,7 @@
       <c r="X381" s="4"/>
       <c r="Y381" s="4"/>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" s="43"/>
       <c r="B382" s="43"/>
       <c r="C382" s="43"/>
@@ -11389,7 +11340,7 @@
       <c r="X382" s="4"/>
       <c r="Y382" s="4"/>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" s="43"/>
       <c r="B383" s="43"/>
       <c r="C383" s="43"/>
@@ -11416,7 +11367,7 @@
       <c r="X383" s="4"/>
       <c r="Y383" s="4"/>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" s="43"/>
       <c r="B384" s="43"/>
       <c r="C384" s="43"/>
@@ -11443,7 +11394,7 @@
       <c r="X384" s="4"/>
       <c r="Y384" s="4"/>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" s="43"/>
       <c r="B385" s="43"/>
       <c r="C385" s="43"/>
@@ -11470,7 +11421,7 @@
       <c r="X385" s="4"/>
       <c r="Y385" s="4"/>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" s="43"/>
       <c r="B386" s="43"/>
       <c r="C386" s="43"/>
@@ -11497,7 +11448,7 @@
       <c r="X386" s="4"/>
       <c r="Y386" s="4"/>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" s="43"/>
       <c r="B387" s="43"/>
       <c r="C387" s="43"/>
@@ -11524,7 +11475,7 @@
       <c r="X387" s="4"/>
       <c r="Y387" s="4"/>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" s="43"/>
       <c r="B388" s="43"/>
       <c r="C388" s="43"/>
@@ -11551,7 +11502,7 @@
       <c r="X388" s="4"/>
       <c r="Y388" s="4"/>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" s="43"/>
       <c r="B389" s="43"/>
       <c r="C389" s="43"/>
@@ -11578,7 +11529,7 @@
       <c r="X389" s="4"/>
       <c r="Y389" s="4"/>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" s="43"/>
       <c r="B390" s="43"/>
       <c r="C390" s="43"/>
@@ -11605,7 +11556,7 @@
       <c r="X390" s="4"/>
       <c r="Y390" s="4"/>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" s="43"/>
       <c r="B391" s="43"/>
       <c r="C391" s="43"/>
@@ -11632,7 +11583,7 @@
       <c r="X391" s="4"/>
       <c r="Y391" s="4"/>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" s="43"/>
       <c r="B392" s="43"/>
       <c r="C392" s="43"/>
@@ -11659,7 +11610,7 @@
       <c r="X392" s="4"/>
       <c r="Y392" s="4"/>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" s="43"/>
       <c r="B393" s="43"/>
       <c r="C393" s="43"/>
@@ -11686,7 +11637,7 @@
       <c r="X393" s="4"/>
       <c r="Y393" s="4"/>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" s="43"/>
       <c r="B394" s="43"/>
       <c r="C394" s="43"/>
@@ -11713,7 +11664,7 @@
       <c r="X394" s="4"/>
       <c r="Y394" s="4"/>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" s="43"/>
       <c r="B395" s="43"/>
       <c r="C395" s="43"/>
@@ -11740,7 +11691,7 @@
       <c r="X395" s="4"/>
       <c r="Y395" s="4"/>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" s="43"/>
       <c r="B396" s="43"/>
       <c r="C396" s="43"/>
@@ -11767,7 +11718,7 @@
       <c r="X396" s="4"/>
       <c r="Y396" s="4"/>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" s="43"/>
       <c r="B397" s="43"/>
       <c r="C397" s="43"/>
@@ -11794,7 +11745,7 @@
       <c r="X397" s="4"/>
       <c r="Y397" s="4"/>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" s="43"/>
       <c r="B398" s="43"/>
       <c r="C398" s="43"/>
@@ -11821,7 +11772,7 @@
       <c r="X398" s="4"/>
       <c r="Y398" s="4"/>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" s="43"/>
       <c r="B399" s="43"/>
       <c r="C399" s="43"/>
@@ -11848,7 +11799,7 @@
       <c r="X399" s="4"/>
       <c r="Y399" s="4"/>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" s="43"/>
       <c r="B400" s="43"/>
       <c r="C400" s="43"/>
@@ -11875,7 +11826,7 @@
       <c r="X400" s="4"/>
       <c r="Y400" s="4"/>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" s="43"/>
       <c r="B401" s="43"/>
       <c r="C401" s="43"/>
@@ -11902,7 +11853,7 @@
       <c r="X401" s="4"/>
       <c r="Y401" s="4"/>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" s="43"/>
       <c r="B402" s="43"/>
       <c r="C402" s="43"/>
@@ -11929,7 +11880,7 @@
       <c r="X402" s="4"/>
       <c r="Y402" s="4"/>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" s="43"/>
       <c r="B403" s="43"/>
       <c r="C403" s="43"/>
@@ -11956,7 +11907,7 @@
       <c r="X403" s="4"/>
       <c r="Y403" s="4"/>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" s="43"/>
       <c r="B404" s="43"/>
       <c r="C404" s="43"/>
@@ -11983,7 +11934,7 @@
       <c r="X404" s="4"/>
       <c r="Y404" s="4"/>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" s="43"/>
       <c r="B405" s="43"/>
       <c r="C405" s="43"/>
@@ -12010,7 +11961,7 @@
       <c r="X405" s="4"/>
       <c r="Y405" s="4"/>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" s="43"/>
       <c r="B406" s="43"/>
       <c r="C406" s="43"/>
@@ -12037,7 +11988,7 @@
       <c r="X406" s="4"/>
       <c r="Y406" s="4"/>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" s="43"/>
       <c r="B407" s="43"/>
       <c r="C407" s="43"/>
@@ -12064,7 +12015,7 @@
       <c r="X407" s="4"/>
       <c r="Y407" s="4"/>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" s="43"/>
       <c r="B408" s="43"/>
       <c r="C408" s="43"/>
@@ -12091,7 +12042,7 @@
       <c r="X408" s="4"/>
       <c r="Y408" s="4"/>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" s="43"/>
       <c r="B409" s="43"/>
       <c r="C409" s="43"/>
@@ -12118,7 +12069,7 @@
       <c r="X409" s="4"/>
       <c r="Y409" s="4"/>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" s="43"/>
       <c r="B410" s="43"/>
       <c r="C410" s="43"/>
@@ -12145,7 +12096,7 @@
       <c r="X410" s="4"/>
       <c r="Y410" s="4"/>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" s="43"/>
       <c r="B411" s="43"/>
       <c r="C411" s="43"/>
@@ -12172,7 +12123,7 @@
       <c r="X411" s="4"/>
       <c r="Y411" s="4"/>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" s="43"/>
       <c r="B412" s="43"/>
       <c r="C412" s="43"/>
@@ -12199,7 +12150,7 @@
       <c r="X412" s="4"/>
       <c r="Y412" s="4"/>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" s="43"/>
       <c r="B413" s="43"/>
       <c r="C413" s="43"/>
@@ -12226,7 +12177,7 @@
       <c r="X413" s="4"/>
       <c r="Y413" s="4"/>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" s="43"/>
       <c r="B414" s="43"/>
       <c r="C414" s="43"/>
@@ -12253,7 +12204,7 @@
       <c r="X414" s="4"/>
       <c r="Y414" s="4"/>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" s="43"/>
       <c r="B415" s="43"/>
       <c r="C415" s="43"/>
@@ -12280,7 +12231,7 @@
       <c r="X415" s="4"/>
       <c r="Y415" s="4"/>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" s="43"/>
       <c r="B416" s="43"/>
       <c r="C416" s="43"/>
@@ -12307,7 +12258,7 @@
       <c r="X416" s="4"/>
       <c r="Y416" s="4"/>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" s="43"/>
       <c r="B417" s="43"/>
       <c r="C417" s="43"/>
@@ -12334,7 +12285,7 @@
       <c r="X417" s="4"/>
       <c r="Y417" s="4"/>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" s="43"/>
       <c r="B418" s="43"/>
       <c r="C418" s="43"/>
@@ -12361,7 +12312,7 @@
       <c r="X418" s="4"/>
       <c r="Y418" s="4"/>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" s="43"/>
       <c r="B419" s="43"/>
       <c r="C419" s="43"/>
@@ -12388,7 +12339,7 @@
       <c r="X419" s="4"/>
       <c r="Y419" s="4"/>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" s="43"/>
       <c r="B420" s="43"/>
       <c r="C420" s="43"/>
@@ -12415,7 +12366,7 @@
       <c r="X420" s="4"/>
       <c r="Y420" s="4"/>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" s="43"/>
       <c r="B421" s="43"/>
       <c r="C421" s="43"/>
@@ -12442,7 +12393,7 @@
       <c r="X421" s="4"/>
       <c r="Y421" s="4"/>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" s="43"/>
       <c r="B422" s="43"/>
       <c r="C422" s="43"/>
@@ -12469,7 +12420,7 @@
       <c r="X422" s="4"/>
       <c r="Y422" s="4"/>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" s="43"/>
       <c r="B423" s="43"/>
       <c r="C423" s="43"/>
@@ -12496,7 +12447,7 @@
       <c r="X423" s="4"/>
       <c r="Y423" s="4"/>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" s="43"/>
       <c r="B424" s="43"/>
       <c r="C424" s="43"/>
@@ -12523,7 +12474,7 @@
       <c r="X424" s="4"/>
       <c r="Y424" s="4"/>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" s="43"/>
       <c r="B425" s="43"/>
       <c r="C425" s="43"/>
@@ -12550,7 +12501,7 @@
       <c r="X425" s="4"/>
       <c r="Y425" s="4"/>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" s="43"/>
       <c r="B426" s="43"/>
       <c r="C426" s="43"/>
@@ -12577,7 +12528,7 @@
       <c r="X426" s="4"/>
       <c r="Y426" s="4"/>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" s="43"/>
       <c r="B427" s="43"/>
       <c r="C427" s="43"/>
@@ -12604,7 +12555,7 @@
       <c r="X427" s="4"/>
       <c r="Y427" s="4"/>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" s="43"/>
       <c r="B428" s="43"/>
       <c r="C428" s="43"/>
@@ -12631,7 +12582,7 @@
       <c r="X428" s="4"/>
       <c r="Y428" s="4"/>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429" s="43"/>
       <c r="B429" s="43"/>
       <c r="C429" s="43"/>
@@ -12658,7 +12609,7 @@
       <c r="X429" s="4"/>
       <c r="Y429" s="4"/>
     </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430" s="43"/>
       <c r="B430" s="43"/>
       <c r="C430" s="43"/>
@@ -12685,7 +12636,7 @@
       <c r="X430" s="4"/>
       <c r="Y430" s="4"/>
     </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431" s="43"/>
       <c r="B431" s="43"/>
       <c r="C431" s="43"/>
@@ -12712,7 +12663,7 @@
       <c r="X431" s="4"/>
       <c r="Y431" s="4"/>
     </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432" s="43"/>
       <c r="B432" s="43"/>
       <c r="C432" s="43"/>
@@ -12739,7 +12690,7 @@
       <c r="X432" s="4"/>
       <c r="Y432" s="4"/>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" s="43"/>
       <c r="B433" s="43"/>
       <c r="C433" s="43"/>
@@ -12766,7 +12717,7 @@
       <c r="X433" s="4"/>
       <c r="Y433" s="4"/>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434" s="43"/>
       <c r="B434" s="43"/>
       <c r="C434" s="43"/>
@@ -12793,7 +12744,7 @@
       <c r="X434" s="4"/>
       <c r="Y434" s="4"/>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435" s="43"/>
       <c r="B435" s="43"/>
       <c r="C435" s="43"/>
@@ -12820,7 +12771,7 @@
       <c r="X435" s="4"/>
       <c r="Y435" s="4"/>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436" s="43"/>
       <c r="B436" s="43"/>
       <c r="C436" s="43"/>
@@ -12847,7 +12798,7 @@
       <c r="X436" s="4"/>
       <c r="Y436" s="4"/>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437" s="43"/>
       <c r="B437" s="43"/>
       <c r="C437" s="43"/>
@@ -12874,7 +12825,7 @@
       <c r="X437" s="4"/>
       <c r="Y437" s="4"/>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438" s="43"/>
       <c r="B438" s="43"/>
       <c r="C438" s="43"/>
@@ -12901,7 +12852,7 @@
       <c r="X438" s="4"/>
       <c r="Y438" s="4"/>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439" s="43"/>
       <c r="B439" s="43"/>
       <c r="C439" s="43"/>
@@ -12928,7 +12879,7 @@
       <c r="X439" s="4"/>
       <c r="Y439" s="4"/>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440" s="43"/>
       <c r="B440" s="43"/>
       <c r="C440" s="43"/>
@@ -12955,7 +12906,7 @@
       <c r="X440" s="4"/>
       <c r="Y440" s="4"/>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441" s="43"/>
       <c r="B441" s="43"/>
       <c r="C441" s="43"/>
@@ -12982,7 +12933,7 @@
       <c r="X441" s="4"/>
       <c r="Y441" s="4"/>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442" s="43"/>
       <c r="B442" s="43"/>
       <c r="C442" s="43"/>
@@ -13009,7 +12960,7 @@
       <c r="X442" s="4"/>
       <c r="Y442" s="4"/>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443" s="43"/>
       <c r="B443" s="43"/>
       <c r="C443" s="43"/>
@@ -13036,7 +12987,7 @@
       <c r="X443" s="4"/>
       <c r="Y443" s="4"/>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444" s="43"/>
       <c r="B444" s="43"/>
       <c r="C444" s="43"/>
@@ -13063,7 +13014,7 @@
       <c r="X444" s="4"/>
       <c r="Y444" s="4"/>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445" s="43"/>
       <c r="B445" s="43"/>
       <c r="C445" s="43"/>
@@ -13090,7 +13041,7 @@
       <c r="X445" s="4"/>
       <c r="Y445" s="4"/>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446" s="43"/>
       <c r="B446" s="43"/>
       <c r="C446" s="43"/>
@@ -13117,7 +13068,7 @@
       <c r="X446" s="4"/>
       <c r="Y446" s="4"/>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447" s="43"/>
       <c r="B447" s="43"/>
       <c r="C447" s="43"/>
@@ -13144,7 +13095,7 @@
       <c r="X447" s="4"/>
       <c r="Y447" s="4"/>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448" s="43"/>
       <c r="B448" s="43"/>
       <c r="C448" s="43"/>
@@ -13171,7 +13122,7 @@
       <c r="X448" s="4"/>
       <c r="Y448" s="4"/>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449" s="43"/>
       <c r="B449" s="43"/>
       <c r="C449" s="43"/>
@@ -13198,7 +13149,7 @@
       <c r="X449" s="4"/>
       <c r="Y449" s="4"/>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450" s="43"/>
       <c r="B450" s="43"/>
       <c r="C450" s="43"/>
@@ -13225,7 +13176,7 @@
       <c r="X450" s="4"/>
       <c r="Y450" s="4"/>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451" s="43"/>
       <c r="B451" s="43"/>
       <c r="C451" s="43"/>
@@ -13252,7 +13203,7 @@
       <c r="X451" s="4"/>
       <c r="Y451" s="4"/>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452" s="43"/>
       <c r="B452" s="43"/>
       <c r="C452" s="43"/>
@@ -13279,7 +13230,7 @@
       <c r="X452" s="4"/>
       <c r="Y452" s="4"/>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453" s="43"/>
       <c r="B453" s="43"/>
       <c r="C453" s="43"/>
@@ -13306,7 +13257,7 @@
       <c r="X453" s="4"/>
       <c r="Y453" s="4"/>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454" s="43"/>
       <c r="B454" s="43"/>
       <c r="C454" s="43"/>
@@ -13333,7 +13284,7 @@
       <c r="X454" s="4"/>
       <c r="Y454" s="4"/>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455" s="43"/>
       <c r="B455" s="43"/>
       <c r="C455" s="43"/>
@@ -13360,7 +13311,7 @@
       <c r="X455" s="4"/>
       <c r="Y455" s="4"/>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456" s="43"/>
       <c r="B456" s="43"/>
       <c r="C456" s="43"/>
@@ -13387,7 +13338,7 @@
       <c r="X456" s="4"/>
       <c r="Y456" s="4"/>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457" s="43"/>
       <c r="B457" s="43"/>
       <c r="C457" s="43"/>
@@ -13414,7 +13365,7 @@
       <c r="X457" s="4"/>
       <c r="Y457" s="4"/>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458" s="43"/>
       <c r="B458" s="43"/>
       <c r="C458" s="43"/>
@@ -13441,7 +13392,7 @@
       <c r="X458" s="4"/>
       <c r="Y458" s="4"/>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459" s="43"/>
       <c r="B459" s="43"/>
       <c r="C459" s="43"/>
@@ -13468,7 +13419,7 @@
       <c r="X459" s="4"/>
       <c r="Y459" s="4"/>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460" s="43"/>
       <c r="B460" s="43"/>
       <c r="C460" s="43"/>
@@ -13495,7 +13446,7 @@
       <c r="X460" s="4"/>
       <c r="Y460" s="4"/>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461" s="43"/>
       <c r="B461" s="43"/>
       <c r="C461" s="43"/>
@@ -13522,7 +13473,7 @@
       <c r="X461" s="4"/>
       <c r="Y461" s="4"/>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462" s="43"/>
       <c r="B462" s="43"/>
       <c r="C462" s="43"/>
@@ -13549,7 +13500,7 @@
       <c r="X462" s="4"/>
       <c r="Y462" s="4"/>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463" s="43"/>
       <c r="B463" s="43"/>
       <c r="C463" s="43"/>
@@ -13576,7 +13527,7 @@
       <c r="X463" s="4"/>
       <c r="Y463" s="4"/>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464" s="43"/>
       <c r="B464" s="43"/>
       <c r="C464" s="43"/>
@@ -13603,7 +13554,7 @@
       <c r="X464" s="4"/>
       <c r="Y464" s="4"/>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465" s="43"/>
       <c r="B465" s="43"/>
       <c r="C465" s="43"/>
@@ -13630,7 +13581,7 @@
       <c r="X465" s="4"/>
       <c r="Y465" s="4"/>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466" s="43"/>
       <c r="B466" s="43"/>
       <c r="C466" s="43"/>
@@ -13657,7 +13608,7 @@
       <c r="X466" s="4"/>
       <c r="Y466" s="4"/>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467" s="43"/>
       <c r="B467" s="43"/>
       <c r="C467" s="43"/>
@@ -13684,7 +13635,7 @@
       <c r="X467" s="4"/>
       <c r="Y467" s="4"/>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468" s="43"/>
       <c r="B468" s="43"/>
       <c r="C468" s="43"/>
@@ -13711,7 +13662,7 @@
       <c r="X468" s="4"/>
       <c r="Y468" s="4"/>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469" s="43"/>
       <c r="B469" s="43"/>
       <c r="C469" s="43"/>
@@ -13738,7 +13689,7 @@
       <c r="X469" s="4"/>
       <c r="Y469" s="4"/>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470" s="43"/>
       <c r="B470" s="43"/>
       <c r="C470" s="43"/>
@@ -13765,7 +13716,7 @@
       <c r="X470" s="4"/>
       <c r="Y470" s="4"/>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471" s="43"/>
       <c r="B471" s="43"/>
       <c r="C471" s="43"/>
@@ -13792,7 +13743,7 @@
       <c r="X471" s="4"/>
       <c r="Y471" s="4"/>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A472" s="43"/>
       <c r="B472" s="43"/>
       <c r="C472" s="43"/>
@@ -13819,7 +13770,7 @@
       <c r="X472" s="4"/>
       <c r="Y472" s="4"/>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A473" s="43"/>
       <c r="B473" s="43"/>
       <c r="C473" s="43"/>
@@ -13846,7 +13797,7 @@
       <c r="X473" s="4"/>
       <c r="Y473" s="4"/>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A474" s="43"/>
       <c r="B474" s="43"/>
       <c r="C474" s="43"/>
@@ -13873,7 +13824,7 @@
       <c r="X474" s="4"/>
       <c r="Y474" s="4"/>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A475" s="43"/>
       <c r="B475" s="43"/>
       <c r="C475" s="43"/>
@@ -13900,7 +13851,7 @@
       <c r="X475" s="4"/>
       <c r="Y475" s="4"/>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A476" s="43"/>
       <c r="B476" s="43"/>
       <c r="C476" s="43"/>
@@ -13927,7 +13878,7 @@
       <c r="X476" s="4"/>
       <c r="Y476" s="4"/>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A477" s="43"/>
       <c r="B477" s="43"/>
       <c r="C477" s="43"/>
@@ -13954,7 +13905,7 @@
       <c r="X477" s="4"/>
       <c r="Y477" s="4"/>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A478" s="43"/>
       <c r="B478" s="43"/>
       <c r="C478" s="43"/>
@@ -13981,7 +13932,7 @@
       <c r="X478" s="4"/>
       <c r="Y478" s="4"/>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A479" s="43"/>
       <c r="B479" s="43"/>
       <c r="C479" s="43"/>
@@ -14008,7 +13959,7 @@
       <c r="X479" s="4"/>
       <c r="Y479" s="4"/>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A480" s="43"/>
       <c r="B480" s="43"/>
       <c r="C480" s="43"/>
@@ -14035,7 +13986,7 @@
       <c r="X480" s="4"/>
       <c r="Y480" s="4"/>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481" s="43"/>
       <c r="B481" s="43"/>
       <c r="C481" s="43"/>
@@ -14062,7 +14013,7 @@
       <c r="X481" s="4"/>
       <c r="Y481" s="4"/>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482" s="43"/>
       <c r="B482" s="43"/>
       <c r="C482" s="43"/>
@@ -14089,7 +14040,7 @@
       <c r="X482" s="4"/>
       <c r="Y482" s="4"/>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483" s="43"/>
       <c r="B483" s="43"/>
       <c r="C483" s="43"/>
@@ -14116,7 +14067,7 @@
       <c r="X483" s="4"/>
       <c r="Y483" s="4"/>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484" s="43"/>
       <c r="B484" s="43"/>
       <c r="C484" s="43"/>
@@ -14143,7 +14094,7 @@
       <c r="X484" s="4"/>
       <c r="Y484" s="4"/>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485" s="43"/>
       <c r="B485" s="43"/>
       <c r="C485" s="43"/>
@@ -14170,7 +14121,7 @@
       <c r="X485" s="4"/>
       <c r="Y485" s="4"/>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486" s="43"/>
       <c r="B486" s="43"/>
       <c r="C486" s="43"/>
@@ -14197,7 +14148,7 @@
       <c r="X486" s="4"/>
       <c r="Y486" s="4"/>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487" s="43"/>
       <c r="B487" s="43"/>
       <c r="C487" s="43"/>
@@ -14224,7 +14175,7 @@
       <c r="X487" s="4"/>
       <c r="Y487" s="4"/>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488" s="43"/>
       <c r="B488" s="43"/>
       <c r="C488" s="43"/>
@@ -14251,7 +14202,7 @@
       <c r="X488" s="4"/>
       <c r="Y488" s="4"/>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489" s="43"/>
       <c r="B489" s="43"/>
       <c r="C489" s="43"/>
@@ -14278,7 +14229,7 @@
       <c r="X489" s="4"/>
       <c r="Y489" s="4"/>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490" s="43"/>
       <c r="B490" s="43"/>
       <c r="C490" s="43"/>
@@ -14305,7 +14256,7 @@
       <c r="X490" s="4"/>
       <c r="Y490" s="4"/>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491" s="43"/>
       <c r="B491" s="43"/>
       <c r="C491" s="43"/>
@@ -14332,7 +14283,7 @@
       <c r="X491" s="4"/>
       <c r="Y491" s="4"/>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492" s="43"/>
       <c r="B492" s="43"/>
       <c r="C492" s="43"/>
@@ -14359,7 +14310,7 @@
       <c r="X492" s="4"/>
       <c r="Y492" s="4"/>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493" s="43"/>
       <c r="B493" s="43"/>
       <c r="C493" s="43"/>
@@ -14386,7 +14337,7 @@
       <c r="X493" s="4"/>
       <c r="Y493" s="4"/>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494" s="43"/>
       <c r="B494" s="43"/>
       <c r="C494" s="43"/>
@@ -14413,7 +14364,7 @@
       <c r="X494" s="4"/>
       <c r="Y494" s="4"/>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495" s="43"/>
       <c r="B495" s="43"/>
       <c r="C495" s="43"/>
@@ -14440,7 +14391,7 @@
       <c r="X495" s="4"/>
       <c r="Y495" s="4"/>
     </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496" s="43"/>
       <c r="B496" s="43"/>
       <c r="C496" s="43"/>
@@ -14467,7 +14418,7 @@
       <c r="X496" s="4"/>
       <c r="Y496" s="4"/>
     </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" s="43"/>
       <c r="B497" s="43"/>
       <c r="C497" s="43"/>
@@ -14494,7 +14445,7 @@
       <c r="X497" s="4"/>
       <c r="Y497" s="4"/>
     </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498" s="43"/>
       <c r="B498" s="43"/>
       <c r="C498" s="43"/>
@@ -14521,7 +14472,7 @@
       <c r="X498" s="4"/>
       <c r="Y498" s="4"/>
     </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499" s="43"/>
       <c r="B499" s="43"/>
       <c r="C499" s="43"/>
@@ -14548,7 +14499,7 @@
       <c r="X499" s="4"/>
       <c r="Y499" s="4"/>
     </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500" s="43"/>
       <c r="B500" s="43"/>
       <c r="C500" s="43"/>
@@ -14575,7 +14526,7 @@
       <c r="X500" s="4"/>
       <c r="Y500" s="4"/>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501" s="43"/>
       <c r="B501" s="43"/>
       <c r="C501" s="43"/>
@@ -14602,7 +14553,7 @@
       <c r="X501" s="4"/>
       <c r="Y501" s="4"/>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A502" s="43"/>
       <c r="B502" s="43"/>
       <c r="C502" s="43"/>
@@ -14629,7 +14580,7 @@
       <c r="X502" s="4"/>
       <c r="Y502" s="4"/>
     </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A503" s="43"/>
       <c r="B503" s="43"/>
       <c r="C503" s="43"/>
@@ -14656,7 +14607,7 @@
       <c r="X503" s="4"/>
       <c r="Y503" s="4"/>
     </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A504" s="43"/>
       <c r="B504" s="43"/>
       <c r="C504" s="43"/>
@@ -14683,7 +14634,7 @@
       <c r="X504" s="4"/>
       <c r="Y504" s="4"/>
     </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A505" s="43"/>
       <c r="B505" s="43"/>
       <c r="C505" s="43"/>
@@ -14710,7 +14661,7 @@
       <c r="X505" s="4"/>
       <c r="Y505" s="4"/>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A506" s="43"/>
       <c r="B506" s="43"/>
       <c r="C506" s="43"/>
@@ -14737,7 +14688,7 @@
       <c r="X506" s="4"/>
       <c r="Y506" s="4"/>
     </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A507" s="43"/>
       <c r="B507" s="43"/>
       <c r="C507" s="43"/>
@@ -14764,7 +14715,7 @@
       <c r="X507" s="4"/>
       <c r="Y507" s="4"/>
     </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A508" s="43"/>
       <c r="B508" s="43"/>
       <c r="C508" s="43"/>
@@ -14791,7 +14742,7 @@
       <c r="X508" s="4"/>
       <c r="Y508" s="4"/>
     </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A509" s="43"/>
       <c r="B509" s="43"/>
       <c r="C509" s="43"/>
@@ -14818,7 +14769,7 @@
       <c r="X509" s="4"/>
       <c r="Y509" s="4"/>
     </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A510" s="43"/>
       <c r="B510" s="43"/>
       <c r="C510" s="43"/>
@@ -14845,7 +14796,7 @@
       <c r="X510" s="4"/>
       <c r="Y510" s="4"/>
     </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A511" s="43"/>
       <c r="B511" s="43"/>
       <c r="C511" s="43"/>
@@ -14872,7 +14823,7 @@
       <c r="X511" s="4"/>
       <c r="Y511" s="4"/>
     </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A512" s="43"/>
       <c r="B512" s="43"/>
       <c r="C512" s="43"/>
@@ -14899,7 +14850,7 @@
       <c r="X512" s="4"/>
       <c r="Y512" s="4"/>
     </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A513" s="43"/>
       <c r="B513" s="43"/>
       <c r="C513" s="43"/>
@@ -14926,7 +14877,7 @@
       <c r="X513" s="4"/>
       <c r="Y513" s="4"/>
     </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A514" s="43"/>
       <c r="B514" s="43"/>
       <c r="C514" s="43"/>
@@ -14953,7 +14904,7 @@
       <c r="X514" s="4"/>
       <c r="Y514" s="4"/>
     </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A515" s="43"/>
       <c r="B515" s="43"/>
       <c r="C515" s="43"/>
@@ -14980,7 +14931,7 @@
       <c r="X515" s="4"/>
       <c r="Y515" s="4"/>
     </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A516" s="43"/>
       <c r="B516" s="43"/>
       <c r="C516" s="43"/>
@@ -15007,7 +14958,7 @@
       <c r="X516" s="4"/>
       <c r="Y516" s="4"/>
     </row>
-    <row r="517" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A517" s="43"/>
       <c r="B517" s="43"/>
       <c r="C517" s="43"/>
@@ -15034,7 +14985,7 @@
       <c r="X517" s="4"/>
       <c r="Y517" s="4"/>
     </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A518" s="43"/>
       <c r="B518" s="43"/>
       <c r="C518" s="43"/>
@@ -15061,7 +15012,7 @@
       <c r="X518" s="4"/>
       <c r="Y518" s="4"/>
     </row>
-    <row r="519" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A519" s="43"/>
       <c r="B519" s="43"/>
       <c r="C519" s="43"/>
@@ -15088,7 +15039,7 @@
       <c r="X519" s="4"/>
       <c r="Y519" s="4"/>
     </row>
-    <row r="520" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A520" s="43"/>
       <c r="B520" s="43"/>
       <c r="C520" s="43"/>
@@ -15115,7 +15066,7 @@
       <c r="X520" s="4"/>
       <c r="Y520" s="4"/>
     </row>
-    <row r="521" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A521" s="43"/>
       <c r="B521" s="43"/>
       <c r="C521" s="43"/>
@@ -15142,7 +15093,7 @@
       <c r="X521" s="4"/>
       <c r="Y521" s="4"/>
     </row>
-    <row r="522" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A522" s="43"/>
       <c r="B522" s="43"/>
       <c r="C522" s="43"/>
@@ -15169,7 +15120,7 @@
       <c r="X522" s="4"/>
       <c r="Y522" s="4"/>
     </row>
-    <row r="523" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A523" s="43"/>
       <c r="B523" s="43"/>
       <c r="C523" s="43"/>
@@ -15196,7 +15147,7 @@
       <c r="X523" s="4"/>
       <c r="Y523" s="4"/>
     </row>
-    <row r="524" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A524" s="43"/>
       <c r="B524" s="43"/>
       <c r="C524" s="43"/>
@@ -15223,7 +15174,7 @@
       <c r="X524" s="4"/>
       <c r="Y524" s="4"/>
     </row>
-    <row r="525" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A525" s="43"/>
       <c r="B525" s="43"/>
       <c r="C525" s="43"/>
@@ -15250,7 +15201,7 @@
       <c r="X525" s="4"/>
       <c r="Y525" s="4"/>
     </row>
-    <row r="526" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A526" s="43"/>
       <c r="B526" s="43"/>
       <c r="C526" s="43"/>
@@ -15277,7 +15228,7 @@
       <c r="X526" s="4"/>
       <c r="Y526" s="4"/>
     </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A527" s="43"/>
       <c r="B527" s="43"/>
       <c r="C527" s="43"/>
@@ -15304,7 +15255,7 @@
       <c r="X527" s="4"/>
       <c r="Y527" s="4"/>
     </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A528" s="43"/>
       <c r="B528" s="43"/>
       <c r="C528" s="43"/>
@@ -15331,7 +15282,7 @@
       <c r="X528" s="4"/>
       <c r="Y528" s="4"/>
     </row>
-    <row r="529" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A529" s="43"/>
       <c r="B529" s="43"/>
       <c r="C529" s="43"/>
@@ -15358,7 +15309,7 @@
       <c r="X529" s="4"/>
       <c r="Y529" s="4"/>
     </row>
-    <row r="530" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A530" s="43"/>
       <c r="B530" s="43"/>
       <c r="C530" s="43"/>
@@ -15385,7 +15336,7 @@
       <c r="X530" s="4"/>
       <c r="Y530" s="4"/>
     </row>
-    <row r="531" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A531" s="43"/>
       <c r="B531" s="43"/>
       <c r="C531" s="43"/>
@@ -15412,7 +15363,7 @@
       <c r="X531" s="4"/>
       <c r="Y531" s="4"/>
     </row>
-    <row r="532" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A532" s="43"/>
       <c r="B532" s="43"/>
       <c r="C532" s="43"/>
@@ -15439,7 +15390,7 @@
       <c r="X532" s="4"/>
       <c r="Y532" s="4"/>
     </row>
-    <row r="533" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A533" s="43"/>
       <c r="B533" s="43"/>
       <c r="C533" s="43"/>
@@ -15466,7 +15417,7 @@
       <c r="X533" s="4"/>
       <c r="Y533" s="4"/>
     </row>
-    <row r="534" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A534" s="43"/>
       <c r="B534" s="43"/>
       <c r="C534" s="43"/>
@@ -15493,7 +15444,7 @@
       <c r="X534" s="4"/>
       <c r="Y534" s="4"/>
     </row>
-    <row r="535" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A535" s="43"/>
       <c r="B535" s="43"/>
       <c r="C535" s="43"/>
@@ -15520,7 +15471,7 @@
       <c r="X535" s="4"/>
       <c r="Y535" s="4"/>
     </row>
-    <row r="536" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A536" s="43"/>
       <c r="B536" s="43"/>
       <c r="C536" s="43"/>
@@ -15547,7 +15498,7 @@
       <c r="X536" s="4"/>
       <c r="Y536" s="4"/>
     </row>
-    <row r="537" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A537" s="43"/>
       <c r="B537" s="43"/>
       <c r="C537" s="43"/>
@@ -15574,7 +15525,7 @@
       <c r="X537" s="4"/>
       <c r="Y537" s="4"/>
     </row>
-    <row r="538" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A538" s="43"/>
       <c r="B538" s="43"/>
       <c r="C538" s="43"/>
@@ -15601,7 +15552,7 @@
       <c r="X538" s="4"/>
       <c r="Y538" s="4"/>
     </row>
-    <row r="539" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A539" s="43"/>
       <c r="B539" s="43"/>
       <c r="C539" s="43"/>
@@ -15628,7 +15579,7 @@
       <c r="X539" s="4"/>
       <c r="Y539" s="4"/>
     </row>
-    <row r="540" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A540" s="43"/>
       <c r="B540" s="43"/>
       <c r="C540" s="43"/>
@@ -15655,7 +15606,7 @@
       <c r="X540" s="4"/>
       <c r="Y540" s="4"/>
     </row>
-    <row r="541" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A541" s="43"/>
       <c r="B541" s="43"/>
       <c r="C541" s="43"/>
@@ -15682,7 +15633,7 @@
       <c r="X541" s="4"/>
       <c r="Y541" s="4"/>
     </row>
-    <row r="542" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A542" s="43"/>
       <c r="B542" s="43"/>
       <c r="C542" s="43"/>
@@ -15709,7 +15660,7 @@
       <c r="X542" s="4"/>
       <c r="Y542" s="4"/>
     </row>
-    <row r="543" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A543" s="43"/>
       <c r="B543" s="43"/>
       <c r="C543" s="43"/>
@@ -15736,7 +15687,7 @@
       <c r="X543" s="4"/>
       <c r="Y543" s="4"/>
     </row>
-    <row r="544" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A544" s="43"/>
       <c r="B544" s="43"/>
       <c r="C544" s="43"/>
@@ -15763,7 +15714,7 @@
       <c r="X544" s="4"/>
       <c r="Y544" s="4"/>
     </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A545" s="43"/>
       <c r="B545" s="43"/>
       <c r="C545" s="43"/>
@@ -15790,7 +15741,7 @@
       <c r="X545" s="4"/>
       <c r="Y545" s="4"/>
     </row>
-    <row r="546" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A546" s="43"/>
       <c r="B546" s="43"/>
       <c r="C546" s="43"/>
@@ -15817,7 +15768,7 @@
       <c r="X546" s="4"/>
       <c r="Y546" s="4"/>
     </row>
-    <row r="547" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A547" s="43"/>
       <c r="B547" s="43"/>
       <c r="C547" s="43"/>
@@ -15844,7 +15795,7 @@
       <c r="X547" s="4"/>
       <c r="Y547" s="4"/>
     </row>
-    <row r="548" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A548" s="43"/>
       <c r="B548" s="43"/>
       <c r="C548" s="43"/>
@@ -15871,7 +15822,7 @@
       <c r="X548" s="4"/>
       <c r="Y548" s="4"/>
     </row>
-    <row r="549" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A549" s="43"/>
       <c r="B549" s="43"/>
       <c r="C549" s="43"/>
@@ -15898,7 +15849,7 @@
       <c r="X549" s="4"/>
       <c r="Y549" s="4"/>
     </row>
-    <row r="550" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A550" s="43"/>
       <c r="B550" s="43"/>
       <c r="C550" s="43"/>
@@ -15925,7 +15876,7 @@
       <c r="X550" s="4"/>
       <c r="Y550" s="4"/>
     </row>
-    <row r="551" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A551" s="43"/>
       <c r="B551" s="43"/>
       <c r="C551" s="43"/>
@@ -15952,7 +15903,7 @@
       <c r="X551" s="4"/>
       <c r="Y551" s="4"/>
     </row>
-    <row r="552" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A552" s="43"/>
       <c r="B552" s="43"/>
       <c r="C552" s="43"/>
@@ -15979,7 +15930,7 @@
       <c r="X552" s="4"/>
       <c r="Y552" s="4"/>
     </row>
-    <row r="553" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A553" s="43"/>
       <c r="B553" s="43"/>
       <c r="C553" s="43"/>
@@ -16006,7 +15957,7 @@
       <c r="X553" s="4"/>
       <c r="Y553" s="4"/>
     </row>
-    <row r="554" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A554" s="43"/>
       <c r="B554" s="43"/>
       <c r="C554" s="43"/>
@@ -16033,7 +15984,7 @@
       <c r="X554" s="4"/>
       <c r="Y554" s="4"/>
     </row>
-    <row r="555" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A555" s="43"/>
       <c r="B555" s="43"/>
       <c r="C555" s="43"/>
@@ -16060,7 +16011,7 @@
       <c r="X555" s="4"/>
       <c r="Y555" s="4"/>
     </row>
-    <row r="556" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A556" s="43"/>
       <c r="B556" s="43"/>
       <c r="C556" s="43"/>
@@ -16087,7 +16038,7 @@
       <c r="X556" s="4"/>
       <c r="Y556" s="4"/>
     </row>
-    <row r="557" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A557" s="43"/>
       <c r="B557" s="43"/>
       <c r="C557" s="43"/>
@@ -16114,7 +16065,7 @@
       <c r="X557" s="4"/>
       <c r="Y557" s="4"/>
     </row>
-    <row r="558" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A558" s="43"/>
       <c r="B558" s="43"/>
       <c r="C558" s="43"/>
@@ -16141,7 +16092,7 @@
       <c r="X558" s="4"/>
       <c r="Y558" s="4"/>
     </row>
-    <row r="559" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A559" s="43"/>
       <c r="B559" s="43"/>
       <c r="C559" s="43"/>
@@ -16168,7 +16119,7 @@
       <c r="X559" s="4"/>
       <c r="Y559" s="4"/>
     </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A560" s="43"/>
       <c r="B560" s="43"/>
       <c r="C560" s="43"/>
@@ -16195,7 +16146,7 @@
       <c r="X560" s="4"/>
       <c r="Y560" s="4"/>
     </row>
-    <row r="561" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A561" s="43"/>
       <c r="B561" s="43"/>
       <c r="C561" s="43"/>
@@ -16222,7 +16173,7 @@
       <c r="X561" s="4"/>
       <c r="Y561" s="4"/>
     </row>
-    <row r="562" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A562" s="43"/>
       <c r="B562" s="43"/>
       <c r="C562" s="43"/>
@@ -16249,7 +16200,7 @@
       <c r="X562" s="4"/>
       <c r="Y562" s="4"/>
     </row>
-    <row r="563" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A563" s="43"/>
       <c r="B563" s="43"/>
       <c r="C563" s="43"/>
@@ -16276,7 +16227,7 @@
       <c r="X563" s="4"/>
       <c r="Y563" s="4"/>
     </row>
-    <row r="564" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A564" s="43"/>
       <c r="B564" s="43"/>
       <c r="C564" s="43"/>
@@ -16303,7 +16254,7 @@
       <c r="X564" s="4"/>
       <c r="Y564" s="4"/>
     </row>
-    <row r="565" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A565" s="43"/>
       <c r="B565" s="43"/>
       <c r="C565" s="43"/>
@@ -16330,7 +16281,7 @@
       <c r="X565" s="4"/>
       <c r="Y565" s="4"/>
     </row>
-    <row r="566" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A566" s="43"/>
       <c r="B566" s="43"/>
       <c r="C566" s="43"/>
@@ -16357,7 +16308,7 @@
       <c r="X566" s="4"/>
       <c r="Y566" s="4"/>
     </row>
-    <row r="567" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A567" s="43"/>
       <c r="B567" s="43"/>
       <c r="C567" s="43"/>
@@ -16384,7 +16335,7 @@
       <c r="X567" s="4"/>
       <c r="Y567" s="4"/>
     </row>
-    <row r="568" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A568" s="43"/>
       <c r="B568" s="43"/>
       <c r="C568" s="43"/>
@@ -16411,7 +16362,7 @@
       <c r="X568" s="4"/>
       <c r="Y568" s="4"/>
     </row>
-    <row r="569" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A569" s="43"/>
       <c r="B569" s="43"/>
       <c r="C569" s="43"/>
@@ -16438,7 +16389,7 @@
       <c r="X569" s="4"/>
       <c r="Y569" s="4"/>
     </row>
-    <row r="570" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A570" s="43"/>
       <c r="B570" s="43"/>
       <c r="C570" s="43"/>
@@ -16465,7 +16416,7 @@
       <c r="X570" s="4"/>
       <c r="Y570" s="4"/>
     </row>
-    <row r="571" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A571" s="43"/>
       <c r="B571" s="43"/>
       <c r="C571" s="43"/>
@@ -16492,7 +16443,7 @@
       <c r="X571" s="4"/>
       <c r="Y571" s="4"/>
     </row>
-    <row r="572" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A572" s="43"/>
       <c r="B572" s="43"/>
       <c r="C572" s="43"/>
@@ -16519,7 +16470,7 @@
       <c r="X572" s="4"/>
       <c r="Y572" s="4"/>
     </row>
-    <row r="573" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A573" s="43"/>
       <c r="B573" s="43"/>
       <c r="C573" s="43"/>
@@ -16546,7 +16497,7 @@
       <c r="X573" s="4"/>
       <c r="Y573" s="4"/>
     </row>
-    <row r="574" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A574" s="43"/>
       <c r="B574" s="43"/>
       <c r="C574" s="43"/>
@@ -16573,7 +16524,7 @@
       <c r="X574" s="4"/>
       <c r="Y574" s="4"/>
     </row>
-    <row r="575" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A575" s="43"/>
       <c r="B575" s="43"/>
       <c r="C575" s="43"/>
@@ -16600,7 +16551,7 @@
       <c r="X575" s="4"/>
       <c r="Y575" s="4"/>
     </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A576" s="43"/>
       <c r="B576" s="43"/>
       <c r="C576" s="43"/>
@@ -16627,7 +16578,7 @@
       <c r="X576" s="4"/>
       <c r="Y576" s="4"/>
     </row>
-    <row r="577" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A577" s="43"/>
       <c r="B577" s="43"/>
       <c r="C577" s="43"/>
@@ -16654,7 +16605,7 @@
       <c r="X577" s="4"/>
       <c r="Y577" s="4"/>
     </row>
-    <row r="578" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A578" s="43"/>
       <c r="B578" s="43"/>
       <c r="C578" s="43"/>
@@ -16681,7 +16632,7 @@
       <c r="X578" s="4"/>
       <c r="Y578" s="4"/>
     </row>
-    <row r="579" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A579" s="43"/>
       <c r="B579" s="43"/>
       <c r="C579" s="43"/>
@@ -16708,7 +16659,7 @@
       <c r="X579" s="4"/>
       <c r="Y579" s="4"/>
     </row>
-    <row r="580" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A580" s="43"/>
       <c r="B580" s="43"/>
       <c r="C580" s="43"/>
@@ -16735,7 +16686,7 @@
       <c r="X580" s="4"/>
       <c r="Y580" s="4"/>
     </row>
-    <row r="581" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A581" s="43"/>
       <c r="B581" s="43"/>
       <c r="C581" s="43"/>
@@ -16762,7 +16713,7 @@
       <c r="X581" s="4"/>
       <c r="Y581" s="4"/>
     </row>
-    <row r="582" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A582" s="43"/>
       <c r="B582" s="43"/>
       <c r="C582" s="43"/>
@@ -16789,7 +16740,7 @@
       <c r="X582" s="4"/>
       <c r="Y582" s="4"/>
     </row>
-    <row r="583" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A583" s="43"/>
       <c r="B583" s="43"/>
       <c r="C583" s="43"/>
@@ -16816,7 +16767,7 @@
       <c r="X583" s="4"/>
       <c r="Y583" s="4"/>
     </row>
-    <row r="584" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A584" s="43"/>
       <c r="B584" s="43"/>
       <c r="C584" s="43"/>
@@ -16843,7 +16794,7 @@
       <c r="X584" s="4"/>
       <c r="Y584" s="4"/>
     </row>
-    <row r="585" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A585" s="43"/>
       <c r="B585" s="43"/>
       <c r="C585" s="43"/>
@@ -16870,7 +16821,7 @@
       <c r="X585" s="4"/>
       <c r="Y585" s="4"/>
     </row>
-    <row r="586" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A586" s="43"/>
       <c r="B586" s="43"/>
       <c r="C586" s="43"/>
@@ -16897,7 +16848,7 @@
       <c r="X586" s="4"/>
       <c r="Y586" s="4"/>
     </row>
-    <row r="587" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A587" s="43"/>
       <c r="B587" s="43"/>
       <c r="C587" s="43"/>
@@ -16924,7 +16875,7 @@
       <c r="X587" s="4"/>
       <c r="Y587" s="4"/>
     </row>
-    <row r="588" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A588" s="43"/>
       <c r="B588" s="43"/>
       <c r="C588" s="43"/>
@@ -16951,7 +16902,7 @@
       <c r="X588" s="4"/>
       <c r="Y588" s="4"/>
     </row>
-    <row r="589" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A589" s="43"/>
       <c r="B589" s="43"/>
       <c r="C589" s="43"/>
@@ -16978,7 +16929,7 @@
       <c r="X589" s="4"/>
       <c r="Y589" s="4"/>
     </row>
-    <row r="590" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A590" s="43"/>
       <c r="B590" s="43"/>
       <c r="C590" s="43"/>
@@ -17005,7 +16956,7 @@
       <c r="X590" s="4"/>
       <c r="Y590" s="4"/>
     </row>
-    <row r="591" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A591" s="43"/>
       <c r="B591" s="43"/>
       <c r="C591" s="43"/>
@@ -17032,7 +16983,7 @@
       <c r="X591" s="4"/>
       <c r="Y591" s="4"/>
     </row>
-    <row r="592" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A592" s="43"/>
       <c r="B592" s="43"/>
       <c r="C592" s="43"/>
@@ -17059,7 +17010,7 @@
       <c r="X592" s="4"/>
       <c r="Y592" s="4"/>
     </row>
-    <row r="593" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A593" s="43"/>
       <c r="B593" s="43"/>
       <c r="C593" s="43"/>
@@ -17086,7 +17037,7 @@
       <c r="X593" s="4"/>
       <c r="Y593" s="4"/>
     </row>
-    <row r="594" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A594" s="43"/>
       <c r="B594" s="43"/>
       <c r="C594" s="43"/>
@@ -17113,7 +17064,7 @@
       <c r="X594" s="4"/>
       <c r="Y594" s="4"/>
     </row>
-    <row r="595" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A595" s="43"/>
       <c r="B595" s="43"/>
       <c r="C595" s="43"/>
@@ -17140,7 +17091,7 @@
       <c r="X595" s="4"/>
       <c r="Y595" s="4"/>
     </row>
-    <row r="596" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A596" s="43"/>
       <c r="B596" s="43"/>
       <c r="C596" s="43"/>
@@ -17167,7 +17118,7 @@
       <c r="X596" s="4"/>
       <c r="Y596" s="4"/>
     </row>
-    <row r="597" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A597" s="43"/>
       <c r="B597" s="43"/>
       <c r="C597" s="43"/>
@@ -17194,7 +17145,7 @@
       <c r="X597" s="4"/>
       <c r="Y597" s="4"/>
     </row>
-    <row r="598" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A598" s="43"/>
       <c r="B598" s="43"/>
       <c r="C598" s="43"/>
@@ -17221,7 +17172,7 @@
       <c r="X598" s="4"/>
       <c r="Y598" s="4"/>
     </row>
-    <row r="599" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A599" s="43"/>
       <c r="B599" s="43"/>
       <c r="C599" s="43"/>
@@ -17248,7 +17199,7 @@
       <c r="X599" s="4"/>
       <c r="Y599" s="4"/>
     </row>
-    <row r="600" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A600" s="43"/>
       <c r="B600" s="43"/>
       <c r="C600" s="43"/>
@@ -17275,7 +17226,7 @@
       <c r="X600" s="4"/>
       <c r="Y600" s="4"/>
     </row>
-    <row r="601" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A601" s="43"/>
       <c r="B601" s="43"/>
       <c r="C601" s="43"/>
@@ -17302,7 +17253,7 @@
       <c r="X601" s="4"/>
       <c r="Y601" s="4"/>
     </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A602" s="43"/>
       <c r="B602" s="43"/>
       <c r="C602" s="43"/>
@@ -17329,7 +17280,7 @@
       <c r="X602" s="4"/>
       <c r="Y602" s="4"/>
     </row>
-    <row r="603" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A603" s="43"/>
       <c r="B603" s="43"/>
       <c r="C603" s="43"/>
@@ -17356,7 +17307,7 @@
       <c r="X603" s="4"/>
       <c r="Y603" s="4"/>
     </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A604" s="43"/>
       <c r="B604" s="43"/>
       <c r="C604" s="43"/>
@@ -17383,7 +17334,7 @@
       <c r="X604" s="4"/>
       <c r="Y604" s="4"/>
     </row>
-    <row r="605" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A605" s="43"/>
       <c r="B605" s="43"/>
       <c r="C605" s="43"/>
@@ -17410,7 +17361,7 @@
       <c r="X605" s="4"/>
       <c r="Y605" s="4"/>
     </row>
-    <row r="606" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A606" s="43"/>
       <c r="B606" s="43"/>
       <c r="C606" s="43"/>
@@ -17437,7 +17388,7 @@
       <c r="X606" s="4"/>
       <c r="Y606" s="4"/>
     </row>
-    <row r="607" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A607" s="43"/>
       <c r="B607" s="43"/>
       <c r="C607" s="43"/>
@@ -17464,7 +17415,7 @@
       <c r="X607" s="4"/>
       <c r="Y607" s="4"/>
     </row>
-    <row r="608" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A608" s="43"/>
       <c r="B608" s="43"/>
       <c r="C608" s="43"/>
@@ -17491,7 +17442,7 @@
       <c r="X608" s="4"/>
       <c r="Y608" s="4"/>
     </row>
-    <row r="609" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A609" s="43"/>
       <c r="B609" s="43"/>
       <c r="C609" s="43"/>
@@ -17518,7 +17469,7 @@
       <c r="X609" s="4"/>
       <c r="Y609" s="4"/>
     </row>
-    <row r="610" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A610" s="43"/>
       <c r="B610" s="43"/>
       <c r="C610" s="43"/>
@@ -17545,7 +17496,7 @@
       <c r="X610" s="4"/>
       <c r="Y610" s="4"/>
     </row>
-    <row r="611" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A611" s="43"/>
       <c r="B611" s="43"/>
       <c r="C611" s="43"/>
@@ -17572,7 +17523,7 @@
       <c r="X611" s="4"/>
       <c r="Y611" s="4"/>
     </row>
-    <row r="612" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A612" s="43"/>
       <c r="B612" s="43"/>
       <c r="C612" s="43"/>
@@ -17599,7 +17550,7 @@
       <c r="X612" s="4"/>
       <c r="Y612" s="4"/>
     </row>
-    <row r="613" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A613" s="43"/>
       <c r="B613" s="43"/>
       <c r="C613" s="43"/>
@@ -17626,7 +17577,7 @@
       <c r="X613" s="4"/>
       <c r="Y613" s="4"/>
     </row>
-    <row r="614" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A614" s="43"/>
       <c r="B614" s="43"/>
       <c r="C614" s="43"/>
@@ -17653,7 +17604,7 @@
       <c r="X614" s="4"/>
       <c r="Y614" s="4"/>
     </row>
-    <row r="615" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A615" s="43"/>
       <c r="B615" s="43"/>
       <c r="C615" s="43"/>
@@ -17680,7 +17631,7 @@
       <c r="X615" s="4"/>
       <c r="Y615" s="4"/>
     </row>
-    <row r="616" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A616" s="43"/>
       <c r="B616" s="43"/>
       <c r="C616" s="43"/>
@@ -17707,7 +17658,7 @@
       <c r="X616" s="4"/>
       <c r="Y616" s="4"/>
     </row>
-    <row r="617" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A617" s="43"/>
       <c r="B617" s="43"/>
       <c r="C617" s="43"/>
@@ -17734,7 +17685,7 @@
       <c r="X617" s="4"/>
       <c r="Y617" s="4"/>
     </row>
-    <row r="618" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A618" s="43"/>
       <c r="B618" s="43"/>
       <c r="C618" s="43"/>
@@ -17761,7 +17712,7 @@
       <c r="X618" s="4"/>
       <c r="Y618" s="4"/>
     </row>
-    <row r="619" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A619" s="43"/>
       <c r="B619" s="43"/>
       <c r="C619" s="43"/>
@@ -17788,7 +17739,7 @@
       <c r="X619" s="4"/>
       <c r="Y619" s="4"/>
     </row>
-    <row r="620" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A620" s="43"/>
       <c r="B620" s="43"/>
       <c r="C620" s="43"/>
@@ -17815,7 +17766,7 @@
       <c r="X620" s="4"/>
       <c r="Y620" s="4"/>
     </row>
-    <row r="621" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A621" s="43"/>
       <c r="B621" s="43"/>
       <c r="C621" s="43"/>
@@ -17842,7 +17793,7 @@
       <c r="X621" s="4"/>
       <c r="Y621" s="4"/>
     </row>
-    <row r="622" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A622" s="43"/>
       <c r="B622" s="43"/>
       <c r="C622" s="43"/>
@@ -17869,7 +17820,7 @@
       <c r="X622" s="4"/>
       <c r="Y622" s="4"/>
     </row>
-    <row r="623" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A623" s="43"/>
       <c r="B623" s="43"/>
       <c r="C623" s="43"/>
@@ -17896,7 +17847,7 @@
       <c r="X623" s="4"/>
       <c r="Y623" s="4"/>
     </row>
-    <row r="624" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A624" s="43"/>
       <c r="B624" s="43"/>
       <c r="C624" s="43"/>
@@ -17923,7 +17874,7 @@
       <c r="X624" s="4"/>
       <c r="Y624" s="4"/>
     </row>
-    <row r="625" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A625" s="43"/>
       <c r="B625" s="43"/>
       <c r="C625" s="43"/>
@@ -17950,7 +17901,7 @@
       <c r="X625" s="4"/>
       <c r="Y625" s="4"/>
     </row>
-    <row r="626" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A626" s="43"/>
       <c r="B626" s="43"/>
       <c r="C626" s="43"/>
@@ -17977,7 +17928,7 @@
       <c r="X626" s="4"/>
       <c r="Y626" s="4"/>
     </row>
-    <row r="627" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A627" s="43"/>
       <c r="B627" s="43"/>
       <c r="C627" s="43"/>
@@ -18004,7 +17955,7 @@
       <c r="X627" s="4"/>
       <c r="Y627" s="4"/>
     </row>
-    <row r="628" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A628" s="43"/>
       <c r="B628" s="43"/>
       <c r="C628" s="43"/>
@@ -18031,7 +17982,7 @@
       <c r="X628" s="4"/>
       <c r="Y628" s="4"/>
     </row>
-    <row r="629" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A629" s="43"/>
       <c r="B629" s="43"/>
       <c r="C629" s="43"/>
@@ -18058,7 +18009,7 @@
       <c r="X629" s="4"/>
       <c r="Y629" s="4"/>
     </row>
-    <row r="630" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A630" s="43"/>
       <c r="B630" s="43"/>
       <c r="C630" s="43"/>
@@ -18085,7 +18036,7 @@
       <c r="X630" s="4"/>
       <c r="Y630" s="4"/>
     </row>
-    <row r="631" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A631" s="43"/>
       <c r="B631" s="43"/>
       <c r="C631" s="43"/>
@@ -18112,7 +18063,7 @@
       <c r="X631" s="4"/>
       <c r="Y631" s="4"/>
     </row>
-    <row r="632" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A632" s="43"/>
       <c r="B632" s="43"/>
       <c r="C632" s="43"/>
@@ -18139,7 +18090,7 @@
       <c r="X632" s="4"/>
       <c r="Y632" s="4"/>
     </row>
-    <row r="633" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A633" s="43"/>
       <c r="B633" s="43"/>
       <c r="C633" s="43"/>
@@ -18166,7 +18117,7 @@
       <c r="X633" s="4"/>
       <c r="Y633" s="4"/>
     </row>
-    <row r="634" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A634" s="43"/>
       <c r="B634" s="43"/>
       <c r="C634" s="43"/>
@@ -18193,7 +18144,7 @@
       <c r="X634" s="4"/>
       <c r="Y634" s="4"/>
     </row>
-    <row r="635" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A635" s="43"/>
       <c r="B635" s="43"/>
       <c r="C635" s="43"/>
@@ -18220,7 +18171,7 @@
       <c r="X635" s="4"/>
       <c r="Y635" s="4"/>
     </row>
-    <row r="636" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A636" s="43"/>
       <c r="B636" s="43"/>
       <c r="C636" s="43"/>
@@ -18247,7 +18198,7 @@
       <c r="X636" s="4"/>
       <c r="Y636" s="4"/>
     </row>
-    <row r="637" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A637" s="43"/>
       <c r="B637" s="43"/>
       <c r="C637" s="43"/>
@@ -18274,7 +18225,7 @@
       <c r="X637" s="4"/>
       <c r="Y637" s="4"/>
     </row>
-    <row r="638" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A638" s="43"/>
       <c r="B638" s="43"/>
       <c r="C638" s="43"/>
@@ -18301,7 +18252,7 @@
       <c r="X638" s="4"/>
       <c r="Y638" s="4"/>
     </row>
-    <row r="639" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A639" s="43"/>
       <c r="B639" s="43"/>
       <c r="C639" s="43"/>
@@ -18328,7 +18279,7 @@
       <c r="X639" s="4"/>
       <c r="Y639" s="4"/>
     </row>
-    <row r="640" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A640" s="43"/>
       <c r="B640" s="43"/>
       <c r="C640" s="43"/>
@@ -18355,7 +18306,7 @@
       <c r="X640" s="4"/>
       <c r="Y640" s="4"/>
     </row>
-    <row r="641" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A641" s="43"/>
       <c r="B641" s="43"/>
       <c r="C641" s="43"/>
@@ -18382,7 +18333,7 @@
       <c r="X641" s="4"/>
       <c r="Y641" s="4"/>
     </row>
-    <row r="642" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A642" s="43"/>
       <c r="B642" s="43"/>
       <c r="C642" s="43"/>
@@ -18409,7 +18360,7 @@
       <c r="X642" s="4"/>
       <c r="Y642" s="4"/>
     </row>
-    <row r="643" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A643" s="43"/>
       <c r="B643" s="43"/>
       <c r="C643" s="43"/>
@@ -18436,7 +18387,7 @@
       <c r="X643" s="4"/>
       <c r="Y643" s="4"/>
     </row>
-    <row r="644" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A644" s="43"/>
       <c r="B644" s="43"/>
       <c r="C644" s="43"/>
@@ -18463,7 +18414,7 @@
       <c r="X644" s="4"/>
       <c r="Y644" s="4"/>
     </row>
-    <row r="645" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A645" s="43"/>
       <c r="B645" s="43"/>
       <c r="C645" s="43"/>
@@ -18490,7 +18441,7 @@
       <c r="X645" s="4"/>
       <c r="Y645" s="4"/>
     </row>
-    <row r="646" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A646" s="43"/>
       <c r="B646" s="43"/>
       <c r="C646" s="43"/>
@@ -18517,7 +18468,7 @@
       <c r="X646" s="4"/>
       <c r="Y646" s="4"/>
     </row>
-    <row r="647" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A647" s="43"/>
       <c r="B647" s="43"/>
       <c r="C647" s="43"/>
@@ -18544,7 +18495,7 @@
       <c r="X647" s="4"/>
       <c r="Y647" s="4"/>
     </row>
-    <row r="648" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A648" s="43"/>
       <c r="B648" s="43"/>
       <c r="C648" s="43"/>
@@ -18571,7 +18522,7 @@
       <c r="X648" s="4"/>
       <c r="Y648" s="4"/>
     </row>
-    <row r="649" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A649" s="43"/>
       <c r="B649" s="43"/>
       <c r="C649" s="43"/>
@@ -18598,7 +18549,7 @@
       <c r="X649" s="4"/>
       <c r="Y649" s="4"/>
     </row>
-    <row r="650" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A650" s="43"/>
       <c r="B650" s="43"/>
       <c r="C650" s="43"/>
@@ -18625,7 +18576,7 @@
       <c r="X650" s="4"/>
       <c r="Y650" s="4"/>
     </row>
-    <row r="651" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A651" s="43"/>
       <c r="B651" s="43"/>
       <c r="C651" s="43"/>
@@ -18652,7 +18603,7 @@
       <c r="X651" s="4"/>
       <c r="Y651" s="4"/>
     </row>
-    <row r="652" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A652" s="43"/>
       <c r="B652" s="43"/>
       <c r="C652" s="43"/>
@@ -18679,7 +18630,7 @@
       <c r="X652" s="4"/>
       <c r="Y652" s="4"/>
     </row>
-    <row r="653" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A653" s="43"/>
       <c r="B653" s="43"/>
       <c r="C653" s="43"/>
@@ -18706,7 +18657,7 @@
       <c r="X653" s="4"/>
       <c r="Y653" s="4"/>
     </row>
-    <row r="654" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A654" s="43"/>
       <c r="B654" s="43"/>
       <c r="C654" s="43"/>
@@ -18733,7 +18684,7 @@
       <c r="X654" s="4"/>
       <c r="Y654" s="4"/>
     </row>
-    <row r="655" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A655" s="43"/>
       <c r="B655" s="43"/>
       <c r="C655" s="43"/>
@@ -18760,7 +18711,7 @@
       <c r="X655" s="4"/>
       <c r="Y655" s="4"/>
     </row>
-    <row r="656" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A656" s="43"/>
       <c r="B656" s="43"/>
       <c r="C656" s="43"/>
@@ -18787,7 +18738,7 @@
       <c r="X656" s="4"/>
       <c r="Y656" s="4"/>
     </row>
-    <row r="657" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A657" s="43"/>
       <c r="B657" s="43"/>
       <c r="C657" s="43"/>
@@ -18814,7 +18765,7 @@
       <c r="X657" s="4"/>
       <c r="Y657" s="4"/>
     </row>
-    <row r="658" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A658" s="43"/>
       <c r="B658" s="43"/>
       <c r="C658" s="43"/>
@@ -18841,7 +18792,7 @@
       <c r="X658" s="4"/>
       <c r="Y658" s="4"/>
     </row>
-    <row r="659" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A659" s="43"/>
       <c r="B659" s="43"/>
       <c r="C659" s="43"/>
@@ -18868,7 +18819,7 @@
       <c r="X659" s="4"/>
       <c r="Y659" s="4"/>
     </row>
-    <row r="660" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A660" s="43"/>
       <c r="B660" s="43"/>
       <c r="C660" s="43"/>
@@ -18895,7 +18846,7 @@
       <c r="X660" s="4"/>
       <c r="Y660" s="4"/>
     </row>
-    <row r="661" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A661" s="43"/>
       <c r="B661" s="43"/>
       <c r="C661" s="43"/>
@@ -18922,7 +18873,7 @@
       <c r="X661" s="4"/>
       <c r="Y661" s="4"/>
     </row>
-    <row r="662" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A662" s="43"/>
       <c r="B662" s="43"/>
       <c r="C662" s="43"/>
@@ -18949,7 +18900,7 @@
       <c r="X662" s="4"/>
       <c r="Y662" s="4"/>
     </row>
-    <row r="663" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A663" s="43"/>
       <c r="B663" s="43"/>
       <c r="C663" s="43"/>
@@ -18976,7 +18927,7 @@
       <c r="X663" s="4"/>
       <c r="Y663" s="4"/>
     </row>
-    <row r="664" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A664" s="43"/>
       <c r="B664" s="43"/>
       <c r="C664" s="43"/>
@@ -19003,7 +18954,7 @@
       <c r="X664" s="4"/>
       <c r="Y664" s="4"/>
     </row>
-    <row r="665" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A665" s="43"/>
       <c r="B665" s="43"/>
       <c r="C665" s="43"/>
@@ -19030,7 +18981,7 @@
       <c r="X665" s="4"/>
       <c r="Y665" s="4"/>
     </row>
-    <row r="666" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A666" s="43"/>
       <c r="B666" s="43"/>
       <c r="C666" s="43"/>
@@ -19057,7 +19008,7 @@
       <c r="X666" s="4"/>
       <c r="Y666" s="4"/>
     </row>
-    <row r="667" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A667" s="43"/>
       <c r="B667" s="43"/>
       <c r="C667" s="43"/>
@@ -19084,7 +19035,7 @@
       <c r="X667" s="4"/>
       <c r="Y667" s="4"/>
     </row>
-    <row r="668" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A668" s="43"/>
       <c r="B668" s="43"/>
       <c r="C668" s="43"/>
@@ -19111,7 +19062,7 @@
       <c r="X668" s="4"/>
       <c r="Y668" s="4"/>
     </row>
-    <row r="669" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A669" s="43"/>
       <c r="B669" s="43"/>
       <c r="C669" s="43"/>
@@ -19138,7 +19089,7 @@
       <c r="X669" s="4"/>
       <c r="Y669" s="4"/>
     </row>
-    <row r="670" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A670" s="43"/>
       <c r="B670" s="43"/>
       <c r="C670" s="43"/>
@@ -19165,7 +19116,7 @@
       <c r="X670" s="4"/>
       <c r="Y670" s="4"/>
     </row>
-    <row r="671" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A671" s="43"/>
       <c r="B671" s="43"/>
       <c r="C671" s="43"/>
@@ -19192,7 +19143,7 @@
       <c r="X671" s="4"/>
       <c r="Y671" s="4"/>
     </row>
-    <row r="672" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A672" s="43"/>
       <c r="B672" s="43"/>
       <c r="C672" s="43"/>
@@ -19219,7 +19170,7 @@
       <c r="X672" s="4"/>
       <c r="Y672" s="4"/>
     </row>
-    <row r="673" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A673" s="43"/>
       <c r="B673" s="43"/>
       <c r="C673" s="43"/>
@@ -19246,7 +19197,7 @@
       <c r="X673" s="4"/>
       <c r="Y673" s="4"/>
     </row>
-    <row r="674" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A674" s="43"/>
       <c r="B674" s="43"/>
       <c r="C674" s="43"/>
@@ -19273,7 +19224,7 @@
       <c r="X674" s="4"/>
       <c r="Y674" s="4"/>
     </row>
-    <row r="675" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A675" s="43"/>
       <c r="B675" s="43"/>
       <c r="C675" s="43"/>
@@ -19300,7 +19251,7 @@
       <c r="X675" s="4"/>
       <c r="Y675" s="4"/>
     </row>
-    <row r="676" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A676" s="43"/>
       <c r="B676" s="43"/>
       <c r="C676" s="43"/>
@@ -19327,7 +19278,7 @@
       <c r="X676" s="4"/>
       <c r="Y676" s="4"/>
     </row>
-    <row r="677" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A677" s="43"/>
       <c r="B677" s="43"/>
       <c r="C677" s="43"/>
@@ -19354,7 +19305,7 @@
       <c r="X677" s="4"/>
       <c r="Y677" s="4"/>
     </row>
-    <row r="678" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A678" s="43"/>
       <c r="B678" s="43"/>
       <c r="C678" s="43"/>
@@ -19381,7 +19332,7 @@
       <c r="X678" s="4"/>
       <c r="Y678" s="4"/>
     </row>
-    <row r="679" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A679" s="43"/>
       <c r="B679" s="43"/>
       <c r="C679" s="43"/>
@@ -19408,7 +19359,7 @@
       <c r="X679" s="4"/>
       <c r="Y679" s="4"/>
     </row>
-    <row r="680" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A680" s="43"/>
       <c r="B680" s="43"/>
       <c r="C680" s="43"/>
@@ -19435,7 +19386,7 @@
       <c r="X680" s="4"/>
       <c r="Y680" s="4"/>
     </row>
-    <row r="681" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A681" s="43"/>
       <c r="B681" s="43"/>
       <c r="C681" s="43"/>
@@ -19462,7 +19413,7 @@
       <c r="X681" s="4"/>
       <c r="Y681" s="4"/>
     </row>
-    <row r="682" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A682" s="43"/>
       <c r="B682" s="43"/>
       <c r="C682" s="43"/>
@@ -19489,7 +19440,7 @@
       <c r="X682" s="4"/>
       <c r="Y682" s="4"/>
     </row>
-    <row r="683" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A683" s="43"/>
       <c r="B683" s="43"/>
       <c r="C683" s="43"/>
@@ -19516,7 +19467,7 @@
       <c r="X683" s="4"/>
       <c r="Y683" s="4"/>
     </row>
-    <row r="684" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A684" s="43"/>
       <c r="B684" s="43"/>
       <c r="C684" s="43"/>
@@ -19543,7 +19494,7 @@
       <c r="X684" s="4"/>
       <c r="Y684" s="4"/>
     </row>
-    <row r="685" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A685" s="43"/>
       <c r="B685" s="43"/>
       <c r="C685" s="43"/>
@@ -19570,7 +19521,7 @@
       <c r="X685" s="4"/>
       <c r="Y685" s="4"/>
     </row>
-    <row r="686" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A686" s="43"/>
       <c r="B686" s="43"/>
       <c r="C686" s="43"/>
@@ -19597,7 +19548,7 @@
       <c r="X686" s="4"/>
       <c r="Y686" s="4"/>
     </row>
-    <row r="687" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A687" s="43"/>
       <c r="B687" s="43"/>
       <c r="C687" s="43"/>
@@ -19624,7 +19575,7 @@
       <c r="X687" s="4"/>
       <c r="Y687" s="4"/>
     </row>
-    <row r="688" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A688" s="43"/>
       <c r="B688" s="43"/>
       <c r="C688" s="43"/>
@@ -19651,7 +19602,7 @@
       <c r="X688" s="4"/>
       <c r="Y688" s="4"/>
     </row>
-    <row r="689" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A689" s="43"/>
       <c r="B689" s="43"/>
       <c r="C689" s="43"/>
@@ -19678,7 +19629,7 @@
       <c r="X689" s="4"/>
       <c r="Y689" s="4"/>
     </row>
-    <row r="690" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A690" s="43"/>
       <c r="B690" s="43"/>
       <c r="C690" s="43"/>
@@ -19705,7 +19656,7 @@
       <c r="X690" s="4"/>
       <c r="Y690" s="4"/>
     </row>
-    <row r="691" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A691" s="43"/>
       <c r="B691" s="43"/>
       <c r="C691" s="43"/>
@@ -19732,7 +19683,7 @@
       <c r="X691" s="4"/>
       <c r="Y691" s="4"/>
     </row>
-    <row r="692" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A692" s="43"/>
       <c r="B692" s="43"/>
       <c r="C692" s="43"/>
@@ -19759,7 +19710,7 @@
       <c r="X692" s="4"/>
       <c r="Y692" s="4"/>
     </row>
-    <row r="693" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A693" s="43"/>
       <c r="B693" s="43"/>
       <c r="C693" s="43"/>
@@ -19786,7 +19737,7 @@
       <c r="X693" s="4"/>
       <c r="Y693" s="4"/>
     </row>
-    <row r="694" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A694" s="43"/>
       <c r="B694" s="43"/>
       <c r="C694" s="43"/>
@@ -19813,7 +19764,7 @@
       <c r="X694" s="4"/>
       <c r="Y694" s="4"/>
     </row>
-    <row r="695" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A695" s="43"/>
       <c r="B695" s="43"/>
       <c r="C695" s="43"/>
@@ -19840,7 +19791,7 @@
       <c r="X695" s="4"/>
       <c r="Y695" s="4"/>
     </row>
-    <row r="696" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A696" s="43"/>
       <c r="B696" s="43"/>
       <c r="C696" s="43"/>
@@ -19867,7 +19818,7 @@
       <c r="X696" s="4"/>
       <c r="Y696" s="4"/>
     </row>
-    <row r="697" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A697" s="43"/>
       <c r="B697" s="43"/>
       <c r="C697" s="43"/>
@@ -19894,7 +19845,7 @@
       <c r="X697" s="4"/>
       <c r="Y697" s="4"/>
     </row>
-    <row r="698" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A698" s="43"/>
       <c r="B698" s="43"/>
       <c r="C698" s="43"/>
@@ -19921,7 +19872,7 @@
       <c r="X698" s="4"/>
       <c r="Y698" s="4"/>
     </row>
-    <row r="699" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A699" s="43"/>
       <c r="B699" s="43"/>
       <c r="C699" s="43"/>
@@ -19948,7 +19899,7 @@
       <c r="X699" s="4"/>
       <c r="Y699" s="4"/>
     </row>
-    <row r="700" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A700" s="43"/>
       <c r="B700" s="43"/>
       <c r="C700" s="43"/>
@@ -19975,7 +19926,7 @@
       <c r="X700" s="4"/>
       <c r="Y700" s="4"/>
     </row>
-    <row r="701" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A701" s="43"/>
       <c r="B701" s="43"/>
       <c r="C701" s="43"/>
@@ -20002,7 +19953,7 @@
       <c r="X701" s="4"/>
       <c r="Y701" s="4"/>
     </row>
-    <row r="702" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A702" s="43"/>
       <c r="B702" s="43"/>
       <c r="C702" s="43"/>
@@ -20029,7 +19980,7 @@
       <c r="X702" s="4"/>
       <c r="Y702" s="4"/>
     </row>
-    <row r="703" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A703" s="43"/>
       <c r="B703" s="43"/>
       <c r="C703" s="43"/>
@@ -20056,7 +20007,7 @@
       <c r="X703" s="4"/>
       <c r="Y703" s="4"/>
     </row>
-    <row r="704" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A704" s="43"/>
       <c r="B704" s="43"/>
       <c r="C704" s="43"/>
@@ -20083,7 +20034,7 @@
       <c r="X704" s="4"/>
       <c r="Y704" s="4"/>
     </row>
-    <row r="705" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A705" s="43"/>
       <c r="B705" s="43"/>
       <c r="C705" s="43"/>
@@ -20110,7 +20061,7 @@
       <c r="X705" s="4"/>
       <c r="Y705" s="4"/>
     </row>
-    <row r="706" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A706" s="43"/>
       <c r="B706" s="43"/>
       <c r="C706" s="43"/>
@@ -20137,7 +20088,7 @@
       <c r="X706" s="4"/>
       <c r="Y706" s="4"/>
     </row>
-    <row r="707" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A707" s="43"/>
       <c r="B707" s="43"/>
       <c r="C707" s="43"/>
@@ -20164,7 +20115,7 @@
       <c r="X707" s="4"/>
       <c r="Y707" s="4"/>
     </row>
-    <row r="708" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A708" s="43"/>
       <c r="B708" s="43"/>
       <c r="C708" s="43"/>
@@ -20191,7 +20142,7 @@
       <c r="X708" s="4"/>
       <c r="Y708" s="4"/>
     </row>
-    <row r="709" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A709" s="43"/>
       <c r="B709" s="43"/>
       <c r="C709" s="43"/>
@@ -20218,7 +20169,7 @@
       <c r="X709" s="4"/>
       <c r="Y709" s="4"/>
     </row>
-    <row r="710" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A710" s="43"/>
       <c r="B710" s="43"/>
       <c r="C710" s="43"/>
@@ -20245,7 +20196,7 @@
       <c r="X710" s="4"/>
       <c r="Y710" s="4"/>
     </row>
-    <row r="711" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A711" s="43"/>
       <c r="B711" s="43"/>
       <c r="C711" s="43"/>
@@ -20272,7 +20223,7 @@
       <c r="X711" s="4"/>
       <c r="Y711" s="4"/>
     </row>
-    <row r="712" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A712" s="43"/>
       <c r="B712" s="43"/>
       <c r="C712" s="43"/>
@@ -20299,7 +20250,7 @@
       <c r="X712" s="4"/>
       <c r="Y712" s="4"/>
     </row>
-    <row r="713" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A713" s="43"/>
       <c r="B713" s="43"/>
       <c r="C713" s="43"/>
@@ -20326,7 +20277,7 @@
       <c r="X713" s="4"/>
       <c r="Y713" s="4"/>
     </row>
-    <row r="714" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A714" s="43"/>
       <c r="B714" s="43"/>
       <c r="C714" s="43"/>
@@ -20353,7 +20304,7 @@
       <c r="X714" s="4"/>
       <c r="Y714" s="4"/>
     </row>
-    <row r="715" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A715" s="43"/>
       <c r="B715" s="43"/>
       <c r="C715" s="43"/>
@@ -20380,7 +20331,7 @@
       <c r="X715" s="4"/>
       <c r="Y715" s="4"/>
     </row>
-    <row r="716" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A716" s="43"/>
       <c r="B716" s="43"/>
       <c r="C716" s="43"/>
@@ -20407,7 +20358,7 @@
       <c r="X716" s="4"/>
       <c r="Y716" s="4"/>
     </row>
-    <row r="717" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A717" s="43"/>
       <c r="B717" s="43"/>
       <c r="C717" s="43"/>
@@ -20434,7 +20385,7 @@
       <c r="X717" s="4"/>
       <c r="Y717" s="4"/>
     </row>
-    <row r="718" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A718" s="43"/>
       <c r="B718" s="43"/>
       <c r="C718" s="43"/>
@@ -20461,7 +20412,7 @@
       <c r="X718" s="4"/>
       <c r="Y718" s="4"/>
     </row>
-    <row r="719" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A719" s="43"/>
       <c r="B719" s="43"/>
       <c r="C719" s="43"/>
@@ -20488,7 +20439,7 @@
       <c r="X719" s="4"/>
       <c r="Y719" s="4"/>
     </row>
-    <row r="720" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A720" s="43"/>
       <c r="B720" s="43"/>
       <c r="C720" s="43"/>
@@ -20515,7 +20466,7 @@
       <c r="X720" s="4"/>
       <c r="Y720" s="4"/>
     </row>
-    <row r="721" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A721" s="43"/>
       <c r="B721" s="43"/>
       <c r="C721" s="43"/>
@@ -20542,7 +20493,7 @@
       <c r="X721" s="4"/>
       <c r="Y721" s="4"/>
     </row>
-    <row r="722" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A722" s="43"/>
       <c r="B722" s="43"/>
       <c r="C722" s="43"/>
@@ -20569,7 +20520,7 @@
       <c r="X722" s="4"/>
       <c r="Y722" s="4"/>
     </row>
-    <row r="723" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A723" s="43"/>
       <c r="B723" s="43"/>
       <c r="C723" s="43"/>
@@ -20596,7 +20547,7 @@
       <c r="X723" s="4"/>
       <c r="Y723" s="4"/>
     </row>
-    <row r="724" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A724" s="43"/>
       <c r="B724" s="43"/>
       <c r="C724" s="43"/>
@@ -20623,7 +20574,7 @@
       <c r="X724" s="4"/>
       <c r="Y724" s="4"/>
     </row>
-    <row r="725" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A725" s="43"/>
       <c r="B725" s="43"/>
       <c r="C725" s="43"/>
@@ -20650,7 +20601,7 @@
       <c r="X725" s="4"/>
       <c r="Y725" s="4"/>
     </row>
-    <row r="726" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A726" s="43"/>
       <c r="B726" s="43"/>
       <c r="C726" s="43"/>
@@ -20677,7 +20628,7 @@
       <c r="X726" s="4"/>
       <c r="Y726" s="4"/>
     </row>
-    <row r="727" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A727" s="43"/>
       <c r="B727" s="43"/>
       <c r="C727" s="43"/>
@@ -20704,7 +20655,7 @@
       <c r="X727" s="4"/>
       <c r="Y727" s="4"/>
     </row>
-    <row r="728" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A728" s="43"/>
       <c r="B728" s="43"/>
       <c r="C728" s="43"/>
@@ -20731,7 +20682,7 @@
       <c r="X728" s="4"/>
       <c r="Y728" s="4"/>
     </row>
-    <row r="729" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A729" s="43"/>
       <c r="B729" s="43"/>
       <c r="C729" s="43"/>
@@ -20758,7 +20709,7 @@
       <c r="X729" s="4"/>
       <c r="Y729" s="4"/>
     </row>
-    <row r="730" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A730" s="43"/>
       <c r="B730" s="43"/>
       <c r="C730" s="43"/>
@@ -20785,7 +20736,7 @@
       <c r="X730" s="4"/>
       <c r="Y730" s="4"/>
     </row>
-    <row r="731" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A731" s="43"/>
       <c r="B731" s="43"/>
       <c r="C731" s="43"/>
@@ -20812,7 +20763,7 @@
       <c r="X731" s="4"/>
       <c r="Y731" s="4"/>
     </row>
-    <row r="732" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A732" s="43"/>
       <c r="B732" s="43"/>
       <c r="C732" s="43"/>
@@ -20839,7 +20790,7 @@
       <c r="X732" s="4"/>
       <c r="Y732" s="4"/>
     </row>
-    <row r="733" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A733" s="43"/>
       <c r="B733" s="43"/>
       <c r="C733" s="43"/>
@@ -20866,7 +20817,7 @@
       <c r="X733" s="4"/>
       <c r="Y733" s="4"/>
     </row>
-    <row r="734" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A734" s="43"/>
       <c r="B734" s="43"/>
       <c r="C734" s="43"/>
@@ -20893,7 +20844,7 @@
       <c r="X734" s="4"/>
       <c r="Y734" s="4"/>
     </row>
-    <row r="735" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A735" s="43"/>
       <c r="B735" s="43"/>
       <c r="C735" s="43"/>
@@ -20920,7 +20871,7 @@
       <c r="X735" s="4"/>
       <c r="Y735" s="4"/>
     </row>
-    <row r="736" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A736" s="43"/>
       <c r="B736" s="43"/>
       <c r="C736" s="43"/>
@@ -20947,7 +20898,7 @@
       <c r="X736" s="4"/>
       <c r="Y736" s="4"/>
     </row>
-    <row r="737" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A737" s="43"/>
       <c r="B737" s="43"/>
       <c r="C737" s="43"/>
@@ -20974,7 +20925,7 @@
       <c r="X737" s="4"/>
       <c r="Y737" s="4"/>
     </row>
-    <row r="738" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A738" s="43"/>
       <c r="B738" s="43"/>
       <c r="C738" s="43"/>
@@ -21001,7 +20952,7 @@
       <c r="X738" s="4"/>
       <c r="Y738" s="4"/>
     </row>
-    <row r="739" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A739" s="43"/>
       <c r="B739" s="43"/>
       <c r="C739" s="43"/>
@@ -21028,7 +20979,7 @@
       <c r="X739" s="4"/>
       <c r="Y739" s="4"/>
     </row>
-    <row r="740" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A740" s="43"/>
       <c r="B740" s="43"/>
       <c r="C740" s="43"/>
@@ -21055,7 +21006,7 @@
       <c r="X740" s="4"/>
       <c r="Y740" s="4"/>
     </row>
-    <row r="741" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A741" s="43"/>
       <c r="B741" s="43"/>
       <c r="C741" s="43"/>
@@ -21082,7 +21033,7 @@
       <c r="X741" s="4"/>
       <c r="Y741" s="4"/>
     </row>
-    <row r="742" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A742" s="43"/>
       <c r="B742" s="43"/>
       <c r="C742" s="43"/>
@@ -21109,7 +21060,7 @@
       <c r="X742" s="4"/>
       <c r="Y742" s="4"/>
     </row>
-    <row r="743" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A743" s="43"/>
       <c r="B743" s="43"/>
       <c r="C743" s="43"/>
@@ -21136,7 +21087,7 @@
       <c r="X743" s="4"/>
       <c r="Y743" s="4"/>
     </row>
-    <row r="744" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A744" s="43"/>
       <c r="B744" s="43"/>
       <c r="C744" s="43"/>
@@ -21163,7 +21114,7 @@
       <c r="X744" s="4"/>
       <c r="Y744" s="4"/>
     </row>
-    <row r="745" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A745" s="43"/>
       <c r="B745" s="43"/>
       <c r="C745" s="43"/>
@@ -21190,7 +21141,7 @@
       <c r="X745" s="4"/>
       <c r="Y745" s="4"/>
     </row>
-    <row r="746" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A746" s="43"/>
       <c r="B746" s="43"/>
       <c r="C746" s="43"/>
@@ -21217,7 +21168,7 @@
       <c r="X746" s="4"/>
       <c r="Y746" s="4"/>
     </row>
-    <row r="747" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A747" s="43"/>
       <c r="B747" s="43"/>
       <c r="C747" s="43"/>
@@ -21244,7 +21195,7 @@
       <c r="X747" s="4"/>
       <c r="Y747" s="4"/>
     </row>
-    <row r="748" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A748" s="43"/>
       <c r="B748" s="43"/>
       <c r="C748" s="43"/>
@@ -21271,7 +21222,7 @@
       <c r="X748" s="4"/>
       <c r="Y748" s="4"/>
     </row>
-    <row r="749" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A749" s="43"/>
       <c r="B749" s="43"/>
       <c r="C749" s="43"/>
@@ -21298,7 +21249,7 @@
       <c r="X749" s="4"/>
       <c r="Y749" s="4"/>
     </row>
-    <row r="750" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A750" s="43"/>
       <c r="B750" s="43"/>
       <c r="C750" s="43"/>
@@ -21325,7 +21276,7 @@
       <c r="X750" s="4"/>
       <c r="Y750" s="4"/>
     </row>
-    <row r="751" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A751" s="43"/>
       <c r="B751" s="43"/>
       <c r="C751" s="43"/>
@@ -21352,7 +21303,7 @@
       <c r="X751" s="4"/>
       <c r="Y751" s="4"/>
     </row>
-    <row r="752" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A752" s="43"/>
       <c r="B752" s="43"/>
       <c r="C752" s="43"/>
@@ -21379,7 +21330,7 @@
       <c r="X752" s="4"/>
       <c r="Y752" s="4"/>
     </row>
-    <row r="753" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A753" s="43"/>
       <c r="B753" s="43"/>
       <c r="C753" s="43"/>
@@ -21406,7 +21357,7 @@
       <c r="X753" s="4"/>
       <c r="Y753" s="4"/>
     </row>
-    <row r="754" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A754" s="43"/>
       <c r="B754" s="43"/>
       <c r="C754" s="43"/>
@@ -21433,7 +21384,7 @@
       <c r="X754" s="4"/>
       <c r="Y754" s="4"/>
     </row>
-    <row r="755" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A755" s="43"/>
       <c r="B755" s="43"/>
       <c r="C755" s="43"/>
@@ -21460,7 +21411,7 @@
       <c r="X755" s="4"/>
       <c r="Y755" s="4"/>
     </row>
-    <row r="756" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A756" s="43"/>
       <c r="B756" s="43"/>
       <c r="C756" s="43"/>
@@ -21487,7 +21438,7 @@
       <c r="X756" s="4"/>
       <c r="Y756" s="4"/>
     </row>
-    <row r="757" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A757" s="43"/>
       <c r="B757" s="43"/>
       <c r="C757" s="43"/>
@@ -21514,7 +21465,7 @@
       <c r="X757" s="4"/>
       <c r="Y757" s="4"/>
     </row>
-    <row r="758" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A758" s="43"/>
       <c r="B758" s="43"/>
       <c r="C758" s="43"/>
@@ -21541,7 +21492,7 @@
       <c r="X758" s="4"/>
       <c r="Y758" s="4"/>
     </row>
-    <row r="759" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A759" s="43"/>
       <c r="B759" s="43"/>
       <c r="C759" s="43"/>
@@ -21568,7 +21519,7 @@
       <c r="X759" s="4"/>
       <c r="Y759" s="4"/>
     </row>
-    <row r="760" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A760" s="43"/>
       <c r="B760" s="43"/>
       <c r="C760" s="43"/>
@@ -21595,7 +21546,7 @@
       <c r="X760" s="4"/>
       <c r="Y760" s="4"/>
     </row>
-    <row r="761" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A761" s="43"/>
       <c r="B761" s="43"/>
       <c r="C761" s="43"/>
@@ -21622,7 +21573,7 @@
       <c r="X761" s="4"/>
       <c r="Y761" s="4"/>
     </row>
-    <row r="762" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A762" s="43"/>
       <c r="B762" s="43"/>
       <c r="C762" s="43"/>
@@ -21649,7 +21600,7 @@
       <c r="X762" s="4"/>
       <c r="Y762" s="4"/>
     </row>
-    <row r="763" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A763" s="43"/>
       <c r="B763" s="43"/>
       <c r="C763" s="43"/>
@@ -21676,7 +21627,7 @@
       <c r="X763" s="4"/>
       <c r="Y763" s="4"/>
     </row>
-    <row r="764" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A764" s="43"/>
       <c r="B764" s="43"/>
       <c r="C764" s="43"/>
@@ -21703,7 +21654,7 @@
       <c r="X764" s="4"/>
       <c r="Y764" s="4"/>
     </row>
-    <row r="765" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A765" s="43"/>
       <c r="B765" s="43"/>
       <c r="C765" s="43"/>
@@ -21730,7 +21681,7 @@
       <c r="X765" s="4"/>
       <c r="Y765" s="4"/>
     </row>
-    <row r="766" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A766" s="43"/>
       <c r="B766" s="43"/>
       <c r="C766" s="43"/>
@@ -21757,7 +21708,7 @@
       <c r="X766" s="4"/>
       <c r="Y766" s="4"/>
     </row>
-    <row r="767" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A767" s="43"/>
       <c r="B767" s="43"/>
       <c r="C767" s="43"/>
@@ -21784,7 +21735,7 @@
       <c r="X767" s="4"/>
       <c r="Y767" s="4"/>
     </row>
-    <row r="768" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A768" s="43"/>
       <c r="B768" s="43"/>
       <c r="C768" s="43"/>
@@ -21811,7 +21762,7 @@
       <c r="X768" s="4"/>
       <c r="Y768" s="4"/>
     </row>
-    <row r="769" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A769" s="43"/>
       <c r="B769" s="43"/>
       <c r="C769" s="43"/>
@@ -21838,7 +21789,7 @@
       <c r="X769" s="4"/>
       <c r="Y769" s="4"/>
     </row>
-    <row r="770" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A770" s="43"/>
       <c r="B770" s="43"/>
       <c r="C770" s="43"/>
@@ -21865,7 +21816,7 @@
       <c r="X770" s="4"/>
       <c r="Y770" s="4"/>
     </row>
-    <row r="771" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A771" s="43"/>
       <c r="B771" s="43"/>
       <c r="C771" s="43"/>
@@ -21892,7 +21843,7 @@
       <c r="X771" s="4"/>
       <c r="Y771" s="4"/>
     </row>
-    <row r="772" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A772" s="43"/>
       <c r="B772" s="43"/>
       <c r="C772" s="43"/>
@@ -21919,7 +21870,7 @@
       <c r="X772" s="4"/>
       <c r="Y772" s="4"/>
     </row>
-    <row r="773" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A773" s="43"/>
       <c r="B773" s="43"/>
       <c r="C773" s="43"/>
@@ -21946,7 +21897,7 @@
       <c r="X773" s="4"/>
       <c r="Y773" s="4"/>
     </row>
-    <row r="774" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A774" s="43"/>
       <c r="B774" s="43"/>
       <c r="C774" s="43"/>
@@ -21973,7 +21924,7 @@
       <c r="X774" s="4"/>
       <c r="Y774" s="4"/>
     </row>
-    <row r="775" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A775" s="43"/>
       <c r="B775" s="43"/>
       <c r="C775" s="43"/>
@@ -22000,7 +21951,7 @@
       <c r="X775" s="4"/>
       <c r="Y775" s="4"/>
     </row>
-    <row r="776" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A776" s="43"/>
       <c r="B776" s="43"/>
       <c r="C776" s="43"/>
@@ -22027,7 +21978,7 @@
       <c r="X776" s="4"/>
       <c r="Y776" s="4"/>
     </row>
-    <row r="777" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A777" s="43"/>
       <c r="B777" s="43"/>
       <c r="C777" s="43"/>
@@ -22054,7 +22005,7 @@
       <c r="X777" s="4"/>
       <c r="Y777" s="4"/>
     </row>
-    <row r="778" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A778" s="43"/>
       <c r="B778" s="43"/>
       <c r="C778" s="43"/>
@@ -22081,7 +22032,7 @@
       <c r="X778" s="4"/>
       <c r="Y778" s="4"/>
     </row>
-    <row r="779" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A779" s="43"/>
       <c r="B779" s="43"/>
       <c r="C779" s="43"/>
@@ -22108,7 +22059,7 @@
       <c r="X779" s="4"/>
       <c r="Y779" s="4"/>
     </row>
-    <row r="780" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A780" s="43"/>
       <c r="B780" s="43"/>
       <c r="C780" s="43"/>
@@ -22135,7 +22086,7 @@
       <c r="X780" s="4"/>
       <c r="Y780" s="4"/>
     </row>
-    <row r="781" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A781" s="43"/>
       <c r="B781" s="43"/>
       <c r="C781" s="43"/>
@@ -22162,7 +22113,7 @@
       <c r="X781" s="4"/>
       <c r="Y781" s="4"/>
     </row>
-    <row r="782" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A782" s="43"/>
       <c r="B782" s="43"/>
       <c r="C782" s="43"/>
@@ -22189,7 +22140,7 @@
       <c r="X782" s="4"/>
       <c r="Y782" s="4"/>
     </row>
-    <row r="783" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A783" s="43"/>
       <c r="B783" s="43"/>
       <c r="C783" s="43"/>
@@ -22216,7 +22167,7 @@
       <c r="X783" s="4"/>
       <c r="Y783" s="4"/>
     </row>
-    <row r="784" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A784" s="43"/>
       <c r="B784" s="43"/>
       <c r="C784" s="43"/>
@@ -22243,7 +22194,7 @@
       <c r="X784" s="4"/>
       <c r="Y784" s="4"/>
     </row>
-    <row r="785" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A785" s="43"/>
       <c r="B785" s="43"/>
       <c r="C785" s="43"/>
@@ -22270,7 +22221,7 @@
       <c r="X785" s="4"/>
       <c r="Y785" s="4"/>
     </row>
-    <row r="786" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A786" s="43"/>
       <c r="B786" s="43"/>
       <c r="C786" s="43"/>
@@ -22297,7 +22248,7 @@
       <c r="X786" s="4"/>
       <c r="Y786" s="4"/>
     </row>
-    <row r="787" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A787" s="43"/>
       <c r="B787" s="43"/>
       <c r="C787" s="43"/>
@@ -22324,7 +22275,7 @@
       <c r="X787" s="4"/>
       <c r="Y787" s="4"/>
     </row>
-    <row r="788" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A788" s="43"/>
       <c r="B788" s="43"/>
       <c r="C788" s="43"/>
@@ -22351,7 +22302,7 @@
       <c r="X788" s="4"/>
       <c r="Y788" s="4"/>
     </row>
-    <row r="789" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A789" s="43"/>
       <c r="B789" s="43"/>
       <c r="C789" s="43"/>
@@ -22378,7 +22329,7 @@
       <c r="X789" s="4"/>
       <c r="Y789" s="4"/>
     </row>
-    <row r="790" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A790" s="43"/>
       <c r="B790" s="43"/>
       <c r="C790" s="43"/>
@@ -22405,7 +22356,7 @@
       <c r="X790" s="4"/>
       <c r="Y790" s="4"/>
     </row>
-    <row r="791" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A791" s="43"/>
       <c r="B791" s="43"/>
       <c r="C791" s="43"/>
@@ -22432,7 +22383,7 @@
       <c r="X791" s="4"/>
       <c r="Y791" s="4"/>
     </row>
-    <row r="792" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A792" s="43"/>
       <c r="B792" s="43"/>
       <c r="C792" s="43"/>
@@ -22459,7 +22410,7 @@
       <c r="X792" s="4"/>
       <c r="Y792" s="4"/>
     </row>
-    <row r="793" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A793" s="43"/>
       <c r="B793" s="43"/>
       <c r="C793" s="43"/>
@@ -22486,7 +22437,7 @@
       <c r="X793" s="4"/>
       <c r="Y793" s="4"/>
     </row>
-    <row r="794" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A794" s="43"/>
       <c r="B794" s="43"/>
       <c r="C794" s="43"/>
@@ -22513,7 +22464,7 @@
       <c r="X794" s="4"/>
       <c r="Y794" s="4"/>
     </row>
-    <row r="795" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A795" s="43"/>
       <c r="B795" s="43"/>
       <c r="C795" s="43"/>
@@ -22540,7 +22491,7 @@
       <c r="X795" s="4"/>
       <c r="Y795" s="4"/>
     </row>
-    <row r="796" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A796" s="43"/>
       <c r="B796" s="43"/>
       <c r="C796" s="43"/>
@@ -22567,7 +22518,7 @@
       <c r="X796" s="4"/>
       <c r="Y796" s="4"/>
     </row>
-    <row r="797" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A797" s="43"/>
       <c r="B797" s="43"/>
       <c r="C797" s="43"/>
@@ -22594,7 +22545,7 @@
       <c r="X797" s="4"/>
       <c r="Y797" s="4"/>
     </row>
-    <row r="798" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A798" s="43"/>
       <c r="B798" s="43"/>
       <c r="C798" s="43"/>
@@ -22621,7 +22572,7 @@
       <c r="X798" s="4"/>
       <c r="Y798" s="4"/>
     </row>
-    <row r="799" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A799" s="43"/>
       <c r="B799" s="43"/>
       <c r="C799" s="43"/>
@@ -22648,7 +22599,7 @@
       <c r="X799" s="4"/>
       <c r="Y799" s="4"/>
     </row>
-    <row r="800" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A800" s="43"/>
       <c r="B800" s="43"/>
       <c r="C800" s="43"/>
@@ -22675,7 +22626,7 @@
       <c r="X800" s="4"/>
       <c r="Y800" s="4"/>
     </row>
-    <row r="801" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A801" s="43"/>
       <c r="B801" s="43"/>
       <c r="C801" s="43"/>
@@ -22702,7 +22653,7 @@
       <c r="X801" s="4"/>
       <c r="Y801" s="4"/>
     </row>
-    <row r="802" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A802" s="43"/>
       <c r="B802" s="43"/>
       <c r="C802" s="43"/>
@@ -22729,7 +22680,7 @@
       <c r="X802" s="4"/>
       <c r="Y802" s="4"/>
     </row>
-    <row r="803" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A803" s="43"/>
       <c r="B803" s="43"/>
       <c r="C803" s="43"/>
@@ -22756,7 +22707,7 @@
       <c r="X803" s="4"/>
       <c r="Y803" s="4"/>
     </row>
-    <row r="804" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A804" s="43"/>
       <c r="B804" s="43"/>
       <c r="C804" s="43"/>
@@ -22783,7 +22734,7 @@
       <c r="X804" s="4"/>
       <c r="Y804" s="4"/>
     </row>
-    <row r="805" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A805" s="43"/>
       <c r="B805" s="43"/>
       <c r="C805" s="43"/>
@@ -22810,7 +22761,7 @@
       <c r="X805" s="4"/>
       <c r="Y805" s="4"/>
     </row>
-    <row r="806" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A806" s="43"/>
       <c r="B806" s="43"/>
       <c r="C806" s="43"/>
@@ -22837,7 +22788,7 @@
       <c r="X806" s="4"/>
       <c r="Y806" s="4"/>
     </row>
-    <row r="807" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A807" s="43"/>
       <c r="B807" s="43"/>
       <c r="C807" s="43"/>
@@ -22864,7 +22815,7 @@
       <c r="X807" s="4"/>
       <c r="Y807" s="4"/>
     </row>
-    <row r="808" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A808" s="43"/>
       <c r="B808" s="43"/>
       <c r="C808" s="43"/>
@@ -22891,7 +22842,7 @@
       <c r="X808" s="4"/>
       <c r="Y808" s="4"/>
     </row>
-    <row r="809" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A809" s="43"/>
       <c r="B809" s="43"/>
       <c r="C809" s="43"/>
@@ -22918,7 +22869,7 @@
       <c r="X809" s="4"/>
       <c r="Y809" s="4"/>
     </row>
-    <row r="810" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A810" s="43"/>
       <c r="B810" s="43"/>
       <c r="C810" s="43"/>
@@ -22945,7 +22896,7 @@
       <c r="X810" s="4"/>
       <c r="Y810" s="4"/>
     </row>
-    <row r="811" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A811" s="43"/>
       <c r="B811" s="43"/>
       <c r="C811" s="43"/>
@@ -22972,7 +22923,7 @@
       <c r="X811" s="4"/>
       <c r="Y811" s="4"/>
     </row>
-    <row r="812" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A812" s="43"/>
       <c r="B812" s="43"/>
       <c r="C812" s="43"/>
@@ -22999,7 +22950,7 @@
       <c r="X812" s="4"/>
       <c r="Y812" s="4"/>
     </row>
-    <row r="813" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A813" s="43"/>
       <c r="B813" s="43"/>
       <c r="C813" s="43"/>
@@ -23026,7 +22977,7 @@
       <c r="X813" s="4"/>
       <c r="Y813" s="4"/>
     </row>
-    <row r="814" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A814" s="43"/>
       <c r="B814" s="43"/>
       <c r="C814" s="43"/>
@@ -23053,7 +23004,7 @@
       <c r="X814" s="4"/>
       <c r="Y814" s="4"/>
     </row>
-    <row r="815" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A815" s="43"/>
       <c r="B815" s="43"/>
       <c r="C815" s="43"/>
@@ -23080,7 +23031,7 @@
       <c r="X815" s="4"/>
       <c r="Y815" s="4"/>
     </row>
-    <row r="816" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A816" s="43"/>
       <c r="B816" s="43"/>
       <c r="C816" s="43"/>
@@ -23107,7 +23058,7 @@
       <c r="X816" s="4"/>
       <c r="Y816" s="4"/>
     </row>
-    <row r="817" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A817" s="43"/>
       <c r="B817" s="43"/>
       <c r="C817" s="43"/>
@@ -23134,7 +23085,7 @@
       <c r="X817" s="4"/>
       <c r="Y817" s="4"/>
     </row>
-    <row r="818" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A818" s="43"/>
       <c r="B818" s="43"/>
       <c r="C818" s="43"/>
@@ -23161,7 +23112,7 @@
       <c r="X818" s="4"/>
       <c r="Y818" s="4"/>
     </row>
-    <row r="819" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A819" s="43"/>
       <c r="B819" s="43"/>
       <c r="C819" s="43"/>
@@ -23188,7 +23139,7 @@
       <c r="X819" s="4"/>
       <c r="Y819" s="4"/>
     </row>
-    <row r="820" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A820" s="43"/>
       <c r="B820" s="43"/>
       <c r="C820" s="43"/>
@@ -23215,7 +23166,7 @@
       <c r="X820" s="4"/>
       <c r="Y820" s="4"/>
     </row>
-    <row r="821" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A821" s="43"/>
       <c r="B821" s="43"/>
       <c r="C821" s="43"/>
@@ -23242,7 +23193,7 @@
       <c r="X821" s="4"/>
       <c r="Y821" s="4"/>
     </row>
-    <row r="822" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A822" s="43"/>
       <c r="B822" s="43"/>
       <c r="C822" s="43"/>
@@ -23269,7 +23220,7 @@
       <c r="X822" s="4"/>
       <c r="Y822" s="4"/>
     </row>
-    <row r="823" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A823" s="43"/>
       <c r="B823" s="43"/>
       <c r="C823" s="43"/>
@@ -23296,7 +23247,7 @@
       <c r="X823" s="4"/>
       <c r="Y823" s="4"/>
     </row>
-    <row r="824" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A824" s="43"/>
       <c r="B824" s="43"/>
       <c r="C824" s="43"/>
@@ -23323,7 +23274,7 @@
       <c r="X824" s="4"/>
       <c r="Y824" s="4"/>
     </row>
-    <row r="825" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A825" s="43"/>
       <c r="B825" s="43"/>
       <c r="C825" s="43"/>
@@ -23350,7 +23301,7 @@
       <c r="X825" s="4"/>
       <c r="Y825" s="4"/>
     </row>
-    <row r="826" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A826" s="43"/>
       <c r="B826" s="43"/>
       <c r="C826" s="43"/>
@@ -23377,7 +23328,7 @@
       <c r="X826" s="4"/>
       <c r="Y826" s="4"/>
     </row>
-    <row r="827" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A827" s="43"/>
       <c r="B827" s="43"/>
       <c r="C827" s="43"/>
@@ -23404,7 +23355,7 @@
       <c r="X827" s="4"/>
       <c r="Y827" s="4"/>
     </row>
-    <row r="828" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A828" s="43"/>
       <c r="B828" s="43"/>
       <c r="C828" s="43"/>
@@ -23431,7 +23382,7 @@
       <c r="X828" s="4"/>
       <c r="Y828" s="4"/>
     </row>
-    <row r="829" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A829" s="43"/>
       <c r="B829" s="43"/>
       <c r="C829" s="43"/>
@@ -23458,7 +23409,7 @@
       <c r="X829" s="4"/>
       <c r="Y829" s="4"/>
     </row>
-    <row r="830" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A830" s="43"/>
       <c r="B830" s="43"/>
       <c r="C830" s="43"/>
@@ -23485,7 +23436,7 @@
       <c r="X830" s="4"/>
       <c r="Y830" s="4"/>
     </row>
-    <row r="831" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A831" s="43"/>
       <c r="B831" s="43"/>
       <c r="C831" s="43"/>
@@ -23512,7 +23463,7 @@
       <c r="X831" s="4"/>
       <c r="Y831" s="4"/>
     </row>
-    <row r="832" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A832" s="43"/>
       <c r="B832" s="43"/>
       <c r="C832" s="43"/>
@@ -23539,7 +23490,7 @@
       <c r="X832" s="4"/>
       <c r="Y832" s="4"/>
     </row>
-    <row r="833" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A833" s="43"/>
       <c r="B833" s="43"/>
       <c r="C833" s="43"/>
@@ -23566,7 +23517,7 @@
       <c r="X833" s="4"/>
       <c r="Y833" s="4"/>
     </row>
-    <row r="834" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A834" s="43"/>
       <c r="B834" s="43"/>
       <c r="C834" s="43"/>
@@ -23593,7 +23544,7 @@
       <c r="X834" s="4"/>
       <c r="Y834" s="4"/>
     </row>
-    <row r="835" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A835" s="43"/>
       <c r="B835" s="43"/>
       <c r="C835" s="43"/>
@@ -23620,7 +23571,7 @@
       <c r="X835" s="4"/>
       <c r="Y835" s="4"/>
     </row>
-    <row r="836" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A836" s="43"/>
       <c r="B836" s="43"/>
       <c r="C836" s="43"/>
@@ -23647,7 +23598,7 @@
       <c r="X836" s="4"/>
       <c r="Y836" s="4"/>
     </row>
-    <row r="837" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A837" s="43"/>
       <c r="B837" s="43"/>
       <c r="C837" s="43"/>
@@ -23674,7 +23625,7 @@
       <c r="X837" s="4"/>
       <c r="Y837" s="4"/>
     </row>
-    <row r="838" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A838" s="43"/>
       <c r="B838" s="43"/>
       <c r="C838" s="43"/>
@@ -23701,7 +23652,7 @@
       <c r="X838" s="4"/>
       <c r="Y838" s="4"/>
     </row>
-    <row r="839" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A839" s="43"/>
       <c r="B839" s="43"/>
       <c r="C839" s="43"/>
@@ -23728,7 +23679,7 @@
       <c r="X839" s="4"/>
       <c r="Y839" s="4"/>
     </row>
-    <row r="840" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A840" s="43"/>
       <c r="B840" s="43"/>
       <c r="C840" s="43"/>
@@ -23755,7 +23706,7 @@
       <c r="X840" s="4"/>
       <c r="Y840" s="4"/>
     </row>
-    <row r="841" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A841" s="43"/>
       <c r="B841" s="43"/>
       <c r="C841" s="43"/>
@@ -23782,7 +23733,7 @@
       <c r="X841" s="4"/>
       <c r="Y841" s="4"/>
     </row>
-    <row r="842" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A842" s="43"/>
       <c r="B842" s="43"/>
       <c r="C842" s="43"/>
@@ -23809,7 +23760,7 @@
       <c r="X842" s="4"/>
       <c r="Y842" s="4"/>
     </row>
-    <row r="843" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A843" s="43"/>
       <c r="B843" s="43"/>
       <c r="C843" s="43"/>
@@ -23836,7 +23787,7 @@
       <c r="X843" s="4"/>
       <c r="Y843" s="4"/>
     </row>
-    <row r="844" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A844" s="43"/>
       <c r="B844" s="43"/>
       <c r="C844" s="43"/>
@@ -23863,7 +23814,7 @@
       <c r="X844" s="4"/>
       <c r="Y844" s="4"/>
     </row>
-    <row r="845" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A845" s="43"/>
       <c r="B845" s="43"/>
       <c r="C845" s="43"/>
@@ -23890,7 +23841,7 @@
       <c r="X845" s="4"/>
       <c r="Y845" s="4"/>
     </row>
-    <row r="846" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A846" s="43"/>
       <c r="B846" s="43"/>
       <c r="C846" s="43"/>
@@ -23917,7 +23868,7 @@
       <c r="X846" s="4"/>
       <c r="Y846" s="4"/>
     </row>
-    <row r="847" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A847" s="43"/>
       <c r="B847" s="43"/>
       <c r="C847" s="43"/>
@@ -23944,7 +23895,7 @@
       <c r="X847" s="4"/>
       <c r="Y847" s="4"/>
     </row>
-    <row r="848" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A848" s="43"/>
       <c r="B848" s="43"/>
       <c r="C848" s="43"/>
@@ -23971,7 +23922,7 @@
       <c r="X848" s="4"/>
       <c r="Y848" s="4"/>
     </row>
-    <row r="849" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A849" s="43"/>
       <c r="B849" s="43"/>
       <c r="C849" s="43"/>
@@ -23998,7 +23949,7 @@
       <c r="X849" s="4"/>
       <c r="Y849" s="4"/>
     </row>
-    <row r="850" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A850" s="43"/>
       <c r="B850" s="43"/>
       <c r="C850" s="43"/>
@@ -24025,7 +23976,7 @@
       <c r="X850" s="4"/>
       <c r="Y850" s="4"/>
     </row>
-    <row r="851" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A851" s="43"/>
       <c r="B851" s="43"/>
       <c r="C851" s="43"/>
@@ -24052,7 +24003,7 @@
       <c r="X851" s="4"/>
       <c r="Y851" s="4"/>
     </row>
-    <row r="852" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A852" s="43"/>
       <c r="B852" s="43"/>
       <c r="C852" s="43"/>
@@ -24079,7 +24030,7 @@
       <c r="X852" s="4"/>
       <c r="Y852" s="4"/>
     </row>
-    <row r="853" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A853" s="43"/>
       <c r="B853" s="43"/>
       <c r="C853" s="43"/>
@@ -24106,7 +24057,7 @@
       <c r="X853" s="4"/>
       <c r="Y853" s="4"/>
     </row>
-    <row r="854" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A854" s="43"/>
       <c r="B854" s="43"/>
       <c r="C854" s="43"/>
@@ -24133,7 +24084,7 @@
       <c r="X854" s="4"/>
       <c r="Y854" s="4"/>
     </row>
-    <row r="855" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A855" s="43"/>
       <c r="B855" s="43"/>
       <c r="C855" s="43"/>
@@ -24160,7 +24111,7 @@
       <c r="X855" s="4"/>
       <c r="Y855" s="4"/>
     </row>
-    <row r="856" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A856" s="43"/>
       <c r="B856" s="43"/>
       <c r="C856" s="43"/>
@@ -24187,7 +24138,7 @@
       <c r="X856" s="4"/>
       <c r="Y856" s="4"/>
     </row>
-    <row r="857" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A857" s="43"/>
       <c r="B857" s="43"/>
       <c r="C857" s="43"/>
@@ -24214,7 +24165,7 @@
       <c r="X857" s="4"/>
       <c r="Y857" s="4"/>
     </row>
-    <row r="858" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A858" s="43"/>
       <c r="B858" s="43"/>
       <c r="C858" s="43"/>
@@ -24241,7 +24192,7 @@
       <c r="X858" s="4"/>
       <c r="Y858" s="4"/>
     </row>
-    <row r="859" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A859" s="43"/>
       <c r="B859" s="43"/>
       <c r="C859" s="43"/>
@@ -24268,7 +24219,7 @@
       <c r="X859" s="4"/>
       <c r="Y859" s="4"/>
     </row>
-    <row r="860" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A860" s="43"/>
       <c r="B860" s="43"/>
       <c r="C860" s="43"/>
@@ -24295,7 +24246,7 @@
       <c r="X860" s="4"/>
       <c r="Y860" s="4"/>
     </row>
-    <row r="861" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A861" s="43"/>
       <c r="B861" s="43"/>
       <c r="C861" s="43"/>
@@ -24322,7 +24273,7 @@
       <c r="X861" s="4"/>
       <c r="Y861" s="4"/>
     </row>
-    <row r="862" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A862" s="43"/>
       <c r="B862" s="43"/>
       <c r="C862" s="43"/>
@@ -24349,7 +24300,7 @@
       <c r="X862" s="4"/>
       <c r="Y862" s="4"/>
     </row>
-    <row r="863" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A863" s="43"/>
       <c r="B863" s="43"/>
       <c r="C863" s="43"/>
@@ -24376,7 +24327,7 @@
       <c r="X863" s="4"/>
       <c r="Y863" s="4"/>
     </row>
-    <row r="864" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A864" s="43"/>
       <c r="B864" s="43"/>
       <c r="C864" s="43"/>
@@ -24403,7 +24354,7 @@
       <c r="X864" s="4"/>
       <c r="Y864" s="4"/>
     </row>
-    <row r="865" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A865" s="43"/>
       <c r="B865" s="43"/>
       <c r="C865" s="43"/>
@@ -24430,7 +24381,7 @@
       <c r="X865" s="4"/>
       <c r="Y865" s="4"/>
     </row>
-    <row r="866" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A866" s="43"/>
       <c r="B866" s="43"/>
       <c r="C866" s="43"/>
@@ -24457,7 +24408,7 @@
       <c r="X866" s="4"/>
       <c r="Y866" s="4"/>
     </row>
-    <row r="867" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A867" s="43"/>
       <c r="B867" s="43"/>
       <c r="C867" s="43"/>
@@ -24484,7 +24435,7 @@
       <c r="X867" s="4"/>
       <c r="Y867" s="4"/>
     </row>
-    <row r="868" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A868" s="43"/>
       <c r="B868" s="43"/>
       <c r="C868" s="43"/>
@@ -24511,7 +24462,7 @@
       <c r="X868" s="4"/>
       <c r="Y868" s="4"/>
     </row>
-    <row r="869" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A869" s="43"/>
       <c r="B869" s="43"/>
       <c r="C869" s="43"/>
@@ -24538,7 +24489,7 @@
       <c r="X869" s="4"/>
       <c r="Y869" s="4"/>
     </row>
-    <row r="870" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A870" s="43"/>
       <c r="B870" s="43"/>
       <c r="C870" s="43"/>
@@ -24565,7 +24516,7 @@
       <c r="X870" s="4"/>
       <c r="Y870" s="4"/>
     </row>
-    <row r="871" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A871" s="43"/>
       <c r="B871" s="43"/>
       <c r="C871" s="43"/>
@@ -24592,7 +24543,7 @@
       <c r="X871" s="4"/>
       <c r="Y871" s="4"/>
     </row>
-    <row r="872" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A872" s="43"/>
       <c r="B872" s="43"/>
       <c r="C872" s="43"/>
@@ -24619,7 +24570,7 @@
       <c r="X872" s="4"/>
       <c r="Y872" s="4"/>
     </row>
-    <row r="873" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A873" s="43"/>
       <c r="B873" s="43"/>
       <c r="C873" s="43"/>
@@ -24646,7 +24597,7 @@
       <c r="X873" s="4"/>
       <c r="Y873" s="4"/>
     </row>
-    <row r="874" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A874" s="43"/>
       <c r="B874" s="43"/>
       <c r="C874" s="43"/>
@@ -24673,7 +24624,7 @@
       <c r="X874" s="4"/>
       <c r="Y874" s="4"/>
     </row>
-    <row r="875" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A875" s="43"/>
       <c r="B875" s="43"/>
       <c r="C875" s="43"/>
@@ -24700,7 +24651,7 @@
       <c r="X875" s="4"/>
       <c r="Y875" s="4"/>
     </row>
-    <row r="876" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A876" s="43"/>
       <c r="B876" s="43"/>
       <c r="C876" s="43"/>
@@ -24727,7 +24678,7 @@
       <c r="X876" s="4"/>
       <c r="Y876" s="4"/>
     </row>
-    <row r="877" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A877" s="43"/>
       <c r="B877" s="43"/>
       <c r="C877" s="43"/>
@@ -24754,7 +24705,7 @@
       <c r="X877" s="4"/>
       <c r="Y877" s="4"/>
     </row>
-    <row r="878" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A878" s="43"/>
       <c r="B878" s="43"/>
       <c r="C878" s="43"/>
@@ -24781,7 +24732,7 @@
       <c r="X878" s="4"/>
       <c r="Y878" s="4"/>
     </row>
-    <row r="879" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A879" s="43"/>
       <c r="B879" s="43"/>
       <c r="C879" s="43"/>
@@ -24808,7 +24759,7 @@
       <c r="X879" s="4"/>
       <c r="Y879" s="4"/>
     </row>
-    <row r="880" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A880" s="43"/>
       <c r="B880" s="43"/>
       <c r="C880" s="43"/>
@@ -24835,7 +24786,7 @@
       <c r="X880" s="4"/>
       <c r="Y880" s="4"/>
     </row>
-    <row r="881" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A881" s="43"/>
       <c r="B881" s="43"/>
       <c r="C881" s="43"/>
@@ -24862,7 +24813,7 @@
       <c r="X881" s="4"/>
       <c r="Y881" s="4"/>
     </row>
-    <row r="882" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A882" s="43"/>
       <c r="B882" s="43"/>
       <c r="C882" s="43"/>
@@ -24889,7 +24840,7 @@
       <c r="X882" s="4"/>
       <c r="Y882" s="4"/>
     </row>
-    <row r="883" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A883" s="43"/>
       <c r="B883" s="43"/>
       <c r="C883" s="43"/>
@@ -24916,7 +24867,7 @@
       <c r="X883" s="4"/>
       <c r="Y883" s="4"/>
     </row>
-    <row r="884" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A884" s="43"/>
       <c r="B884" s="43"/>
       <c r="C884" s="43"/>
@@ -24943,7 +24894,7 @@
       <c r="X884" s="4"/>
       <c r="Y884" s="4"/>
     </row>
-    <row r="885" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A885" s="43"/>
       <c r="B885" s="43"/>
       <c r="C885" s="43"/>
@@ -24970,7 +24921,7 @@
       <c r="X885" s="4"/>
       <c r="Y885" s="4"/>
     </row>
-    <row r="886" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A886" s="43"/>
       <c r="B886" s="43"/>
       <c r="C886" s="43"/>
@@ -24997,7 +24948,7 @@
       <c r="X886" s="4"/>
       <c r="Y886" s="4"/>
     </row>
-    <row r="887" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A887" s="43"/>
       <c r="B887" s="43"/>
       <c r="C887" s="43"/>
@@ -25024,7 +24975,7 @@
       <c r="X887" s="4"/>
       <c r="Y887" s="4"/>
     </row>
-    <row r="888" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A888" s="43"/>
       <c r="B888" s="43"/>
       <c r="C888" s="43"/>
@@ -25051,7 +25002,7 @@
       <c r="X888" s="4"/>
       <c r="Y888" s="4"/>
     </row>
-    <row r="889" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A889" s="43"/>
       <c r="B889" s="43"/>
       <c r="C889" s="43"/>
@@ -25078,7 +25029,7 @@
       <c r="X889" s="4"/>
       <c r="Y889" s="4"/>
     </row>
-    <row r="890" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A890" s="43"/>
       <c r="B890" s="43"/>
       <c r="C890" s="43"/>
@@ -25105,7 +25056,7 @@
       <c r="X890" s="4"/>
       <c r="Y890" s="4"/>
     </row>
-    <row r="891" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A891" s="43"/>
       <c r="B891" s="43"/>
       <c r="C891" s="43"/>
@@ -25132,7 +25083,7 @@
       <c r="X891" s="4"/>
       <c r="Y891" s="4"/>
     </row>
-    <row r="892" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A892" s="43"/>
       <c r="B892" s="43"/>
       <c r="C892" s="43"/>
@@ -25159,7 +25110,7 @@
       <c r="X892" s="4"/>
       <c r="Y892" s="4"/>
     </row>
-    <row r="893" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A893" s="43"/>
       <c r="B893" s="43"/>
       <c r="C893" s="43"/>
@@ -25186,7 +25137,7 @@
       <c r="X893" s="4"/>
       <c r="Y893" s="4"/>
     </row>
-    <row r="894" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A894" s="43"/>
       <c r="B894" s="43"/>
       <c r="C894" s="43"/>
@@ -25213,7 +25164,7 @@
       <c r="X894" s="4"/>
       <c r="Y894" s="4"/>
     </row>
-    <row r="895" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A895" s="43"/>
       <c r="B895" s="43"/>
       <c r="C895" s="43"/>
@@ -25240,7 +25191,7 @@
       <c r="X895" s="4"/>
       <c r="Y895" s="4"/>
     </row>
-    <row r="896" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A896" s="43"/>
       <c r="B896" s="43"/>
       <c r="C896" s="43"/>
@@ -25267,7 +25218,7 @@
       <c r="X896" s="4"/>
       <c r="Y896" s="4"/>
     </row>
-    <row r="897" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A897" s="43"/>
       <c r="B897" s="43"/>
       <c r="C897" s="43"/>
@@ -25294,7 +25245,7 @@
       <c r="X897" s="4"/>
       <c r="Y897" s="4"/>
     </row>
-    <row r="898" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A898" s="43"/>
       <c r="B898" s="43"/>
       <c r="C898" s="43"/>
@@ -25321,7 +25272,7 @@
       <c r="X898" s="4"/>
       <c r="Y898" s="4"/>
     </row>
-    <row r="899" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A899" s="43"/>
       <c r="B899" s="43"/>
       <c r="C899" s="43"/>
@@ -25348,7 +25299,7 @@
       <c r="X899" s="4"/>
       <c r="Y899" s="4"/>
     </row>
-    <row r="900" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A900" s="43"/>
       <c r="B900" s="43"/>
       <c r="C900" s="43"/>
@@ -25375,7 +25326,7 @@
       <c r="X900" s="4"/>
       <c r="Y900" s="4"/>
     </row>
-    <row r="901" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A901" s="43"/>
       <c r="B901" s="43"/>
       <c r="C901" s="43"/>
@@ -25402,7 +25353,7 @@
       <c r="X901" s="4"/>
       <c r="Y901" s="4"/>
     </row>
-    <row r="902" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A902" s="43"/>
       <c r="B902" s="43"/>
       <c r="C902" s="43"/>
@@ -25429,7 +25380,7 @@
       <c r="X902" s="4"/>
       <c r="Y902" s="4"/>
     </row>
-    <row r="903" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A903" s="43"/>
       <c r="B903" s="43"/>
       <c r="C903" s="43"/>
@@ -25456,7 +25407,7 @@
       <c r="X903" s="4"/>
       <c r="Y903" s="4"/>
     </row>
-    <row r="904" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A904" s="43"/>
       <c r="B904" s="43"/>
       <c r="C904" s="43"/>
@@ -25483,7 +25434,7 @@
       <c r="X904" s="4"/>
       <c r="Y904" s="4"/>
     </row>
-    <row r="905" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A905" s="43"/>
       <c r="B905" s="43"/>
       <c r="C905" s="43"/>
@@ -25510,7 +25461,7 @@
       <c r="X905" s="4"/>
       <c r="Y905" s="4"/>
     </row>
-    <row r="906" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A906" s="43"/>
       <c r="B906" s="43"/>
       <c r="C906" s="43"/>
@@ -25537,7 +25488,7 @@
       <c r="X906" s="4"/>
       <c r="Y906" s="4"/>
     </row>
-    <row r="907" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A907" s="43"/>
       <c r="B907" s="43"/>
       <c r="C907" s="43"/>
@@ -25564,7 +25515,7 @@
       <c r="X907" s="4"/>
       <c r="Y907" s="4"/>
     </row>
-    <row r="908" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A908" s="43"/>
       <c r="B908" s="43"/>
       <c r="C908" s="43"/>
@@ -25591,7 +25542,7 @@
       <c r="X908" s="4"/>
       <c r="Y908" s="4"/>
     </row>
-    <row r="909" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A909" s="43"/>
       <c r="B909" s="43"/>
       <c r="C909" s="43"/>
@@ -25618,7 +25569,7 @@
       <c r="X909" s="4"/>
       <c r="Y909" s="4"/>
     </row>
-    <row r="910" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A910" s="43"/>
       <c r="B910" s="43"/>
       <c r="C910" s="43"/>
@@ -25645,7 +25596,7 @@
       <c r="X910" s="4"/>
       <c r="Y910" s="4"/>
     </row>
-    <row r="911" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A911" s="43"/>
       <c r="B911" s="43"/>
       <c r="C911" s="43"/>
@@ -25672,7 +25623,7 @@
       <c r="X911" s="4"/>
       <c r="Y911" s="4"/>
     </row>
-    <row r="912" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A912" s="43"/>
       <c r="B912" s="43"/>
       <c r="C912" s="43"/>
@@ -25699,7 +25650,7 @@
       <c r="X912" s="4"/>
       <c r="Y912" s="4"/>
     </row>
-    <row r="913" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A913" s="43"/>
       <c r="B913" s="43"/>
       <c r="C913" s="43"/>
@@ -25726,7 +25677,7 @@
       <c r="X913" s="4"/>
       <c r="Y913" s="4"/>
     </row>
-    <row r="914" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A914" s="43"/>
       <c r="B914" s="43"/>
       <c r="C914" s="43"/>
@@ -25753,7 +25704,7 @@
       <c r="X914" s="4"/>
       <c r="Y914" s="4"/>
     </row>
-    <row r="915" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A915" s="43"/>
       <c r="B915" s="43"/>
       <c r="C915" s="43"/>
@@ -25780,7 +25731,7 @@
       <c r="X915" s="4"/>
       <c r="Y915" s="4"/>
     </row>
-    <row r="916" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A916" s="43"/>
       <c r="B916" s="43"/>
       <c r="C916" s="43"/>
@@ -25807,7 +25758,7 @@
       <c r="X916" s="4"/>
       <c r="Y916" s="4"/>
     </row>
-    <row r="917" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A917" s="43"/>
       <c r="B917" s="43"/>
       <c r="C917" s="43"/>
@@ -25834,7 +25785,7 @@
       <c r="X917" s="4"/>
       <c r="Y917" s="4"/>
     </row>
-    <row r="918" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A918" s="43"/>
       <c r="B918" s="43"/>
       <c r="C918" s="43"/>
@@ -25861,7 +25812,7 @@
       <c r="X918" s="4"/>
       <c r="Y918" s="4"/>
     </row>
-    <row r="919" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A919" s="43"/>
       <c r="B919" s="43"/>
       <c r="C919" s="43"/>
@@ -25888,7 +25839,7 @@
       <c r="X919" s="4"/>
       <c r="Y919" s="4"/>
     </row>
-    <row r="920" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A920" s="43"/>
       <c r="B920" s="43"/>
       <c r="C920" s="43"/>
@@ -25915,7 +25866,7 @@
       <c r="X920" s="4"/>
       <c r="Y920" s="4"/>
     </row>
-    <row r="921" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A921" s="43"/>
       <c r="B921" s="43"/>
       <c r="C921" s="43"/>
@@ -25942,7 +25893,7 @@
       <c r="X921" s="4"/>
       <c r="Y921" s="4"/>
     </row>
-    <row r="922" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A922" s="43"/>
       <c r="B922" s="43"/>
       <c r="C922" s="43"/>
@@ -25969,7 +25920,7 @@
       <c r="X922" s="4"/>
       <c r="Y922" s="4"/>
     </row>
-    <row r="923" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A923" s="43"/>
       <c r="B923" s="43"/>
       <c r="C923" s="43"/>
@@ -25996,7 +25947,7 @@
       <c r="X923" s="4"/>
       <c r="Y923" s="4"/>
     </row>
-    <row r="924" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A924" s="43"/>
       <c r="B924" s="43"/>
       <c r="C924" s="43"/>
@@ -26023,7 +25974,7 @@
       <c r="X924" s="4"/>
       <c r="Y924" s="4"/>
     </row>
-    <row r="925" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A925" s="43"/>
       <c r="B925" s="43"/>
       <c r="C925" s="43"/>
@@ -26050,7 +26001,7 @@
       <c r="X925" s="4"/>
       <c r="Y925" s="4"/>
     </row>
-    <row r="926" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A926" s="43"/>
       <c r="B926" s="43"/>
       <c r="C926" s="43"/>
@@ -26077,7 +26028,7 @@
       <c r="X926" s="4"/>
       <c r="Y926" s="4"/>
     </row>
-    <row r="927" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A927" s="43"/>
       <c r="B927" s="43"/>
       <c r="C927" s="43"/>
@@ -26104,7 +26055,7 @@
       <c r="X927" s="4"/>
       <c r="Y927" s="4"/>
     </row>
-    <row r="928" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A928" s="43"/>
       <c r="B928" s="43"/>
       <c r="C928" s="43"/>
@@ -26131,7 +26082,7 @@
       <c r="X928" s="4"/>
       <c r="Y928" s="4"/>
     </row>
-    <row r="929" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A929" s="43"/>
       <c r="B929" s="43"/>
       <c r="C929" s="43"/>
@@ -26158,7 +26109,7 @@
       <c r="X929" s="4"/>
       <c r="Y929" s="4"/>
     </row>
-    <row r="930" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A930" s="43"/>
       <c r="B930" s="43"/>
       <c r="C930" s="43"/>
@@ -26185,7 +26136,7 @@
       <c r="X930" s="4"/>
       <c r="Y930" s="4"/>
     </row>
-    <row r="931" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A931" s="43"/>
       <c r="B931" s="43"/>
       <c r="C931" s="43"/>
@@ -26212,7 +26163,7 @@
       <c r="X931" s="4"/>
       <c r="Y931" s="4"/>
     </row>
-    <row r="932" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A932" s="43"/>
       <c r="B932" s="43"/>
       <c r="C932" s="43"/>
@@ -26239,7 +26190,7 @@
       <c r="X932" s="4"/>
       <c r="Y932" s="4"/>
     </row>
-    <row r="933" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A933" s="43"/>
       <c r="B933" s="43"/>
       <c r="C933" s="43"/>
@@ -26266,7 +26217,7 @@
       <c r="X933" s="4"/>
       <c r="Y933" s="4"/>
     </row>
-    <row r="934" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A934" s="43"/>
       <c r="B934" s="43"/>
       <c r="C934" s="43"/>
@@ -26293,7 +26244,7 @@
       <c r="X934" s="4"/>
       <c r="Y934" s="4"/>
     </row>
-    <row r="935" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A935" s="43"/>
       <c r="B935" s="43"/>
       <c r="C935" s="43"/>
@@ -26320,7 +26271,7 @@
       <c r="X935" s="4"/>
       <c r="Y935" s="4"/>
     </row>
-    <row r="936" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A936" s="43"/>
       <c r="B936" s="43"/>
       <c r="C936" s="43"/>
@@ -26347,7 +26298,7 @@
       <c r="X936" s="4"/>
       <c r="Y936" s="4"/>
     </row>
-    <row r="937" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A937" s="43"/>
       <c r="B937" s="43"/>
       <c r="C937" s="43"/>
@@ -26374,7 +26325,7 @@
       <c r="X937" s="4"/>
       <c r="Y937" s="4"/>
     </row>
-    <row r="938" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A938" s="43"/>
       <c r="B938" s="43"/>
       <c r="C938" s="43"/>
@@ -26401,7 +26352,7 @@
       <c r="X938" s="4"/>
       <c r="Y938" s="4"/>
     </row>
-    <row r="939" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A939" s="43"/>
       <c r="B939" s="43"/>
       <c r="C939" s="43"/>
@@ -26428,7 +26379,7 @@
       <c r="X939" s="4"/>
       <c r="Y939" s="4"/>
     </row>
-    <row r="940" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A940" s="43"/>
       <c r="B940" s="43"/>
       <c r="C940" s="43"/>
@@ -26455,7 +26406,7 @@
       <c r="X940" s="4"/>
       <c r="Y940" s="4"/>
     </row>
-    <row r="941" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A941" s="43"/>
       <c r="B941" s="43"/>
       <c r="C941" s="43"/>
@@ -26482,7 +26433,7 @@
       <c r="X941" s="4"/>
       <c r="Y941" s="4"/>
     </row>
-    <row r="942" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A942" s="43"/>
       <c r="B942" s="43"/>
       <c r="C942" s="43"/>
@@ -26509,7 +26460,7 @@
       <c r="X942" s="4"/>
       <c r="Y942" s="4"/>
     </row>
-    <row r="943" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A943" s="43"/>
       <c r="B943" s="43"/>
       <c r="C943" s="43"/>
@@ -26536,7 +26487,7 @@
       <c r="X943" s="4"/>
       <c r="Y943" s="4"/>
     </row>
-    <row r="944" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A944" s="43"/>
       <c r="B944" s="43"/>
       <c r="C944" s="43"/>
@@ -26563,7 +26514,7 @@
       <c r="X944" s="4"/>
       <c r="Y944" s="4"/>
     </row>
-    <row r="945" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A945" s="43"/>
       <c r="B945" s="43"/>
       <c r="C945" s="43"/>
@@ -26590,7 +26541,7 @@
       <c r="X945" s="4"/>
       <c r="Y945" s="4"/>
     </row>
-    <row r="946" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A946" s="43"/>
       <c r="B946" s="43"/>
       <c r="C946" s="43"/>
@@ -26617,7 +26568,7 @@
       <c r="X946" s="4"/>
       <c r="Y946" s="4"/>
     </row>
-    <row r="947" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A947" s="43"/>
       <c r="B947" s="43"/>
       <c r="C947" s="43"/>
@@ -26644,7 +26595,7 @@
       <c r="X947" s="4"/>
       <c r="Y947" s="4"/>
     </row>
-    <row r="948" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A948" s="43"/>
       <c r="B948" s="43"/>
       <c r="C948" s="43"/>
@@ -26671,7 +26622,7 @@
       <c r="X948" s="4"/>
       <c r="Y948" s="4"/>
     </row>
-    <row r="949" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A949" s="43"/>
       <c r="B949" s="43"/>
       <c r="C949" s="43"/>
@@ -26698,7 +26649,7 @@
       <c r="X949" s="4"/>
       <c r="Y949" s="4"/>
     </row>
-    <row r="950" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A950" s="43"/>
       <c r="B950" s="43"/>
       <c r="C950" s="43"/>
@@ -26725,7 +26676,7 @@
       <c r="X950" s="4"/>
       <c r="Y950" s="4"/>
     </row>
-    <row r="951" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A951" s="43"/>
       <c r="B951" s="43"/>
       <c r="C951" s="43"/>
@@ -26752,7 +26703,7 @@
       <c r="X951" s="4"/>
       <c r="Y951" s="4"/>
     </row>
-    <row r="952" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A952" s="43"/>
       <c r="B952" s="43"/>
       <c r="C952" s="43"/>
@@ -26779,7 +26730,7 @@
       <c r="X952" s="4"/>
       <c r="Y952" s="4"/>
     </row>
-    <row r="953" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A953" s="43"/>
       <c r="B953" s="43"/>
       <c r="C953" s="43"/>
@@ -26806,7 +26757,7 @@
       <c r="X953" s="4"/>
       <c r="Y953" s="4"/>
     </row>
-    <row r="954" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A954" s="43"/>
       <c r="B954" s="43"/>
       <c r="C954" s="43"/>
@@ -26833,7 +26784,7 @@
       <c r="X954" s="4"/>
       <c r="Y954" s="4"/>
     </row>
-    <row r="955" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A955" s="43"/>
       <c r="B955" s="43"/>
       <c r="C955" s="43"/>
@@ -26860,7 +26811,7 @@
       <c r="X955" s="4"/>
       <c r="Y955" s="4"/>
     </row>
-    <row r="956" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A956" s="43"/>
       <c r="B956" s="43"/>
       <c r="C956" s="43"/>
@@ -26887,7 +26838,7 @@
       <c r="X956" s="4"/>
       <c r="Y956" s="4"/>
     </row>
-    <row r="957" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A957" s="43"/>
       <c r="B957" s="43"/>
       <c r="C957" s="43"/>
@@ -26914,7 +26865,7 @@
       <c r="X957" s="4"/>
       <c r="Y957" s="4"/>
     </row>
-    <row r="958" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A958" s="43"/>
       <c r="B958" s="43"/>
       <c r="C958" s="43"/>
@@ -26941,7 +26892,7 @@
       <c r="X958" s="4"/>
       <c r="Y958" s="4"/>
     </row>
-    <row r="959" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A959" s="43"/>
       <c r="B959" s="43"/>
       <c r="C959" s="43"/>
@@ -26968,7 +26919,7 @@
       <c r="X959" s="4"/>
       <c r="Y959" s="4"/>
     </row>
-    <row r="960" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A960" s="43"/>
       <c r="B960" s="43"/>
       <c r="C960" s="43"/>
@@ -26995,7 +26946,7 @@
       <c r="X960" s="4"/>
       <c r="Y960" s="4"/>
     </row>
-    <row r="961" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A961" s="43"/>
       <c r="B961" s="43"/>
       <c r="C961" s="43"/>
@@ -27022,7 +26973,7 @@
       <c r="X961" s="4"/>
       <c r="Y961" s="4"/>
     </row>
-    <row r="962" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A962" s="43"/>
       <c r="B962" s="43"/>
       <c r="C962" s="43"/>
@@ -27049,7 +27000,7 @@
       <c r="X962" s="4"/>
       <c r="Y962" s="4"/>
     </row>
-    <row r="963" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A963" s="43"/>
       <c r="B963" s="43"/>
       <c r="C963" s="43"/>
@@ -27076,7 +27027,7 @@
       <c r="X963" s="4"/>
       <c r="Y963" s="4"/>
     </row>
-    <row r="964" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A964" s="43"/>
       <c r="B964" s="43"/>
       <c r="C964" s="43"/>
@@ -27103,7 +27054,7 @@
       <c r="X964" s="4"/>
       <c r="Y964" s="4"/>
     </row>
-    <row r="965" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A965" s="43"/>
       <c r="B965" s="43"/>
       <c r="C965" s="43"/>
@@ -27130,7 +27081,7 @@
       <c r="X965" s="4"/>
       <c r="Y965" s="4"/>
     </row>
-    <row r="966" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A966" s="43"/>
       <c r="B966" s="43"/>
       <c r="C966" s="43"/>
@@ -27157,7 +27108,7 @@
       <c r="X966" s="4"/>
       <c r="Y966" s="4"/>
     </row>
-    <row r="967" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A967" s="43"/>
       <c r="B967" s="43"/>
       <c r="C967" s="43"/>
@@ -27184,7 +27135,7 @@
       <c r="X967" s="4"/>
       <c r="Y967" s="4"/>
     </row>
-    <row r="968" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A968" s="43"/>
       <c r="B968" s="43"/>
       <c r="C968" s="43"/>
@@ -27211,7 +27162,7 @@
       <c r="X968" s="4"/>
       <c r="Y968" s="4"/>
     </row>
-    <row r="969" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A969" s="43"/>
       <c r="B969" s="43"/>
       <c r="C969" s="43"/>
@@ -27238,7 +27189,7 @@
       <c r="X969" s="4"/>
       <c r="Y969" s="4"/>
     </row>
-    <row r="970" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A970" s="43"/>
       <c r="B970" s="43"/>
       <c r="C970" s="43"/>
@@ -27265,7 +27216,7 @@
       <c r="X970" s="4"/>
       <c r="Y970" s="4"/>
     </row>
-    <row r="971" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A971" s="43"/>
       <c r="B971" s="43"/>
       <c r="C971" s="43"/>
@@ -27292,7 +27243,7 @@
       <c r="X971" s="4"/>
       <c r="Y971" s="4"/>
     </row>
-    <row r="972" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A972" s="43"/>
       <c r="B972" s="43"/>
       <c r="C972" s="43"/>
@@ -27319,7 +27270,7 @@
       <c r="X972" s="4"/>
       <c r="Y972" s="4"/>
     </row>
-    <row r="973" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A973" s="43"/>
       <c r="B973" s="43"/>
       <c r="C973" s="43"/>
@@ -27346,7 +27297,7 @@
       <c r="X973" s="4"/>
       <c r="Y973" s="4"/>
     </row>
-    <row r="974" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A974" s="43"/>
       <c r="B974" s="43"/>
       <c r="C974" s="43"/>
@@ -27373,7 +27324,7 @@
       <c r="X974" s="4"/>
       <c r="Y974" s="4"/>
     </row>
-    <row r="975" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A975" s="43"/>
       <c r="B975" s="43"/>
       <c r="C975" s="43"/>
@@ -27400,7 +27351,7 @@
       <c r="X975" s="4"/>
       <c r="Y975" s="4"/>
     </row>
-    <row r="976" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A976" s="43"/>
       <c r="B976" s="43"/>
       <c r="C976" s="43"/>
@@ -27427,7 +27378,7 @@
       <c r="X976" s="4"/>
       <c r="Y976" s="4"/>
     </row>
-    <row r="977" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A977" s="43"/>
       <c r="B977" s="43"/>
       <c r="C977" s="43"/>
@@ -27454,7 +27405,7 @@
       <c r="X977" s="4"/>
       <c r="Y977" s="4"/>
     </row>
-    <row r="978" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A978" s="43"/>
       <c r="B978" s="43"/>
       <c r="C978" s="43"/>
@@ -27481,7 +27432,7 @@
       <c r="X978" s="4"/>
       <c r="Y978" s="4"/>
     </row>
-    <row r="979" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A979" s="43"/>
       <c r="B979" s="43"/>
       <c r="C979" s="43"/>
@@ -27508,7 +27459,7 @@
       <c r="X979" s="4"/>
       <c r="Y979" s="4"/>
     </row>
-    <row r="980" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A980" s="43"/>
       <c r="B980" s="43"/>
       <c r="C980" s="43"/>
@@ -27535,7 +27486,7 @@
       <c r="X980" s="4"/>
       <c r="Y980" s="4"/>
     </row>
-    <row r="981" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A981" s="43"/>
       <c r="B981" s="43"/>
       <c r="C981" s="43"/>
@@ -27562,7 +27513,7 @@
       <c r="X981" s="4"/>
       <c r="Y981" s="4"/>
     </row>
-    <row r="982" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A982" s="43"/>
       <c r="B982" s="43"/>
       <c r="C982" s="43"/>
@@ -27589,7 +27540,7 @@
       <c r="X982" s="4"/>
       <c r="Y982" s="4"/>
     </row>
-    <row r="983" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A983" s="43"/>
       <c r="B983" s="43"/>
       <c r="C983" s="43"/>
@@ -27616,7 +27567,7 @@
       <c r="X983" s="4"/>
       <c r="Y983" s="4"/>
     </row>
-    <row r="984" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A984" s="43"/>
       <c r="B984" s="43"/>
       <c r="C984" s="43"/>
@@ -27643,7 +27594,7 @@
       <c r="X984" s="4"/>
       <c r="Y984" s="4"/>
     </row>
-    <row r="985" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A985" s="43"/>
       <c r="B985" s="43"/>
       <c r="C985" s="43"/>
@@ -27670,7 +27621,7 @@
       <c r="X985" s="4"/>
       <c r="Y985" s="4"/>
     </row>
-    <row r="986" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A986" s="43"/>
       <c r="B986" s="43"/>
       <c r="C986" s="43"/>
@@ -27697,7 +27648,7 @@
       <c r="X986" s="4"/>
       <c r="Y986" s="4"/>
     </row>
-    <row r="987" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A987" s="43"/>
       <c r="B987" s="43"/>
       <c r="C987" s="43"/>
@@ -27724,7 +27675,7 @@
       <c r="X987" s="4"/>
       <c r="Y987" s="4"/>
     </row>
-    <row r="988" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A988" s="43"/>
       <c r="B988" s="43"/>
       <c r="C988" s="43"/>
@@ -27751,7 +27702,7 @@
       <c r="X988" s="4"/>
       <c r="Y988" s="4"/>
     </row>
-    <row r="989" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A989" s="43"/>
       <c r="B989" s="43"/>
       <c r="C989" s="43"/>
@@ -27778,7 +27729,7 @@
       <c r="X989" s="4"/>
       <c r="Y989" s="4"/>
     </row>
-    <row r="990" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A990" s="43"/>
       <c r="B990" s="43"/>
       <c r="C990" s="43"/>
@@ -27805,7 +27756,7 @@
       <c r="X990" s="4"/>
       <c r="Y990" s="4"/>
     </row>
-    <row r="991" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A991" s="43"/>
       <c r="B991" s="43"/>
       <c r="C991" s="43"/>
@@ -27832,7 +27783,7 @@
       <c r="X991" s="4"/>
       <c r="Y991" s="4"/>
     </row>
-    <row r="992" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A992" s="43"/>
       <c r="B992" s="43"/>
       <c r="C992" s="43"/>
@@ -27859,7 +27810,7 @@
       <c r="X992" s="4"/>
       <c r="Y992" s="4"/>
     </row>
-    <row r="993" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A993" s="43"/>
       <c r="B993" s="43"/>
       <c r="C993" s="43"/>
@@ -27886,7 +27837,7 @@
       <c r="X993" s="4"/>
       <c r="Y993" s="4"/>
     </row>
-    <row r="994" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A994" s="43"/>
       <c r="B994" s="43"/>
       <c r="C994" s="43"/>
@@ -27913,7 +27864,7 @@
       <c r="X994" s="4"/>
       <c r="Y994" s="4"/>
     </row>
-    <row r="995" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A995" s="43"/>
       <c r="B995" s="43"/>
       <c r="C995" s="43"/>
@@ -27940,7 +27891,7 @@
       <c r="X995" s="4"/>
       <c r="Y995" s="4"/>
     </row>
-    <row r="996" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A996" s="43"/>
       <c r="B996" s="43"/>
       <c r="C996" s="43"/>
@@ -27967,7 +27918,7 @@
       <c r="X996" s="4"/>
       <c r="Y996" s="4"/>
     </row>
-    <row r="997" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A997" s="43"/>
       <c r="B997" s="43"/>
       <c r="C997" s="43"/>
@@ -27994,7 +27945,7 @@
       <c r="X997" s="4"/>
       <c r="Y997" s="4"/>
     </row>
-    <row r="998" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A998" s="43"/>
       <c r="B998" s="43"/>
       <c r="C998" s="43"/>
@@ -28021,7 +27972,7 @@
       <c r="X998" s="4"/>
       <c r="Y998" s="4"/>
     </row>
-    <row r="999" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A999" s="43"/>
       <c r="B999" s="43"/>
       <c r="C999" s="43"/>
@@ -28048,7 +27999,7 @@
       <c r="X999" s="4"/>
       <c r="Y999" s="4"/>
     </row>
-    <row r="1000" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
